--- a/题目.xlsx
+++ b/题目.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xia-xb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF60A74D-C8DF-4452-A369-8B5D1506D13A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A1AE18-DF91-429C-8880-08389117332D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="3072" yWindow="5028" windowWidth="17280" windowHeight="8964" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -714,7 +714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,112 +727,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1164,123 +1170,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="28" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="28" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
       <c r="T1" s="33"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="6">
         <v>485</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>495</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="6">
         <v>414</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="6">
         <v>628</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="17" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="8">
         <v>345</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="8">
         <v>680</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="8">
         <v>167</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="8">
         <v>15</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="8">
         <v>509</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="8">
         <v>70</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="8">
         <v>338</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="8">
         <v>45</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="9">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>645</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>697</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>448</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="8">
         <v>442</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="15">
+      <c r="G3" s="24"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="10">
         <v>18</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="10">
         <v>11</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="10">
         <v>42</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="18"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="27"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1293,40 +1299,40 @@
       <c r="S3" s="3">
         <v>91</v>
       </c>
-      <c r="T3" s="19">
+      <c r="T3" s="12">
         <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15">
+      <c r="A4" s="37"/>
+      <c r="B4" s="10">
         <v>274</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="17" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="8">
         <v>27</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="8">
         <v>26</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="8">
         <v>80</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="8">
         <v>83</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="18"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="27"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1339,27 +1345,27 @@
       <c r="S4" s="3">
         <v>309</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="12">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>453</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>665</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>283</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="18"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1372,44 +1378,44 @@
       <c r="L5" s="3">
         <v>674</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="15">
+      <c r="N5" s="24"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="10">
         <v>264</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="10">
         <v>313</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="10">
         <v>403</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="16"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>118</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>119</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>661</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>598</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1422,197 +1428,197 @@
       <c r="L6" s="3">
         <v>424</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="17" t="s">
+      <c r="N6" s="24"/>
+      <c r="O6" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="8">
         <v>689</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="8">
         <v>413</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="8">
         <v>446</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="8">
         <v>368</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="9">
         <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>189</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>396</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="15">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="10">
         <v>30</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="15">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="10">
         <v>279</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="16"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>54</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>59</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>498</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="8" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>86</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="6">
         <v>328</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="6">
         <v>160</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="6">
         <v>88</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="8" t="s">
+      <c r="N8" s="24"/>
+      <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="6">
         <v>322</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="6">
         <v>518</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="6">
         <v>474</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="6">
         <v>494</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T8" s="7">
         <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>566</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>48</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>73</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>289</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="17" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="8">
         <v>141</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="8">
         <v>142</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="8">
         <v>143</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="8">
         <v>234</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="17" t="s">
+      <c r="N9" s="24"/>
+      <c r="O9" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="8">
         <v>62</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="8">
         <v>63</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="8">
         <v>64</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="8">
         <v>120</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="9">
         <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>303</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>304</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>238</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="15">
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="10">
         <v>287</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="18"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="27"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1625,118 +1631,118 @@
       <c r="S10" s="3">
         <v>174</v>
       </c>
-      <c r="T10" s="19">
+      <c r="T10" s="12">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="15">
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="10">
         <v>329</v>
       </c>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="16"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="11"/>
     </row>
     <row r="12" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>520</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="17" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="14">
         <v>100</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="14">
         <v>222</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="14">
         <v>101</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="14">
         <v>226</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="17" t="s">
+      <c r="N12" s="24"/>
+      <c r="O12" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="8">
         <v>583</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="8">
         <v>72</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="8">
         <v>97</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="8">
         <v>115</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="9">
         <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="6">
         <v>125</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="6">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="4">
         <v>563</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="4">
         <v>617</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="4">
         <v>508</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="4">
         <v>572</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="18"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="27"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1749,204 +1755,204 @@
       <c r="S13" s="3">
         <v>140</v>
       </c>
-      <c r="T13" s="19">
+      <c r="T13" s="12">
         <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>14</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="26">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="17">
         <v>654</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="17">
         <v>687</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="17">
         <v>87</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="15">
+      <c r="L14" s="10"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="10">
         <v>10</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="10">
         <v>44</v>
       </c>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="16"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="11"/>
     </row>
     <row r="15" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>434</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6">
         <v>58</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="17" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="14">
         <v>102</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="14">
         <v>429</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="14">
         <v>690</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="14">
         <v>559</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="8" t="s">
+      <c r="N15" s="24"/>
+      <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="6">
         <v>464</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="6">
         <v>691</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="6">
         <v>698</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="6">
         <v>638</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T15" s="7">
         <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="6">
         <v>344</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="6">
         <v>541</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <v>557</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>151</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="6">
+      <c r="F16" s="7"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="4">
         <v>671</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="4">
         <v>513</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="4">
         <v>515</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="4">
         <v>637</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="8" t="s">
+      <c r="N16" s="24"/>
+      <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="6">
         <v>486</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="6">
         <v>664</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="6">
         <v>375</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="6">
         <v>312</v>
       </c>
-      <c r="T16" s="10">
+      <c r="T16" s="7">
         <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="8">
         <v>387</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="8">
         <v>389</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="8">
         <v>383</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="8">
         <v>242</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="9">
         <v>49</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="6">
+      <c r="G17" s="24"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="4">
         <v>107</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="4">
         <v>257</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="4">
         <v>623</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="4">
         <v>653</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="8" t="s">
+      <c r="N17" s="24"/>
+      <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="6">
         <v>337</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="6">
         <v>124</v>
       </c>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="10"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1959,130 +1965,130 @@
       <c r="E18" s="3">
         <v>551</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="6">
+      <c r="G18" s="24"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="4">
         <v>111</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="4">
         <v>112</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="4">
         <v>113</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="4">
         <v>129</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="8" t="s">
+      <c r="N18" s="24"/>
+      <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="6">
         <v>233</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="6">
         <v>600</v>
       </c>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="15">
+      <c r="A19" s="28"/>
+      <c r="B19" s="10">
         <v>467</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="10">
         <v>535</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="6">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="4">
         <v>199</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="41">
         <v>655</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="4">
         <v>116</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="4">
         <v>117</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="5" t="s">
+      <c r="M19" s="12"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="35"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="32"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="8">
         <v>299</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="8">
         <v>412</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="8">
         <v>506</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="8">
         <v>539</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="8" t="s">
+      <c r="G20" s="24"/>
+      <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="40">
         <v>144</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="40">
         <v>589</v>
       </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="17" t="s">
+      <c r="K20" s="18"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="8">
         <v>225</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="8">
         <v>232</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="8">
         <v>284</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="8">
         <v>622</v>
       </c>
-      <c r="T20" s="13">
+      <c r="T20" s="9">
         <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2095,40 +2101,40 @@
       <c r="E21" s="3">
         <v>38</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="8" t="s">
+      <c r="G21" s="24"/>
+      <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="40">
         <v>606</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="6">
         <v>331</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="6">
         <v>652</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="6">
         <v>297</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="15">
+      <c r="N21" s="24"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="10">
         <v>155</v>
       </c>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="16"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="3">
         <v>8</v>
       </c>
@@ -2141,103 +2147,103 @@
       <c r="E22" s="3">
         <v>273</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="8" t="s">
+      <c r="G22" s="24"/>
+      <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="40">
         <v>145</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="40">
         <v>590</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="8" t="s">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="6">
         <v>676</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="6">
         <v>355</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R22" s="6">
         <v>380</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="6">
         <v>381</v>
       </c>
-      <c r="T22" s="10"/>
+      <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="15">
+      <c r="A23" s="28"/>
+      <c r="B23" s="10">
         <v>481</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="17" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="14">
         <v>94</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="14">
         <v>700</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="8">
         <v>530</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="8">
         <v>538</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="9">
         <v>230</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="8" t="s">
+      <c r="N23" s="24"/>
+      <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="6">
         <v>432</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q23" s="6">
         <v>146</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R23" s="6">
         <v>460</v>
       </c>
-      <c r="S23" s="9"/>
-      <c r="T23" s="10"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="7"/>
     </row>
     <row r="24" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="6">
         <v>392</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>524</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="6">
         <v>521</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="6">
         <v>522</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="18"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="3">
         <v>98</v>
       </c>
@@ -2250,157 +2256,157 @@
       <c r="L24" s="3">
         <v>450</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="12">
         <v>110</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="17" t="s">
+      <c r="N24" s="24"/>
+      <c r="O24" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="8">
         <v>208</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="Q24" s="8">
         <v>211</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="8">
         <v>648</v>
       </c>
-      <c r="S24" s="12">
+      <c r="S24" s="8">
         <v>386</v>
       </c>
-      <c r="T24" s="13">
+      <c r="T24" s="9">
         <v>677</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="6">
         <v>66</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="6">
         <v>67</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="6">
         <v>415</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="6">
         <v>43</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="15">
+      <c r="G25" s="24"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="10">
         <v>95</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="10">
         <v>108</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="10">
         <v>109</v>
       </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="15">
+      <c r="L25" s="10"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="10">
         <v>472</v>
       </c>
-      <c r="Q25" s="15">
+      <c r="Q25" s="10">
         <v>421</v>
       </c>
-      <c r="R25" s="15">
+      <c r="R25" s="10">
         <v>212</v>
       </c>
-      <c r="S25" s="15">
+      <c r="S25" s="10">
         <v>336</v>
       </c>
-      <c r="T25" s="16">
+      <c r="T25" s="11">
         <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="6">
         <v>482</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="6">
         <v>6</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="6">
         <v>68</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="8" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="6">
         <v>105</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="6">
         <v>106</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="17" t="s">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="8">
         <v>23</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="Q26" s="8">
         <v>373</v>
       </c>
-      <c r="R26" s="12">
+      <c r="R26" s="8">
         <v>378</v>
       </c>
-      <c r="S26" s="12">
+      <c r="S26" s="8">
         <v>632</v>
       </c>
-      <c r="T26" s="13">
+      <c r="T26" s="9">
         <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="6">
         <v>28</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6">
         <v>686</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="6">
         <v>459</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="6">
         <v>214</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="8" t="s">
+      <c r="F27" s="7"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="6">
         <v>114</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="18"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="27"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2413,134 +2419,134 @@
       <c r="S27" s="3">
         <v>407</v>
       </c>
-      <c r="T27" s="19">
+      <c r="T27" s="12">
         <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="6">
         <v>5</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="6">
         <v>647</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="8" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="6">
         <v>235</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="6">
         <v>236</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="15">
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="10">
         <v>480</v>
       </c>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="16"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="8" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="6">
         <v>501</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="6">
         <v>99</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="8" t="s">
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="P29" s="9">
+      <c r="P29" s="6">
         <v>307</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q29" s="6">
         <v>315</v>
       </c>
-      <c r="R29" s="9">
+      <c r="R29" s="6">
         <v>493</v>
       </c>
-      <c r="S29" s="9">
+      <c r="S29" s="6">
         <v>327</v>
       </c>
-      <c r="T29" s="10">
+      <c r="T29" s="7">
         <v>673</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="8">
         <v>7</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="8">
         <v>9</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="8">
         <v>479</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="8">
         <v>564</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="8" t="s">
+      <c r="G30" s="24"/>
+      <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="6">
         <v>558</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="6">
         <v>427</v>
       </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="8" t="s">
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="P30" s="9">
+      <c r="P30" s="6">
         <v>699</v>
       </c>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="10"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2553,36 +2559,36 @@
       <c r="E31" s="3">
         <v>263</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="5" t="s">
+      <c r="G31" s="24"/>
+      <c r="H31" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="8" t="s">
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="P31" s="9">
+      <c r="P31" s="6">
         <v>352</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="Q31" s="6">
         <v>218</v>
       </c>
-      <c r="R31" s="9">
+      <c r="R31" s="6">
         <v>363</v>
       </c>
-      <c r="S31" s="9"/>
-      <c r="T31" s="10"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2595,32 +2601,32 @@
       <c r="E32" s="3">
         <v>477</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="8" t="s">
+      <c r="G32" s="24"/>
+      <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="6">
         <v>565</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="5" t="s">
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="35"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="32"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2633,38 +2639,38 @@
       <c r="E33" s="3">
         <v>258</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="8" t="s">
+      <c r="G33" s="24"/>
+      <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="6">
         <v>17</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="6">
         <v>397</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="8" t="s">
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="P33" s="9">
+      <c r="P33" s="6">
         <v>528</v>
       </c>
-      <c r="Q33" s="9">
+      <c r="Q33" s="6">
         <v>497</v>
       </c>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="10"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2677,55 +2683,55 @@
       <c r="E34" s="3">
         <v>670</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="17" t="s">
+      <c r="G34" s="24"/>
+      <c r="H34" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="8">
         <v>526</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="8">
         <v>401</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="8">
         <v>36</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="8">
         <v>37</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="9">
         <v>51</v>
       </c>
-      <c r="N34" s="4"/>
-      <c r="O34" s="8" t="s">
+      <c r="N34" s="24"/>
+      <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="P34" s="9">
+      <c r="P34" s="6">
         <v>382</v>
       </c>
-      <c r="Q34" s="9">
+      <c r="Q34" s="6">
         <v>398</v>
       </c>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="10"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="15">
+      <c r="A35" s="28"/>
+      <c r="B35" s="10">
         <v>357</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="10">
         <v>400</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="18"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="3">
         <v>52</v>
       </c>
@@ -2738,42 +2744,42 @@
       <c r="L35" s="3">
         <v>216</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M35" s="12">
         <v>40</v>
       </c>
-      <c r="N35" s="4"/>
-      <c r="O35" s="8" t="s">
+      <c r="N35" s="24"/>
+      <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="P35" s="9">
+      <c r="P35" s="6">
         <v>470</v>
       </c>
-      <c r="Q35" s="9">
+      <c r="Q35" s="6">
         <v>478</v>
       </c>
-      <c r="R35" s="9">
+      <c r="R35" s="6">
         <v>519</v>
       </c>
-      <c r="S35" s="9"/>
-      <c r="T35" s="10"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="7"/>
     </row>
     <row r="36" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="6">
         <v>492</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="6">
         <v>29</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="6">
         <v>507</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="18"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="3">
         <v>46</v>
       </c>
@@ -2786,34 +2792,34 @@
       <c r="L36" s="3">
         <v>556</v>
       </c>
-      <c r="M36" s="19">
+      <c r="M36" s="12">
         <v>60</v>
       </c>
-      <c r="N36" s="4"/>
-      <c r="O36" s="28" t="s">
+      <c r="N36" s="24"/>
+      <c r="O36" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
       <c r="T36" s="33"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="6">
         <v>50</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="6">
         <v>372</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="18"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="3">
         <v>491</v>
       </c>
@@ -2826,234 +2832,234 @@
       <c r="L37" s="3">
         <v>79</v>
       </c>
-      <c r="M37" s="19">
+      <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="4"/>
-      <c r="O37" s="8" t="s">
+      <c r="N37" s="24"/>
+      <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="P37" s="9">
+      <c r="P37" s="6">
         <v>593</v>
       </c>
-      <c r="Q37" s="9">
+      <c r="Q37" s="6">
         <v>447</v>
       </c>
-      <c r="R37" s="9">
+      <c r="R37" s="6">
         <v>223</v>
       </c>
-      <c r="S37" s="9">
+      <c r="S37" s="6">
         <v>149</v>
       </c>
-      <c r="T37" s="10"/>
+      <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="15">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="10">
         <v>332</v>
       </c>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="8" t="s">
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="P38" s="27">
+      <c r="P38" s="18">
         <v>335</v>
       </c>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="29"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="6">
         <v>682</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="6">
         <v>71</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="6">
         <v>388</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="8" t="s">
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="6">
         <v>241</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="6">
         <v>282</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="6">
         <v>679</v>
       </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="8" t="s">
+      <c r="L39" s="6"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="P39" s="27">
+      <c r="P39" s="18">
         <v>587</v>
       </c>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="29"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="19"/>
     </row>
     <row r="40" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="6">
         <v>150</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="6">
         <v>227</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="6">
         <v>224</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="8" t="s">
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="6">
         <v>22</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="6">
         <v>301</v>
       </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="8" t="s">
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P40" s="9">
+      <c r="P40" s="6">
         <v>391</v>
       </c>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="10"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="7"/>
     </row>
     <row r="41" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="6">
         <v>20</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="6">
         <v>636</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="6">
         <v>591</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="6">
         <v>32</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="8" t="s">
+      <c r="F41" s="7"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="6">
         <v>488</v>
       </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="5" t="s">
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="35"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="32"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="6">
         <v>385</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="6">
         <v>341</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="6">
         <v>394</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="17" t="s">
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="8">
         <v>133</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="8">
         <v>200</v>
       </c>
-      <c r="K42" s="12">
+      <c r="K42" s="8">
         <v>695</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="8">
         <v>463</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="4"/>
-      <c r="O42" s="8" t="s">
+      <c r="N42" s="24"/>
+      <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="P42" s="9">
+      <c r="P42" s="6">
         <v>292</v>
       </c>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="10"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="18"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="3">
         <v>130</v>
       </c>
@@ -3066,305 +3072,305 @@
       <c r="L43" s="3">
         <v>127</v>
       </c>
-      <c r="M43" s="19">
+      <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="4"/>
-      <c r="O43" s="8" t="s">
+      <c r="N43" s="24"/>
+      <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="P43" s="9">
+      <c r="P43" s="6">
         <v>239</v>
       </c>
-      <c r="Q43" s="9">
+      <c r="Q43" s="6">
         <v>164</v>
       </c>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="10"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="7"/>
     </row>
     <row r="44" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="6">
         <v>203</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="6">
         <v>237</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="6">
         <v>19</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="15">
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="10">
         <v>433</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="10">
         <v>675</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="8" t="s">
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="P44" s="9">
+      <c r="P44" s="6">
         <v>330</v>
       </c>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="10"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="7"/>
     </row>
     <row r="45" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="6">
         <v>430</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="8" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="6">
         <v>547</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="6">
         <v>684</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K45" s="6">
         <v>685</v>
       </c>
-      <c r="L45" s="9"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="8" t="s">
+      <c r="L45" s="6"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="P45" s="9">
+      <c r="P45" s="6">
         <v>365</v>
       </c>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="10"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="7"/>
     </row>
     <row r="46" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="6">
         <v>61</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="6">
         <v>24</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="6">
         <v>206</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="6">
         <v>92</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="8" t="s">
+      <c r="G46" s="24"/>
+      <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="6">
         <v>399</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="6">
         <v>207</v>
       </c>
-      <c r="K46" s="9">
+      <c r="K46" s="6">
         <v>210</v>
       </c>
-      <c r="L46" s="9"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="8" t="s">
+      <c r="L46" s="6"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="P46" s="9">
+      <c r="P46" s="6">
         <v>384</v>
       </c>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="10"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="7"/>
     </row>
     <row r="47" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="10">
         <v>2</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="10">
         <v>445</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="8" t="s">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="6">
         <v>65</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="6">
         <v>468</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="8" t="s">
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="P47" s="9">
+      <c r="P47" s="6">
         <v>390</v>
       </c>
-      <c r="Q47" s="9">
+      <c r="Q47" s="6">
         <v>672</v>
       </c>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="10"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="7"/>
     </row>
     <row r="48" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="6">
         <v>21</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="6">
         <v>23</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="5" t="s">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="8" t="s">
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="P48" s="9">
+      <c r="P48" s="6">
         <v>395</v>
       </c>
-      <c r="Q48" s="9">
+      <c r="Q48" s="6">
         <v>667</v>
       </c>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="10"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="17" t="s">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="8">
         <v>374</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="8">
         <v>35</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K49" s="8">
         <v>278</v>
       </c>
-      <c r="L49" s="12">
+      <c r="L49" s="8">
         <v>367</v>
       </c>
-      <c r="M49" s="13">
+      <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="4"/>
-      <c r="O49" s="8" t="s">
+      <c r="N49" s="24"/>
+      <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="P49" s="9">
+      <c r="P49" s="6">
         <v>147</v>
       </c>
-      <c r="Q49" s="9">
+      <c r="Q49" s="6">
         <v>148</v>
       </c>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="10"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="7"/>
     </row>
     <row r="50" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="8">
         <v>217</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="8">
         <v>633</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="8">
         <v>349</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="8">
         <v>128</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="9">
         <v>202</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="15">
+      <c r="G50" s="24"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="10">
         <v>441</v>
       </c>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="8" t="s">
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="P50" s="9">
+      <c r="P50" s="6">
         <v>204</v>
       </c>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="10"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3377,304 +3383,304 @@
       <c r="E51" s="3">
         <v>205</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="17" t="s">
+      <c r="G51" s="24"/>
+      <c r="H51" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="8">
         <v>34</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J51" s="8">
         <v>540</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K51" s="8">
         <v>275</v>
       </c>
-      <c r="L51" s="12">
+      <c r="L51" s="8">
         <v>436</v>
       </c>
-      <c r="M51" s="13">
+      <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="4"/>
-      <c r="O51" s="8" t="s">
+      <c r="N51" s="24"/>
+      <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P51" s="9">
+      <c r="P51" s="6">
         <v>229</v>
       </c>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="10"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
-      <c r="B52" s="15">
+      <c r="A52" s="28"/>
+      <c r="B52" s="10">
         <v>466</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="10">
         <v>138</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="15">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="10">
         <v>354</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J52" s="10">
         <v>658</v>
       </c>
-      <c r="K52" s="15">
+      <c r="K52" s="10">
         <v>162</v>
       </c>
-      <c r="L52" s="15">
+      <c r="L52" s="10">
         <v>4</v>
       </c>
-      <c r="M52" s="16"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="36"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="34"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="6">
         <v>1</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="6">
         <v>167</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="6">
         <v>599</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="6">
         <v>219</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="8" t="s">
+      <c r="G53" s="24"/>
+      <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="6">
         <v>153</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="6">
         <v>154</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K53" s="6">
         <v>33</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L53" s="6">
         <v>81</v>
       </c>
-      <c r="M53" s="10"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="36"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="34"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="8">
         <v>594</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="8">
         <v>350</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="8">
         <v>554</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="8">
         <v>609</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="9">
         <v>454</v>
       </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="8" t="s">
+      <c r="G54" s="24"/>
+      <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="6">
         <v>74</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54" s="6">
         <v>240</v>
       </c>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="36"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="34"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="15">
+      <c r="A55" s="28"/>
+      <c r="B55" s="10">
         <v>18</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="8" t="s">
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="6">
         <v>378</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J55" s="6">
         <v>668</v>
       </c>
-      <c r="K55" s="9">
+      <c r="K55" s="6">
         <v>410</v>
       </c>
-      <c r="L55" s="9">
+      <c r="L55" s="6">
         <v>483</v>
       </c>
-      <c r="M55" s="10"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="36"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="34"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="6">
         <v>560</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="6">
         <v>523</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="6">
         <v>525</v>
       </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="22" t="s">
+      <c r="E56" s="6"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="36"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="34"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="8" t="s">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I57" s="6">
         <v>89</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57" s="6">
         <v>136</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K57" s="6">
         <v>137</v>
       </c>
-      <c r="L57" s="9">
+      <c r="L57" s="6">
         <v>260</v>
       </c>
-      <c r="M57" s="10">
+      <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="4"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="36"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="34"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="8">
         <v>605</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="8">
         <v>121</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="8">
         <v>122</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="8">
         <v>561</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="8" t="s">
+      <c r="G58" s="24"/>
+      <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I58" s="6">
         <v>371</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J58" s="6">
         <v>318</v>
       </c>
-      <c r="K58" s="9">
+      <c r="K58" s="6">
         <v>201</v>
       </c>
-      <c r="L58" s="9"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="36"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="34"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
+      <c r="A59" s="27"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3687,26 +3693,26 @@
       <c r="E59" s="3">
         <v>621</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="36"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="34"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3719,26 +3725,26 @@
       <c r="E60" s="3">
         <v>452</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="36"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="34"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3751,26 +3757,26 @@
       <c r="E61" s="3">
         <v>169</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="36"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="34"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3783,211 +3789,211 @@
       <c r="E62" s="3">
         <v>649</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="36"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="29"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="34"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="20"/>
-      <c r="B63" s="15">
+      <c r="A63" s="28"/>
+      <c r="B63" s="10">
         <v>420</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="36"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="34"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="6">
         <v>53</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="6">
         <v>134</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="6">
         <v>581</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="6">
         <v>152</v>
       </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="36"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="34"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="6">
         <v>334</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="6">
         <v>376</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="6">
         <v>659</v>
       </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="36"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="34"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="6">
         <v>343</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="36"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="34"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="8">
         <v>496</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="8">
         <v>503</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="8">
         <v>456</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="8">
         <v>316</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="36"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="34"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="20"/>
-      <c r="B68" s="15">
+      <c r="A68" s="28"/>
+      <c r="B68" s="10">
         <v>321</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="10">
         <v>84</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="10">
         <v>85</v>
       </c>
-      <c r="E68" s="15"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="39"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="30"/>
+      <c r="R68" s="30"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="G1:G68"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="H59:M68"/>
-    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="N1:N68"/>
+    <mergeCell ref="O52:T68"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:H14"/>
     <mergeCell ref="O26:O28"/>
     <mergeCell ref="O41:T41"/>
     <mergeCell ref="O32:T32"/>
@@ -3999,30 +4005,30 @@
     <mergeCell ref="O12:O14"/>
     <mergeCell ref="O20:O21"/>
     <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="G1:G68"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="H59:M68"/>
+    <mergeCell ref="H56:M56"/>
     <mergeCell ref="H34:H38"/>
     <mergeCell ref="H42:H44"/>
     <mergeCell ref="H49:H50"/>
     <mergeCell ref="H51:H52"/>
-    <mergeCell ref="O2:O5"/>
     <mergeCell ref="H48:M48"/>
-    <mergeCell ref="N1:N68"/>
-    <mergeCell ref="O52:T68"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H11:M11"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A1AE18-DF91-429C-8880-08389117332D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836A3E3C-BB29-4D24-9190-83AE823A486B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="5028" windowWidth="17280" windowHeight="8964" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="3072" yWindow="3996" windowWidth="17280" windowHeight="8964" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -775,54 +775,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -833,12 +839,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1170,32 +1170,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="22" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="22" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="33"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="35"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1214,8 +1214,8 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="22" t="s">
         <v>61</v>
       </c>
       <c r="I2" s="8">
@@ -1233,8 +1233,8 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="22" t="s">
         <v>86</v>
       </c>
       <c r="P2" s="8">
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8">
@@ -1272,8 +1272,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="28"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1285,8 +1285,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="27"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="23"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1312,8 +1312,8 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="26" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I4" s="8">
@@ -1331,8 +1331,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="27"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="23"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1364,8 +1364,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="27"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1381,8 +1381,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="28"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="24"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1414,8 +1414,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="27"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1431,8 +1431,8 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="24"/>
-      <c r="O6" s="26" t="s">
+      <c r="N6" s="26"/>
+      <c r="O6" s="22" t="s">
         <v>87</v>
       </c>
       <c r="P6" s="8">
@@ -1464,8 +1464,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="28"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="28"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="24"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="24"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="24"/>
+      <c r="N8" s="26"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1554,8 +1554,8 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="26" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="22" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="8">
@@ -1573,8 +1573,8 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="26" t="s">
+      <c r="N9" s="26"/>
+      <c r="O9" s="22" t="s">
         <v>89</v>
       </c>
       <c r="P9" s="8">
@@ -1608,8 +1608,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="28"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1617,8 +1617,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="27"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="23"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1636,25 +1636,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="20" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="28"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="24"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1674,8 +1674,8 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="26" t="s">
+      <c r="G12" s="26"/>
+      <c r="H12" s="22" t="s">
         <v>23</v>
       </c>
       <c r="I12" s="14">
@@ -1693,8 +1693,8 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="26" t="s">
+      <c r="N12" s="26"/>
+      <c r="O12" s="22" t="s">
         <v>90</v>
       </c>
       <c r="P12" s="8">
@@ -1724,8 +1724,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="27"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1741,8 +1741,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="27"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="23"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1770,8 +1770,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="28"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1783,8 +1783,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="28"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="24"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1808,8 +1808,8 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="26" t="s">
+      <c r="G15" s="26"/>
+      <c r="H15" s="22" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="14">
@@ -1827,7 +1827,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="24"/>
+      <c r="N15" s="26"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1864,8 +1864,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="27"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="24"/>
+      <c r="N16" s="26"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1902,7 +1902,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="8">
@@ -1920,8 +1920,8 @@
       <c r="F17" s="9">
         <v>49</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="27"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="24"/>
+      <c r="N17" s="26"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1968,8 +1968,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="27"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="24"/>
+      <c r="N18" s="26"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2010,12 +2010,12 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="27"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="21">
         <v>655</v>
       </c>
       <c r="K19" s="4">
@@ -2025,18 +2025,18 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="20" t="s">
+      <c r="N19" s="26"/>
+      <c r="O19" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="33"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="8">
@@ -2054,21 +2054,21 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="24"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="20">
         <v>144</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="20">
         <v>589</v>
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="26" t="s">
+      <c r="N20" s="26"/>
+      <c r="O20" s="22" t="s">
         <v>96</v>
       </c>
       <c r="P20" s="8">
@@ -2088,7 +2088,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2104,11 +2104,11 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="24"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="20">
         <v>606</v>
       </c>
       <c r="J21" s="6">
@@ -2123,8 +2123,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="24"/>
-      <c r="O21" s="28"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="24"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="3">
         <v>8</v>
       </c>
@@ -2150,20 +2150,20 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="20">
         <v>145</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="20">
         <v>590</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="24"/>
+      <c r="N22" s="26"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2190,8 +2190,8 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="26" t="s">
+      <c r="G23" s="26"/>
+      <c r="H23" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="14">
@@ -2200,16 +2200,16 @@
       <c r="J23" s="14">
         <v>700</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="14">
         <v>530</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="14">
         <v>538</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="24"/>
+      <c r="N23" s="26"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2242,9 +2242,9 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="3">
+      <c r="G24" s="26"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="4">
         <v>98</v>
       </c>
       <c r="J24" s="3">
@@ -2259,8 +2259,8 @@
       <c r="M24" s="12">
         <v>110</v>
       </c>
-      <c r="N24" s="24"/>
-      <c r="O24" s="26" t="s">
+      <c r="N24" s="26"/>
+      <c r="O24" s="22" t="s">
         <v>99</v>
       </c>
       <c r="P24" s="8">
@@ -2298,8 +2298,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="28"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2311,8 +2311,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="28"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="24"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="24"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2357,8 +2357,8 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="26" t="s">
+      <c r="N26" s="26"/>
+      <c r="O26" s="22" t="s">
         <v>100</v>
       </c>
       <c r="P26" s="8">
@@ -2394,7 +2394,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="24"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2405,8 +2405,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="27"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="23"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="24"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2449,8 +2449,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="28"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="24"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2460,15 +2460,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="24"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="24"/>
+      <c r="N29" s="26"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="8">
@@ -2520,7 +2520,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="24"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="24"/>
+      <c r="N30" s="26"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2562,16 +2562,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="20" t="s">
+      <c r="G31" s="26"/>
+      <c r="H31" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="24"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="26"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="24"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2615,18 +2615,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="20" t="s">
+      <c r="N32" s="26"/>
+      <c r="O32" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="33"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="24"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="24"/>
+      <c r="N33" s="26"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2686,8 +2686,8 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="26" t="s">
+      <c r="G34" s="26"/>
+      <c r="H34" s="22" t="s">
         <v>68</v>
       </c>
       <c r="I34" s="8">
@@ -2705,7 +2705,7 @@
       <c r="M34" s="9">
         <v>51</v>
       </c>
-      <c r="N34" s="24"/>
+      <c r="N34" s="26"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2730,8 +2730,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="27"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="3">
         <v>52</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="M35" s="12">
         <v>40</v>
       </c>
-      <c r="N35" s="24"/>
+      <c r="N35" s="26"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2778,8 +2778,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="27"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="3">
         <v>46</v>
       </c>
@@ -2795,15 +2795,15 @@
       <c r="M36" s="12">
         <v>60</v>
       </c>
-      <c r="N36" s="24"/>
-      <c r="O36" s="22" t="s">
+      <c r="N36" s="26"/>
+      <c r="O36" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="33"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="35"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2818,8 +2818,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="27"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="3">
         <v>491</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="24"/>
+      <c r="N37" s="26"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2854,16 +2854,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="28"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="10">
         <v>332</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="24"/>
+      <c r="N38" s="26"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="24"/>
+      <c r="G39" s="26"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="24"/>
+      <c r="N39" s="26"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="24"/>
+      <c r="G40" s="26"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="24"/>
+      <c r="N40" s="26"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="24"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -2993,15 +2993,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="20" t="s">
+      <c r="N41" s="26"/>
+      <c r="O41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="33"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3018,8 +3018,8 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="26" t="s">
+      <c r="G42" s="26"/>
+      <c r="H42" s="22" t="s">
         <v>72</v>
       </c>
       <c r="I42" s="8">
@@ -3037,7 +3037,7 @@
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="24"/>
+      <c r="N42" s="26"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3050,16 +3050,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="27"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="3">
         <v>130</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="24"/>
+      <c r="N43" s="26"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3104,8 +3104,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="28"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="24"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="24"/>
+      <c r="N44" s="26"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="24"/>
+      <c r="G45" s="26"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="24"/>
+      <c r="N45" s="26"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="24"/>
+      <c r="G46" s="26"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="24"/>
+      <c r="N46" s="26"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="24"/>
+      <c r="G47" s="26"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="24"/>
+      <c r="N47" s="26"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3264,16 +3264,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="20" t="s">
+      <c r="G48" s="26"/>
+      <c r="H48" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="24"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="26"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3288,16 +3288,16 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="26" t="s">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I49" s="8">
@@ -3315,7 +3315,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="24"/>
+      <c r="N49" s="26"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3330,7 +3330,7 @@
       <c r="T49" s="7"/>
     </row>
     <row r="50" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="8">
@@ -3348,8 +3348,8 @@
       <c r="F50" s="9">
         <v>202</v>
       </c>
-      <c r="G50" s="24"/>
-      <c r="H50" s="28"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="24"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="24"/>
+      <c r="N50" s="26"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3386,8 +3386,8 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="24"/>
-      <c r="H51" s="26" t="s">
+      <c r="G51" s="26"/>
+      <c r="H51" s="22" t="s">
         <v>78</v>
       </c>
       <c r="I51" s="8">
@@ -3405,7 +3405,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="24"/>
+      <c r="N51" s="26"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3428,8 +3428,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="28"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="24"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3443,13 +3443,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="34"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="29"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3470,7 +3470,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="24"/>
+      <c r="G53" s="26"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3487,16 +3487,16 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="34"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="29"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="8">
@@ -3514,7 +3514,7 @@
       <c r="F54" s="9">
         <v>454</v>
       </c>
-      <c r="G54" s="24"/>
+      <c r="G54" s="26"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3527,16 +3527,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="34"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="29"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="10">
         <v>18</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="24"/>
+      <c r="G55" s="26"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3561,13 +3561,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="34"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="29"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3584,33 +3584,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="31" t="s">
+      <c r="G56" s="26"/>
+      <c r="H56" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="34"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="29"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="24"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="26"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3629,16 +3629,16 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="24"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="34"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="29"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B58" s="8">
@@ -3656,7 +3656,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="24"/>
+      <c r="G58" s="26"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3671,16 +3671,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="34"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="29"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3696,23 +3696,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="24"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="34"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="29"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3728,23 +3728,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="24"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="34"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="29"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3760,23 +3760,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="24"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="34"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="29"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3792,23 +3792,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="24"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="29"/>
-      <c r="S62" s="29"/>
-      <c r="T62" s="34"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="29"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="28"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3816,20 +3816,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="29"/>
-      <c r="S63" s="29"/>
-      <c r="T63" s="34"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="28"/>
+      <c r="S63" s="28"/>
+      <c r="T63" s="29"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3848,20 +3848,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="29"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="34"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="29"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3878,20 +3878,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="29"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="34"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="29"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3904,23 +3904,23 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="29"/>
-      <c r="S66" s="29"/>
-      <c r="T66" s="34"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="29"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B67" s="8">
@@ -3938,23 +3938,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="24"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="34"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="29"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="28"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3966,28 +3966,39 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="25"/>
+      <c r="G68" s="27"/>
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
       <c r="J68" s="30"/>
       <c r="K68" s="30"/>
       <c r="L68" s="30"/>
       <c r="M68" s="30"/>
-      <c r="N68" s="25"/>
+      <c r="N68" s="27"/>
       <c r="O68" s="30"/>
       <c r="P68" s="30"/>
       <c r="Q68" s="30"/>
       <c r="R68" s="30"/>
       <c r="S68" s="30"/>
-      <c r="T68" s="35"/>
+      <c r="T68" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="G1:G68"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="H59:M68"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="N1:N68"/>
     <mergeCell ref="O52:T68"/>
     <mergeCell ref="H15:H19"/>
@@ -4004,22 +4015,11 @@
     <mergeCell ref="O9:O11"/>
     <mergeCell ref="O12:O14"/>
     <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="G1:G68"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="H59:M68"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="H31:M31"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836A3E3C-BB29-4D24-9190-83AE823A486B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE74D645-D435-4748-BF15-65E11437FA55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3996" windowWidth="17280" windowHeight="8964" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="1380" yWindow="3792" windowWidth="17280" windowHeight="8964" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -784,11 +784,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -799,46 +802,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1170,32 +1170,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="34" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="34" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="35"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1214,7 +1214,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="22" t="s">
         <v>61</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="26"/>
+      <c r="N2" s="27"/>
       <c r="O2" s="22" t="s">
         <v>86</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8">
@@ -1272,8 +1272,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1285,8 +1285,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="23"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="24"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="22" t="s">
         <v>62</v>
       </c>
@@ -1331,8 +1331,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="23"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="24"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1364,8 +1364,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="23"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1381,8 +1381,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="24"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="23"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1414,8 +1414,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="26"/>
+      <c r="N6" s="27"/>
       <c r="O6" s="22" t="s">
         <v>87</v>
       </c>
@@ -1464,8 +1464,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="24"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="24"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="23"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="26"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="26"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="22" t="s">
         <v>64</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="26"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="22" t="s">
         <v>89</v>
       </c>
@@ -1608,8 +1608,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="24"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1617,8 +1617,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="23"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="24"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1636,25 +1636,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="32" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="24"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="23"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="26"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="22" t="s">
         <v>23</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="26"/>
+      <c r="N12" s="27"/>
       <c r="O12" s="22" t="s">
         <v>90</v>
       </c>
@@ -1724,8 +1724,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="23"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1741,8 +1741,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="23"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="24"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1770,8 +1770,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="24"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1783,8 +1783,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="24"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="23"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="22" t="s">
         <v>24</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="26"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1864,8 +1864,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="26"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1920,8 +1920,8 @@
       <c r="F17" s="9">
         <v>49</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="26"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1968,8 +1968,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="26"/>
+      <c r="N18" s="27"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2010,8 +2010,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2025,15 +2025,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="32" t="s">
+      <c r="N19" s="27"/>
+      <c r="O19" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="33"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="40"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -2054,7 +2054,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="26"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="26"/>
+      <c r="N20" s="27"/>
       <c r="O20" s="22" t="s">
         <v>96</v>
       </c>
@@ -2088,7 +2088,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="26"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2123,8 +2123,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="26"/>
-      <c r="O21" s="24"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="23"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="3">
         <v>8</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="26"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="26"/>
+      <c r="N22" s="27"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="22" t="s">
         <v>28</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="26"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2242,24 +2242,24 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="23"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
-      <c r="J24" s="3">
-        <v>193</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="J24" s="4">
+        <v>173</v>
+      </c>
+      <c r="K24" s="4">
         <v>669</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="4">
         <v>450</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="26"/>
+      <c r="N24" s="27"/>
       <c r="O24" s="22" t="s">
         <v>99</v>
       </c>
@@ -2298,12 +2298,12 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="24"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="17">
         <v>108</v>
       </c>
       <c r="K25" s="10">
@@ -2311,8 +2311,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="24"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="23"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="26"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="26"/>
+      <c r="N26" s="27"/>
       <c r="O26" s="22" t="s">
         <v>100</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="26"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2405,8 +2405,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="24"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="26"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2449,8 +2449,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="24"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="23"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2460,15 +2460,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="26"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="26"/>
+      <c r="N29" s="27"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="26"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="26"/>
+      <c r="N30" s="27"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2562,16 +2562,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="32" t="s">
+      <c r="G31" s="27"/>
+      <c r="H31" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="26"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="27"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="26"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2615,18 +2615,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="32" t="s">
+      <c r="N32" s="27"/>
+      <c r="O32" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="33"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="40"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="26"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="26"/>
+      <c r="N33" s="27"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="26"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="22" t="s">
         <v>68</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="M34" s="9">
         <v>51</v>
       </c>
-      <c r="N34" s="26"/>
+      <c r="N34" s="27"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2730,8 +2730,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="23"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="3">
         <v>52</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="M35" s="12">
         <v>40</v>
       </c>
-      <c r="N35" s="26"/>
+      <c r="N35" s="27"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2778,8 +2778,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="23"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="3">
         <v>46</v>
       </c>
@@ -2795,15 +2795,15 @@
       <c r="M36" s="12">
         <v>60</v>
       </c>
-      <c r="N36" s="26"/>
-      <c r="O36" s="34" t="s">
+      <c r="N36" s="27"/>
+      <c r="O36" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="35"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="41"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2818,8 +2818,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="23"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="3">
         <v>491</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="26"/>
+      <c r="N37" s="27"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2854,16 +2854,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="24"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="10">
         <v>332</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="26"/>
+      <c r="N38" s="27"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="26"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="26"/>
+      <c r="N39" s="27"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="26"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="26"/>
+      <c r="N40" s="27"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="26"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -2993,15 +2993,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="32" t="s">
+      <c r="N41" s="27"/>
+      <c r="O41" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="33"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="40"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="26"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="22" t="s">
         <v>72</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="26"/>
+      <c r="N42" s="27"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3050,16 +3050,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="23"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="3">
         <v>130</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="26"/>
+      <c r="N43" s="27"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3104,8 +3104,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="24"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="26"/>
+      <c r="N44" s="27"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="26"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="26"/>
+      <c r="N45" s="27"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="26"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="26"/>
+      <c r="N46" s="27"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="26"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="26"/>
+      <c r="N47" s="27"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3264,16 +3264,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="32" t="s">
+      <c r="G48" s="27"/>
+      <c r="H48" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="26"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="27"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3288,15 +3288,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="26"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="22" t="s">
         <v>77</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="26"/>
+      <c r="N49" s="27"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3348,8 +3348,8 @@
       <c r="F50" s="9">
         <v>202</v>
       </c>
-      <c r="G50" s="26"/>
-      <c r="H50" s="24"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="23"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="26"/>
+      <c r="N50" s="27"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="26"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="22" t="s">
         <v>78</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="26"/>
+      <c r="N51" s="27"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3428,8 +3428,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="24"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="23"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3443,13 +3443,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="29"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="38"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3470,7 +3470,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="26"/>
+      <c r="G53" s="27"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3487,13 +3487,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="29"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="38"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
@@ -3514,7 +3514,7 @@
       <c r="F54" s="9">
         <v>454</v>
       </c>
-      <c r="G54" s="26"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3527,16 +3527,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="29"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="38"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="10">
         <v>18</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="26"/>
+      <c r="G55" s="27"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3561,13 +3561,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="29"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="38"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3584,33 +3584,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="37" t="s">
+      <c r="G56" s="27"/>
+      <c r="H56" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="29"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="38"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="26"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="27"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3629,13 +3629,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="26"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="29"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="38"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
@@ -3656,7 +3656,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="26"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3671,16 +3671,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="28"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="29"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="38"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3696,23 +3696,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="26"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="29"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="38"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3728,23 +3728,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="26"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="29"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="38"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3760,23 +3760,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="26"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="28"/>
-      <c r="S61" s="28"/>
-      <c r="T61" s="29"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="38"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3792,23 +3792,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="26"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="28"/>
-      <c r="S62" s="28"/>
-      <c r="T62" s="29"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="38"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3816,20 +3816,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="28"/>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="28"/>
-      <c r="S63" s="28"/>
-      <c r="T63" s="29"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="38"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3848,20 +3848,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="28"/>
-      <c r="S64" s="28"/>
-      <c r="T64" s="29"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="38"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3878,20 +3878,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="28"/>
-      <c r="S65" s="28"/>
-      <c r="T65" s="29"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="38"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3904,20 +3904,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="28"/>
-      <c r="T66" s="29"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="31"/>
+      <c r="T66" s="38"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
@@ -3938,23 +3938,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="26"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="28"/>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="28"/>
-      <c r="S67" s="28"/>
-      <c r="T67" s="29"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="31"/>
+      <c r="T67" s="38"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3966,23 +3966,53 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="31"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="32"/>
+      <c r="R68" s="32"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="N1:N68"/>
+    <mergeCell ref="O52:T68"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O20:O21"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="O2:O5"/>
     <mergeCell ref="H1:M1"/>
@@ -3999,36 +4029,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="N1:N68"/>
-    <mergeCell ref="O52:T68"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE74D645-D435-4748-BF15-65E11437FA55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDF6496-FED1-4294-AB54-F956B16281C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="3792" windowWidth="17280" windowHeight="8964" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="204" yWindow="960" windowWidth="17280" windowHeight="8964" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2306,7 +2306,7 @@
       <c r="J25" s="17">
         <v>108</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="17">
         <v>109</v>
       </c>
       <c r="L25" s="10"/>
@@ -2348,10 +2348,10 @@
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="20">
         <v>105</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="20">
         <v>106</v>
       </c>
       <c r="K26" s="6"/>
@@ -2398,7 +2398,7 @@
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="20">
         <v>114</v>
       </c>
       <c r="J27" s="6"/>
@@ -2440,10 +2440,10 @@
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="20">
         <v>235</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="20">
         <v>236</v>
       </c>
       <c r="K28" s="6"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDF6496-FED1-4294-AB54-F956B16281C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57E02CF-DD66-4719-95FB-F6F594FB8CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="204" yWindow="960" windowWidth="17280" windowHeight="8964" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1201,16 +1201,16 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="20">
         <v>485</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="20">
         <v>495</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="20">
         <v>414</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="20">
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
@@ -1257,16 +1257,16 @@
       <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="14">
         <v>645</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="14">
         <v>697</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="14">
         <v>448</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="14">
         <v>442</v>
       </c>
       <c r="F3" s="9">
@@ -1353,7 +1353,7 @@
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="20">
         <v>453</v>
       </c>
       <c r="C5" s="6">
@@ -2472,7 +2472,7 @@
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="20">
         <v>501</v>
       </c>
       <c r="J29" s="6">

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57E02CF-DD66-4719-95FB-F6F594FB8CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184AA22C-3402-468F-AB50-FA8FA0638A7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="204" yWindow="960" windowWidth="17280" windowHeight="8964" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1399,10 +1399,10 @@
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="20">
         <v>118</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="20">
         <v>119</v>
       </c>
       <c r="D6" s="6">
@@ -1455,7 +1455,7 @@
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="20">
         <v>189</v>
       </c>
       <c r="C7" s="6">
@@ -1544,7 +1544,7 @@
       <c r="B9" s="6">
         <v>566</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="20">
         <v>48</v>
       </c>
       <c r="D9" s="6">
@@ -1597,13 +1597,13 @@
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="20">
         <v>303</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="20">
         <v>304</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="20">
         <v>238</v>
       </c>
       <c r="E10" s="6"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184AA22C-3402-468F-AB50-FA8FA0638A7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AC88CF-129C-4CEC-B3C7-61FB8AA6EAD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="960" windowWidth="17280" windowHeight="8964" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -784,34 +784,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,18 +839,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1170,32 +1170,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="25" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="25" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="41"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="36"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1214,7 +1214,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="27"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="22" t="s">
         <v>61</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="27"/>
+      <c r="N2" s="28"/>
       <c r="O2" s="22" t="s">
         <v>86</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1272,8 +1272,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1285,8 +1285,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="24"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="23"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="22" t="s">
         <v>62</v>
       </c>
@@ -1331,8 +1331,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="24"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="23"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1364,8 +1364,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="24"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1381,8 +1381,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="23"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="24"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1414,8 +1414,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="24"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="27"/>
+      <c r="N6" s="28"/>
       <c r="O6" s="22" t="s">
         <v>87</v>
       </c>
@@ -1464,8 +1464,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="23"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="24"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="27"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="27"/>
+      <c r="N8" s="28"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="27"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="22" t="s">
         <v>64</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="27"/>
+      <c r="N9" s="28"/>
       <c r="O9" s="22" t="s">
         <v>89</v>
       </c>
@@ -1608,8 +1608,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="23"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1617,8 +1617,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="24"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="23"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1636,25 +1636,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="30" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="23"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="24"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1667,14 +1667,14 @@
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="20">
         <v>520</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="27"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="22" t="s">
         <v>23</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="27"/>
+      <c r="N12" s="28"/>
       <c r="O12" s="22" t="s">
         <v>90</v>
       </c>
@@ -1717,15 +1717,15 @@
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="20">
         <v>125</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1741,8 +1741,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="24"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="23"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1763,15 +1763,15 @@
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="20">
         <v>14</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="23"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1783,8 +1783,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="23"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="24"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="27"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="22" t="s">
         <v>24</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="27"/>
+      <c r="N15" s="28"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1864,8 +1864,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="24"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="27"/>
+      <c r="N16" s="28"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1920,8 +1920,8 @@
       <c r="F17" s="9">
         <v>49</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="24"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="27"/>
+      <c r="N17" s="28"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1968,8 +1968,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="24"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="27"/>
+      <c r="N18" s="28"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2010,8 +2010,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="24"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2025,15 +2025,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="30" t="s">
+      <c r="N19" s="28"/>
+      <c r="O19" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="40"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="34"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -2054,7 +2054,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="27"/>
+      <c r="N20" s="28"/>
       <c r="O20" s="22" t="s">
         <v>96</v>
       </c>
@@ -2088,7 +2088,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2123,8 +2123,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="23"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="24"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="3">
         <v>8</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="27"/>
+      <c r="N22" s="28"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="27"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="22" t="s">
         <v>28</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="27"/>
+      <c r="N23" s="28"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2242,8 +2242,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="24"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="27"/>
+      <c r="N24" s="28"/>
       <c r="O24" s="22" t="s">
         <v>99</v>
       </c>
@@ -2298,8 +2298,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="23"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2311,8 +2311,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="23"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="24"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="27"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="27"/>
+      <c r="N26" s="28"/>
       <c r="O26" s="22" t="s">
         <v>100</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="27"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2405,8 +2405,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="24"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="23"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="27"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2449,8 +2449,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="23"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="24"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2460,15 +2460,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="27"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="27"/>
+      <c r="N29" s="28"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="27"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="27"/>
+      <c r="N30" s="28"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2562,16 +2562,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="30" t="s">
+      <c r="G31" s="28"/>
+      <c r="H31" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="27"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="28"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="27"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2615,18 +2615,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="30" t="s">
+      <c r="N32" s="28"/>
+      <c r="O32" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="40"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="34"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="27"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="27"/>
+      <c r="N33" s="28"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="27"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="22" t="s">
         <v>68</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="M34" s="9">
         <v>51</v>
       </c>
-      <c r="N34" s="27"/>
+      <c r="N34" s="28"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2730,8 +2730,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="24"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="3">
         <v>52</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="M35" s="12">
         <v>40</v>
       </c>
-      <c r="N35" s="27"/>
+      <c r="N35" s="28"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2778,8 +2778,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="24"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="3">
         <v>46</v>
       </c>
@@ -2795,15 +2795,15 @@
       <c r="M36" s="12">
         <v>60</v>
       </c>
-      <c r="N36" s="27"/>
-      <c r="O36" s="25" t="s">
+      <c r="N36" s="28"/>
+      <c r="O36" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="41"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="36"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2818,8 +2818,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="24"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="3">
         <v>491</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="27"/>
+      <c r="N37" s="28"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2854,16 +2854,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="23"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="10">
         <v>332</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="27"/>
+      <c r="N38" s="28"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="27"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="27"/>
+      <c r="N39" s="28"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="27"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="27"/>
+      <c r="N40" s="28"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="27"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -2993,15 +2993,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="30" t="s">
+      <c r="N41" s="28"/>
+      <c r="O41" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="40"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="34"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="27"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="22" t="s">
         <v>72</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="27"/>
+      <c r="N42" s="28"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3050,16 +3050,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="24"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="3">
         <v>130</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="27"/>
+      <c r="N43" s="28"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3104,8 +3104,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="23"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="24"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="27"/>
+      <c r="N44" s="28"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="27"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="27"/>
+      <c r="N45" s="28"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="27"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="27"/>
+      <c r="N46" s="28"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="27"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="27"/>
+      <c r="N47" s="28"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3264,16 +3264,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="30" t="s">
+      <c r="G48" s="28"/>
+      <c r="H48" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="27"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="28"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3288,15 +3288,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="27"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="22" t="s">
         <v>77</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="27"/>
+      <c r="N49" s="28"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3348,8 +3348,8 @@
       <c r="F50" s="9">
         <v>202</v>
       </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="23"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="24"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="27"/>
+      <c r="N50" s="28"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="27"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="22" t="s">
         <v>78</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="27"/>
+      <c r="N51" s="28"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3428,8 +3428,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="23"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="24"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3443,13 +3443,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="38"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="31"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3470,7 +3470,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="27"/>
+      <c r="G53" s="28"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3487,13 +3487,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="38"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="31"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
@@ -3514,7 +3514,7 @@
       <c r="F54" s="9">
         <v>454</v>
       </c>
-      <c r="G54" s="27"/>
+      <c r="G54" s="28"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3527,16 +3527,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="38"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="31"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="10">
         <v>18</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="27"/>
+      <c r="G55" s="28"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3561,13 +3561,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="38"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="31"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3584,33 +3584,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="33" t="s">
+      <c r="G56" s="28"/>
+      <c r="H56" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="38"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="31"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="27"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="28"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3629,13 +3629,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="27"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="38"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="31"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
@@ -3656,7 +3656,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="27"/>
+      <c r="G58" s="28"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3671,16 +3671,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="38"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="31"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3696,23 +3696,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="27"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="38"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="31"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3728,23 +3728,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="27"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="38"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="31"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3760,23 +3760,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="27"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="38"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="31"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3792,23 +3792,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="27"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="38"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="31"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3816,20 +3816,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="38"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="31"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3848,20 +3848,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="31"/>
-      <c r="T64" s="38"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="31"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3878,20 +3878,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
-      <c r="T65" s="38"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="31"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3904,20 +3904,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="31"/>
-      <c r="T66" s="38"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="31"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
@@ -3938,23 +3938,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="27"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="31"/>
-      <c r="S67" s="31"/>
-      <c r="T67" s="38"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="31"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3966,37 +3966,39 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="28"/>
+      <c r="G68" s="29"/>
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
       <c r="M68" s="32"/>
-      <c r="N68" s="28"/>
+      <c r="N68" s="29"/>
       <c r="O68" s="32"/>
       <c r="P68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
-      <c r="T68" s="39"/>
+      <c r="T68" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="G1:G68"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="H59:M68"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="N1:N68"/>
     <mergeCell ref="O52:T68"/>
     <mergeCell ref="H15:H19"/>
@@ -4013,22 +4015,20 @@
     <mergeCell ref="O9:O11"/>
     <mergeCell ref="O12:O14"/>
     <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="G1:G68"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="H59:M68"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AC88CF-129C-4CEC-B3C7-61FB8AA6EAD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4619B23B-3C56-455D-83C8-5FC7E7BF13B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
@@ -784,11 +784,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -796,49 +808,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1170,32 +1170,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="35" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="35" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="36"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1214,7 +1214,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="28"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="22" t="s">
         <v>61</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="28"/>
+      <c r="N2" s="27"/>
       <c r="O2" s="22" t="s">
         <v>86</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1272,8 +1272,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1285,8 +1285,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="23"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="24"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="28"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="22" t="s">
         <v>62</v>
       </c>
@@ -1331,8 +1331,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="23"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="24"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1364,8 +1364,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="23"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1381,8 +1381,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="24"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="23"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1414,8 +1414,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="28"/>
+      <c r="N6" s="27"/>
       <c r="O6" s="22" t="s">
         <v>87</v>
       </c>
@@ -1464,8 +1464,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="24"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="24"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="23"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="28"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="28"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="28"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="22" t="s">
         <v>64</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="28"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="22" t="s">
         <v>89</v>
       </c>
@@ -1608,8 +1608,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="24"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1617,8 +1617,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="23"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="24"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1636,25 +1636,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="26" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="24"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="23"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="28"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="22" t="s">
         <v>23</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="28"/>
+      <c r="N12" s="27"/>
       <c r="O12" s="22" t="s">
         <v>90</v>
       </c>
@@ -1724,8 +1724,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="23"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1741,8 +1741,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="23"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="24"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1770,8 +1770,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="24"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1783,8 +1783,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="24"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="23"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1799,16 +1799,16 @@
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="20">
         <v>434</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="20">
         <v>58</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="22" t="s">
         <v>24</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="28"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1864,8 +1864,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="28"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1920,8 +1920,8 @@
       <c r="F17" s="9">
         <v>49</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="28"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1968,8 +1968,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="28"/>
+      <c r="N18" s="27"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2010,8 +2010,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2025,15 +2025,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="26" t="s">
+      <c r="N19" s="27"/>
+      <c r="O19" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="34"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="40"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -2054,7 +2054,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="28"/>
+      <c r="N20" s="27"/>
       <c r="O20" s="22" t="s">
         <v>96</v>
       </c>
@@ -2088,7 +2088,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="28"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2123,8 +2123,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="28"/>
-      <c r="O21" s="24"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="23"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="3">
         <v>8</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="28"/>
+      <c r="N22" s="27"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="28"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="22" t="s">
         <v>28</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="28"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2242,8 +2242,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="23"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="28"/>
+      <c r="N24" s="27"/>
       <c r="O24" s="22" t="s">
         <v>99</v>
       </c>
@@ -2298,8 +2298,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="24"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2311,8 +2311,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="24"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="23"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="28"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="28"/>
+      <c r="N26" s="27"/>
       <c r="O26" s="22" t="s">
         <v>100</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="28"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2405,8 +2405,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="24"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="28"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2449,8 +2449,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="24"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="23"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2460,15 +2460,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="28"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="28"/>
+      <c r="N29" s="27"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="28"/>
+      <c r="N30" s="27"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2562,16 +2562,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="26" t="s">
+      <c r="G31" s="27"/>
+      <c r="H31" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="28"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="27"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="28"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2615,18 +2615,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="26" t="s">
+      <c r="N32" s="27"/>
+      <c r="O32" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="34"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="40"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="28"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="28"/>
+      <c r="N33" s="27"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="28"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="22" t="s">
         <v>68</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="M34" s="9">
         <v>51</v>
       </c>
-      <c r="N34" s="28"/>
+      <c r="N34" s="27"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2730,8 +2730,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="23"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="3">
         <v>52</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="M35" s="12">
         <v>40</v>
       </c>
-      <c r="N35" s="28"/>
+      <c r="N35" s="27"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2778,8 +2778,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="23"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="3">
         <v>46</v>
       </c>
@@ -2795,15 +2795,15 @@
       <c r="M36" s="12">
         <v>60</v>
       </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="35" t="s">
+      <c r="N36" s="27"/>
+      <c r="O36" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="36"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="41"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2818,8 +2818,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="23"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="3">
         <v>491</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="28"/>
+      <c r="N37" s="27"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2854,16 +2854,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="24"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="10">
         <v>332</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="28"/>
+      <c r="N38" s="27"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="28"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="28"/>
+      <c r="N39" s="27"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="28"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="28"/>
+      <c r="N40" s="27"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="28"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -2993,15 +2993,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="26" t="s">
+      <c r="N41" s="27"/>
+      <c r="O41" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="34"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="40"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="28"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="22" t="s">
         <v>72</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="28"/>
+      <c r="N42" s="27"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3050,16 +3050,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="23"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="3">
         <v>130</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="28"/>
+      <c r="N43" s="27"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3104,8 +3104,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="24"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="28"/>
+      <c r="N44" s="27"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="28"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="28"/>
+      <c r="N45" s="27"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="28"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="28"/>
+      <c r="N46" s="27"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="28"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="28"/>
+      <c r="N47" s="27"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3264,16 +3264,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="26" t="s">
+      <c r="G48" s="27"/>
+      <c r="H48" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="28"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="27"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3288,15 +3288,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="28"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="22" t="s">
         <v>77</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="28"/>
+      <c r="N49" s="27"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3348,8 +3348,8 @@
       <c r="F50" s="9">
         <v>202</v>
       </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="24"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="23"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="28"/>
+      <c r="N50" s="27"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="28"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="22" t="s">
         <v>78</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="28"/>
+      <c r="N51" s="27"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3428,8 +3428,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="24"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="23"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3443,13 +3443,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="31"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="38"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3470,7 +3470,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="28"/>
+      <c r="G53" s="27"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3487,13 +3487,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="31"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="38"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
@@ -3514,7 +3514,7 @@
       <c r="F54" s="9">
         <v>454</v>
       </c>
-      <c r="G54" s="28"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3527,16 +3527,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="31"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="38"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="10">
         <v>18</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="28"/>
+      <c r="G55" s="27"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3561,13 +3561,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="31"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="38"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3584,33 +3584,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="37" t="s">
+      <c r="G56" s="27"/>
+      <c r="H56" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="31"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="38"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="28"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="27"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3629,13 +3629,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="28"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="31"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="38"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
@@ -3656,7 +3656,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="28"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3671,16 +3671,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="31"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="38"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3696,23 +3696,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="28"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="31"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="38"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3728,23 +3728,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="28"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="31"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="38"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3760,23 +3760,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="28"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="31"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="38"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3792,23 +3792,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="28"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="31"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="38"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3816,20 +3816,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="31"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="38"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3848,20 +3848,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="31"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="38"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3878,20 +3878,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="31"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="38"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3904,20 +3904,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="31"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="31"/>
+      <c r="T66" s="38"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
@@ -3938,23 +3938,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="28"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="31"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="31"/>
+      <c r="T67" s="38"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3966,23 +3966,53 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="29"/>
+      <c r="G68" s="28"/>
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
       <c r="M68" s="32"/>
-      <c r="N68" s="29"/>
+      <c r="N68" s="28"/>
       <c r="O68" s="32"/>
       <c r="P68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
-      <c r="T68" s="33"/>
+      <c r="T68" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="N1:N68"/>
+    <mergeCell ref="O52:T68"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O20:O21"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="O2:O5"/>
     <mergeCell ref="H1:M1"/>
@@ -3999,36 +4029,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="N1:N68"/>
-    <mergeCell ref="O52:T68"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4619B23B-3C56-455D-83C8-5FC7E7BF13B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54925584-C599-4D21-B693-D0EF5E14AEEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="204" yWindow="960" windowWidth="17280" windowHeight="8964" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1851,16 +1851,16 @@
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="20">
         <v>344</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="20">
         <v>541</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="20">
         <v>557</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="20">
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
@@ -1905,10 +1905,10 @@
       <c r="A17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="14">
         <v>387</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="14">
         <v>389</v>
       </c>
       <c r="D17" s="8">

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54925584-C599-4D21-B693-D0EF5E14AEEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A526346C-F2E1-422B-8C22-695CDEC705FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="960" windowWidth="17280" windowHeight="8964" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="204" yWindow="960" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -784,34 +784,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,18 +839,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1170,32 +1170,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="25" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="25" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="41"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="36"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1214,7 +1214,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="27"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="22" t="s">
         <v>61</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="27"/>
+      <c r="N2" s="28"/>
       <c r="O2" s="22" t="s">
         <v>86</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1272,8 +1272,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1285,8 +1285,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="24"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="23"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="22" t="s">
         <v>62</v>
       </c>
@@ -1331,8 +1331,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="24"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="23"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1364,8 +1364,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="24"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1381,8 +1381,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="23"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="24"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1414,8 +1414,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="24"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="27"/>
+      <c r="N6" s="28"/>
       <c r="O6" s="22" t="s">
         <v>87</v>
       </c>
@@ -1464,8 +1464,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="23"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="24"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="27"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="27"/>
+      <c r="N8" s="28"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="27"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="22" t="s">
         <v>64</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="27"/>
+      <c r="N9" s="28"/>
       <c r="O9" s="22" t="s">
         <v>89</v>
       </c>
@@ -1608,8 +1608,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="23"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1617,8 +1617,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="24"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="23"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1636,25 +1636,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="30" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="23"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="24"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="27"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="22" t="s">
         <v>23</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="27"/>
+      <c r="N12" s="28"/>
       <c r="O12" s="22" t="s">
         <v>90</v>
       </c>
@@ -1724,8 +1724,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1741,8 +1741,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="24"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="23"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1770,8 +1770,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="23"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1783,8 +1783,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="23"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="24"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="27"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="22" t="s">
         <v>24</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="27"/>
+      <c r="N15" s="28"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1864,8 +1864,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="24"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="27"/>
+      <c r="N16" s="28"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1914,14 +1914,14 @@
       <c r="D17" s="8">
         <v>383</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="14">
         <v>242</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="24"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="27"/>
+      <c r="N17" s="28"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1968,8 +1968,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="24"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="27"/>
+      <c r="N18" s="28"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2010,8 +2010,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="24"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2025,15 +2025,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="30" t="s">
+      <c r="N19" s="28"/>
+      <c r="O19" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="40"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="34"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -2054,7 +2054,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="27"/>
+      <c r="N20" s="28"/>
       <c r="O20" s="22" t="s">
         <v>96</v>
       </c>
@@ -2088,7 +2088,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2123,8 +2123,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="23"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="24"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2134,8 +2134,8 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="4">
         <v>8</v>
       </c>
       <c r="C22" s="3">
@@ -2150,7 +2150,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="27"/>
+      <c r="N22" s="28"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="27"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="22" t="s">
         <v>28</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="27"/>
+      <c r="N23" s="28"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2242,8 +2242,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="24"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="27"/>
+      <c r="N24" s="28"/>
       <c r="O24" s="22" t="s">
         <v>99</v>
       </c>
@@ -2298,8 +2298,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="23"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2311,8 +2311,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="23"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="24"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="27"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="27"/>
+      <c r="N26" s="28"/>
       <c r="O26" s="22" t="s">
         <v>100</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="27"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2405,8 +2405,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="24"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="23"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="27"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2449,8 +2449,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="23"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="24"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2460,15 +2460,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="27"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="27"/>
+      <c r="N29" s="28"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="27"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="27"/>
+      <c r="N30" s="28"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2562,16 +2562,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="30" t="s">
+      <c r="G31" s="28"/>
+      <c r="H31" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="27"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="28"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="27"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2615,18 +2615,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="30" t="s">
+      <c r="N32" s="28"/>
+      <c r="O32" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="40"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="34"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="27"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="27"/>
+      <c r="N33" s="28"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="27"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="22" t="s">
         <v>68</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="M34" s="9">
         <v>51</v>
       </c>
-      <c r="N34" s="27"/>
+      <c r="N34" s="28"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2730,8 +2730,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="24"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="3">
         <v>52</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="M35" s="12">
         <v>40</v>
       </c>
-      <c r="N35" s="27"/>
+      <c r="N35" s="28"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2778,8 +2778,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="24"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="3">
         <v>46</v>
       </c>
@@ -2795,15 +2795,15 @@
       <c r="M36" s="12">
         <v>60</v>
       </c>
-      <c r="N36" s="27"/>
-      <c r="O36" s="25" t="s">
+      <c r="N36" s="28"/>
+      <c r="O36" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="41"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="36"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2818,8 +2818,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="24"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="3">
         <v>491</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="27"/>
+      <c r="N37" s="28"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2854,16 +2854,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="23"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="10">
         <v>332</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="27"/>
+      <c r="N38" s="28"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="27"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="27"/>
+      <c r="N39" s="28"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="27"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="27"/>
+      <c r="N40" s="28"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="27"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -2993,15 +2993,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="30" t="s">
+      <c r="N41" s="28"/>
+      <c r="O41" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="40"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="34"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="27"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="22" t="s">
         <v>72</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="27"/>
+      <c r="N42" s="28"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3050,16 +3050,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="24"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="3">
         <v>130</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="27"/>
+      <c r="N43" s="28"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3099,13 +3099,13 @@
       <c r="C44" s="6">
         <v>237</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="20">
         <v>19</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="23"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="24"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="27"/>
+      <c r="N44" s="28"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="27"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="27"/>
+      <c r="N45" s="28"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="27"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="27"/>
+      <c r="N46" s="28"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="27"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="27"/>
+      <c r="N47" s="28"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3264,16 +3264,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="30" t="s">
+      <c r="G48" s="28"/>
+      <c r="H48" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="27"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="28"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3288,15 +3288,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="27"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="22" t="s">
         <v>77</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="27"/>
+      <c r="N49" s="28"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3348,8 +3348,8 @@
       <c r="F50" s="9">
         <v>202</v>
       </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="23"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="24"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="27"/>
+      <c r="N50" s="28"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="27"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="22" t="s">
         <v>78</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="27"/>
+      <c r="N51" s="28"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3428,8 +3428,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="23"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="24"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3443,13 +3443,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="38"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="31"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3470,7 +3470,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="27"/>
+      <c r="G53" s="28"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3487,13 +3487,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="38"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="31"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
@@ -3514,7 +3514,7 @@
       <c r="F54" s="9">
         <v>454</v>
       </c>
-      <c r="G54" s="27"/>
+      <c r="G54" s="28"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3527,16 +3527,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="38"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="31"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="10">
         <v>18</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="27"/>
+      <c r="G55" s="28"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3561,13 +3561,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="38"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="31"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3584,33 +3584,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="33" t="s">
+      <c r="G56" s="28"/>
+      <c r="H56" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="38"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="31"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="27"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="28"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3629,13 +3629,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="27"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="38"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="31"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
@@ -3656,7 +3656,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="27"/>
+      <c r="G58" s="28"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3671,16 +3671,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="38"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="31"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3696,23 +3696,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="27"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="38"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="31"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3728,23 +3728,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="27"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="38"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="31"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3760,23 +3760,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="27"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="38"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="31"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3792,23 +3792,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="27"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="38"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="31"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3816,20 +3816,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="38"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="31"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3848,20 +3848,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="31"/>
-      <c r="T64" s="38"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="31"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3878,20 +3878,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
-      <c r="T65" s="38"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="31"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3904,20 +3904,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="31"/>
-      <c r="T66" s="38"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="31"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
@@ -3938,23 +3938,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="27"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="31"/>
-      <c r="S67" s="31"/>
-      <c r="T67" s="38"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="31"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3966,37 +3966,39 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="28"/>
+      <c r="G68" s="29"/>
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
       <c r="M68" s="32"/>
-      <c r="N68" s="28"/>
+      <c r="N68" s="29"/>
       <c r="O68" s="32"/>
       <c r="P68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
-      <c r="T68" s="39"/>
+      <c r="T68" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="G1:G68"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="H59:M68"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="N1:N68"/>
     <mergeCell ref="O52:T68"/>
     <mergeCell ref="H15:H19"/>
@@ -4013,22 +4015,20 @@
     <mergeCell ref="O9:O11"/>
     <mergeCell ref="O12:O14"/>
     <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="G1:G68"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="H59:M68"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A526346C-F2E1-422B-8C22-695CDEC705FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB3153E-D9F1-4182-928E-ACE319AA443F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="960" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="4488" yWindow="1068" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3093,10 +3093,10 @@
       <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="20">
         <v>203</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="20">
         <v>237</v>
       </c>
       <c r="D44" s="20">
@@ -3169,10 +3169,10 @@
       <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="20">
         <v>61</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="20">
         <v>24</v>
       </c>
       <c r="D46" s="6">

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB3153E-D9F1-4182-928E-ACE319AA443F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D480A5-942F-4F74-95EA-9C38D6BB40B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4488" yWindow="1068" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
@@ -784,11 +784,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -796,49 +808,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1170,32 +1170,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="35" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="35" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="36"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1214,7 +1214,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="28"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="22" t="s">
         <v>61</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="28"/>
+      <c r="N2" s="27"/>
       <c r="O2" s="22" t="s">
         <v>86</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1272,8 +1272,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1285,8 +1285,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="23"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="24"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="28"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="22" t="s">
         <v>62</v>
       </c>
@@ -1331,8 +1331,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="23"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="24"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1364,8 +1364,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="23"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1381,8 +1381,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="24"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="23"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1414,8 +1414,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="28"/>
+      <c r="N6" s="27"/>
       <c r="O6" s="22" t="s">
         <v>87</v>
       </c>
@@ -1464,8 +1464,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="24"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="24"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="23"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="28"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="28"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="28"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="22" t="s">
         <v>64</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="28"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="22" t="s">
         <v>89</v>
       </c>
@@ -1608,8 +1608,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="24"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1617,8 +1617,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="23"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="24"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1636,25 +1636,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="26" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="24"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="23"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="28"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="22" t="s">
         <v>23</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="28"/>
+      <c r="N12" s="27"/>
       <c r="O12" s="22" t="s">
         <v>90</v>
       </c>
@@ -1724,8 +1724,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="23"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1741,8 +1741,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="23"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="24"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1770,8 +1770,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="24"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1783,8 +1783,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="24"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="23"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="22" t="s">
         <v>24</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="28"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1864,8 +1864,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="28"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1920,8 +1920,8 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="28"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1968,8 +1968,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="28"/>
+      <c r="N18" s="27"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2010,8 +2010,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2025,15 +2025,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="26" t="s">
+      <c r="N19" s="27"/>
+      <c r="O19" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="34"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="40"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -2054,7 +2054,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="28"/>
+      <c r="N20" s="27"/>
       <c r="O20" s="22" t="s">
         <v>96</v>
       </c>
@@ -2088,7 +2088,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="28"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2123,8 +2123,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="28"/>
-      <c r="O21" s="24"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="23"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="28"/>
+      <c r="N22" s="27"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="28"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="22" t="s">
         <v>28</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="28"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2242,8 +2242,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="23"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="28"/>
+      <c r="N24" s="27"/>
       <c r="O24" s="22" t="s">
         <v>99</v>
       </c>
@@ -2298,8 +2298,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="24"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2311,8 +2311,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="24"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="23"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="28"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="28"/>
+      <c r="N26" s="27"/>
       <c r="O26" s="22" t="s">
         <v>100</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="28"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2405,8 +2405,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="24"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="28"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2449,8 +2449,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="24"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="23"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2460,15 +2460,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="28"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="28"/>
+      <c r="N29" s="27"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="28"/>
+      <c r="N30" s="27"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2562,16 +2562,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="26" t="s">
+      <c r="G31" s="27"/>
+      <c r="H31" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="28"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="27"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="28"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2615,18 +2615,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="26" t="s">
+      <c r="N32" s="27"/>
+      <c r="O32" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="34"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="40"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="28"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="28"/>
+      <c r="N33" s="27"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="28"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="22" t="s">
         <v>68</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="M34" s="9">
         <v>51</v>
       </c>
-      <c r="N34" s="28"/>
+      <c r="N34" s="27"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2730,8 +2730,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="23"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="3">
         <v>52</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="M35" s="12">
         <v>40</v>
       </c>
-      <c r="N35" s="28"/>
+      <c r="N35" s="27"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2778,8 +2778,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="23"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="3">
         <v>46</v>
       </c>
@@ -2795,15 +2795,15 @@
       <c r="M36" s="12">
         <v>60</v>
       </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="35" t="s">
+      <c r="N36" s="27"/>
+      <c r="O36" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="36"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="41"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2818,8 +2818,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="23"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="3">
         <v>491</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="28"/>
+      <c r="N37" s="27"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2854,16 +2854,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="24"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="10">
         <v>332</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="28"/>
+      <c r="N38" s="27"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="28"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="28"/>
+      <c r="N39" s="27"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="28"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="28"/>
+      <c r="N40" s="27"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="28"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -2993,15 +2993,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="26" t="s">
+      <c r="N41" s="27"/>
+      <c r="O41" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="34"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="40"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="28"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="22" t="s">
         <v>72</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="28"/>
+      <c r="N42" s="27"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3050,16 +3050,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="23"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="3">
         <v>130</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="28"/>
+      <c r="N43" s="27"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3104,8 +3104,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="24"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="28"/>
+      <c r="N44" s="27"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="28"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="28"/>
+      <c r="N45" s="27"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3175,16 +3175,16 @@
       <c r="C46" s="20">
         <v>24</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="20">
         <v>206</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="20">
         <v>92</v>
       </c>
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="28"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="28"/>
+      <c r="N46" s="27"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3215,16 +3215,16 @@
       <c r="A47" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="17">
         <v>2</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="17">
         <v>445</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="28"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="28"/>
+      <c r="N47" s="27"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="A48" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="20">
         <v>21</v>
       </c>
       <c r="C48" s="6">
@@ -3264,16 +3264,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="26" t="s">
+      <c r="G48" s="27"/>
+      <c r="H48" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="28"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="27"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3288,15 +3288,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="28"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="22" t="s">
         <v>77</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="28"/>
+      <c r="N49" s="27"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3333,13 +3333,13 @@
       <c r="A50" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="14">
         <v>217</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="14">
         <v>633</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="14">
         <v>349</v>
       </c>
       <c r="E50" s="8">
@@ -3348,8 +3348,8 @@
       <c r="F50" s="9">
         <v>202</v>
       </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="24"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="23"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="28"/>
+      <c r="N50" s="27"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="28"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="22" t="s">
         <v>78</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="28"/>
+      <c r="N51" s="27"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3428,8 +3428,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="24"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="23"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3443,13 +3443,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="31"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="38"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3470,7 +3470,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="28"/>
+      <c r="G53" s="27"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3487,13 +3487,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="31"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="38"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
@@ -3514,7 +3514,7 @@
       <c r="F54" s="9">
         <v>454</v>
       </c>
-      <c r="G54" s="28"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3527,16 +3527,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="31"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="38"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="10">
         <v>18</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="28"/>
+      <c r="G55" s="27"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3561,13 +3561,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="31"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="38"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3584,33 +3584,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="37" t="s">
+      <c r="G56" s="27"/>
+      <c r="H56" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="31"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="38"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="28"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="27"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3629,13 +3629,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="28"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="31"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="38"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
@@ -3656,7 +3656,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="28"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3671,16 +3671,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="31"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="38"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3696,23 +3696,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="28"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="31"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="38"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3728,23 +3728,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="28"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="31"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="38"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3760,23 +3760,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="28"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="31"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="38"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3792,23 +3792,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="28"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="31"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="38"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3816,20 +3816,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="31"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="38"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3848,20 +3848,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="31"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="38"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3878,20 +3878,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="31"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="38"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3904,20 +3904,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="31"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="31"/>
+      <c r="T66" s="38"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
@@ -3938,23 +3938,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="28"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="31"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="31"/>
+      <c r="T67" s="38"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3966,23 +3966,53 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="29"/>
+      <c r="G68" s="28"/>
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
       <c r="M68" s="32"/>
-      <c r="N68" s="29"/>
+      <c r="N68" s="28"/>
       <c r="O68" s="32"/>
       <c r="P68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
-      <c r="T68" s="33"/>
+      <c r="T68" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="N1:N68"/>
+    <mergeCell ref="O52:T68"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O20:O21"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="O2:O5"/>
     <mergeCell ref="H1:M1"/>
@@ -3999,36 +4029,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="N1:N68"/>
-    <mergeCell ref="O52:T68"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D480A5-942F-4F74-95EA-9C38D6BB40B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29467369-A6EA-4F29-A474-0DF84E1F61CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4488" yWindow="1068" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -784,34 +784,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,18 +839,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1170,32 +1170,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="25" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="25" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="41"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="36"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1214,7 +1214,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="27"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="22" t="s">
         <v>61</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="27"/>
+      <c r="N2" s="28"/>
       <c r="O2" s="22" t="s">
         <v>86</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1272,8 +1272,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1285,8 +1285,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="24"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="23"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="22" t="s">
         <v>62</v>
       </c>
@@ -1331,8 +1331,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="24"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="23"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1364,8 +1364,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="24"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1381,8 +1381,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="23"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="24"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1414,8 +1414,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="24"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="27"/>
+      <c r="N6" s="28"/>
       <c r="O6" s="22" t="s">
         <v>87</v>
       </c>
@@ -1464,8 +1464,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="23"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="24"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="27"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="27"/>
+      <c r="N8" s="28"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="27"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="22" t="s">
         <v>64</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="27"/>
+      <c r="N9" s="28"/>
       <c r="O9" s="22" t="s">
         <v>89</v>
       </c>
@@ -1608,8 +1608,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="23"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1617,8 +1617,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="24"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="23"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1636,25 +1636,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="30" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="23"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="24"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="27"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="22" t="s">
         <v>23</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="27"/>
+      <c r="N12" s="28"/>
       <c r="O12" s="22" t="s">
         <v>90</v>
       </c>
@@ -1724,8 +1724,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1741,8 +1741,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="24"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="23"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1770,8 +1770,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="23"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1783,8 +1783,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="23"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="24"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="27"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="22" t="s">
         <v>24</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="27"/>
+      <c r="N15" s="28"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1864,8 +1864,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="24"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="27"/>
+      <c r="N16" s="28"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1920,8 +1920,8 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="24"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="27"/>
+      <c r="N17" s="28"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1968,8 +1968,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="24"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="27"/>
+      <c r="N18" s="28"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2010,8 +2010,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="24"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2025,15 +2025,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="30" t="s">
+      <c r="N19" s="28"/>
+      <c r="O19" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="40"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="34"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -2054,7 +2054,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="27"/>
+      <c r="N20" s="28"/>
       <c r="O20" s="22" t="s">
         <v>96</v>
       </c>
@@ -2088,7 +2088,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2123,8 +2123,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="23"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="24"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="27"/>
+      <c r="N22" s="28"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="27"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="22" t="s">
         <v>28</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="27"/>
+      <c r="N23" s="28"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2242,8 +2242,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="24"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="27"/>
+      <c r="N24" s="28"/>
       <c r="O24" s="22" t="s">
         <v>99</v>
       </c>
@@ -2298,8 +2298,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="23"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2311,8 +2311,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="23"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="24"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="27"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="27"/>
+      <c r="N26" s="28"/>
       <c r="O26" s="22" t="s">
         <v>100</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="27"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2405,8 +2405,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="24"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="23"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="27"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2449,8 +2449,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="23"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="24"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2460,15 +2460,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="27"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="27"/>
+      <c r="N29" s="28"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="27"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="27"/>
+      <c r="N30" s="28"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2562,16 +2562,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="30" t="s">
+      <c r="G31" s="28"/>
+      <c r="H31" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="27"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="28"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="27"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2615,18 +2615,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="30" t="s">
+      <c r="N32" s="28"/>
+      <c r="O32" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="40"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="34"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="27"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="27"/>
+      <c r="N33" s="28"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="27"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="22" t="s">
         <v>68</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="M34" s="9">
         <v>51</v>
       </c>
-      <c r="N34" s="27"/>
+      <c r="N34" s="28"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2730,8 +2730,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="24"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="3">
         <v>52</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="M35" s="12">
         <v>40</v>
       </c>
-      <c r="N35" s="27"/>
+      <c r="N35" s="28"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2778,8 +2778,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="24"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="3">
         <v>46</v>
       </c>
@@ -2795,15 +2795,15 @@
       <c r="M36" s="12">
         <v>60</v>
       </c>
-      <c r="N36" s="27"/>
-      <c r="O36" s="25" t="s">
+      <c r="N36" s="28"/>
+      <c r="O36" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="41"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="36"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2818,8 +2818,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="24"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="3">
         <v>491</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="27"/>
+      <c r="N37" s="28"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2854,16 +2854,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="23"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="10">
         <v>332</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="27"/>
+      <c r="N38" s="28"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="27"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="27"/>
+      <c r="N39" s="28"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="27"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="27"/>
+      <c r="N40" s="28"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="27"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -2993,15 +2993,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="30" t="s">
+      <c r="N41" s="28"/>
+      <c r="O41" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="40"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="34"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="27"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="22" t="s">
         <v>72</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="27"/>
+      <c r="N42" s="28"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3050,16 +3050,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="24"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="3">
         <v>130</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="27"/>
+      <c r="N43" s="28"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3104,8 +3104,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="23"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="24"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="27"/>
+      <c r="N44" s="28"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="27"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="27"/>
+      <c r="N45" s="28"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="27"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="27"/>
+      <c r="N46" s="28"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="27"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="27"/>
+      <c r="N47" s="28"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3264,16 +3264,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="30" t="s">
+      <c r="G48" s="28"/>
+      <c r="H48" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="27"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="28"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3288,15 +3288,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="27"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="22" t="s">
         <v>77</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="27"/>
+      <c r="N49" s="28"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3342,14 +3342,14 @@
       <c r="D50" s="14">
         <v>349</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="14">
         <v>128</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="15">
         <v>202</v>
       </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="23"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="24"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="27"/>
+      <c r="N50" s="28"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3370,11 +3370,11 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="4">
         <v>290</v>
       </c>
       <c r="D51" s="3">
@@ -3386,7 +3386,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="27"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="22" t="s">
         <v>78</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="27"/>
+      <c r="N51" s="28"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3428,8 +3428,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="23"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="24"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3443,13 +3443,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="38"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="31"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3470,7 +3470,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="27"/>
+      <c r="G53" s="28"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3487,13 +3487,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="38"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="31"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
@@ -3514,7 +3514,7 @@
       <c r="F54" s="9">
         <v>454</v>
       </c>
-      <c r="G54" s="27"/>
+      <c r="G54" s="28"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3527,16 +3527,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="38"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="31"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="10">
         <v>18</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="27"/>
+      <c r="G55" s="28"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3561,13 +3561,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="38"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="31"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3584,33 +3584,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="33" t="s">
+      <c r="G56" s="28"/>
+      <c r="H56" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="38"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="31"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="27"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="28"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3629,13 +3629,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="27"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="38"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="31"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
@@ -3656,7 +3656,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="27"/>
+      <c r="G58" s="28"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3671,16 +3671,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="38"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="31"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3696,23 +3696,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="27"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="38"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="31"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3728,23 +3728,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="27"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="38"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="31"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3760,23 +3760,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="27"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="38"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="31"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3792,23 +3792,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="27"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="38"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="31"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3816,20 +3816,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="38"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="31"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3848,20 +3848,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="31"/>
-      <c r="T64" s="38"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="31"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3878,20 +3878,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
-      <c r="T65" s="38"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="31"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3904,20 +3904,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="31"/>
-      <c r="T66" s="38"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="31"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
@@ -3938,23 +3938,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="27"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="31"/>
-      <c r="S67" s="31"/>
-      <c r="T67" s="38"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="31"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3966,37 +3966,39 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="28"/>
+      <c r="G68" s="29"/>
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
       <c r="M68" s="32"/>
-      <c r="N68" s="28"/>
+      <c r="N68" s="29"/>
       <c r="O68" s="32"/>
       <c r="P68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
-      <c r="T68" s="39"/>
+      <c r="T68" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="G1:G68"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="H59:M68"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="N1:N68"/>
     <mergeCell ref="O52:T68"/>
     <mergeCell ref="H15:H19"/>
@@ -4013,22 +4015,20 @@
     <mergeCell ref="O9:O11"/>
     <mergeCell ref="O12:O14"/>
     <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="G1:G68"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="H59:M68"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29467369-A6EA-4F29-A474-0DF84E1F61CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA72E0CF-5DFD-4F14-9135-25DF8CFD3932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="4488" yWindow="1068" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -784,11 +784,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -796,49 +808,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59:M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1170,32 +1170,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="35" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="35" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="36"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1214,7 +1214,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="28"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="22" t="s">
         <v>61</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="28"/>
+      <c r="N2" s="27"/>
       <c r="O2" s="22" t="s">
         <v>86</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1272,8 +1272,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1285,8 +1285,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="23"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="24"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="28"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="22" t="s">
         <v>62</v>
       </c>
@@ -1331,8 +1331,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="23"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="24"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1364,8 +1364,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="23"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1381,8 +1381,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="24"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="23"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1414,8 +1414,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="28"/>
+      <c r="N6" s="27"/>
       <c r="O6" s="22" t="s">
         <v>87</v>
       </c>
@@ -1464,8 +1464,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="24"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="24"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="23"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="28"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="28"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="28"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="22" t="s">
         <v>64</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="28"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="22" t="s">
         <v>89</v>
       </c>
@@ -1608,8 +1608,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="24"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1617,8 +1617,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="23"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="24"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1636,25 +1636,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="26" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="24"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="23"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="28"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="22" t="s">
         <v>23</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="28"/>
+      <c r="N12" s="27"/>
       <c r="O12" s="22" t="s">
         <v>90</v>
       </c>
@@ -1724,8 +1724,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="23"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1741,8 +1741,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="23"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="24"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1770,8 +1770,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="24"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1783,8 +1783,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="24"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="23"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="22" t="s">
         <v>24</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="28"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1864,8 +1864,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="28"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1920,8 +1920,8 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="28"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1968,8 +1968,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="28"/>
+      <c r="N18" s="27"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2010,8 +2010,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2025,15 +2025,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="26" t="s">
+      <c r="N19" s="27"/>
+      <c r="O19" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="34"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="40"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -2054,7 +2054,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="28"/>
+      <c r="N20" s="27"/>
       <c r="O20" s="22" t="s">
         <v>96</v>
       </c>
@@ -2088,7 +2088,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="28"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2123,8 +2123,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="28"/>
-      <c r="O21" s="24"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="23"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="28"/>
+      <c r="N22" s="27"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="28"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="22" t="s">
         <v>28</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="28"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2242,8 +2242,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="23"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="28"/>
+      <c r="N24" s="27"/>
       <c r="O24" s="22" t="s">
         <v>99</v>
       </c>
@@ -2298,8 +2298,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="24"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2311,8 +2311,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="24"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="23"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="28"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="28"/>
+      <c r="N26" s="27"/>
       <c r="O26" s="22" t="s">
         <v>100</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="28"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2405,8 +2405,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="24"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="28"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2449,8 +2449,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="24"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="23"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2460,15 +2460,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="28"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="28"/>
+      <c r="N29" s="27"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="28"/>
+      <c r="N30" s="27"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2562,16 +2562,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="26" t="s">
+      <c r="G31" s="27"/>
+      <c r="H31" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="28"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="27"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="28"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2615,18 +2615,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="26" t="s">
+      <c r="N32" s="27"/>
+      <c r="O32" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="34"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="40"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="28"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="28"/>
+      <c r="N33" s="27"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="28"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="22" t="s">
         <v>68</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="M34" s="9">
         <v>51</v>
       </c>
-      <c r="N34" s="28"/>
+      <c r="N34" s="27"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2730,8 +2730,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="23"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="3">
         <v>52</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="M35" s="12">
         <v>40</v>
       </c>
-      <c r="N35" s="28"/>
+      <c r="N35" s="27"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2778,8 +2778,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="23"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="3">
         <v>46</v>
       </c>
@@ -2795,15 +2795,15 @@
       <c r="M36" s="12">
         <v>60</v>
       </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="35" t="s">
+      <c r="N36" s="27"/>
+      <c r="O36" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="36"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="41"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2818,8 +2818,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="23"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="3">
         <v>491</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="28"/>
+      <c r="N37" s="27"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2854,16 +2854,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="24"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="10">
         <v>332</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="28"/>
+      <c r="N38" s="27"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="28"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="28"/>
+      <c r="N39" s="27"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="28"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="28"/>
+      <c r="N40" s="27"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="28"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -2993,15 +2993,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="26" t="s">
+      <c r="N41" s="27"/>
+      <c r="O41" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="34"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="40"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="28"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="22" t="s">
         <v>72</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="28"/>
+      <c r="N42" s="27"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3050,16 +3050,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="23"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="3">
         <v>130</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="28"/>
+      <c r="N43" s="27"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3104,8 +3104,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="24"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="28"/>
+      <c r="N44" s="27"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="28"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="28"/>
+      <c r="N45" s="27"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="28"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="28"/>
+      <c r="N46" s="27"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="28"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="28"/>
+      <c r="N47" s="27"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3264,16 +3264,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="26" t="s">
+      <c r="G48" s="27"/>
+      <c r="H48" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="28"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="27"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3288,15 +3288,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="28"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="22" t="s">
         <v>77</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="28"/>
+      <c r="N49" s="27"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3348,8 +3348,8 @@
       <c r="F50" s="15">
         <v>202</v>
       </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="24"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="23"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="28"/>
+      <c r="N50" s="27"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3370,23 +3370,23 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
       <c r="C51" s="4">
         <v>290</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="4">
         <v>532</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="4">
         <v>205</v>
       </c>
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="28"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="22" t="s">
         <v>78</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="28"/>
+      <c r="N51" s="27"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3428,8 +3428,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="24"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="23"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3443,34 +3443,34 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="31"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="38"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="20">
         <v>1</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="20">
         <v>167</v>
       </c>
       <c r="D53" s="6">
         <v>599</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="20">
         <v>219</v>
       </c>
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="28"/>
+      <c r="G53" s="27"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3487,13 +3487,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="31"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="38"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
@@ -3514,7 +3514,7 @@
       <c r="F54" s="9">
         <v>454</v>
       </c>
-      <c r="G54" s="28"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3527,16 +3527,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="31"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="38"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="10">
         <v>18</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="28"/>
+      <c r="G55" s="27"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3561,13 +3561,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="31"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="38"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3584,33 +3584,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="37" t="s">
+      <c r="G56" s="27"/>
+      <c r="H56" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="31"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="38"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="28"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="27"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3629,13 +3629,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="28"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="31"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="38"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
@@ -3656,7 +3656,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="28"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3671,16 +3671,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="31"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="38"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3696,23 +3696,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="28"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="31"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="38"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3728,23 +3728,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="28"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="31"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="38"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3760,23 +3760,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="28"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="31"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="38"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3792,23 +3792,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="28"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="31"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="38"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3816,20 +3816,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="31"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="38"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3848,20 +3848,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="31"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="38"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3878,20 +3878,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="31"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="38"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3904,20 +3904,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="31"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="31"/>
+      <c r="T66" s="38"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
@@ -3938,23 +3938,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="28"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="31"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="31"/>
+      <c r="T67" s="38"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3966,23 +3966,53 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="29"/>
+      <c r="G68" s="28"/>
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
       <c r="M68" s="32"/>
-      <c r="N68" s="29"/>
+      <c r="N68" s="28"/>
       <c r="O68" s="32"/>
       <c r="P68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
-      <c r="T68" s="33"/>
+      <c r="T68" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="N1:N68"/>
+    <mergeCell ref="O52:T68"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O20:O21"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="O2:O5"/>
     <mergeCell ref="H1:M1"/>
@@ -3999,36 +4029,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="N1:N68"/>
-    <mergeCell ref="O52:T68"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA72E0CF-5DFD-4F14-9135-25DF8CFD3932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB44EE5-7365-4E0A-9BA0-E42549B8225E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4488" yWindow="1068" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="672" yWindow="1788" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -784,34 +784,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,18 +839,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59:M68"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1170,32 +1170,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="25" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="25" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="41"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="36"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1214,7 +1214,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="27"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="22" t="s">
         <v>61</v>
       </c>
@@ -1227,13 +1227,13 @@
       <c r="K2" s="8">
         <v>167</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="14">
         <v>15</v>
       </c>
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="27"/>
+      <c r="N2" s="28"/>
       <c r="O2" s="22" t="s">
         <v>86</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1272,8 +1272,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1285,8 +1285,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="24"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="23"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="22" t="s">
         <v>62</v>
       </c>
@@ -1331,8 +1331,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="24"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="23"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1364,8 +1364,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="24"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1381,8 +1381,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="23"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="24"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1414,8 +1414,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="24"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="27"/>
+      <c r="N6" s="28"/>
       <c r="O6" s="22" t="s">
         <v>87</v>
       </c>
@@ -1464,8 +1464,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="23"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="24"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="27"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="27"/>
+      <c r="N8" s="28"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="27"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="22" t="s">
         <v>64</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="27"/>
+      <c r="N9" s="28"/>
       <c r="O9" s="22" t="s">
         <v>89</v>
       </c>
@@ -1608,8 +1608,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="23"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1617,8 +1617,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="24"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="23"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1636,25 +1636,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="30" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="23"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="24"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="27"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="22" t="s">
         <v>23</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="27"/>
+      <c r="N12" s="28"/>
       <c r="O12" s="22" t="s">
         <v>90</v>
       </c>
@@ -1724,8 +1724,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1741,8 +1741,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="24"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="23"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1770,8 +1770,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="23"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1783,8 +1783,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="23"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="24"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="27"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="22" t="s">
         <v>24</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="27"/>
+      <c r="N15" s="28"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1864,8 +1864,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="24"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="27"/>
+      <c r="N16" s="28"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1920,8 +1920,8 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="24"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="27"/>
+      <c r="N17" s="28"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1968,8 +1968,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="24"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="27"/>
+      <c r="N18" s="28"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2010,8 +2010,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="24"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2025,15 +2025,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="30" t="s">
+      <c r="N19" s="28"/>
+      <c r="O19" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="40"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="34"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -2054,7 +2054,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="27"/>
+      <c r="N20" s="28"/>
       <c r="O20" s="22" t="s">
         <v>96</v>
       </c>
@@ -2088,7 +2088,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2123,8 +2123,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="23"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="24"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="27"/>
+      <c r="N22" s="28"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="27"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="22" t="s">
         <v>28</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="27"/>
+      <c r="N23" s="28"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2242,8 +2242,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="24"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="27"/>
+      <c r="N24" s="28"/>
       <c r="O24" s="22" t="s">
         <v>99</v>
       </c>
@@ -2298,8 +2298,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="23"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2311,8 +2311,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="23"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="24"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="27"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="27"/>
+      <c r="N26" s="28"/>
       <c r="O26" s="22" t="s">
         <v>100</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="27"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2405,8 +2405,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="24"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="23"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="27"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2449,8 +2449,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="23"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="24"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2460,15 +2460,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="27"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="27"/>
+      <c r="N29" s="28"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="27"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="27"/>
+      <c r="N30" s="28"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2562,16 +2562,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="30" t="s">
+      <c r="G31" s="28"/>
+      <c r="H31" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="27"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="28"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="27"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2615,18 +2615,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="30" t="s">
+      <c r="N32" s="28"/>
+      <c r="O32" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="40"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="34"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="27"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="27"/>
+      <c r="N33" s="28"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="27"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="22" t="s">
         <v>68</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="M34" s="9">
         <v>51</v>
       </c>
-      <c r="N34" s="27"/>
+      <c r="N34" s="28"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2730,8 +2730,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="24"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="3">
         <v>52</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="M35" s="12">
         <v>40</v>
       </c>
-      <c r="N35" s="27"/>
+      <c r="N35" s="28"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2778,8 +2778,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="24"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="3">
         <v>46</v>
       </c>
@@ -2795,15 +2795,15 @@
       <c r="M36" s="12">
         <v>60</v>
       </c>
-      <c r="N36" s="27"/>
-      <c r="O36" s="25" t="s">
+      <c r="N36" s="28"/>
+      <c r="O36" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="41"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="36"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2818,8 +2818,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="24"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="3">
         <v>491</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="27"/>
+      <c r="N37" s="28"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2854,16 +2854,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="23"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="10">
         <v>332</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="27"/>
+      <c r="N38" s="28"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="27"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="27"/>
+      <c r="N39" s="28"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="27"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="27"/>
+      <c r="N40" s="28"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="27"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -2993,15 +2993,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="30" t="s">
+      <c r="N41" s="28"/>
+      <c r="O41" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="40"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="34"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="27"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="22" t="s">
         <v>72</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="27"/>
+      <c r="N42" s="28"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3050,16 +3050,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="24"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="3">
         <v>130</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="27"/>
+      <c r="N43" s="28"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3104,8 +3104,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="23"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="24"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="27"/>
+      <c r="N44" s="28"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="27"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="27"/>
+      <c r="N45" s="28"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="27"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="27"/>
+      <c r="N46" s="28"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="27"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="27"/>
+      <c r="N47" s="28"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3264,16 +3264,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="30" t="s">
+      <c r="G48" s="28"/>
+      <c r="H48" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="27"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="28"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3288,15 +3288,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="27"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="22" t="s">
         <v>77</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="27"/>
+      <c r="N49" s="28"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3348,8 +3348,8 @@
       <c r="F50" s="15">
         <v>202</v>
       </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="23"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="24"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="27"/>
+      <c r="N50" s="28"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="27"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="22" t="s">
         <v>78</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="27"/>
+      <c r="N51" s="28"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3428,8 +3428,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="23"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="24"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3443,13 +3443,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="38"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="31"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3470,7 +3470,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="27"/>
+      <c r="G53" s="28"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3487,13 +3487,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="38"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="31"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
@@ -3514,7 +3514,7 @@
       <c r="F54" s="9">
         <v>454</v>
       </c>
-      <c r="G54" s="27"/>
+      <c r="G54" s="28"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3527,16 +3527,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="38"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="31"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="10">
         <v>18</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="27"/>
+      <c r="G55" s="28"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3561,13 +3561,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="38"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="31"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3584,33 +3584,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="33" t="s">
+      <c r="G56" s="28"/>
+      <c r="H56" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="38"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="31"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="27"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="28"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3629,13 +3629,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="27"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="38"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="31"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
@@ -3656,7 +3656,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="27"/>
+      <c r="G58" s="28"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3671,16 +3671,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="38"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="31"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3696,23 +3696,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="27"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="38"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="31"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3728,23 +3728,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="27"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="38"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="31"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3760,23 +3760,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="27"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="38"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="31"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3792,23 +3792,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="27"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="38"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="31"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3816,20 +3816,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="38"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="31"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3848,20 +3848,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="31"/>
-      <c r="T64" s="38"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="31"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3878,20 +3878,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
-      <c r="T65" s="38"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="31"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3904,20 +3904,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="31"/>
-      <c r="T66" s="38"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="31"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
@@ -3938,23 +3938,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="27"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="31"/>
-      <c r="S67" s="31"/>
-      <c r="T67" s="38"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="31"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3966,37 +3966,39 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="28"/>
+      <c r="G68" s="29"/>
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
       <c r="M68" s="32"/>
-      <c r="N68" s="28"/>
+      <c r="N68" s="29"/>
       <c r="O68" s="32"/>
       <c r="P68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
-      <c r="T68" s="39"/>
+      <c r="T68" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="G1:G68"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="H59:M68"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="N1:N68"/>
     <mergeCell ref="O52:T68"/>
     <mergeCell ref="H15:H19"/>
@@ -4013,22 +4015,20 @@
     <mergeCell ref="O9:O11"/>
     <mergeCell ref="O12:O14"/>
     <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="G1:G68"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="H59:M68"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB44EE5-7365-4E0A-9BA0-E42549B8225E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF35747-3CE0-47A4-A0D7-4FA65D533F4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="1788" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="3252" yWindow="1812" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -784,11 +784,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -796,49 +808,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1170,32 +1170,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="35" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="35" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="36"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1214,7 +1214,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="28"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="22" t="s">
         <v>61</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="28"/>
+      <c r="N2" s="27"/>
       <c r="O2" s="22" t="s">
         <v>86</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1272,8 +1272,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1285,8 +1285,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="23"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="24"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="28"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="22" t="s">
         <v>62</v>
       </c>
@@ -1331,8 +1331,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="23"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="24"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1364,8 +1364,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="23"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1381,8 +1381,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="24"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="23"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1414,8 +1414,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="28"/>
+      <c r="N6" s="27"/>
       <c r="O6" s="22" t="s">
         <v>87</v>
       </c>
@@ -1464,8 +1464,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="24"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="24"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="23"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="28"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="28"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="28"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="22" t="s">
         <v>64</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="28"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="22" t="s">
         <v>89</v>
       </c>
@@ -1608,8 +1608,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="24"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1617,8 +1617,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="23"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="24"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1636,25 +1636,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="26" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="24"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="23"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="28"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="22" t="s">
         <v>23</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="28"/>
+      <c r="N12" s="27"/>
       <c r="O12" s="22" t="s">
         <v>90</v>
       </c>
@@ -1724,8 +1724,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="23"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1741,8 +1741,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="23"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="24"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1770,8 +1770,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="24"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1783,8 +1783,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="24"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="23"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="22" t="s">
         <v>24</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="28"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1864,8 +1864,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="28"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1920,8 +1920,8 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="28"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1968,8 +1968,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="28"/>
+      <c r="N18" s="27"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2010,8 +2010,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2025,15 +2025,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="26" t="s">
+      <c r="N19" s="27"/>
+      <c r="O19" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="34"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="40"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -2054,7 +2054,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="28"/>
+      <c r="N20" s="27"/>
       <c r="O20" s="22" t="s">
         <v>96</v>
       </c>
@@ -2088,7 +2088,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="28"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2123,8 +2123,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="28"/>
-      <c r="O21" s="24"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="23"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="28"/>
+      <c r="N22" s="27"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="28"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="22" t="s">
         <v>28</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="28"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2242,8 +2242,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="23"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="28"/>
+      <c r="N24" s="27"/>
       <c r="O24" s="22" t="s">
         <v>99</v>
       </c>
@@ -2298,8 +2298,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="24"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2311,8 +2311,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="24"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="23"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="28"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="28"/>
+      <c r="N26" s="27"/>
       <c r="O26" s="22" t="s">
         <v>100</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="28"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2405,8 +2405,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="24"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="28"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2449,8 +2449,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="24"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="23"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2460,15 +2460,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="28"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="28"/>
+      <c r="N29" s="27"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="28"/>
+      <c r="N30" s="27"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2562,16 +2562,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="26" t="s">
+      <c r="G31" s="27"/>
+      <c r="H31" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="28"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="27"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="28"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2615,18 +2615,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="26" t="s">
+      <c r="N32" s="27"/>
+      <c r="O32" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="34"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="40"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="28"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="28"/>
+      <c r="N33" s="27"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="28"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="22" t="s">
         <v>68</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="M34" s="9">
         <v>51</v>
       </c>
-      <c r="N34" s="28"/>
+      <c r="N34" s="27"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2730,8 +2730,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="23"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="3">
         <v>52</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="M35" s="12">
         <v>40</v>
       </c>
-      <c r="N35" s="28"/>
+      <c r="N35" s="27"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2778,8 +2778,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="23"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="3">
         <v>46</v>
       </c>
@@ -2795,15 +2795,15 @@
       <c r="M36" s="12">
         <v>60</v>
       </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="35" t="s">
+      <c r="N36" s="27"/>
+      <c r="O36" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="36"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="41"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2818,8 +2818,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="23"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="3">
         <v>491</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="28"/>
+      <c r="N37" s="27"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2854,16 +2854,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="24"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="10">
         <v>332</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="28"/>
+      <c r="N38" s="27"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="28"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="28"/>
+      <c r="N39" s="27"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="28"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="28"/>
+      <c r="N40" s="27"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="28"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -2993,15 +2993,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="26" t="s">
+      <c r="N41" s="27"/>
+      <c r="O41" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="34"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="40"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="28"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="22" t="s">
         <v>72</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="28"/>
+      <c r="N42" s="27"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3050,16 +3050,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="23"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="3">
         <v>130</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="28"/>
+      <c r="N43" s="27"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3104,8 +3104,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="24"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="28"/>
+      <c r="N44" s="27"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="28"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="28"/>
+      <c r="N45" s="27"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="28"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="28"/>
+      <c r="N46" s="27"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="28"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="28"/>
+      <c r="N47" s="27"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3264,16 +3264,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="26" t="s">
+      <c r="G48" s="27"/>
+      <c r="H48" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="28"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="27"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3288,15 +3288,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="28"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="22" t="s">
         <v>77</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="28"/>
+      <c r="N49" s="27"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3348,8 +3348,8 @@
       <c r="F50" s="15">
         <v>202</v>
       </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="24"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="23"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="28"/>
+      <c r="N50" s="27"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="28"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="22" t="s">
         <v>78</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="28"/>
+      <c r="N51" s="27"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3428,8 +3428,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="24"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="23"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3443,13 +3443,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="31"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="38"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3470,7 +3470,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="28"/>
+      <c r="G53" s="27"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3487,22 +3487,22 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="31"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="38"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="14">
         <v>594</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="14">
         <v>350</v>
       </c>
       <c r="D54" s="8">
@@ -3511,10 +3511,10 @@
       <c r="E54" s="8">
         <v>609</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="15">
         <v>454</v>
       </c>
-      <c r="G54" s="28"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3527,24 +3527,24 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="31"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="38"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
-      <c r="B55" s="10">
+      <c r="A55" s="23"/>
+      <c r="B55" s="17">
         <v>18</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="28"/>
+      <c r="G55" s="27"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3561,13 +3561,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="31"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="38"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3584,33 +3584,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="37" t="s">
+      <c r="G56" s="27"/>
+      <c r="H56" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="31"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="38"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="28"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="27"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3629,13 +3629,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="28"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="31"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="38"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
@@ -3656,7 +3656,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="28"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3671,16 +3671,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="31"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="38"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3696,23 +3696,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="28"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="31"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="38"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3728,23 +3728,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="28"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="31"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="38"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3760,23 +3760,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="28"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="31"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="38"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3792,23 +3792,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="28"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="31"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="38"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3816,20 +3816,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="31"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="38"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3848,20 +3848,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="31"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="38"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3878,20 +3878,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="31"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="38"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3904,20 +3904,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="31"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="31"/>
+      <c r="T66" s="38"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
@@ -3938,23 +3938,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="28"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="31"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="31"/>
+      <c r="T67" s="38"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3966,23 +3966,53 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="29"/>
+      <c r="G68" s="28"/>
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
       <c r="M68" s="32"/>
-      <c r="N68" s="29"/>
+      <c r="N68" s="28"/>
       <c r="O68" s="32"/>
       <c r="P68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
-      <c r="T68" s="33"/>
+      <c r="T68" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="N1:N68"/>
+    <mergeCell ref="O52:T68"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O20:O21"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="O2:O5"/>
     <mergeCell ref="H1:M1"/>
@@ -3999,36 +4029,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="N1:N68"/>
-    <mergeCell ref="O52:T68"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF35747-3CE0-47A4-A0D7-4FA65D533F4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7D2CF4-7FED-4B22-81ED-3C7A6FE05B62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3252" yWindow="1812" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="3252" yWindow="1788" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -784,34 +784,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,18 +839,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1170,32 +1170,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="25" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="25" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="41"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="36"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1214,7 +1214,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="27"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="22" t="s">
         <v>61</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="27"/>
+      <c r="N2" s="28"/>
       <c r="O2" s="22" t="s">
         <v>86</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1272,8 +1272,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1285,8 +1285,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="24"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="23"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="27"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="22" t="s">
         <v>62</v>
       </c>
@@ -1331,8 +1331,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="24"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="23"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1364,8 +1364,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="24"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1381,8 +1381,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="23"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="24"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1414,8 +1414,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="24"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="27"/>
+      <c r="N6" s="28"/>
       <c r="O6" s="22" t="s">
         <v>87</v>
       </c>
@@ -1464,8 +1464,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="23"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="24"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="27"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="27"/>
+      <c r="N8" s="28"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="27"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="22" t="s">
         <v>64</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="27"/>
+      <c r="N9" s="28"/>
       <c r="O9" s="22" t="s">
         <v>89</v>
       </c>
@@ -1608,8 +1608,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="23"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1617,8 +1617,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="24"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="23"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1636,25 +1636,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="30" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="23"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="24"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="27"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="22" t="s">
         <v>23</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="27"/>
+      <c r="N12" s="28"/>
       <c r="O12" s="22" t="s">
         <v>90</v>
       </c>
@@ -1724,8 +1724,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1741,8 +1741,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="24"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="23"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1770,8 +1770,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="23"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1783,8 +1783,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="23"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="24"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="27"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="22" t="s">
         <v>24</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="27"/>
+      <c r="N15" s="28"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1864,8 +1864,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="24"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="27"/>
+      <c r="N16" s="28"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1920,8 +1920,8 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="24"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="27"/>
+      <c r="N17" s="28"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1968,8 +1968,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="24"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="27"/>
+      <c r="N18" s="28"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2010,8 +2010,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="24"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2025,15 +2025,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="30" t="s">
+      <c r="N19" s="28"/>
+      <c r="O19" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="40"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="34"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -2054,7 +2054,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="27"/>
+      <c r="N20" s="28"/>
       <c r="O20" s="22" t="s">
         <v>96</v>
       </c>
@@ -2088,7 +2088,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2123,8 +2123,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="23"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="24"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="27"/>
+      <c r="N22" s="28"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="27"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="22" t="s">
         <v>28</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="27"/>
+      <c r="N23" s="28"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2242,8 +2242,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="24"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="27"/>
+      <c r="N24" s="28"/>
       <c r="O24" s="22" t="s">
         <v>99</v>
       </c>
@@ -2298,8 +2298,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="23"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2311,8 +2311,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="23"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="24"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="27"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="27"/>
+      <c r="N26" s="28"/>
       <c r="O26" s="22" t="s">
         <v>100</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="27"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2405,8 +2405,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="24"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="23"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="27"/>
+      <c r="G28" s="28"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2449,8 +2449,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="23"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="24"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2460,15 +2460,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="27"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="27"/>
+      <c r="N29" s="28"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="27"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="27"/>
+      <c r="N30" s="28"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2562,16 +2562,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="30" t="s">
+      <c r="G31" s="28"/>
+      <c r="H31" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="27"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="28"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="27"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2615,18 +2615,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="30" t="s">
+      <c r="N32" s="28"/>
+      <c r="O32" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="40"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="34"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="27"/>
+      <c r="G33" s="28"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="27"/>
+      <c r="N33" s="28"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="27"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="22" t="s">
         <v>68</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="M34" s="9">
         <v>51</v>
       </c>
-      <c r="N34" s="27"/>
+      <c r="N34" s="28"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2730,8 +2730,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="24"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="3">
         <v>52</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="M35" s="12">
         <v>40</v>
       </c>
-      <c r="N35" s="27"/>
+      <c r="N35" s="28"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2778,8 +2778,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="24"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="3">
         <v>46</v>
       </c>
@@ -2795,15 +2795,15 @@
       <c r="M36" s="12">
         <v>60</v>
       </c>
-      <c r="N36" s="27"/>
-      <c r="O36" s="25" t="s">
+      <c r="N36" s="28"/>
+      <c r="O36" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="41"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="36"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2818,8 +2818,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="24"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="3">
         <v>491</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="27"/>
+      <c r="N37" s="28"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2854,16 +2854,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="23"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="10">
         <v>332</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="27"/>
+      <c r="N38" s="28"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="27"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="27"/>
+      <c r="N39" s="28"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="27"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="27"/>
+      <c r="N40" s="28"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="27"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -2993,15 +2993,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="30" t="s">
+      <c r="N41" s="28"/>
+      <c r="O41" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="40"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="34"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="27"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="22" t="s">
         <v>72</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="27"/>
+      <c r="N42" s="28"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3050,16 +3050,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="24"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="3">
         <v>130</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="27"/>
+      <c r="N43" s="28"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3104,8 +3104,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="23"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="24"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="27"/>
+      <c r="N44" s="28"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="27"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="27"/>
+      <c r="N45" s="28"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="27"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="27"/>
+      <c r="N46" s="28"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="27"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="27"/>
+      <c r="N47" s="28"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3264,16 +3264,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="30" t="s">
+      <c r="G48" s="28"/>
+      <c r="H48" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="27"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="28"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3288,15 +3288,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="27"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="22" t="s">
         <v>77</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="27"/>
+      <c r="N49" s="28"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3348,8 +3348,8 @@
       <c r="F50" s="15">
         <v>202</v>
       </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="23"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="24"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="27"/>
+      <c r="N50" s="28"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="27"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="22" t="s">
         <v>78</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="27"/>
+      <c r="N51" s="28"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3428,8 +3428,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="23"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="24"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3443,13 +3443,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="38"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="31"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3470,7 +3470,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="27"/>
+      <c r="G53" s="28"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3487,13 +3487,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="38"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="31"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
@@ -3514,7 +3514,7 @@
       <c r="F54" s="15">
         <v>454</v>
       </c>
-      <c r="G54" s="27"/>
+      <c r="G54" s="28"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3527,16 +3527,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="38"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="31"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="17">
         <v>18</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="27"/>
+      <c r="G55" s="28"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3561,56 +3561,56 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="38"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="31"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="20">
         <v>560</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="20">
         <v>523</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="20">
         <v>525</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="33" t="s">
+      <c r="G56" s="28"/>
+      <c r="H56" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="38"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="31"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="27"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="28"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3629,13 +3629,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="27"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="38"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="31"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
@@ -3656,7 +3656,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="27"/>
+      <c r="G58" s="28"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3671,16 +3671,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="38"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="31"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3696,23 +3696,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="27"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="38"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="31"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3728,23 +3728,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="27"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="38"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="31"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3760,23 +3760,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="27"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="38"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="31"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3792,23 +3792,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="27"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="38"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="31"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3816,20 +3816,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="38"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="31"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3848,20 +3848,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="31"/>
-      <c r="T64" s="38"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="31"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3878,20 +3878,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
-      <c r="T65" s="38"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="31"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3904,20 +3904,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="31"/>
-      <c r="T66" s="38"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="31"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
@@ -3938,23 +3938,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="27"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="31"/>
-      <c r="S67" s="31"/>
-      <c r="T67" s="38"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="31"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3966,37 +3966,39 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="28"/>
+      <c r="G68" s="29"/>
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
       <c r="M68" s="32"/>
-      <c r="N68" s="28"/>
+      <c r="N68" s="29"/>
       <c r="O68" s="32"/>
       <c r="P68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
-      <c r="T68" s="39"/>
+      <c r="T68" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="G1:G68"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="H59:M68"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="N1:N68"/>
     <mergeCell ref="O52:T68"/>
     <mergeCell ref="H15:H19"/>
@@ -4013,22 +4015,20 @@
     <mergeCell ref="O9:O11"/>
     <mergeCell ref="O12:O14"/>
     <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="G1:G68"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="H59:M68"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7D2CF4-7FED-4B22-81ED-3C7A6FE05B62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABF87DA-147E-4D89-9C41-92D62EB745EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3252" yWindow="1788" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
@@ -784,11 +784,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -796,49 +808,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1170,32 +1170,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="35" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="35" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="36"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1214,7 +1214,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="28"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="22" t="s">
         <v>61</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="28"/>
+      <c r="N2" s="27"/>
       <c r="O2" s="22" t="s">
         <v>86</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1272,8 +1272,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1285,8 +1285,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="23"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="24"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="28"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="22" t="s">
         <v>62</v>
       </c>
@@ -1331,8 +1331,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="23"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="24"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1364,8 +1364,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="23"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1381,8 +1381,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="24"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="23"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1414,8 +1414,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="28"/>
+      <c r="N6" s="27"/>
       <c r="O6" s="22" t="s">
         <v>87</v>
       </c>
@@ -1464,8 +1464,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="24"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="24"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="23"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="28"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="28"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="28"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="22" t="s">
         <v>64</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="28"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="22" t="s">
         <v>89</v>
       </c>
@@ -1608,8 +1608,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="24"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1617,8 +1617,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="23"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="24"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1636,25 +1636,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="26" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="24"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="23"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="28"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="22" t="s">
         <v>23</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="28"/>
+      <c r="N12" s="27"/>
       <c r="O12" s="22" t="s">
         <v>90</v>
       </c>
@@ -1724,8 +1724,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="23"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1741,8 +1741,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="23"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="24"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1770,8 +1770,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="24"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1783,8 +1783,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="24"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="23"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="22" t="s">
         <v>24</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="28"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1864,8 +1864,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="28"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1920,8 +1920,8 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="28"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1968,8 +1968,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="28"/>
+      <c r="N18" s="27"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2010,8 +2010,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2025,15 +2025,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="26" t="s">
+      <c r="N19" s="27"/>
+      <c r="O19" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="34"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="40"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -2054,7 +2054,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="28"/>
+      <c r="N20" s="27"/>
       <c r="O20" s="22" t="s">
         <v>96</v>
       </c>
@@ -2088,7 +2088,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="28"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2123,8 +2123,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="28"/>
-      <c r="O21" s="24"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="23"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="28"/>
+      <c r="N22" s="27"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="28"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="22" t="s">
         <v>28</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="28"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2242,8 +2242,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="23"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="28"/>
+      <c r="N24" s="27"/>
       <c r="O24" s="22" t="s">
         <v>99</v>
       </c>
@@ -2298,8 +2298,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="24"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2311,8 +2311,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="24"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="23"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="28"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="28"/>
+      <c r="N26" s="27"/>
       <c r="O26" s="22" t="s">
         <v>100</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="28"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2405,8 +2405,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="23"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="24"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="28"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2449,8 +2449,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="24"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="23"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2460,15 +2460,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="28"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="28"/>
+      <c r="N29" s="27"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="28"/>
+      <c r="N30" s="27"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2562,16 +2562,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="26" t="s">
+      <c r="G31" s="27"/>
+      <c r="H31" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="28"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="27"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2604,29 +2604,29 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="28"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="20">
         <v>565</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="26" t="s">
+      <c r="N32" s="27"/>
+      <c r="O32" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="34"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="40"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2642,11 +2642,11 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="28"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="20">
         <v>17</v>
       </c>
       <c r="J33" s="6">
@@ -2655,7 +2655,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="28"/>
+      <c r="N33" s="27"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="28"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="22" t="s">
         <v>68</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="M34" s="9">
         <v>51</v>
       </c>
-      <c r="N34" s="28"/>
+      <c r="N34" s="27"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2730,8 +2730,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="23"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="3">
         <v>52</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="M35" s="12">
         <v>40</v>
       </c>
-      <c r="N35" s="28"/>
+      <c r="N35" s="27"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2778,8 +2778,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="23"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="3">
         <v>46</v>
       </c>
@@ -2795,15 +2795,15 @@
       <c r="M36" s="12">
         <v>60</v>
       </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="35" t="s">
+      <c r="N36" s="27"/>
+      <c r="O36" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="36"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="41"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2818,8 +2818,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="23"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="3">
         <v>491</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="28"/>
+      <c r="N37" s="27"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2854,16 +2854,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="24"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="10">
         <v>332</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="28"/>
+      <c r="N38" s="27"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="28"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="28"/>
+      <c r="N39" s="27"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="28"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="28"/>
+      <c r="N40" s="27"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="28"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -2993,15 +2993,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="26" t="s">
+      <c r="N41" s="27"/>
+      <c r="O41" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="34"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="40"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="28"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="22" t="s">
         <v>72</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="28"/>
+      <c r="N42" s="27"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3050,16 +3050,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="23"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="3">
         <v>130</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="28"/>
+      <c r="N43" s="27"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3104,8 +3104,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="24"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="28"/>
+      <c r="N44" s="27"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="28"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="28"/>
+      <c r="N45" s="27"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="28"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="28"/>
+      <c r="N46" s="27"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="28"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="28"/>
+      <c r="N47" s="27"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3264,16 +3264,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="26" t="s">
+      <c r="G48" s="27"/>
+      <c r="H48" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="28"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="27"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3288,15 +3288,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="28"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="22" t="s">
         <v>77</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="28"/>
+      <c r="N49" s="27"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3348,8 +3348,8 @@
       <c r="F50" s="15">
         <v>202</v>
       </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="24"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="23"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="28"/>
+      <c r="N50" s="27"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="28"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="22" t="s">
         <v>78</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="28"/>
+      <c r="N51" s="27"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3428,8 +3428,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="24"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="23"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3443,13 +3443,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="31"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="38"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3470,7 +3470,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="28"/>
+      <c r="G53" s="27"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3487,13 +3487,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="31"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="38"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
@@ -3514,7 +3514,7 @@
       <c r="F54" s="15">
         <v>454</v>
       </c>
-      <c r="G54" s="28"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3527,16 +3527,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="31"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="38"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="17">
         <v>18</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="28"/>
+      <c r="G55" s="27"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3561,13 +3561,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="31"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="38"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3584,33 +3584,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="37" t="s">
+      <c r="G56" s="27"/>
+      <c r="H56" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="31"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="38"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="28"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="27"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3629,13 +3629,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="28"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="31"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="38"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
@@ -3656,7 +3656,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="28"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3671,16 +3671,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="31"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="38"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3696,23 +3696,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="28"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="31"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="38"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3728,23 +3728,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="28"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="31"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="38"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3760,23 +3760,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="28"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="31"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="38"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3792,23 +3792,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="28"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="31"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="38"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3816,20 +3816,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="31"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="38"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3848,20 +3848,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="31"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="38"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3878,20 +3878,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="31"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="38"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3904,20 +3904,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="31"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="31"/>
+      <c r="T66" s="38"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
@@ -3938,23 +3938,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="28"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="31"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="31"/>
+      <c r="T67" s="38"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3966,23 +3966,53 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="29"/>
+      <c r="G68" s="28"/>
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
       <c r="M68" s="32"/>
-      <c r="N68" s="29"/>
+      <c r="N68" s="28"/>
       <c r="O68" s="32"/>
       <c r="P68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
-      <c r="T68" s="33"/>
+      <c r="T68" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="N1:N68"/>
+    <mergeCell ref="O52:T68"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O20:O21"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="O2:O5"/>
     <mergeCell ref="H1:M1"/>
@@ -3999,36 +4029,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="N1:N68"/>
-    <mergeCell ref="O52:T68"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABF87DA-147E-4D89-9C41-92D62EB745EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E172CF-EFFC-4C18-9067-24B3441956A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3252" yWindow="1788" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
@@ -714,7 +714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,37 +781,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,18 +851,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,7 +1170,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1170,32 +1182,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="25" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="25" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="41"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="40"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1214,8 +1226,8 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="26" t="s">
         <v>61</v>
       </c>
       <c r="I2" s="8">
@@ -1233,8 +1245,8 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="22" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="26" t="s">
         <v>86</v>
       </c>
       <c r="P2" s="8">
@@ -1254,7 +1266,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1272,8 +1284,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1285,8 +1297,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="24"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="27"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1304,7 +1316,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1312,8 +1324,8 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="22" t="s">
+      <c r="G4" s="32"/>
+      <c r="H4" s="26" t="s">
         <v>62</v>
       </c>
       <c r="I4" s="8">
@@ -1331,8 +1343,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="24"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="27"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1364,8 +1376,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="24"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1381,8 +1393,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="23"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="28"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1414,8 +1426,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="24"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1431,8 +1443,8 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="22" t="s">
+      <c r="N6" s="32"/>
+      <c r="O6" s="26" t="s">
         <v>87</v>
       </c>
       <c r="P6" s="8">
@@ -1464,8 +1476,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1473,8 +1485,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="23"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="28"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1498,7 +1510,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="27"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1517,7 +1529,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="27"/>
+      <c r="N8" s="32"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1554,8 +1566,8 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="22" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="26" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="8">
@@ -1573,8 +1585,8 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="22" t="s">
+      <c r="N9" s="32"/>
+      <c r="O9" s="26" t="s">
         <v>89</v>
       </c>
       <c r="P9" s="8">
@@ -1608,8 +1620,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="23"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1617,8 +1629,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="24"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="27"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1644,7 +1656,7 @@
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
-      <c r="G11" s="27"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="30" t="s">
         <v>22</v>
       </c>
@@ -1653,8 +1665,8 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="23"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="28"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1674,8 +1686,8 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="22" t="s">
+      <c r="G12" s="32"/>
+      <c r="H12" s="26" t="s">
         <v>23</v>
       </c>
       <c r="I12" s="14">
@@ -1693,8 +1705,8 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="22" t="s">
+      <c r="N12" s="32"/>
+      <c r="O12" s="26" t="s">
         <v>90</v>
       </c>
       <c r="P12" s="8">
@@ -1724,8 +1736,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1741,8 +1753,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="24"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="27"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1770,8 +1782,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="23"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1783,8 +1795,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="23"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="28"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1808,8 +1820,8 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="22" t="s">
+      <c r="G15" s="32"/>
+      <c r="H15" s="26" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="14">
@@ -1827,7 +1839,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="27"/>
+      <c r="N15" s="32"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1864,8 +1876,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="24"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1881,7 +1893,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="27"/>
+      <c r="N16" s="32"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1902,7 +1914,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="14">
@@ -1920,8 +1932,8 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="24"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1937,7 +1949,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="27"/>
+      <c r="N17" s="32"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1952,7 +1964,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1968,8 +1980,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="24"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1985,7 +1997,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="27"/>
+      <c r="N18" s="32"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2000,7 +2012,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2010,8 +2022,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="24"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2025,7 +2037,7 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="27"/>
+      <c r="N19" s="32"/>
       <c r="O19" s="30" t="s">
         <v>95</v>
       </c>
@@ -2033,10 +2045,10 @@
       <c r="Q19" s="30"/>
       <c r="R19" s="30"/>
       <c r="S19" s="30"/>
-      <c r="T19" s="40"/>
+      <c r="T19" s="38"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="8">
@@ -2054,7 +2066,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2067,8 +2079,8 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="22" t="s">
+      <c r="N20" s="32"/>
+      <c r="O20" s="26" t="s">
         <v>96</v>
       </c>
       <c r="P20" s="8">
@@ -2088,7 +2100,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2104,7 +2116,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2123,8 +2135,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="23"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="28"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2134,7 +2146,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -2150,7 +2162,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2163,7 +2175,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="27"/>
+      <c r="N22" s="32"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2182,7 +2194,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2190,8 +2202,8 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="22" t="s">
+      <c r="G23" s="32"/>
+      <c r="H23" s="26" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="14">
@@ -2209,7 +2221,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="27"/>
+      <c r="N23" s="32"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2242,8 +2254,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="24"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2259,8 +2271,8 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="27"/>
-      <c r="O24" s="22" t="s">
+      <c r="N24" s="32"/>
+      <c r="O24" s="26" t="s">
         <v>99</v>
       </c>
       <c r="P24" s="8">
@@ -2298,8 +2310,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="23"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2311,8 +2323,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="23"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="28"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2344,7 +2356,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="27"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2357,8 +2369,8 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="22" t="s">
+      <c r="N26" s="32"/>
+      <c r="O26" s="26" t="s">
         <v>100</v>
       </c>
       <c r="P26" s="8">
@@ -2394,7 +2406,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="27"/>
+      <c r="G27" s="32"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2405,8 +2417,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="24"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="27"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2436,7 +2448,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="27"/>
+      <c r="G28" s="32"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2449,8 +2461,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="23"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="28"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2468,7 +2480,7 @@
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="27"/>
+      <c r="G29" s="32"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2481,7 +2493,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="27"/>
+      <c r="N29" s="32"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2502,7 +2514,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="26" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="8">
@@ -2520,7 +2532,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="27"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2533,7 +2545,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="27"/>
+      <c r="N30" s="32"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2546,7 +2558,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2562,7 +2574,7 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="27"/>
+      <c r="G31" s="32"/>
       <c r="H31" s="30" t="s">
         <v>65</v>
       </c>
@@ -2571,7 +2583,7 @@
       <c r="K31" s="30"/>
       <c r="L31" s="30"/>
       <c r="M31" s="30"/>
-      <c r="N31" s="27"/>
+      <c r="N31" s="32"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2588,7 +2600,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2604,7 +2616,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="27"/>
+      <c r="G32" s="32"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2615,7 +2627,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="27"/>
+      <c r="N32" s="32"/>
       <c r="O32" s="30" t="s">
         <v>104</v>
       </c>
@@ -2623,10 +2635,10 @@
       <c r="Q32" s="30"/>
       <c r="R32" s="30"/>
       <c r="S32" s="30"/>
-      <c r="T32" s="40"/>
+      <c r="T32" s="38"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2642,20 +2654,20 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="27"/>
+      <c r="G33" s="32"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
       <c r="I33" s="20">
         <v>17</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="20">
         <v>397</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="27"/>
+      <c r="N33" s="32"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2670,7 +2682,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2686,8 +2698,8 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="22" t="s">
+      <c r="G34" s="32"/>
+      <c r="H34" s="26" t="s">
         <v>68</v>
       </c>
       <c r="I34" s="8">
@@ -2702,10 +2714,10 @@
       <c r="L34" s="8">
         <v>37</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="15">
         <v>51</v>
       </c>
-      <c r="N34" s="27"/>
+      <c r="N34" s="32"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2720,7 +2732,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2730,9 +2742,9 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="3">
+      <c r="G35" s="32"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="4">
         <v>52</v>
       </c>
       <c r="J35" s="3">
@@ -2747,7 +2759,7 @@
       <c r="M35" s="12">
         <v>40</v>
       </c>
-      <c r="N35" s="27"/>
+      <c r="N35" s="32"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2778,32 +2790,32 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="3">
+      <c r="G36" s="32"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="22">
         <v>46</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="22">
         <v>47</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="22">
         <v>31</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="22">
         <v>556</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="24">
         <v>60</v>
       </c>
-      <c r="N36" s="27"/>
-      <c r="O36" s="25" t="s">
+      <c r="N36" s="32"/>
+      <c r="O36" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="41"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="40"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2818,8 +2830,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="24"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="3">
         <v>491</v>
       </c>
@@ -2835,7 +2847,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="27"/>
+      <c r="N37" s="32"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2862,16 +2874,16 @@
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="10">
+      <c r="G38" s="32"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="23">
         <v>332</v>
       </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="27"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="32"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2898,7 +2910,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="27"/>
+      <c r="G39" s="32"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2913,7 +2925,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="27"/>
+      <c r="N39" s="32"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2940,7 +2952,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="27"/>
+      <c r="G40" s="32"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2953,7 +2965,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="27"/>
+      <c r="N40" s="32"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2982,7 +2994,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="27"/>
+      <c r="G41" s="32"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -2993,7 +3005,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="27"/>
+      <c r="N41" s="32"/>
       <c r="O41" s="30" t="s">
         <v>113</v>
       </c>
@@ -3001,7 +3013,7 @@
       <c r="Q41" s="30"/>
       <c r="R41" s="30"/>
       <c r="S41" s="30"/>
-      <c r="T41" s="40"/>
+      <c r="T41" s="38"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3018,8 +3030,8 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="22" t="s">
+      <c r="G42" s="32"/>
+      <c r="H42" s="26" t="s">
         <v>72</v>
       </c>
       <c r="I42" s="8">
@@ -3037,7 +3049,7 @@
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="27"/>
+      <c r="N42" s="32"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3058,8 +3070,8 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="24"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="3">
         <v>130</v>
       </c>
@@ -3075,7 +3087,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="27"/>
+      <c r="N43" s="32"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3104,8 +3116,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="23"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="28"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3115,7 +3127,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="27"/>
+      <c r="N44" s="32"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3138,7 +3150,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="27"/>
+      <c r="G45" s="32"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3153,7 +3165,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="27"/>
+      <c r="N45" s="32"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3184,7 +3196,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="27"/>
+      <c r="G46" s="32"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3199,7 +3211,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="27"/>
+      <c r="N46" s="32"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3224,7 +3236,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="27"/>
+      <c r="G47" s="32"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3237,7 +3249,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="27"/>
+      <c r="N47" s="32"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3264,7 +3276,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="27"/>
+      <c r="G48" s="32"/>
       <c r="H48" s="30" t="s">
         <v>76</v>
       </c>
@@ -3273,7 +3285,7 @@
       <c r="K48" s="30"/>
       <c r="L48" s="30"/>
       <c r="M48" s="30"/>
-      <c r="N48" s="27"/>
+      <c r="N48" s="32"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3296,8 +3308,8 @@
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="22" t="s">
+      <c r="G49" s="32"/>
+      <c r="H49" s="26" t="s">
         <v>77</v>
       </c>
       <c r="I49" s="8">
@@ -3315,7 +3327,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="27"/>
+      <c r="N49" s="32"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3330,7 +3342,7 @@
       <c r="T49" s="7"/>
     </row>
     <row r="50" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="26" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="14">
@@ -3348,8 +3360,8 @@
       <c r="F50" s="15">
         <v>202</v>
       </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="23"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="28"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3357,7 +3369,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="27"/>
+      <c r="N50" s="32"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3370,7 +3382,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3386,8 +3398,8 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="27"/>
-      <c r="H51" s="22" t="s">
+      <c r="G51" s="32"/>
+      <c r="H51" s="26" t="s">
         <v>78</v>
       </c>
       <c r="I51" s="8">
@@ -3405,7 +3417,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="27"/>
+      <c r="N51" s="32"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3418,7 +3430,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3428,8 +3440,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="23"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="28"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3443,13 +3455,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="38"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="35"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3470,7 +3482,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="27"/>
+      <c r="G53" s="32"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3487,16 +3499,16 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="38"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="35"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="14">
@@ -3514,7 +3526,7 @@
       <c r="F54" s="15">
         <v>454</v>
       </c>
-      <c r="G54" s="27"/>
+      <c r="G54" s="32"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3527,16 +3539,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="38"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="35"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="17">
         <v>18</v>
       </c>
@@ -3544,7 +3556,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="27"/>
+      <c r="G55" s="32"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3561,13 +3573,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="38"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="35"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3584,22 +3596,22 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="33" t="s">
+      <c r="G56" s="32"/>
+      <c r="H56" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="38"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="35"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
@@ -3610,7 +3622,7 @@
       <c r="D57" s="30"/>
       <c r="E57" s="30"/>
       <c r="F57" s="30"/>
-      <c r="G57" s="27"/>
+      <c r="G57" s="32"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3629,16 +3641,16 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="27"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="38"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="35"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B58" s="8">
@@ -3656,7 +3668,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="27"/>
+      <c r="G58" s="32"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3671,16 +3683,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="38"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="35"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
+      <c r="A59" s="27"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3696,23 +3708,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="27"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="38"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="35"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3728,23 +3740,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="27"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="38"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="35"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3760,23 +3772,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="27"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="38"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="35"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3792,23 +3804,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="27"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="38"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="35"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3816,20 +3828,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="38"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="35"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3848,20 +3860,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="31"/>
-      <c r="T64" s="38"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="35"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3878,20 +3890,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
-      <c r="T65" s="38"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="35"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3904,23 +3916,23 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="31"/>
-      <c r="T66" s="38"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="35"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="26" t="s">
         <v>59</v>
       </c>
       <c r="B67" s="8">
@@ -3938,23 +3950,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="27"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="31"/>
-      <c r="S67" s="31"/>
-      <c r="T67" s="38"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="35"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3966,37 +3978,39 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="32"/>
-      <c r="P68" s="32"/>
-      <c r="Q68" s="32"/>
-      <c r="R68" s="32"/>
-      <c r="S68" s="32"/>
-      <c r="T68" s="39"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="G1:G68"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="H59:M68"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="N1:N68"/>
     <mergeCell ref="O52:T68"/>
     <mergeCell ref="H15:H19"/>
@@ -4013,22 +4027,20 @@
     <mergeCell ref="O9:O11"/>
     <mergeCell ref="O12:O14"/>
     <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="G1:G68"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="H59:M68"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E172CF-EFFC-4C18-9067-24B3441956A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4DFE34-DFA3-4605-8A65-B3062259A131}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3252" yWindow="1788" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="-216" yWindow="5136" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -796,11 +796,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -808,49 +820,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1169,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1182,32 +1182,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="39" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="39" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="45"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1226,7 +1226,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="32"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="26" t="s">
         <v>61</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="32"/>
+      <c r="N2" s="31"/>
       <c r="O2" s="26" t="s">
         <v>86</v>
       </c>
@@ -1266,7 +1266,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1284,8 +1284,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="28"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1297,8 +1297,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="27"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="28"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1316,7 +1316,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1324,7 +1324,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="32"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="26" t="s">
         <v>62</v>
       </c>
@@ -1343,8 +1343,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="27"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="28"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1376,8 +1376,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="27"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1393,8 +1393,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="28"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="27"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1426,8 +1426,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="27"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1443,7 +1443,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="32"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="26" t="s">
         <v>87</v>
       </c>
@@ -1476,8 +1476,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="28"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1485,8 +1485,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="28"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="27"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="32"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="32"/>
+      <c r="N8" s="31"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="32"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="26" t="s">
         <v>64</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="32"/>
+      <c r="N9" s="31"/>
       <c r="O9" s="26" t="s">
         <v>89</v>
       </c>
@@ -1620,8 +1620,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="28"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1629,8 +1629,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="27"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="28"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1648,25 +1648,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="30" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="28"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="27"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="32"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="26" t="s">
         <v>23</v>
       </c>
@@ -1705,7 +1705,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="32"/>
+      <c r="N12" s="31"/>
       <c r="O12" s="26" t="s">
         <v>90</v>
       </c>
@@ -1736,8 +1736,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="27"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1753,8 +1753,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="32"/>
-      <c r="O13" s="27"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="28"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1782,8 +1782,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="28"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1795,8 +1795,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="28"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="27"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1820,7 +1820,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="32"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="26" t="s">
         <v>24</v>
       </c>
@@ -1839,7 +1839,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="32"/>
+      <c r="N15" s="31"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1876,8 +1876,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="27"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="32"/>
+      <c r="N16" s="31"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1932,8 +1932,8 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="27"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1949,7 +1949,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="32"/>
+      <c r="N17" s="31"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1980,8 +1980,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="27"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1997,7 +1997,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="32"/>
+      <c r="N18" s="31"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2022,8 +2022,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="27"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2037,15 +2037,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="30" t="s">
+      <c r="N19" s="31"/>
+      <c r="O19" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="38"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="44"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
@@ -2066,7 +2066,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="32"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="32"/>
+      <c r="N20" s="31"/>
       <c r="O20" s="26" t="s">
         <v>96</v>
       </c>
@@ -2100,7 +2100,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2116,7 +2116,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="32"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2135,8 +2135,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="32"/>
-      <c r="O21" s="28"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="27"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2146,7 +2146,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="32"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2175,7 +2175,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="32"/>
+      <c r="N22" s="31"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2202,7 +2202,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="32"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="26" t="s">
         <v>28</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="32"/>
+      <c r="N23" s="31"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2254,8 +2254,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="27"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="32"/>
+      <c r="N24" s="31"/>
       <c r="O24" s="26" t="s">
         <v>99</v>
       </c>
@@ -2310,8 +2310,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="28"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2323,8 +2323,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="28"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="27"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="32"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="32"/>
+      <c r="N26" s="31"/>
       <c r="O26" s="26" t="s">
         <v>100</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="32"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2417,8 +2417,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="27"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="28"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="32"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2461,8 +2461,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="28"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="27"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2472,15 +2472,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="32"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2493,7 +2493,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="32"/>
+      <c r="N29" s="31"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="32"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2545,7 +2545,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="32"/>
+      <c r="N30" s="31"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2574,16 +2574,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="30" t="s">
+      <c r="G31" s="31"/>
+      <c r="H31" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="32"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="31"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2600,7 +2600,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2616,7 +2616,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="32"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2627,18 +2627,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="30" t="s">
+      <c r="N32" s="31"/>
+      <c r="O32" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="38"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="44"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2654,7 +2654,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="32"/>
+      <c r="G33" s="31"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="32"/>
+      <c r="N33" s="31"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2698,11 +2698,11 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="32"/>
+      <c r="G34" s="31"/>
       <c r="H34" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="14">
         <v>526</v>
       </c>
       <c r="J34" s="8">
@@ -2717,7 +2717,7 @@
       <c r="M34" s="15">
         <v>51</v>
       </c>
-      <c r="N34" s="32"/>
+      <c r="N34" s="31"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2742,8 +2742,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="27"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="4">
         <v>52</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="M35" s="12">
         <v>40</v>
       </c>
-      <c r="N35" s="32"/>
+      <c r="N35" s="31"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2790,8 +2790,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="27"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="22">
         <v>46</v>
       </c>
@@ -2807,15 +2807,15 @@
       <c r="M36" s="24">
         <v>60</v>
       </c>
-      <c r="N36" s="32"/>
-      <c r="O36" s="39" t="s">
+      <c r="N36" s="31"/>
+      <c r="O36" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="40"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="45"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2830,8 +2830,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="27"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="3">
         <v>491</v>
       </c>
@@ -2847,7 +2847,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="32"/>
+      <c r="N37" s="31"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2866,16 +2866,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="28"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="23">
         <v>332</v>
       </c>
@@ -2883,7 +2883,7 @@
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="25"/>
-      <c r="N38" s="32"/>
+      <c r="N38" s="31"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="32"/>
+      <c r="G39" s="31"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="32"/>
+      <c r="N39" s="31"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="32"/>
+      <c r="G40" s="31"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2965,7 +2965,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="32"/>
+      <c r="N40" s="31"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="32"/>
+      <c r="G41" s="31"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -3005,15 +3005,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="30" t="s">
+      <c r="N41" s="31"/>
+      <c r="O41" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="38"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="44"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="32"/>
+      <c r="G42" s="31"/>
       <c r="H42" s="26" t="s">
         <v>72</v>
       </c>
@@ -3049,7 +3049,7 @@
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="32"/>
+      <c r="N42" s="31"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3062,16 +3062,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="27"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="28"/>
       <c r="I43" s="3">
         <v>130</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="32"/>
+      <c r="N43" s="31"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3116,8 +3116,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="28"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3127,7 +3127,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="32"/>
+      <c r="N44" s="31"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3150,7 +3150,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="32"/>
+      <c r="G45" s="31"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="32"/>
+      <c r="N45" s="31"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="32"/>
+      <c r="G46" s="31"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="32"/>
+      <c r="N46" s="31"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="32"/>
+      <c r="G47" s="31"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3249,7 +3249,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="32"/>
+      <c r="N47" s="31"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3276,16 +3276,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="30" t="s">
+      <c r="G48" s="31"/>
+      <c r="H48" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="32"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="31"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3300,15 +3300,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="32"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="31"/>
       <c r="H49" s="26" t="s">
         <v>77</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="32"/>
+      <c r="N49" s="31"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3360,8 +3360,8 @@
       <c r="F50" s="15">
         <v>202</v>
       </c>
-      <c r="G50" s="32"/>
-      <c r="H50" s="28"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="27"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="32"/>
+      <c r="N50" s="31"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3382,7 +3382,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3398,7 +3398,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="32"/>
+      <c r="G51" s="31"/>
       <c r="H51" s="26" t="s">
         <v>78</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="32"/>
+      <c r="N51" s="31"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3440,8 +3440,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="28"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="27"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3455,13 +3455,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="35"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="42"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3482,7 +3482,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="32"/>
+      <c r="G53" s="31"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3499,13 +3499,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="35"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="42"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
@@ -3526,7 +3526,7 @@
       <c r="F54" s="15">
         <v>454</v>
       </c>
-      <c r="G54" s="32"/>
+      <c r="G54" s="31"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3539,16 +3539,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="35"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="42"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="17">
         <v>18</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="32"/>
+      <c r="G55" s="31"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3573,13 +3573,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="35"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="42"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3596,33 +3596,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="41" t="s">
+      <c r="G56" s="31"/>
+      <c r="H56" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="35"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="42"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="32"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="31"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3641,13 +3641,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="32"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="35"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="42"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
@@ -3668,7 +3668,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="32"/>
+      <c r="G58" s="31"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3683,16 +3683,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="35"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="42"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3708,23 +3708,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="32"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="35"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="42"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3740,23 +3740,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="32"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="35"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="42"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3772,23 +3772,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="32"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="34"/>
-      <c r="P61" s="34"/>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="34"/>
-      <c r="S61" s="34"/>
-      <c r="T61" s="35"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="42"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3804,23 +3804,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="32"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="35"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="42"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="28"/>
+      <c r="A63" s="27"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3828,20 +3828,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="35"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="42"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3860,20 +3860,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="35"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="42"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="35"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="42"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3916,20 +3916,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="35"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="42"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
@@ -3950,23 +3950,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="32"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="32"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
-      <c r="S67" s="34"/>
-      <c r="T67" s="35"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="42"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="28"/>
+      <c r="A68" s="27"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3978,23 +3978,53 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="33"/>
+      <c r="G68" s="32"/>
       <c r="H68" s="36"/>
       <c r="I68" s="36"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
       <c r="L68" s="36"/>
       <c r="M68" s="36"/>
-      <c r="N68" s="33"/>
+      <c r="N68" s="32"/>
       <c r="O68" s="36"/>
       <c r="P68" s="36"/>
       <c r="Q68" s="36"/>
       <c r="R68" s="36"/>
       <c r="S68" s="36"/>
-      <c r="T68" s="37"/>
+      <c r="T68" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="N1:N68"/>
+    <mergeCell ref="O52:T68"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O20:O21"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="O2:O5"/>
     <mergeCell ref="H1:M1"/>
@@ -4011,36 +4041,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="N1:N68"/>
-    <mergeCell ref="O52:T68"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4DFE34-DFA3-4605-8A65-B3062259A131}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18F0552-E477-48A3-890E-7B7287B2B245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-216" yWindow="5136" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="0" yWindow="1788" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -796,34 +796,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,18 +851,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1182,32 +1182,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="29" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="29" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="45"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="40"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1226,7 +1226,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="31"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="26" t="s">
         <v>61</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="31"/>
+      <c r="N2" s="32"/>
       <c r="O2" s="26" t="s">
         <v>86</v>
       </c>
@@ -1266,7 +1266,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1284,8 +1284,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="27"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1297,8 +1297,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="28"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="27"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1316,7 +1316,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1324,7 +1324,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="31"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="26" t="s">
         <v>62</v>
       </c>
@@ -1343,8 +1343,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="28"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="27"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1376,8 +1376,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="28"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1393,8 +1393,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="27"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="28"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1426,8 +1426,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="28"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1443,7 +1443,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="31"/>
+      <c r="N6" s="32"/>
       <c r="O6" s="26" t="s">
         <v>87</v>
       </c>
@@ -1476,8 +1476,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="27"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1485,8 +1485,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="27"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="28"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="31"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="31"/>
+      <c r="N8" s="32"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="31"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="26" t="s">
         <v>64</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="31"/>
+      <c r="N9" s="32"/>
       <c r="O9" s="26" t="s">
         <v>89</v>
       </c>
@@ -1620,8 +1620,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="27"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1629,8 +1629,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="28"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="27"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1648,25 +1648,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="34" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="27"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="28"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="31"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="26" t="s">
         <v>23</v>
       </c>
@@ -1705,7 +1705,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="31"/>
+      <c r="N12" s="32"/>
       <c r="O12" s="26" t="s">
         <v>90</v>
       </c>
@@ -1736,8 +1736,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="28"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1753,8 +1753,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="31"/>
-      <c r="O13" s="28"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="27"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1782,8 +1782,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="27"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1795,8 +1795,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="27"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="28"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1820,7 +1820,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="31"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="26" t="s">
         <v>24</v>
       </c>
@@ -1839,7 +1839,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="31"/>
+      <c r="N15" s="32"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1876,8 +1876,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="28"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="31"/>
+      <c r="N16" s="32"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1932,8 +1932,8 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="28"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1949,7 +1949,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="31"/>
+      <c r="N17" s="32"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1980,8 +1980,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="28"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1997,7 +1997,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="31"/>
+      <c r="N18" s="32"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2022,8 +2022,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="28"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2037,15 +2037,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="34" t="s">
+      <c r="N19" s="32"/>
+      <c r="O19" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="44"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="38"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
@@ -2066,7 +2066,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="31"/>
+      <c r="N20" s="32"/>
       <c r="O20" s="26" t="s">
         <v>96</v>
       </c>
@@ -2100,7 +2100,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2116,7 +2116,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2135,8 +2135,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="27"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="28"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2146,7 +2146,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="31"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2175,7 +2175,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="31"/>
+      <c r="N22" s="32"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2202,7 +2202,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="31"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="26" t="s">
         <v>28</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="31"/>
+      <c r="N23" s="32"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2254,8 +2254,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="28"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="31"/>
+      <c r="N24" s="32"/>
       <c r="O24" s="26" t="s">
         <v>99</v>
       </c>
@@ -2310,8 +2310,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="27"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2323,8 +2323,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="27"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="28"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="31"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="31"/>
+      <c r="N26" s="32"/>
       <c r="O26" s="26" t="s">
         <v>100</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="31"/>
+      <c r="G27" s="32"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2417,8 +2417,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="28"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="27"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="31"/>
+      <c r="G28" s="32"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2461,8 +2461,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="27"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="28"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2472,15 +2472,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="31"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="32"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2493,7 +2493,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="31"/>
+      <c r="N29" s="32"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="31"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2545,7 +2545,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="31"/>
+      <c r="N30" s="32"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2574,16 +2574,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="34" t="s">
+      <c r="G31" s="32"/>
+      <c r="H31" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="31"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="32"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2600,7 +2600,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2616,7 +2616,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="31"/>
+      <c r="G32" s="32"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2627,18 +2627,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="34" t="s">
+      <c r="N32" s="32"/>
+      <c r="O32" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="44"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="38"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2654,7 +2654,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="31"/>
+      <c r="G33" s="32"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="31"/>
+      <c r="N33" s="32"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="31"/>
+      <c r="G34" s="32"/>
       <c r="H34" s="26" t="s">
         <v>68</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="M34" s="15">
         <v>51</v>
       </c>
-      <c r="N34" s="31"/>
+      <c r="N34" s="32"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2742,24 +2742,24 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="28"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="4">
         <v>52</v>
       </c>
       <c r="J35" s="3">
         <v>77</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="4">
         <v>39</v>
       </c>
       <c r="L35" s="3">
         <v>216</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="16">
         <v>40</v>
       </c>
-      <c r="N35" s="31"/>
+      <c r="N35" s="32"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2790,9 +2790,9 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="22">
+      <c r="G36" s="32"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="4">
         <v>46</v>
       </c>
       <c r="J36" s="22">
@@ -2807,15 +2807,15 @@
       <c r="M36" s="24">
         <v>60</v>
       </c>
-      <c r="N36" s="31"/>
-      <c r="O36" s="29" t="s">
+      <c r="N36" s="32"/>
+      <c r="O36" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="45"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="40"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2830,8 +2830,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="28"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="3">
         <v>491</v>
       </c>
@@ -2847,7 +2847,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="31"/>
+      <c r="N37" s="32"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2866,16 +2866,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="27"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="23">
         <v>332</v>
       </c>
@@ -2883,7 +2883,7 @@
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="25"/>
-      <c r="N38" s="31"/>
+      <c r="N38" s="32"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="31"/>
+      <c r="G39" s="32"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="31"/>
+      <c r="N39" s="32"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="31"/>
+      <c r="G40" s="32"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2965,7 +2965,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="31"/>
+      <c r="N40" s="32"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="31"/>
+      <c r="G41" s="32"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -3005,15 +3005,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="34" t="s">
+      <c r="N41" s="32"/>
+      <c r="O41" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="44"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="38"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="31"/>
+      <c r="G42" s="32"/>
       <c r="H42" s="26" t="s">
         <v>72</v>
       </c>
@@ -3049,7 +3049,7 @@
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="31"/>
+      <c r="N42" s="32"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3062,16 +3062,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="28"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="3">
         <v>130</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="31"/>
+      <c r="N43" s="32"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3116,8 +3116,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="27"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="28"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3127,7 +3127,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="31"/>
+      <c r="N44" s="32"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3150,7 +3150,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="31"/>
+      <c r="G45" s="32"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="31"/>
+      <c r="N45" s="32"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="31"/>
+      <c r="G46" s="32"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="31"/>
+      <c r="N46" s="32"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="31"/>
+      <c r="G47" s="32"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3249,7 +3249,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="31"/>
+      <c r="N47" s="32"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3276,16 +3276,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="34" t="s">
+      <c r="G48" s="32"/>
+      <c r="H48" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="31"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="32"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3300,15 +3300,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="31"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="32"/>
       <c r="H49" s="26" t="s">
         <v>77</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="31"/>
+      <c r="N49" s="32"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3360,8 +3360,8 @@
       <c r="F50" s="15">
         <v>202</v>
       </c>
-      <c r="G50" s="31"/>
-      <c r="H50" s="27"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="28"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="31"/>
+      <c r="N50" s="32"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3382,7 +3382,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3398,7 +3398,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="31"/>
+      <c r="G51" s="32"/>
       <c r="H51" s="26" t="s">
         <v>78</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="31"/>
+      <c r="N51" s="32"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3440,8 +3440,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="27"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="28"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3455,13 +3455,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="42"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="35"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3482,7 +3482,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="31"/>
+      <c r="G53" s="32"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3499,13 +3499,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
-      <c r="T53" s="42"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="35"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
@@ -3526,7 +3526,7 @@
       <c r="F54" s="15">
         <v>454</v>
       </c>
-      <c r="G54" s="31"/>
+      <c r="G54" s="32"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3539,16 +3539,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
-      <c r="T54" s="42"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="35"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="17">
         <v>18</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="31"/>
+      <c r="G55" s="32"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3573,13 +3573,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="42"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="35"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3596,33 +3596,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="37" t="s">
+      <c r="G56" s="32"/>
+      <c r="H56" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="42"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="35"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="31"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="32"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3641,13 +3641,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="31"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="42"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="35"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
@@ -3668,7 +3668,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="31"/>
+      <c r="G58" s="32"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3683,16 +3683,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="42"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="35"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
+      <c r="A59" s="27"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3708,23 +3708,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="31"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="42"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="35"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3740,23 +3740,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="31"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
-      <c r="S60" s="35"/>
-      <c r="T60" s="42"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="35"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3772,23 +3772,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="31"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="42"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="35"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3804,23 +3804,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="31"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="35"/>
-      <c r="T62" s="42"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="35"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3828,20 +3828,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="42"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="35"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3860,20 +3860,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="42"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="35"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="42"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="35"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3916,20 +3916,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="42"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="35"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
@@ -3950,23 +3950,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="31"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
-      <c r="S67" s="35"/>
-      <c r="T67" s="42"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="35"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3978,37 +3978,39 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="32"/>
+      <c r="G68" s="33"/>
       <c r="H68" s="36"/>
       <c r="I68" s="36"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
       <c r="L68" s="36"/>
       <c r="M68" s="36"/>
-      <c r="N68" s="32"/>
+      <c r="N68" s="33"/>
       <c r="O68" s="36"/>
       <c r="P68" s="36"/>
       <c r="Q68" s="36"/>
       <c r="R68" s="36"/>
       <c r="S68" s="36"/>
-      <c r="T68" s="43"/>
+      <c r="T68" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="G1:G68"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="H59:M68"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="N1:N68"/>
     <mergeCell ref="O52:T68"/>
     <mergeCell ref="H15:H19"/>
@@ -4025,22 +4027,20 @@
     <mergeCell ref="O9:O11"/>
     <mergeCell ref="O12:O14"/>
     <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="G1:G68"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="H59:M68"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18F0552-E477-48A3-890E-7B7287B2B245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCE0DE9-6DE5-480F-8461-27B0814F7E24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1788" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
@@ -714,7 +714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,70 +787,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1170,7 +1167,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1182,32 +1179,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="39" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="39" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="44"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1226,8 +1223,8 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="25" t="s">
         <v>61</v>
       </c>
       <c r="I2" s="8">
@@ -1245,8 +1242,8 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="30"/>
+      <c r="O2" s="25" t="s">
         <v>86</v>
       </c>
       <c r="P2" s="8">
@@ -1266,7 +1263,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1284,8 +1281,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="28"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1297,7 +1294,7 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="32"/>
+      <c r="N3" s="30"/>
       <c r="O3" s="27"/>
       <c r="P3" s="3">
         <v>198</v>
@@ -1316,7 +1313,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1324,8 +1321,8 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="26" t="s">
+      <c r="G4" s="30"/>
+      <c r="H4" s="25" t="s">
         <v>62</v>
       </c>
       <c r="I4" s="8">
@@ -1343,7 +1340,7 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="32"/>
+      <c r="N4" s="30"/>
       <c r="O4" s="27"/>
       <c r="P4" s="3">
         <v>552</v>
@@ -1376,7 +1373,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="32"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="27"/>
       <c r="I5" s="3">
         <v>611</v>
@@ -1393,8 +1390,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="28"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="26"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1426,7 +1423,7 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="32"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="27"/>
       <c r="I6" s="3">
         <v>3</v>
@@ -1443,8 +1440,8 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="32"/>
-      <c r="O6" s="26" t="s">
+      <c r="N6" s="30"/>
+      <c r="O6" s="25" t="s">
         <v>87</v>
       </c>
       <c r="P6" s="8">
@@ -1476,8 +1473,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="28"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1485,8 +1482,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="28"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="26"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1510,7 +1507,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="32"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1529,7 +1526,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="32"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1566,8 +1563,8 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="26" t="s">
+      <c r="G9" s="30"/>
+      <c r="H9" s="25" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="8">
@@ -1585,8 +1582,8 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="26" t="s">
+      <c r="N9" s="30"/>
+      <c r="O9" s="25" t="s">
         <v>89</v>
       </c>
       <c r="P9" s="8">
@@ -1620,8 +1617,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="28"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1629,7 +1626,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="32"/>
+      <c r="N10" s="30"/>
       <c r="O10" s="27"/>
       <c r="P10" s="3">
         <v>688</v>
@@ -1648,25 +1645,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="30" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="28"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="26"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1686,8 +1683,8 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="26" t="s">
+      <c r="G12" s="30"/>
+      <c r="H12" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I12" s="14">
@@ -1705,8 +1702,8 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="32"/>
-      <c r="O12" s="26" t="s">
+      <c r="N12" s="30"/>
+      <c r="O12" s="25" t="s">
         <v>90</v>
       </c>
       <c r="P12" s="8">
@@ -1736,7 +1733,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="32"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="27"/>
       <c r="I13" s="4">
         <v>563</v>
@@ -1753,7 +1750,7 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="32"/>
+      <c r="N13" s="30"/>
       <c r="O13" s="27"/>
       <c r="P13" s="3">
         <v>132</v>
@@ -1782,8 +1779,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="28"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1795,8 +1792,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="28"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="26"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1820,8 +1817,8 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="26" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="25" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="14">
@@ -1839,7 +1836,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="32"/>
+      <c r="N15" s="30"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1876,7 +1873,7 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="32"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="27"/>
       <c r="I16" s="4">
         <v>671</v>
@@ -1893,7 +1890,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="32"/>
+      <c r="N16" s="30"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1914,7 +1911,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="14">
@@ -1932,7 +1929,7 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="32"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="27"/>
       <c r="I17" s="4">
         <v>107</v>
@@ -1949,7 +1946,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="32"/>
+      <c r="N17" s="30"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1980,7 +1977,7 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="32"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="27"/>
       <c r="I18" s="4">
         <v>111</v>
@@ -1997,7 +1994,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="32"/>
+      <c r="N18" s="30"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2012,7 +2009,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2022,7 +2019,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="32"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="27"/>
       <c r="I19" s="4">
         <v>199</v>
@@ -2037,18 +2034,18 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="30" t="s">
+      <c r="N19" s="30"/>
+      <c r="O19" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="38"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="43"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="8">
@@ -2066,7 +2063,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="32"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2079,8 +2076,8 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="26" t="s">
+      <c r="N20" s="30"/>
+      <c r="O20" s="25" t="s">
         <v>96</v>
       </c>
       <c r="P20" s="8">
@@ -2116,7 +2113,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="32"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2135,8 +2132,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="32"/>
-      <c r="O21" s="28"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="26"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2162,7 +2159,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="32"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2175,7 +2172,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="32"/>
+      <c r="N22" s="30"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2194,7 +2191,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2202,8 +2199,8 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="26" t="s">
+      <c r="G23" s="30"/>
+      <c r="H23" s="25" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="14">
@@ -2221,7 +2218,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="32"/>
+      <c r="N23" s="30"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2254,7 +2251,7 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="32"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="27"/>
       <c r="I24" s="4">
         <v>98</v>
@@ -2271,8 +2268,8 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="32"/>
-      <c r="O24" s="26" t="s">
+      <c r="N24" s="30"/>
+      <c r="O24" s="25" t="s">
         <v>99</v>
       </c>
       <c r="P24" s="8">
@@ -2310,8 +2307,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="28"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2323,8 +2320,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="28"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="26"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2356,7 +2353,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="32"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2369,8 +2366,8 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="26" t="s">
+      <c r="N26" s="30"/>
+      <c r="O26" s="25" t="s">
         <v>100</v>
       </c>
       <c r="P26" s="8">
@@ -2406,7 +2403,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="32"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2417,7 +2414,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="32"/>
+      <c r="N27" s="30"/>
       <c r="O27" s="27"/>
       <c r="P27" s="3">
         <v>692</v>
@@ -2448,7 +2445,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="32"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2461,8 +2458,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="28"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="26"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2472,15 +2469,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2493,7 +2490,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="32"/>
+      <c r="N29" s="30"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2514,7 +2511,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="8">
@@ -2532,7 +2529,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="32"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2545,7 +2542,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="32"/>
+      <c r="N30" s="30"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2574,16 +2571,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="30" t="s">
+      <c r="G31" s="30"/>
+      <c r="H31" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="32"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="30"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2616,7 +2613,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="32"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2627,15 +2624,15 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="30" t="s">
+      <c r="N32" s="30"/>
+      <c r="O32" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="38"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="43"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27"/>
@@ -2654,7 +2651,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="32"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2667,7 +2664,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="32"/>
+      <c r="N33" s="30"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2698,8 +2695,8 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="26" t="s">
+      <c r="G34" s="30"/>
+      <c r="H34" s="25" t="s">
         <v>68</v>
       </c>
       <c r="I34" s="14">
@@ -2717,7 +2714,7 @@
       <c r="M34" s="15">
         <v>51</v>
       </c>
-      <c r="N34" s="32"/>
+      <c r="N34" s="30"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2732,7 +2729,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2742,7 +2739,7 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="32"/>
+      <c r="G35" s="30"/>
       <c r="H35" s="27"/>
       <c r="I35" s="4">
         <v>52</v>
@@ -2759,7 +2756,7 @@
       <c r="M35" s="16">
         <v>40</v>
       </c>
-      <c r="N35" s="32"/>
+      <c r="N35" s="30"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2790,12 +2787,12 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="32"/>
+      <c r="G36" s="30"/>
       <c r="H36" s="27"/>
       <c r="I36" s="4">
         <v>46</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="4">
         <v>47</v>
       </c>
       <c r="K36" s="22">
@@ -2804,18 +2801,18 @@
       <c r="L36" s="22">
         <v>556</v>
       </c>
-      <c r="M36" s="24">
+      <c r="M36" s="16">
         <v>60</v>
       </c>
-      <c r="N36" s="32"/>
-      <c r="O36" s="39" t="s">
+      <c r="N36" s="30"/>
+      <c r="O36" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="40"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="44"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2830,7 +2827,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="32"/>
+      <c r="G37" s="30"/>
       <c r="H37" s="27"/>
       <c r="I37" s="3">
         <v>491</v>
@@ -2847,7 +2844,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="32"/>
+      <c r="N37" s="30"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2866,24 +2863,24 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="28"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="26"/>
       <c r="I38" s="23">
         <v>332</v>
       </c>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="32"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="30"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2910,7 +2907,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="32"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2925,7 +2922,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="32"/>
+      <c r="N39" s="30"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2952,7 +2949,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="32"/>
+      <c r="G40" s="30"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2965,7 +2962,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="32"/>
+      <c r="N40" s="30"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2994,7 +2991,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="32"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -3005,15 +3002,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="30" t="s">
+      <c r="N41" s="30"/>
+      <c r="O41" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="38"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="43"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3030,8 +3027,8 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="26" t="s">
+      <c r="G42" s="30"/>
+      <c r="H42" s="25" t="s">
         <v>72</v>
       </c>
       <c r="I42" s="8">
@@ -3049,7 +3046,7 @@
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="32"/>
+      <c r="N42" s="30"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3062,15 +3059,15 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="32"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="27"/>
       <c r="I43" s="3">
         <v>130</v>
@@ -3087,7 +3084,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="32"/>
+      <c r="N43" s="30"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3116,8 +3113,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="28"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="26"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3127,7 +3124,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="32"/>
+      <c r="N44" s="30"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3150,7 +3147,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="32"/>
+      <c r="G45" s="30"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3165,7 +3162,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="32"/>
+      <c r="N45" s="30"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3196,7 +3193,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="32"/>
+      <c r="G46" s="30"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3211,7 +3208,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="32"/>
+      <c r="N46" s="30"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3236,7 +3233,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="32"/>
+      <c r="G47" s="30"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3249,7 +3246,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="32"/>
+      <c r="N47" s="30"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3276,16 +3273,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="30" t="s">
+      <c r="G48" s="30"/>
+      <c r="H48" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="32"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="30"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3300,16 +3297,16 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="26" t="s">
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="25" t="s">
         <v>77</v>
       </c>
       <c r="I49" s="8">
@@ -3327,7 +3324,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="32"/>
+      <c r="N49" s="30"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3342,7 +3339,7 @@
       <c r="T49" s="7"/>
     </row>
     <row r="50" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="14">
@@ -3360,8 +3357,8 @@
       <c r="F50" s="15">
         <v>202</v>
       </c>
-      <c r="G50" s="32"/>
-      <c r="H50" s="28"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="26"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3369,7 +3366,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="32"/>
+      <c r="N50" s="30"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3398,8 +3395,8 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="32"/>
-      <c r="H51" s="26" t="s">
+      <c r="G51" s="30"/>
+      <c r="H51" s="25" t="s">
         <v>78</v>
       </c>
       <c r="I51" s="8">
@@ -3417,7 +3414,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="32"/>
+      <c r="N51" s="30"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3430,7 +3427,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3440,8 +3437,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="28"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3455,13 +3452,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="32"/>
+      <c r="N52" s="30"/>
       <c r="O52" s="34"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="34"/>
       <c r="R52" s="34"/>
       <c r="S52" s="34"/>
-      <c r="T52" s="35"/>
+      <c r="T52" s="41"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3482,7 +3479,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="32"/>
+      <c r="G53" s="30"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3499,16 +3496,16 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="32"/>
+      <c r="N53" s="30"/>
       <c r="O53" s="34"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="34"/>
       <c r="R53" s="34"/>
       <c r="S53" s="34"/>
-      <c r="T53" s="35"/>
+      <c r="T53" s="41"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="14">
@@ -3526,7 +3523,7 @@
       <c r="F54" s="15">
         <v>454</v>
       </c>
-      <c r="G54" s="32"/>
+      <c r="G54" s="30"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3539,16 +3536,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="32"/>
+      <c r="N54" s="30"/>
       <c r="O54" s="34"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="34"/>
       <c r="R54" s="34"/>
       <c r="S54" s="34"/>
-      <c r="T54" s="35"/>
+      <c r="T54" s="41"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="17">
         <v>18</v>
       </c>
@@ -3556,7 +3553,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="32"/>
+      <c r="G55" s="30"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3573,13 +3570,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="32"/>
+      <c r="N55" s="30"/>
       <c r="O55" s="34"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="34"/>
       <c r="R55" s="34"/>
       <c r="S55" s="34"/>
-      <c r="T55" s="35"/>
+      <c r="T55" s="41"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3596,33 +3593,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="41" t="s">
+      <c r="G56" s="30"/>
+      <c r="H56" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="32"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="30"/>
       <c r="O56" s="34"/>
       <c r="P56" s="34"/>
       <c r="Q56" s="34"/>
       <c r="R56" s="34"/>
       <c r="S56" s="34"/>
-      <c r="T56" s="35"/>
+      <c r="T56" s="41"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="32"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="30"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3641,16 +3638,16 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="32"/>
+      <c r="N57" s="30"/>
       <c r="O57" s="34"/>
       <c r="P57" s="34"/>
       <c r="Q57" s="34"/>
       <c r="R57" s="34"/>
       <c r="S57" s="34"/>
-      <c r="T57" s="35"/>
+      <c r="T57" s="41"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B58" s="8">
@@ -3668,7 +3665,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="32"/>
+      <c r="G58" s="30"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3683,13 +3680,13 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="32"/>
+      <c r="N58" s="30"/>
       <c r="O58" s="34"/>
       <c r="P58" s="34"/>
       <c r="Q58" s="34"/>
       <c r="R58" s="34"/>
       <c r="S58" s="34"/>
-      <c r="T58" s="35"/>
+      <c r="T58" s="41"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
@@ -3708,20 +3705,20 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="32"/>
+      <c r="G59" s="30"/>
       <c r="H59" s="34"/>
       <c r="I59" s="34"/>
       <c r="J59" s="34"/>
       <c r="K59" s="34"/>
       <c r="L59" s="34"/>
       <c r="M59" s="34"/>
-      <c r="N59" s="32"/>
+      <c r="N59" s="30"/>
       <c r="O59" s="34"/>
       <c r="P59" s="34"/>
       <c r="Q59" s="34"/>
       <c r="R59" s="34"/>
       <c r="S59" s="34"/>
-      <c r="T59" s="35"/>
+      <c r="T59" s="41"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
@@ -3740,20 +3737,20 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="32"/>
+      <c r="G60" s="30"/>
       <c r="H60" s="34"/>
       <c r="I60" s="34"/>
       <c r="J60" s="34"/>
       <c r="K60" s="34"/>
       <c r="L60" s="34"/>
       <c r="M60" s="34"/>
-      <c r="N60" s="32"/>
+      <c r="N60" s="30"/>
       <c r="O60" s="34"/>
       <c r="P60" s="34"/>
       <c r="Q60" s="34"/>
       <c r="R60" s="34"/>
       <c r="S60" s="34"/>
-      <c r="T60" s="35"/>
+      <c r="T60" s="41"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
@@ -3772,20 +3769,20 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="32"/>
+      <c r="G61" s="30"/>
       <c r="H61" s="34"/>
       <c r="I61" s="34"/>
       <c r="J61" s="34"/>
       <c r="K61" s="34"/>
       <c r="L61" s="34"/>
       <c r="M61" s="34"/>
-      <c r="N61" s="32"/>
+      <c r="N61" s="30"/>
       <c r="O61" s="34"/>
       <c r="P61" s="34"/>
       <c r="Q61" s="34"/>
       <c r="R61" s="34"/>
       <c r="S61" s="34"/>
-      <c r="T61" s="35"/>
+      <c r="T61" s="41"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
@@ -3804,23 +3801,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="32"/>
+      <c r="G62" s="30"/>
       <c r="H62" s="34"/>
       <c r="I62" s="34"/>
       <c r="J62" s="34"/>
       <c r="K62" s="34"/>
       <c r="L62" s="34"/>
       <c r="M62" s="34"/>
-      <c r="N62" s="32"/>
+      <c r="N62" s="30"/>
       <c r="O62" s="34"/>
       <c r="P62" s="34"/>
       <c r="Q62" s="34"/>
       <c r="R62" s="34"/>
       <c r="S62" s="34"/>
-      <c r="T62" s="35"/>
+      <c r="T62" s="41"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="28"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3828,20 +3825,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="32"/>
+      <c r="G63" s="30"/>
       <c r="H63" s="34"/>
       <c r="I63" s="34"/>
       <c r="J63" s="34"/>
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
       <c r="M63" s="34"/>
-      <c r="N63" s="32"/>
+      <c r="N63" s="30"/>
       <c r="O63" s="34"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="34"/>
       <c r="R63" s="34"/>
       <c r="S63" s="34"/>
-      <c r="T63" s="35"/>
+      <c r="T63" s="41"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3860,20 +3857,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="32"/>
+      <c r="G64" s="30"/>
       <c r="H64" s="34"/>
       <c r="I64" s="34"/>
       <c r="J64" s="34"/>
       <c r="K64" s="34"/>
       <c r="L64" s="34"/>
       <c r="M64" s="34"/>
-      <c r="N64" s="32"/>
+      <c r="N64" s="30"/>
       <c r="O64" s="34"/>
       <c r="P64" s="34"/>
       <c r="Q64" s="34"/>
       <c r="R64" s="34"/>
       <c r="S64" s="34"/>
-      <c r="T64" s="35"/>
+      <c r="T64" s="41"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3890,20 +3887,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="32"/>
+      <c r="G65" s="30"/>
       <c r="H65" s="34"/>
       <c r="I65" s="34"/>
       <c r="J65" s="34"/>
       <c r="K65" s="34"/>
       <c r="L65" s="34"/>
       <c r="M65" s="34"/>
-      <c r="N65" s="32"/>
+      <c r="N65" s="30"/>
       <c r="O65" s="34"/>
       <c r="P65" s="34"/>
       <c r="Q65" s="34"/>
       <c r="R65" s="34"/>
       <c r="S65" s="34"/>
-      <c r="T65" s="35"/>
+      <c r="T65" s="41"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3916,23 +3913,23 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="32"/>
+      <c r="G66" s="30"/>
       <c r="H66" s="34"/>
       <c r="I66" s="34"/>
       <c r="J66" s="34"/>
       <c r="K66" s="34"/>
       <c r="L66" s="34"/>
       <c r="M66" s="34"/>
-      <c r="N66" s="32"/>
+      <c r="N66" s="30"/>
       <c r="O66" s="34"/>
       <c r="P66" s="34"/>
       <c r="Q66" s="34"/>
       <c r="R66" s="34"/>
       <c r="S66" s="34"/>
-      <c r="T66" s="35"/>
+      <c r="T66" s="41"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="25" t="s">
         <v>59</v>
       </c>
       <c r="B67" s="8">
@@ -3950,23 +3947,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="32"/>
+      <c r="G67" s="30"/>
       <c r="H67" s="34"/>
       <c r="I67" s="34"/>
       <c r="J67" s="34"/>
       <c r="K67" s="34"/>
       <c r="L67" s="34"/>
       <c r="M67" s="34"/>
-      <c r="N67" s="32"/>
+      <c r="N67" s="30"/>
       <c r="O67" s="34"/>
       <c r="P67" s="34"/>
       <c r="Q67" s="34"/>
       <c r="R67" s="34"/>
       <c r="S67" s="34"/>
-      <c r="T67" s="35"/>
+      <c r="T67" s="41"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="28"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3978,23 +3975,53 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="33"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="37"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="N1:N68"/>
+    <mergeCell ref="O52:T68"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O20:O21"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="O2:O5"/>
     <mergeCell ref="H1:M1"/>
@@ -4011,36 +4038,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="N1:N68"/>
-    <mergeCell ref="O52:T68"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCE0DE9-6DE5-480F-8461-27B0814F7E24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45852DE4-ECF1-45C3-9D45-C8A7D9CD08EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1788" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="2868" yWindow="1044" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -793,34 +793,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -836,18 +848,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1179,32 +1179,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="28" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="28" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="44"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="39"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1223,7 +1223,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="30"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="25" t="s">
         <v>61</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="30"/>
+      <c r="N2" s="31"/>
       <c r="O2" s="25" t="s">
         <v>86</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1281,8 +1281,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="26"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1294,8 +1294,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="27"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="26"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1313,7 +1313,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="30"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="25" t="s">
         <v>62</v>
       </c>
@@ -1340,8 +1340,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="27"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="26"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1373,8 +1373,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="27"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1390,8 +1390,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="26"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="27"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1423,8 +1423,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="27"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="30"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="25" t="s">
         <v>87</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1482,8 +1482,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="26"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="27"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="30"/>
+      <c r="N8" s="31"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="30"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="25" t="s">
         <v>64</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="30"/>
+      <c r="N9" s="31"/>
       <c r="O9" s="25" t="s">
         <v>89</v>
       </c>
@@ -1617,8 +1617,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1626,8 +1626,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="27"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="26"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1645,25 +1645,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="33" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="26"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="27"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="30"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="25" t="s">
         <v>23</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="30"/>
+      <c r="N12" s="31"/>
       <c r="O12" s="25" t="s">
         <v>90</v>
       </c>
@@ -1733,8 +1733,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="27"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1750,8 +1750,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="30"/>
-      <c r="O13" s="27"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="26"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1779,8 +1779,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1792,8 +1792,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="26"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="27"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="25" t="s">
         <v>24</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="30"/>
+      <c r="N15" s="31"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1873,8 +1873,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="27"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="30"/>
+      <c r="N16" s="31"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1929,8 +1929,8 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="27"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="30"/>
+      <c r="N17" s="31"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1977,8 +1977,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="27"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="30"/>
+      <c r="N18" s="31"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2019,8 +2019,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="27"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2034,15 +2034,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="33" t="s">
+      <c r="N19" s="31"/>
+      <c r="O19" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="43"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="37"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
@@ -2063,7 +2063,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="30"/>
+      <c r="N20" s="31"/>
       <c r="O20" s="25" t="s">
         <v>96</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2113,7 +2113,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="30"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2132,8 +2132,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="26"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="27"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="30"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="30"/>
+      <c r="N22" s="31"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="30"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="25" t="s">
         <v>28</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="30"/>
+      <c r="N23" s="31"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2251,8 +2251,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="27"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="30"/>
+      <c r="N24" s="31"/>
       <c r="O24" s="25" t="s">
         <v>99</v>
       </c>
@@ -2307,8 +2307,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="26"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2320,8 +2320,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="26"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="27"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="30"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2366,7 +2366,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="30"/>
+      <c r="N26" s="31"/>
       <c r="O26" s="25" t="s">
         <v>100</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="30"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2414,8 +2414,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="27"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="26"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2445,7 +2445,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="30"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2458,8 +2458,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="26"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="27"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2469,15 +2469,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="30"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="30"/>
+      <c r="N29" s="31"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2529,7 +2529,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="30"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="30"/>
+      <c r="N30" s="31"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2571,16 +2571,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="33" t="s">
+      <c r="G31" s="31"/>
+      <c r="H31" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="30"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="31"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="30"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2624,18 +2624,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="33" t="s">
+      <c r="N32" s="31"/>
+      <c r="O32" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="43"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="37"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="30"/>
+      <c r="G33" s="31"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="30"/>
+      <c r="N33" s="31"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2679,7 +2679,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="30"/>
+      <c r="G34" s="31"/>
       <c r="H34" s="25" t="s">
         <v>68</v>
       </c>
@@ -2714,7 +2714,7 @@
       <c r="M34" s="15">
         <v>51</v>
       </c>
-      <c r="N34" s="30"/>
+      <c r="N34" s="31"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2739,12 +2739,12 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="27"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="26"/>
       <c r="I35" s="4">
         <v>52</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="4">
         <v>77</v>
       </c>
       <c r="K35" s="4">
@@ -2756,7 +2756,7 @@
       <c r="M35" s="16">
         <v>40</v>
       </c>
-      <c r="N35" s="30"/>
+      <c r="N35" s="31"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2787,8 +2787,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="27"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="4">
         <v>46</v>
       </c>
@@ -2804,15 +2804,15 @@
       <c r="M36" s="16">
         <v>60</v>
       </c>
-      <c r="N36" s="30"/>
-      <c r="O36" s="28" t="s">
+      <c r="N36" s="31"/>
+      <c r="O36" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="44"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="39"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2827,24 +2827,24 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="27"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="26"/>
       <c r="I37" s="3">
         <v>491</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="4">
         <v>78</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="4">
         <v>90</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="4">
         <v>79</v>
       </c>
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="30"/>
+      <c r="N37" s="31"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2863,16 +2863,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="26"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="23">
         <v>332</v>
       </c>
@@ -2880,7 +2880,7 @@
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="24"/>
-      <c r="N38" s="30"/>
+      <c r="N38" s="31"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="30"/>
+      <c r="G39" s="31"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="30"/>
+      <c r="N39" s="31"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="30"/>
+      <c r="G40" s="31"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="30"/>
+      <c r="N40" s="31"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="30"/>
+      <c r="G41" s="31"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -3002,15 +3002,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="33" t="s">
+      <c r="N41" s="31"/>
+      <c r="O41" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="43"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="37"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="30"/>
+      <c r="G42" s="31"/>
       <c r="H42" s="25" t="s">
         <v>72</v>
       </c>
@@ -3046,7 +3046,7 @@
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="30"/>
+      <c r="N42" s="31"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3059,16 +3059,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="27"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="3">
         <v>130</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="30"/>
+      <c r="N43" s="31"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3113,8 +3113,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="26"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="30"/>
+      <c r="N44" s="31"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3147,7 +3147,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="30"/>
+      <c r="G45" s="31"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="30"/>
+      <c r="N45" s="31"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="30"/>
+      <c r="G46" s="31"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="30"/>
+      <c r="N46" s="31"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="30"/>
+      <c r="G47" s="31"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="30"/>
+      <c r="N47" s="31"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3273,16 +3273,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="33" t="s">
+      <c r="G48" s="31"/>
+      <c r="H48" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="30"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="31"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3297,15 +3297,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="30"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="31"/>
       <c r="H49" s="25" t="s">
         <v>77</v>
       </c>
@@ -3324,7 +3324,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="30"/>
+      <c r="N49" s="31"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3357,8 +3357,8 @@
       <c r="F50" s="15">
         <v>202</v>
       </c>
-      <c r="G50" s="30"/>
-      <c r="H50" s="26"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="27"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="30"/>
+      <c r="N50" s="31"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3379,7 +3379,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3395,7 +3395,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="30"/>
+      <c r="G51" s="31"/>
       <c r="H51" s="25" t="s">
         <v>78</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="30"/>
+      <c r="N51" s="31"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="26"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3437,8 +3437,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="26"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="27"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3452,13 +3452,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="41"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="34"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3479,7 +3479,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="30"/>
+      <c r="G53" s="31"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3496,13 +3496,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="41"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="34"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
@@ -3523,7 +3523,7 @@
       <c r="F54" s="15">
         <v>454</v>
       </c>
-      <c r="G54" s="30"/>
+      <c r="G54" s="31"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3536,16 +3536,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="41"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="34"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="26"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="17">
         <v>18</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="30"/>
+      <c r="G55" s="31"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3570,13 +3570,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="41"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="34"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3593,33 +3593,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="36" t="s">
+      <c r="G56" s="31"/>
+      <c r="H56" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="41"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="34"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="30"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="31"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3638,13 +3638,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="30"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="41"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="34"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
@@ -3665,7 +3665,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="30"/>
+      <c r="G58" s="31"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3680,16 +3680,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="41"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="34"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3705,23 +3705,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="30"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="41"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="34"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3737,23 +3737,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="30"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="41"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="34"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3769,23 +3769,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="30"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="34"/>
-      <c r="P61" s="34"/>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="34"/>
-      <c r="S61" s="34"/>
-      <c r="T61" s="41"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="34"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3801,23 +3801,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="30"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="41"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="34"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
+      <c r="A63" s="27"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3825,20 +3825,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="41"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="34"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3857,20 +3857,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="41"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="34"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3887,20 +3887,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="41"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="34"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3913,20 +3913,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="41"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="34"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
@@ -3947,23 +3947,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="30"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
-      <c r="S67" s="34"/>
-      <c r="T67" s="41"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="33"/>
+      <c r="T67" s="34"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="26"/>
+      <c r="A68" s="27"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3975,37 +3975,39 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="31"/>
+      <c r="G68" s="32"/>
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="35"/>
       <c r="M68" s="35"/>
-      <c r="N68" s="31"/>
+      <c r="N68" s="32"/>
       <c r="O68" s="35"/>
       <c r="P68" s="35"/>
       <c r="Q68" s="35"/>
       <c r="R68" s="35"/>
       <c r="S68" s="35"/>
-      <c r="T68" s="42"/>
+      <c r="T68" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="G1:G68"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="H59:M68"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="N1:N68"/>
     <mergeCell ref="O52:T68"/>
     <mergeCell ref="H15:H19"/>
@@ -4022,22 +4024,20 @@
     <mergeCell ref="O9:O11"/>
     <mergeCell ref="O12:O14"/>
     <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="G1:G68"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="H59:M68"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45852DE4-ECF1-45C3-9D45-C8A7D9CD08EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAFF1D6-BA1E-4869-89B9-7B5DE624757F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="1044" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -793,11 +793,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -805,49 +817,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1179,32 +1179,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="38" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="38" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="39"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="44"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1223,7 +1223,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="31"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="25" t="s">
         <v>61</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="31"/>
+      <c r="N2" s="30"/>
       <c r="O2" s="25" t="s">
         <v>86</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1281,8 +1281,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="27"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1294,8 +1294,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="26"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="27"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1313,7 +1313,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="31"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="25" t="s">
         <v>62</v>
       </c>
@@ -1340,8 +1340,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="26"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="27"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1373,8 +1373,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1390,8 +1390,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="27"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="26"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1423,8 +1423,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="31"/>
+      <c r="N6" s="30"/>
       <c r="O6" s="25" t="s">
         <v>87</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="27"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1482,8 +1482,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="27"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="26"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="31"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="31"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="31"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="25" t="s">
         <v>64</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="31"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="25" t="s">
         <v>89</v>
       </c>
@@ -1617,8 +1617,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="27"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1626,8 +1626,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="26"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="27"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1645,25 +1645,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="29" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="27"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="26"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="31"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="25" t="s">
         <v>23</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="31"/>
+      <c r="N12" s="30"/>
       <c r="O12" s="25" t="s">
         <v>90</v>
       </c>
@@ -1733,8 +1733,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="26"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1750,8 +1750,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="31"/>
-      <c r="O13" s="26"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="27"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1779,8 +1779,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="27"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1792,8 +1792,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="27"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="26"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="31"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="25" t="s">
         <v>24</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="31"/>
+      <c r="N15" s="30"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1873,8 +1873,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="26"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="31"/>
+      <c r="N16" s="30"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1929,8 +1929,8 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="26"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="31"/>
+      <c r="N17" s="30"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1977,8 +1977,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="26"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="31"/>
+      <c r="N18" s="30"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2019,8 +2019,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="26"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2034,15 +2034,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="29" t="s">
+      <c r="N19" s="30"/>
+      <c r="O19" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="37"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="43"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
@@ -2063,7 +2063,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="31"/>
+      <c r="N20" s="30"/>
       <c r="O20" s="25" t="s">
         <v>96</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2113,7 +2113,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2132,8 +2132,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="27"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="26"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="31"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="31"/>
+      <c r="N22" s="30"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="31"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="25" t="s">
         <v>28</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="31"/>
+      <c r="N23" s="30"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2251,8 +2251,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="26"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="31"/>
+      <c r="N24" s="30"/>
       <c r="O24" s="25" t="s">
         <v>99</v>
       </c>
@@ -2307,8 +2307,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="27"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2320,8 +2320,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="27"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="26"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="31"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2366,7 +2366,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="31"/>
+      <c r="N26" s="30"/>
       <c r="O26" s="25" t="s">
         <v>100</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="31"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2414,8 +2414,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="26"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="27"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2445,7 +2445,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="31"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2458,8 +2458,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="27"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="26"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2469,15 +2469,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="31"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="31"/>
+      <c r="N29" s="30"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2529,7 +2529,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="31"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="31"/>
+      <c r="N30" s="30"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2571,16 +2571,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="29" t="s">
+      <c r="G31" s="30"/>
+      <c r="H31" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="31"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="30"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="31"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2624,18 +2624,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="29" t="s">
+      <c r="N32" s="30"/>
+      <c r="O32" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="37"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="43"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="31"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="31"/>
+      <c r="N33" s="30"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2679,7 +2679,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="31"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="25" t="s">
         <v>68</v>
       </c>
@@ -2714,7 +2714,7 @@
       <c r="M34" s="15">
         <v>51</v>
       </c>
-      <c r="N34" s="31"/>
+      <c r="N34" s="30"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2739,8 +2739,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="26"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="4">
         <v>52</v>
       </c>
@@ -2750,13 +2750,13 @@
       <c r="K35" s="4">
         <v>39</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="4">
         <v>216</v>
       </c>
       <c r="M35" s="16">
         <v>40</v>
       </c>
-      <c r="N35" s="31"/>
+      <c r="N35" s="30"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2787,8 +2787,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="26"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="4">
         <v>46</v>
       </c>
@@ -2804,15 +2804,15 @@
       <c r="M36" s="16">
         <v>60</v>
       </c>
-      <c r="N36" s="31"/>
-      <c r="O36" s="38" t="s">
+      <c r="N36" s="30"/>
+      <c r="O36" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="39"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="44"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2827,9 +2827,9 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="3">
+      <c r="G37" s="30"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="4">
         <v>491</v>
       </c>
       <c r="J37" s="4">
@@ -2844,7 +2844,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="31"/>
+      <c r="N37" s="30"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2863,24 +2863,24 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="23">
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="17">
         <v>332</v>
       </c>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="24"/>
-      <c r="N38" s="31"/>
+      <c r="N38" s="30"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="31"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="31"/>
+      <c r="N39" s="30"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="31"/>
+      <c r="G40" s="30"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="31"/>
+      <c r="N40" s="30"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="31"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -3002,15 +3002,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="29" t="s">
+      <c r="N41" s="30"/>
+      <c r="O41" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="37"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="43"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="31"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="25" t="s">
         <v>72</v>
       </c>
@@ -3046,7 +3046,7 @@
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="31"/>
+      <c r="N42" s="30"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3059,16 +3059,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="26"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="3">
         <v>130</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="31"/>
+      <c r="N43" s="30"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3113,8 +3113,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="27"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="26"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="31"/>
+      <c r="N44" s="30"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3147,7 +3147,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="31"/>
+      <c r="G45" s="30"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="31"/>
+      <c r="N45" s="30"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="31"/>
+      <c r="G46" s="30"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="31"/>
+      <c r="N46" s="30"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="31"/>
+      <c r="G47" s="30"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="31"/>
+      <c r="N47" s="30"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3273,16 +3273,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="29" t="s">
+      <c r="G48" s="30"/>
+      <c r="H48" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="31"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="30"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3297,15 +3297,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="31"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="30"/>
       <c r="H49" s="25" t="s">
         <v>77</v>
       </c>
@@ -3324,7 +3324,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="31"/>
+      <c r="N49" s="30"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3357,8 +3357,8 @@
       <c r="F50" s="15">
         <v>202</v>
       </c>
-      <c r="G50" s="31"/>
-      <c r="H50" s="27"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="26"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="31"/>
+      <c r="N50" s="30"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3379,7 +3379,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3395,7 +3395,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="31"/>
+      <c r="G51" s="30"/>
       <c r="H51" s="25" t="s">
         <v>78</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="31"/>
+      <c r="N51" s="30"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3437,8 +3437,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="27"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3452,13 +3452,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="34"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="41"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3479,7 +3479,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="31"/>
+      <c r="G53" s="30"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3496,13 +3496,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="34"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="41"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
@@ -3523,7 +3523,7 @@
       <c r="F54" s="15">
         <v>454</v>
       </c>
-      <c r="G54" s="31"/>
+      <c r="G54" s="30"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3536,16 +3536,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="34"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="41"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="17">
         <v>18</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="31"/>
+      <c r="G55" s="30"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3570,13 +3570,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="34"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="41"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3593,33 +3593,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="40" t="s">
+      <c r="G56" s="30"/>
+      <c r="H56" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="34"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="41"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="31"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="30"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3638,13 +3638,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="31"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="34"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="41"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
@@ -3665,7 +3665,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="31"/>
+      <c r="G58" s="30"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3680,16 +3680,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="34"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="41"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
+      <c r="A59" s="27"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3705,23 +3705,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="31"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="34"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="41"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3737,23 +3737,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="31"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="34"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="41"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3769,23 +3769,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="31"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="34"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="41"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3801,23 +3801,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="31"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="34"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="41"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3825,20 +3825,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="34"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="41"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3857,20 +3857,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="33"/>
-      <c r="S64" s="33"/>
-      <c r="T64" s="34"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="41"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3887,20 +3887,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="33"/>
-      <c r="T65" s="34"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="41"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3913,20 +3913,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33"/>
-      <c r="S66" s="33"/>
-      <c r="T66" s="34"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="41"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
@@ -3947,23 +3947,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="31"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="33"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="33"/>
-      <c r="R67" s="33"/>
-      <c r="S67" s="33"/>
-      <c r="T67" s="34"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="41"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3975,23 +3975,53 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="32"/>
+      <c r="G68" s="31"/>
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="35"/>
       <c r="M68" s="35"/>
-      <c r="N68" s="32"/>
+      <c r="N68" s="31"/>
       <c r="O68" s="35"/>
       <c r="P68" s="35"/>
       <c r="Q68" s="35"/>
       <c r="R68" s="35"/>
       <c r="S68" s="35"/>
-      <c r="T68" s="36"/>
+      <c r="T68" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="N1:N68"/>
+    <mergeCell ref="O52:T68"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O20:O21"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="O2:O5"/>
     <mergeCell ref="H1:M1"/>
@@ -4008,36 +4038,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="N1:N68"/>
-    <mergeCell ref="O52:T68"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAFF1D6-BA1E-4869-89B9-7B5DE624757F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77C7105-F474-4652-94C1-1F3C113580EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="2868" yWindow="1044" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3031,10 +3031,10 @@
       <c r="H42" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="14">
         <v>133</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="14">
         <v>200</v>
       </c>
       <c r="K42" s="8">
@@ -3069,10 +3069,10 @@
       <c r="F43" s="33"/>
       <c r="G43" s="30"/>
       <c r="H43" s="27"/>
-      <c r="I43" s="3">
+      <c r="I43" s="4">
         <v>130</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="4">
         <v>417</v>
       </c>
       <c r="K43" s="3">

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77C7105-F474-4652-94C1-1F3C113580EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392C98E4-5C21-494A-965E-7F5662608FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2868" yWindow="1044" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
@@ -793,34 +793,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -836,18 +848,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1179,32 +1179,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="28" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="28" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="44"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="39"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1223,7 +1223,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="30"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="25" t="s">
         <v>61</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="30"/>
+      <c r="N2" s="31"/>
       <c r="O2" s="25" t="s">
         <v>86</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1281,8 +1281,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="26"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1294,8 +1294,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="27"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="26"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1313,7 +1313,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="30"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="25" t="s">
         <v>62</v>
       </c>
@@ -1340,8 +1340,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="27"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="26"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1373,8 +1373,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="27"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1390,8 +1390,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="26"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="27"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1423,8 +1423,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="27"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="30"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="25" t="s">
         <v>87</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1482,8 +1482,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="26"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="27"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="30"/>
+      <c r="N8" s="31"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="30"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="25" t="s">
         <v>64</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="30"/>
+      <c r="N9" s="31"/>
       <c r="O9" s="25" t="s">
         <v>89</v>
       </c>
@@ -1617,8 +1617,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1626,8 +1626,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="27"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="26"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1645,25 +1645,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="33" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="26"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="27"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="30"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="25" t="s">
         <v>23</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="30"/>
+      <c r="N12" s="31"/>
       <c r="O12" s="25" t="s">
         <v>90</v>
       </c>
@@ -1733,8 +1733,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="27"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1750,8 +1750,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="30"/>
-      <c r="O13" s="27"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="26"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1779,8 +1779,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1792,8 +1792,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="26"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="27"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="25" t="s">
         <v>24</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="30"/>
+      <c r="N15" s="31"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1873,8 +1873,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="27"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="30"/>
+      <c r="N16" s="31"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1929,8 +1929,8 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="27"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="30"/>
+      <c r="N17" s="31"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1977,8 +1977,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="27"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="30"/>
+      <c r="N18" s="31"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2019,8 +2019,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="27"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2034,15 +2034,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="33" t="s">
+      <c r="N19" s="31"/>
+      <c r="O19" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="43"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="37"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
@@ -2063,7 +2063,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="30"/>
+      <c r="N20" s="31"/>
       <c r="O20" s="25" t="s">
         <v>96</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2113,7 +2113,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="30"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2132,8 +2132,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="26"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="27"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="30"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="30"/>
+      <c r="N22" s="31"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="30"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="25" t="s">
         <v>28</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="30"/>
+      <c r="N23" s="31"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2251,8 +2251,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="27"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="30"/>
+      <c r="N24" s="31"/>
       <c r="O24" s="25" t="s">
         <v>99</v>
       </c>
@@ -2307,8 +2307,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="26"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2320,8 +2320,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="26"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="27"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="30"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2366,7 +2366,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="30"/>
+      <c r="N26" s="31"/>
       <c r="O26" s="25" t="s">
         <v>100</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="30"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2414,8 +2414,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="27"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="26"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2445,7 +2445,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="30"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2458,8 +2458,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="26"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="27"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2469,15 +2469,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="30"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="30"/>
+      <c r="N29" s="31"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2529,7 +2529,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="30"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="30"/>
+      <c r="N30" s="31"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2571,16 +2571,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="33" t="s">
+      <c r="G31" s="31"/>
+      <c r="H31" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="30"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="31"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="30"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2624,18 +2624,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="33" t="s">
+      <c r="N32" s="31"/>
+      <c r="O32" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="43"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="37"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="30"/>
+      <c r="G33" s="31"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="30"/>
+      <c r="N33" s="31"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2679,7 +2679,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="30"/>
+      <c r="G34" s="31"/>
       <c r="H34" s="25" t="s">
         <v>68</v>
       </c>
@@ -2714,7 +2714,7 @@
       <c r="M34" s="15">
         <v>51</v>
       </c>
-      <c r="N34" s="30"/>
+      <c r="N34" s="31"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2739,8 +2739,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="27"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="26"/>
       <c r="I35" s="4">
         <v>52</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="M35" s="16">
         <v>40</v>
       </c>
-      <c r="N35" s="30"/>
+      <c r="N35" s="31"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2787,8 +2787,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="27"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="4">
         <v>46</v>
       </c>
@@ -2804,15 +2804,15 @@
       <c r="M36" s="16">
         <v>60</v>
       </c>
-      <c r="N36" s="30"/>
-      <c r="O36" s="28" t="s">
+      <c r="N36" s="31"/>
+      <c r="O36" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="44"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="39"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2827,8 +2827,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="27"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="26"/>
       <c r="I37" s="4">
         <v>491</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="30"/>
+      <c r="N37" s="31"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2863,16 +2863,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="26"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="17">
         <v>332</v>
       </c>
@@ -2880,7 +2880,7 @@
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="24"/>
-      <c r="N38" s="30"/>
+      <c r="N38" s="31"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="30"/>
+      <c r="G39" s="31"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="30"/>
+      <c r="N39" s="31"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="30"/>
+      <c r="G40" s="31"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="30"/>
+      <c r="N40" s="31"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="30"/>
+      <c r="G41" s="31"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -3002,15 +3002,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="33" t="s">
+      <c r="N41" s="31"/>
+      <c r="O41" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="43"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="37"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="30"/>
+      <c r="G42" s="31"/>
       <c r="H42" s="25" t="s">
         <v>72</v>
       </c>
@@ -3040,13 +3040,13 @@
       <c r="K42" s="8">
         <v>695</v>
       </c>
-      <c r="L42" s="8">
+      <c r="L42" s="14">
         <v>463</v>
       </c>
       <c r="M42" s="9">
         <v>542</v>
       </c>
-      <c r="N42" s="30"/>
+      <c r="N42" s="31"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3059,16 +3059,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="27"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="4">
         <v>130</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="30"/>
+      <c r="N43" s="31"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3113,8 +3113,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="26"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="30"/>
+      <c r="N44" s="31"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3147,7 +3147,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="30"/>
+      <c r="G45" s="31"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="30"/>
+      <c r="N45" s="31"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="30"/>
+      <c r="G46" s="31"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="30"/>
+      <c r="N46" s="31"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="30"/>
+      <c r="G47" s="31"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="30"/>
+      <c r="N47" s="31"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3273,16 +3273,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="33" t="s">
+      <c r="G48" s="31"/>
+      <c r="H48" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="30"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="31"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3297,15 +3297,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="30"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="31"/>
       <c r="H49" s="25" t="s">
         <v>77</v>
       </c>
@@ -3324,7 +3324,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="30"/>
+      <c r="N49" s="31"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3357,8 +3357,8 @@
       <c r="F50" s="15">
         <v>202</v>
       </c>
-      <c r="G50" s="30"/>
-      <c r="H50" s="26"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="27"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="30"/>
+      <c r="N50" s="31"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3379,7 +3379,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3395,7 +3395,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="30"/>
+      <c r="G51" s="31"/>
       <c r="H51" s="25" t="s">
         <v>78</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="30"/>
+      <c r="N51" s="31"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="26"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3437,8 +3437,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="26"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="27"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3452,13 +3452,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="41"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="34"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3479,7 +3479,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="30"/>
+      <c r="G53" s="31"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3496,13 +3496,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="41"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="34"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
@@ -3523,7 +3523,7 @@
       <c r="F54" s="15">
         <v>454</v>
       </c>
-      <c r="G54" s="30"/>
+      <c r="G54" s="31"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3536,16 +3536,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="41"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="34"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="26"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="17">
         <v>18</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="30"/>
+      <c r="G55" s="31"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3570,13 +3570,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="41"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="34"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3593,33 +3593,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="36" t="s">
+      <c r="G56" s="31"/>
+      <c r="H56" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="41"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="34"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="30"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="31"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3638,13 +3638,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="30"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="41"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="34"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
@@ -3665,7 +3665,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="30"/>
+      <c r="G58" s="31"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3680,16 +3680,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="41"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="34"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3705,23 +3705,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="30"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="41"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="34"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3737,23 +3737,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="30"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="41"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="34"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3769,23 +3769,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="30"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="34"/>
-      <c r="P61" s="34"/>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="34"/>
-      <c r="S61" s="34"/>
-      <c r="T61" s="41"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="34"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3801,23 +3801,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="30"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="41"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="34"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
+      <c r="A63" s="27"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3825,20 +3825,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="41"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="34"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3857,20 +3857,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="41"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="34"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3887,20 +3887,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="41"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="34"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3913,20 +3913,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="41"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="34"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
@@ -3947,23 +3947,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="30"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
-      <c r="S67" s="34"/>
-      <c r="T67" s="41"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="33"/>
+      <c r="T67" s="34"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="26"/>
+      <c r="A68" s="27"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3975,37 +3975,39 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="31"/>
+      <c r="G68" s="32"/>
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="35"/>
       <c r="M68" s="35"/>
-      <c r="N68" s="31"/>
+      <c r="N68" s="32"/>
       <c r="O68" s="35"/>
       <c r="P68" s="35"/>
       <c r="Q68" s="35"/>
       <c r="R68" s="35"/>
       <c r="S68" s="35"/>
-      <c r="T68" s="42"/>
+      <c r="T68" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="G1:G68"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="H59:M68"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="N1:N68"/>
     <mergeCell ref="O52:T68"/>
     <mergeCell ref="H15:H19"/>
@@ -4022,22 +4024,20 @@
     <mergeCell ref="O9:O11"/>
     <mergeCell ref="O12:O14"/>
     <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="G1:G68"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="H59:M68"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392C98E4-5C21-494A-965E-7F5662608FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0932062-5349-4728-893A-6CFF9E62434A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="1044" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -793,11 +793,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -805,49 +817,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1179,32 +1179,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="38" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="38" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="39"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="44"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1223,7 +1223,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="31"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="25" t="s">
         <v>61</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="31"/>
+      <c r="N2" s="30"/>
       <c r="O2" s="25" t="s">
         <v>86</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1281,8 +1281,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="27"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1294,8 +1294,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="26"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="27"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1313,7 +1313,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="31"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="25" t="s">
         <v>62</v>
       </c>
@@ -1340,8 +1340,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="26"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="27"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1373,8 +1373,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1390,8 +1390,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="27"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="26"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1423,8 +1423,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="31"/>
+      <c r="N6" s="30"/>
       <c r="O6" s="25" t="s">
         <v>87</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="27"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1482,8 +1482,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="27"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="26"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="31"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="31"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="31"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="25" t="s">
         <v>64</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="31"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="25" t="s">
         <v>89</v>
       </c>
@@ -1617,8 +1617,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="27"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1626,8 +1626,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="26"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="27"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1645,25 +1645,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="29" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="27"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="26"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="31"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="25" t="s">
         <v>23</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="31"/>
+      <c r="N12" s="30"/>
       <c r="O12" s="25" t="s">
         <v>90</v>
       </c>
@@ -1733,8 +1733,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="26"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1750,8 +1750,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="31"/>
-      <c r="O13" s="26"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="27"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1779,8 +1779,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="27"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1792,8 +1792,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="27"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="26"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="31"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="25" t="s">
         <v>24</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="31"/>
+      <c r="N15" s="30"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1873,8 +1873,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="26"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="31"/>
+      <c r="N16" s="30"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1929,8 +1929,8 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="26"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="31"/>
+      <c r="N17" s="30"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1977,8 +1977,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="26"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="31"/>
+      <c r="N18" s="30"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2019,8 +2019,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="26"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2034,15 +2034,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="29" t="s">
+      <c r="N19" s="30"/>
+      <c r="O19" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="37"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="43"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
@@ -2063,7 +2063,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="31"/>
+      <c r="N20" s="30"/>
       <c r="O20" s="25" t="s">
         <v>96</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2113,7 +2113,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2132,8 +2132,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="27"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="26"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="31"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="31"/>
+      <c r="N22" s="30"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="31"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="25" t="s">
         <v>28</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="31"/>
+      <c r="N23" s="30"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2251,8 +2251,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="26"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="31"/>
+      <c r="N24" s="30"/>
       <c r="O24" s="25" t="s">
         <v>99</v>
       </c>
@@ -2307,8 +2307,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="27"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2320,8 +2320,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="27"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="26"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="31"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2366,7 +2366,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="31"/>
+      <c r="N26" s="30"/>
       <c r="O26" s="25" t="s">
         <v>100</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="31"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2414,8 +2414,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="26"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="27"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2445,7 +2445,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="31"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2458,8 +2458,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="27"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="26"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2469,15 +2469,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="31"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="31"/>
+      <c r="N29" s="30"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2529,7 +2529,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="31"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="31"/>
+      <c r="N30" s="30"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2571,16 +2571,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="29" t="s">
+      <c r="G31" s="30"/>
+      <c r="H31" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="31"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="30"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="31"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2624,18 +2624,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="29" t="s">
+      <c r="N32" s="30"/>
+      <c r="O32" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="37"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="43"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="31"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="31"/>
+      <c r="N33" s="30"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2679,7 +2679,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="31"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="25" t="s">
         <v>68</v>
       </c>
@@ -2714,7 +2714,7 @@
       <c r="M34" s="15">
         <v>51</v>
       </c>
-      <c r="N34" s="31"/>
+      <c r="N34" s="30"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2739,8 +2739,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="26"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="4">
         <v>52</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="M35" s="16">
         <v>40</v>
       </c>
-      <c r="N35" s="31"/>
+      <c r="N35" s="30"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2787,8 +2787,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="26"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="4">
         <v>46</v>
       </c>
@@ -2804,15 +2804,15 @@
       <c r="M36" s="16">
         <v>60</v>
       </c>
-      <c r="N36" s="31"/>
-      <c r="O36" s="38" t="s">
+      <c r="N36" s="30"/>
+      <c r="O36" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="39"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="44"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2827,8 +2827,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="26"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="4">
         <v>491</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="31"/>
+      <c r="N37" s="30"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2863,16 +2863,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="27"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="26"/>
       <c r="I38" s="17">
         <v>332</v>
       </c>
@@ -2880,7 +2880,7 @@
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="24"/>
-      <c r="N38" s="31"/>
+      <c r="N38" s="30"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="31"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="31"/>
+      <c r="N39" s="30"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="31"/>
+      <c r="G40" s="30"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="31"/>
+      <c r="N40" s="30"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="31"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -3002,15 +3002,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="29" t="s">
+      <c r="N41" s="30"/>
+      <c r="O41" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="37"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="43"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="31"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="25" t="s">
         <v>72</v>
       </c>
@@ -3043,10 +3043,10 @@
       <c r="L42" s="14">
         <v>463</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="15">
         <v>542</v>
       </c>
-      <c r="N42" s="31"/>
+      <c r="N42" s="30"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3059,23 +3059,23 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="26"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="4">
         <v>130</v>
       </c>
       <c r="J43" s="4">
         <v>417</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="4">
         <v>529</v>
       </c>
       <c r="L43" s="3">
@@ -3084,7 +3084,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="31"/>
+      <c r="N43" s="30"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3113,8 +3113,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="27"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="26"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="31"/>
+      <c r="N44" s="30"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3147,7 +3147,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="31"/>
+      <c r="G45" s="30"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="31"/>
+      <c r="N45" s="30"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="31"/>
+      <c r="G46" s="30"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="31"/>
+      <c r="N46" s="30"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="31"/>
+      <c r="G47" s="30"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="31"/>
+      <c r="N47" s="30"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3273,16 +3273,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="29" t="s">
+      <c r="G48" s="30"/>
+      <c r="H48" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="31"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="30"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3297,15 +3297,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="31"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="30"/>
       <c r="H49" s="25" t="s">
         <v>77</v>
       </c>
@@ -3324,7 +3324,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="31"/>
+      <c r="N49" s="30"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3357,8 +3357,8 @@
       <c r="F50" s="15">
         <v>202</v>
       </c>
-      <c r="G50" s="31"/>
-      <c r="H50" s="27"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="26"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="31"/>
+      <c r="N50" s="30"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3379,7 +3379,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3395,7 +3395,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="31"/>
+      <c r="G51" s="30"/>
       <c r="H51" s="25" t="s">
         <v>78</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="31"/>
+      <c r="N51" s="30"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3437,8 +3437,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="27"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3452,13 +3452,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="34"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="41"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3479,7 +3479,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="31"/>
+      <c r="G53" s="30"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3496,13 +3496,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="34"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="41"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
@@ -3523,7 +3523,7 @@
       <c r="F54" s="15">
         <v>454</v>
       </c>
-      <c r="G54" s="31"/>
+      <c r="G54" s="30"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3536,16 +3536,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="34"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="41"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="17">
         <v>18</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="31"/>
+      <c r="G55" s="30"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3570,13 +3570,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="34"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="41"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3593,33 +3593,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="40" t="s">
+      <c r="G56" s="30"/>
+      <c r="H56" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="34"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="41"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="31"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="30"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3638,13 +3638,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="31"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="34"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="41"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
@@ -3665,7 +3665,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="31"/>
+      <c r="G58" s="30"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3680,16 +3680,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="34"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="41"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
+      <c r="A59" s="27"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3705,23 +3705,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="31"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="34"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="41"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3737,23 +3737,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="31"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="34"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="41"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3769,23 +3769,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="31"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="34"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="41"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3801,23 +3801,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="31"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="34"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="41"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3825,20 +3825,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="34"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="41"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3857,20 +3857,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="33"/>
-      <c r="S64" s="33"/>
-      <c r="T64" s="34"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="41"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3887,20 +3887,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="33"/>
-      <c r="T65" s="34"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="41"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3913,20 +3913,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33"/>
-      <c r="S66" s="33"/>
-      <c r="T66" s="34"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="41"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
@@ -3947,23 +3947,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="31"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="33"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="33"/>
-      <c r="R67" s="33"/>
-      <c r="S67" s="33"/>
-      <c r="T67" s="34"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="41"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3975,23 +3975,53 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="32"/>
+      <c r="G68" s="31"/>
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="35"/>
       <c r="M68" s="35"/>
-      <c r="N68" s="32"/>
+      <c r="N68" s="31"/>
       <c r="O68" s="35"/>
       <c r="P68" s="35"/>
       <c r="Q68" s="35"/>
       <c r="R68" s="35"/>
       <c r="S68" s="35"/>
-      <c r="T68" s="36"/>
+      <c r="T68" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="N1:N68"/>
+    <mergeCell ref="O52:T68"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O20:O21"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="O2:O5"/>
     <mergeCell ref="H1:M1"/>
@@ -4008,36 +4038,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="N1:N68"/>
-    <mergeCell ref="O52:T68"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0932062-5349-4728-893A-6CFF9E62434A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8219B14-5BD1-4561-AC86-9874B39F92B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
@@ -793,34 +793,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -836,18 +848,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1179,32 +1179,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="28" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="28" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="44"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="39"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1223,7 +1223,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="30"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="25" t="s">
         <v>61</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="30"/>
+      <c r="N2" s="31"/>
       <c r="O2" s="25" t="s">
         <v>86</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1281,8 +1281,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="26"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1294,8 +1294,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="27"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="26"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1313,7 +1313,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="30"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="25" t="s">
         <v>62</v>
       </c>
@@ -1340,8 +1340,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="27"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="26"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1373,8 +1373,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="27"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1390,8 +1390,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="26"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="27"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1423,8 +1423,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="27"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="30"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="25" t="s">
         <v>87</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1482,8 +1482,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="26"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="27"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="30"/>
+      <c r="N8" s="31"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="30"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="25" t="s">
         <v>64</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="30"/>
+      <c r="N9" s="31"/>
       <c r="O9" s="25" t="s">
         <v>89</v>
       </c>
@@ -1617,8 +1617,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1626,8 +1626,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="27"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="26"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1645,25 +1645,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="33" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="26"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="27"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="30"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="25" t="s">
         <v>23</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="30"/>
+      <c r="N12" s="31"/>
       <c r="O12" s="25" t="s">
         <v>90</v>
       </c>
@@ -1733,8 +1733,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="27"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1750,8 +1750,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="30"/>
-      <c r="O13" s="27"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="26"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1779,8 +1779,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1792,8 +1792,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="26"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="27"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="25" t="s">
         <v>24</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="30"/>
+      <c r="N15" s="31"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1873,8 +1873,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="27"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="30"/>
+      <c r="N16" s="31"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1929,8 +1929,8 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="27"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="30"/>
+      <c r="N17" s="31"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1977,8 +1977,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="27"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="30"/>
+      <c r="N18" s="31"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2019,8 +2019,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="27"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2034,15 +2034,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="33" t="s">
+      <c r="N19" s="31"/>
+      <c r="O19" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="43"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="37"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
@@ -2063,7 +2063,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="30"/>
+      <c r="N20" s="31"/>
       <c r="O20" s="25" t="s">
         <v>96</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2113,7 +2113,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="30"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2132,8 +2132,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="26"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="27"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="30"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="30"/>
+      <c r="N22" s="31"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="30"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="25" t="s">
         <v>28</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="30"/>
+      <c r="N23" s="31"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2251,8 +2251,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="27"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="30"/>
+      <c r="N24" s="31"/>
       <c r="O24" s="25" t="s">
         <v>99</v>
       </c>
@@ -2307,8 +2307,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="26"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2320,8 +2320,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="26"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="27"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="30"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2366,7 +2366,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="30"/>
+      <c r="N26" s="31"/>
       <c r="O26" s="25" t="s">
         <v>100</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="30"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2414,8 +2414,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="27"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="26"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2445,7 +2445,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="30"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2458,8 +2458,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="26"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="27"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2469,15 +2469,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="30"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="30"/>
+      <c r="N29" s="31"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2529,7 +2529,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="30"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="30"/>
+      <c r="N30" s="31"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2571,16 +2571,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="33" t="s">
+      <c r="G31" s="31"/>
+      <c r="H31" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="30"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="31"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="30"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2624,18 +2624,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="33" t="s">
+      <c r="N32" s="31"/>
+      <c r="O32" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="43"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="37"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="30"/>
+      <c r="G33" s="31"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="30"/>
+      <c r="N33" s="31"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2679,7 +2679,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="30"/>
+      <c r="G34" s="31"/>
       <c r="H34" s="25" t="s">
         <v>68</v>
       </c>
@@ -2714,7 +2714,7 @@
       <c r="M34" s="15">
         <v>51</v>
       </c>
-      <c r="N34" s="30"/>
+      <c r="N34" s="31"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2739,8 +2739,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="27"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="26"/>
       <c r="I35" s="4">
         <v>52</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="M35" s="16">
         <v>40</v>
       </c>
-      <c r="N35" s="30"/>
+      <c r="N35" s="31"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2787,8 +2787,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="27"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="4">
         <v>46</v>
       </c>
@@ -2804,15 +2804,15 @@
       <c r="M36" s="16">
         <v>60</v>
       </c>
-      <c r="N36" s="30"/>
-      <c r="O36" s="28" t="s">
+      <c r="N36" s="31"/>
+      <c r="O36" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="44"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="39"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2827,8 +2827,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="27"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="26"/>
       <c r="I37" s="4">
         <v>491</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="30"/>
+      <c r="N37" s="31"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2863,16 +2863,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="26"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="17">
         <v>332</v>
       </c>
@@ -2880,7 +2880,7 @@
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="24"/>
-      <c r="N38" s="30"/>
+      <c r="N38" s="31"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="30"/>
+      <c r="G39" s="31"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="30"/>
+      <c r="N39" s="31"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="30"/>
+      <c r="G40" s="31"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="30"/>
+      <c r="N40" s="31"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="30"/>
+      <c r="G41" s="31"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -3002,15 +3002,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="33" t="s">
+      <c r="N41" s="31"/>
+      <c r="O41" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="43"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="37"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="30"/>
+      <c r="G42" s="31"/>
       <c r="H42" s="25" t="s">
         <v>72</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="J42" s="14">
         <v>200</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="14">
         <v>695</v>
       </c>
       <c r="L42" s="14">
@@ -3046,7 +3046,7 @@
       <c r="M42" s="15">
         <v>542</v>
       </c>
-      <c r="N42" s="30"/>
+      <c r="N42" s="31"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3059,16 +3059,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="27"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="4">
         <v>130</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="30"/>
+      <c r="N43" s="31"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3113,8 +3113,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="26"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="30"/>
+      <c r="N44" s="31"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3147,11 +3147,11 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="30"/>
+      <c r="G45" s="31"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="20">
         <v>547</v>
       </c>
       <c r="J45" s="6">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="30"/>
+      <c r="N45" s="31"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="30"/>
+      <c r="G46" s="31"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="30"/>
+      <c r="N46" s="31"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="30"/>
+      <c r="G47" s="31"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="30"/>
+      <c r="N47" s="31"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3273,16 +3273,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="33" t="s">
+      <c r="G48" s="31"/>
+      <c r="H48" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="30"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="31"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3297,15 +3297,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="30"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="31"/>
       <c r="H49" s="25" t="s">
         <v>77</v>
       </c>
@@ -3324,7 +3324,7 @@
       <c r="M49" s="9">
         <v>69</v>
       </c>
-      <c r="N49" s="30"/>
+      <c r="N49" s="31"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3357,8 +3357,8 @@
       <c r="F50" s="15">
         <v>202</v>
       </c>
-      <c r="G50" s="30"/>
-      <c r="H50" s="26"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="27"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="30"/>
+      <c r="N50" s="31"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3379,7 +3379,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3395,7 +3395,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="30"/>
+      <c r="G51" s="31"/>
       <c r="H51" s="25" t="s">
         <v>78</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="30"/>
+      <c r="N51" s="31"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="26"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3437,8 +3437,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="26"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="27"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3452,13 +3452,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="41"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="34"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3479,7 +3479,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="30"/>
+      <c r="G53" s="31"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3496,13 +3496,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="41"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="34"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
@@ -3523,7 +3523,7 @@
       <c r="F54" s="15">
         <v>454</v>
       </c>
-      <c r="G54" s="30"/>
+      <c r="G54" s="31"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3536,16 +3536,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="41"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="34"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="26"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="17">
         <v>18</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="30"/>
+      <c r="G55" s="31"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3570,13 +3570,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="41"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="34"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3593,33 +3593,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="36" t="s">
+      <c r="G56" s="31"/>
+      <c r="H56" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="41"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="34"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="30"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="31"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3638,13 +3638,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="30"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="41"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="34"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
@@ -3665,7 +3665,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="30"/>
+      <c r="G58" s="31"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3680,16 +3680,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="41"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="34"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3705,23 +3705,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="30"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="41"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="34"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3737,23 +3737,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="30"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="41"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="34"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3769,23 +3769,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="30"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="34"/>
-      <c r="P61" s="34"/>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="34"/>
-      <c r="S61" s="34"/>
-      <c r="T61" s="41"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="34"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3801,23 +3801,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="30"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="41"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="34"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
+      <c r="A63" s="27"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3825,20 +3825,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="41"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="34"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3857,20 +3857,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="41"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="34"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3887,20 +3887,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="41"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="34"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3913,20 +3913,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="41"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="34"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
@@ -3947,23 +3947,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="30"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
-      <c r="S67" s="34"/>
-      <c r="T67" s="41"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="33"/>
+      <c r="T67" s="34"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="26"/>
+      <c r="A68" s="27"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3975,37 +3975,39 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="31"/>
+      <c r="G68" s="32"/>
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="35"/>
       <c r="M68" s="35"/>
-      <c r="N68" s="31"/>
+      <c r="N68" s="32"/>
       <c r="O68" s="35"/>
       <c r="P68" s="35"/>
       <c r="Q68" s="35"/>
       <c r="R68" s="35"/>
       <c r="S68" s="35"/>
-      <c r="T68" s="42"/>
+      <c r="T68" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="G1:G68"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="H59:M68"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="N1:N68"/>
     <mergeCell ref="O52:T68"/>
     <mergeCell ref="H15:H19"/>
@@ -4022,22 +4024,20 @@
     <mergeCell ref="O9:O11"/>
     <mergeCell ref="O12:O14"/>
     <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="G1:G68"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="H59:M68"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8219B14-5BD1-4561-AC86-9874B39F92B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C17C510-23C7-4D89-8E0A-EF45A3938128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="2868" yWindow="1044" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -793,11 +793,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -805,49 +817,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1179,32 +1179,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="38" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="38" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="39"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="44"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1223,7 +1223,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="31"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="25" t="s">
         <v>61</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="31"/>
+      <c r="N2" s="30"/>
       <c r="O2" s="25" t="s">
         <v>86</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1281,8 +1281,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="27"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1294,8 +1294,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="26"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="27"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1313,7 +1313,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="31"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="25" t="s">
         <v>62</v>
       </c>
@@ -1340,8 +1340,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="26"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="27"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1373,8 +1373,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1390,8 +1390,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="27"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="26"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1423,8 +1423,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="31"/>
+      <c r="N6" s="30"/>
       <c r="O6" s="25" t="s">
         <v>87</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="27"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1482,8 +1482,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="27"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="26"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="31"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="31"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="31"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="25" t="s">
         <v>64</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="31"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="25" t="s">
         <v>89</v>
       </c>
@@ -1617,8 +1617,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="27"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1626,8 +1626,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="26"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="27"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1645,25 +1645,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="29" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="27"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="26"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="31"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="25" t="s">
         <v>23</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="31"/>
+      <c r="N12" s="30"/>
       <c r="O12" s="25" t="s">
         <v>90</v>
       </c>
@@ -1733,8 +1733,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="26"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1750,8 +1750,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="31"/>
-      <c r="O13" s="26"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="27"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1779,8 +1779,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="27"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1792,8 +1792,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="27"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="26"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="31"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="25" t="s">
         <v>24</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="31"/>
+      <c r="N15" s="30"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1873,8 +1873,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="26"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="31"/>
+      <c r="N16" s="30"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1929,8 +1929,8 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="26"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="31"/>
+      <c r="N17" s="30"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1977,8 +1977,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="26"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="31"/>
+      <c r="N18" s="30"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2019,8 +2019,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="26"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2034,15 +2034,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="29" t="s">
+      <c r="N19" s="30"/>
+      <c r="O19" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="37"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="43"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
@@ -2063,7 +2063,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="31"/>
+      <c r="N20" s="30"/>
       <c r="O20" s="25" t="s">
         <v>96</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2113,7 +2113,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2132,8 +2132,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="27"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="26"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="31"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="31"/>
+      <c r="N22" s="30"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="31"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="25" t="s">
         <v>28</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="31"/>
+      <c r="N23" s="30"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2251,8 +2251,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="26"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="31"/>
+      <c r="N24" s="30"/>
       <c r="O24" s="25" t="s">
         <v>99</v>
       </c>
@@ -2307,8 +2307,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="27"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2320,8 +2320,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="27"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="26"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="31"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2366,7 +2366,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="31"/>
+      <c r="N26" s="30"/>
       <c r="O26" s="25" t="s">
         <v>100</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="31"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2414,8 +2414,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="26"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="27"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2445,7 +2445,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="31"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2458,8 +2458,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="27"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="26"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2469,15 +2469,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="31"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="31"/>
+      <c r="N29" s="30"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2529,7 +2529,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="31"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="31"/>
+      <c r="N30" s="30"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2571,16 +2571,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="29" t="s">
+      <c r="G31" s="30"/>
+      <c r="H31" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="31"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="30"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="31"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2624,18 +2624,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="29" t="s">
+      <c r="N32" s="30"/>
+      <c r="O32" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="37"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="43"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="31"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="31"/>
+      <c r="N33" s="30"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2679,7 +2679,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="31"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="25" t="s">
         <v>68</v>
       </c>
@@ -2714,7 +2714,7 @@
       <c r="M34" s="15">
         <v>51</v>
       </c>
-      <c r="N34" s="31"/>
+      <c r="N34" s="30"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2739,8 +2739,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="26"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="4">
         <v>52</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="M35" s="16">
         <v>40</v>
       </c>
-      <c r="N35" s="31"/>
+      <c r="N35" s="30"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2787,8 +2787,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="26"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="4">
         <v>46</v>
       </c>
@@ -2804,15 +2804,15 @@
       <c r="M36" s="16">
         <v>60</v>
       </c>
-      <c r="N36" s="31"/>
-      <c r="O36" s="38" t="s">
+      <c r="N36" s="30"/>
+      <c r="O36" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="39"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="44"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2827,8 +2827,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="26"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="4">
         <v>491</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="31"/>
+      <c r="N37" s="30"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2863,16 +2863,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="27"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="26"/>
       <c r="I38" s="17">
         <v>332</v>
       </c>
@@ -2880,7 +2880,7 @@
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="24"/>
-      <c r="N38" s="31"/>
+      <c r="N38" s="30"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="31"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="31"/>
+      <c r="N39" s="30"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="31"/>
+      <c r="G40" s="30"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="31"/>
+      <c r="N40" s="30"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="31"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -3002,15 +3002,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="29" t="s">
+      <c r="N41" s="30"/>
+      <c r="O41" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="37"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="43"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="31"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="25" t="s">
         <v>72</v>
       </c>
@@ -3046,7 +3046,7 @@
       <c r="M42" s="15">
         <v>542</v>
       </c>
-      <c r="N42" s="31"/>
+      <c r="N42" s="30"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3059,16 +3059,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="26"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="4">
         <v>130</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="31"/>
+      <c r="N43" s="30"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3113,8 +3113,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="27"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="26"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="31"/>
+      <c r="N44" s="30"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3147,14 +3147,14 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="31"/>
+      <c r="G45" s="30"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I45" s="20">
         <v>547</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="20">
         <v>684</v>
       </c>
       <c r="K45" s="6">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="31"/>
+      <c r="N45" s="30"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="31"/>
+      <c r="G46" s="30"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="31"/>
+      <c r="N46" s="30"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="31"/>
+      <c r="G47" s="30"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="31"/>
+      <c r="N47" s="30"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3273,16 +3273,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="29" t="s">
+      <c r="G48" s="30"/>
+      <c r="H48" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="31"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="30"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3297,22 +3297,22 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="31"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="30"/>
       <c r="H49" s="25" t="s">
         <v>77</v>
       </c>
       <c r="I49" s="8">
         <v>374</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J49" s="14">
         <v>35</v>
       </c>
       <c r="K49" s="8">
@@ -3321,10 +3321,10 @@
       <c r="L49" s="8">
         <v>367</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M49" s="15">
         <v>69</v>
       </c>
-      <c r="N49" s="31"/>
+      <c r="N49" s="30"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3357,8 +3357,8 @@
       <c r="F50" s="15">
         <v>202</v>
       </c>
-      <c r="G50" s="31"/>
-      <c r="H50" s="27"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="26"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="31"/>
+      <c r="N50" s="30"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3379,7 +3379,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3395,7 +3395,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="31"/>
+      <c r="G51" s="30"/>
       <c r="H51" s="25" t="s">
         <v>78</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="31"/>
+      <c r="N51" s="30"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3437,8 +3437,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="27"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3452,13 +3452,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="34"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="41"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3479,7 +3479,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="31"/>
+      <c r="G53" s="30"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3496,13 +3496,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="34"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="41"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
@@ -3523,7 +3523,7 @@
       <c r="F54" s="15">
         <v>454</v>
       </c>
-      <c r="G54" s="31"/>
+      <c r="G54" s="30"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3536,16 +3536,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="34"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="41"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="17">
         <v>18</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="31"/>
+      <c r="G55" s="30"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3570,13 +3570,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="34"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="41"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3593,33 +3593,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="40" t="s">
+      <c r="G56" s="30"/>
+      <c r="H56" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="34"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="41"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="31"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="30"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3638,13 +3638,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="31"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="34"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="41"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
@@ -3665,7 +3665,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="31"/>
+      <c r="G58" s="30"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3680,16 +3680,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="34"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="41"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
+      <c r="A59" s="27"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3705,23 +3705,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="31"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="34"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="41"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3737,23 +3737,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="31"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="34"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="41"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3769,23 +3769,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="31"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="34"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="41"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3801,23 +3801,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="31"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="34"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="41"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3825,20 +3825,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="34"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="41"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3857,20 +3857,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="33"/>
-      <c r="S64" s="33"/>
-      <c r="T64" s="34"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="41"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3887,20 +3887,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="33"/>
-      <c r="T65" s="34"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="41"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3913,20 +3913,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33"/>
-      <c r="S66" s="33"/>
-      <c r="T66" s="34"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="41"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
@@ -3947,23 +3947,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="31"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="33"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="33"/>
-      <c r="R67" s="33"/>
-      <c r="S67" s="33"/>
-      <c r="T67" s="34"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="41"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3975,23 +3975,53 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="32"/>
+      <c r="G68" s="31"/>
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="35"/>
       <c r="M68" s="35"/>
-      <c r="N68" s="32"/>
+      <c r="N68" s="31"/>
       <c r="O68" s="35"/>
       <c r="P68" s="35"/>
       <c r="Q68" s="35"/>
       <c r="R68" s="35"/>
       <c r="S68" s="35"/>
-      <c r="T68" s="36"/>
+      <c r="T68" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="N1:N68"/>
+    <mergeCell ref="O52:T68"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O20:O21"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="O2:O5"/>
     <mergeCell ref="H1:M1"/>
@@ -4008,36 +4038,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="N1:N68"/>
-    <mergeCell ref="O52:T68"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C17C510-23C7-4D89-8E0A-EF45A3938128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF00A5C-CF0B-4393-98A6-C9133333E8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2868" yWindow="1044" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
@@ -793,34 +793,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -836,18 +848,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1179,32 +1179,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="28" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="28" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="44"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="39"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1223,7 +1223,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="30"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="25" t="s">
         <v>61</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="30"/>
+      <c r="N2" s="31"/>
       <c r="O2" s="25" t="s">
         <v>86</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1281,8 +1281,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="26"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1294,8 +1294,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="27"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="26"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1313,7 +1313,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="30"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="25" t="s">
         <v>62</v>
       </c>
@@ -1340,8 +1340,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="27"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="26"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1373,8 +1373,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="27"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1390,8 +1390,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="26"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="27"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1423,8 +1423,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="27"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="30"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="25" t="s">
         <v>87</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1482,8 +1482,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="26"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="27"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="30"/>
+      <c r="N8" s="31"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="30"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="25" t="s">
         <v>64</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="30"/>
+      <c r="N9" s="31"/>
       <c r="O9" s="25" t="s">
         <v>89</v>
       </c>
@@ -1617,8 +1617,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1626,8 +1626,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="27"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="26"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1645,25 +1645,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="33" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="26"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="27"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="30"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="25" t="s">
         <v>23</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="30"/>
+      <c r="N12" s="31"/>
       <c r="O12" s="25" t="s">
         <v>90</v>
       </c>
@@ -1733,8 +1733,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="27"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1750,8 +1750,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="30"/>
-      <c r="O13" s="27"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="26"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1779,8 +1779,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1792,8 +1792,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="26"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="27"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="25" t="s">
         <v>24</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="30"/>
+      <c r="N15" s="31"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1873,8 +1873,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="27"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="30"/>
+      <c r="N16" s="31"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1929,8 +1929,8 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="27"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="30"/>
+      <c r="N17" s="31"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1977,8 +1977,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="27"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="30"/>
+      <c r="N18" s="31"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2019,8 +2019,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="27"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2034,15 +2034,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="33" t="s">
+      <c r="N19" s="31"/>
+      <c r="O19" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="43"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="37"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
@@ -2063,7 +2063,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="30"/>
+      <c r="N20" s="31"/>
       <c r="O20" s="25" t="s">
         <v>96</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2113,7 +2113,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="30"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2132,8 +2132,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="26"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="27"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="30"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="30"/>
+      <c r="N22" s="31"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="30"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="25" t="s">
         <v>28</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="30"/>
+      <c r="N23" s="31"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2251,8 +2251,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="27"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="30"/>
+      <c r="N24" s="31"/>
       <c r="O24" s="25" t="s">
         <v>99</v>
       </c>
@@ -2307,8 +2307,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="26"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2320,8 +2320,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="26"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="27"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="30"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2366,7 +2366,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="30"/>
+      <c r="N26" s="31"/>
       <c r="O26" s="25" t="s">
         <v>100</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="30"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2414,8 +2414,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="27"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="26"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2445,7 +2445,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="30"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2458,8 +2458,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="26"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="27"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2469,15 +2469,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="30"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="30"/>
+      <c r="N29" s="31"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2529,7 +2529,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="30"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="30"/>
+      <c r="N30" s="31"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2571,16 +2571,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="33" t="s">
+      <c r="G31" s="31"/>
+      <c r="H31" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="30"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="31"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="30"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2624,18 +2624,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="33" t="s">
+      <c r="N32" s="31"/>
+      <c r="O32" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="43"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="37"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="30"/>
+      <c r="G33" s="31"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="30"/>
+      <c r="N33" s="31"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2679,7 +2679,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="30"/>
+      <c r="G34" s="31"/>
       <c r="H34" s="25" t="s">
         <v>68</v>
       </c>
@@ -2714,7 +2714,7 @@
       <c r="M34" s="15">
         <v>51</v>
       </c>
-      <c r="N34" s="30"/>
+      <c r="N34" s="31"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2739,8 +2739,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="27"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="26"/>
       <c r="I35" s="4">
         <v>52</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="M35" s="16">
         <v>40</v>
       </c>
-      <c r="N35" s="30"/>
+      <c r="N35" s="31"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2787,8 +2787,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="27"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="4">
         <v>46</v>
       </c>
@@ -2804,15 +2804,15 @@
       <c r="M36" s="16">
         <v>60</v>
       </c>
-      <c r="N36" s="30"/>
-      <c r="O36" s="28" t="s">
+      <c r="N36" s="31"/>
+      <c r="O36" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="44"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="39"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2827,8 +2827,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="27"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="26"/>
       <c r="I37" s="4">
         <v>491</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="30"/>
+      <c r="N37" s="31"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2863,16 +2863,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="26"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="17">
         <v>332</v>
       </c>
@@ -2880,7 +2880,7 @@
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="24"/>
-      <c r="N38" s="30"/>
+      <c r="N38" s="31"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="30"/>
+      <c r="G39" s="31"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="30"/>
+      <c r="N39" s="31"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="30"/>
+      <c r="G40" s="31"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="30"/>
+      <c r="N40" s="31"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="30"/>
+      <c r="G41" s="31"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -3002,15 +3002,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="33" t="s">
+      <c r="N41" s="31"/>
+      <c r="O41" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="43"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="37"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="30"/>
+      <c r="G42" s="31"/>
       <c r="H42" s="25" t="s">
         <v>72</v>
       </c>
@@ -3046,7 +3046,7 @@
       <c r="M42" s="15">
         <v>542</v>
       </c>
-      <c r="N42" s="30"/>
+      <c r="N42" s="31"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3059,16 +3059,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="27"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="26"/>
       <c r="I43" s="4">
         <v>130</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="30"/>
+      <c r="N43" s="31"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3113,8 +3113,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="26"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="30"/>
+      <c r="N44" s="31"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3147,7 +3147,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="30"/>
+      <c r="G45" s="31"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="30"/>
+      <c r="N45" s="31"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="30"/>
+      <c r="G46" s="31"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="30"/>
+      <c r="N46" s="31"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="30"/>
+      <c r="G47" s="31"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="30"/>
+      <c r="N47" s="31"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3273,16 +3273,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="33" t="s">
+      <c r="G48" s="31"/>
+      <c r="H48" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="30"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="31"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3297,34 +3297,34 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="30"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="31"/>
       <c r="H49" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="14">
         <v>374</v>
       </c>
       <c r="J49" s="14">
         <v>35</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49" s="14">
         <v>278</v>
       </c>
-      <c r="L49" s="8">
+      <c r="L49" s="14">
         <v>367</v>
       </c>
       <c r="M49" s="15">
         <v>69</v>
       </c>
-      <c r="N49" s="30"/>
+      <c r="N49" s="31"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3357,16 +3357,16 @@
       <c r="F50" s="15">
         <v>202</v>
       </c>
-      <c r="G50" s="30"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="10">
+      <c r="G50" s="31"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="17">
         <v>441</v>
       </c>
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="30"/>
+      <c r="N50" s="31"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3379,7 +3379,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3395,11 +3395,11 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="30"/>
+      <c r="G51" s="31"/>
       <c r="H51" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="14">
         <v>34</v>
       </c>
       <c r="J51" s="8">
@@ -3414,7 +3414,7 @@
       <c r="M51" s="9">
         <v>300</v>
       </c>
-      <c r="N51" s="30"/>
+      <c r="N51" s="31"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="26"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3437,8 +3437,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="26"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="27"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
@@ -3452,13 +3452,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="41"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="34"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3479,7 +3479,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="30"/>
+      <c r="G53" s="31"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3496,13 +3496,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="41"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="34"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
@@ -3523,7 +3523,7 @@
       <c r="F54" s="15">
         <v>454</v>
       </c>
-      <c r="G54" s="30"/>
+      <c r="G54" s="31"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3536,16 +3536,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="41"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="34"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="26"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="17">
         <v>18</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="30"/>
+      <c r="G55" s="31"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3570,13 +3570,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="41"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="34"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3593,33 +3593,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="36" t="s">
+      <c r="G56" s="31"/>
+      <c r="H56" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="41"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="34"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="30"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="31"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3638,13 +3638,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="30"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="41"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="34"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
@@ -3665,7 +3665,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="30"/>
+      <c r="G58" s="31"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3680,16 +3680,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="41"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="34"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3705,23 +3705,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="30"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="41"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="34"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3737,23 +3737,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="30"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="41"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="34"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3769,23 +3769,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="30"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="34"/>
-      <c r="P61" s="34"/>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="34"/>
-      <c r="S61" s="34"/>
-      <c r="T61" s="41"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="34"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3801,23 +3801,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="30"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="41"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="34"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
+      <c r="A63" s="27"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3825,20 +3825,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="41"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="34"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3857,20 +3857,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="41"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="34"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3887,20 +3887,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="41"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="34"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3913,20 +3913,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="41"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="34"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
@@ -3947,23 +3947,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="30"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
-      <c r="S67" s="34"/>
-      <c r="T67" s="41"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="33"/>
+      <c r="T67" s="34"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="26"/>
+      <c r="A68" s="27"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3975,37 +3975,39 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="31"/>
+      <c r="G68" s="32"/>
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="35"/>
       <c r="M68" s="35"/>
-      <c r="N68" s="31"/>
+      <c r="N68" s="32"/>
       <c r="O68" s="35"/>
       <c r="P68" s="35"/>
       <c r="Q68" s="35"/>
       <c r="R68" s="35"/>
       <c r="S68" s="35"/>
-      <c r="T68" s="42"/>
+      <c r="T68" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="G1:G68"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="H59:M68"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="N1:N68"/>
     <mergeCell ref="O52:T68"/>
     <mergeCell ref="H15:H19"/>
@@ -4022,22 +4024,20 @@
     <mergeCell ref="O9:O11"/>
     <mergeCell ref="O12:O14"/>
     <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="G1:G68"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="H59:M68"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF00A5C-CF0B-4393-98A6-C9133333E8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293266C3-07C1-4661-BDD5-A4D385AB95C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2868" yWindow="1044" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3402,13 +3402,13 @@
       <c r="I51" s="14">
         <v>34</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J51" s="14">
         <v>540</v>
       </c>
       <c r="K51" s="8">
         <v>275</v>
       </c>
-      <c r="L51" s="8">
+      <c r="L51" s="14">
         <v>436</v>
       </c>
       <c r="M51" s="9">
@@ -3442,7 +3442,7 @@
       <c r="I52" s="10">
         <v>354</v>
       </c>
-      <c r="J52" s="10">
+      <c r="J52" s="17">
         <v>658</v>
       </c>
       <c r="K52" s="10">

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293266C3-07C1-4661-BDD5-A4D385AB95C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF212D1F-C1E9-4374-896F-34D1CCD5FDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="1044" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
+    <workbookView xWindow="2448" yWindow="1788" windowWidth="17280" windowHeight="11172" xr2:uid="{E9E02EED-E403-4CEE-8F52-807A4CAF3D04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,6 +547,13 @@
       <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -714,7 +721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,11 +800,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -805,49 +824,40 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034CABDF-B1AB-4701-9E06-9F4F7CDACF41}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1179,32 +1189,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="38" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="38" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="39"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="44"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1223,7 +1233,7 @@
         <v>628</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="31"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="25" t="s">
         <v>61</v>
       </c>
@@ -1242,7 +1252,7 @@
       <c r="M2" s="9">
         <v>16</v>
       </c>
-      <c r="N2" s="31"/>
+      <c r="N2" s="30"/>
       <c r="O2" s="25" t="s">
         <v>86</v>
       </c>
@@ -1263,7 +1273,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -1281,8 +1291,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="27"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1294,8 +1304,8 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="26"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="27"/>
       <c r="P3" s="3">
         <v>198</v>
       </c>
@@ -1313,7 +1323,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="10">
         <v>274</v>
       </c>
@@ -1321,7 +1331,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="31"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="25" t="s">
         <v>62</v>
       </c>
@@ -1340,8 +1350,8 @@
       <c r="M4" s="9">
         <v>82</v>
       </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="26"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="27"/>
       <c r="P4" s="3">
         <v>552</v>
       </c>
@@ -1373,8 +1383,8 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="3">
         <v>611</v>
       </c>
@@ -1390,8 +1400,8 @@
       <c r="M5" s="12">
         <v>209</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="27"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="26"/>
       <c r="P5" s="10">
         <v>264</v>
       </c>
@@ -1423,8 +1433,8 @@
       <c r="F6" s="7">
         <v>419</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="3">
         <v>3</v>
       </c>
@@ -1440,7 +1450,7 @@
       <c r="M6" s="12">
         <v>76</v>
       </c>
-      <c r="N6" s="31"/>
+      <c r="N6" s="30"/>
       <c r="O6" s="25" t="s">
         <v>87</v>
       </c>
@@ -1473,8 +1483,8 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="27"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="10">
         <v>30</v>
       </c>
@@ -1482,8 +1492,8 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="27"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="26"/>
       <c r="P7" s="10">
         <v>279</v>
       </c>
@@ -1507,7 +1517,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="31"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
@@ -1526,7 +1536,7 @@
       <c r="M8" s="7">
         <v>475</v>
       </c>
-      <c r="N8" s="31"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="5" t="s">
         <v>88</v>
       </c>
@@ -1563,7 +1573,7 @@
         <v>289</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="31"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="25" t="s">
         <v>64</v>
       </c>
@@ -1582,7 +1592,7 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="31"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="25" t="s">
         <v>89</v>
       </c>
@@ -1617,8 +1627,8 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="27"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="10">
         <v>287</v>
       </c>
@@ -1626,8 +1636,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="26"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="27"/>
       <c r="P10" s="3">
         <v>688</v>
       </c>
@@ -1645,25 +1655,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="29" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="27"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="26"/>
       <c r="P11" s="10">
         <v>329</v>
       </c>
@@ -1683,7 +1693,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="31"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="25" t="s">
         <v>23</v>
       </c>
@@ -1702,7 +1712,7 @@
       <c r="M12" s="15">
         <v>437</v>
       </c>
-      <c r="N12" s="31"/>
+      <c r="N12" s="30"/>
       <c r="O12" s="25" t="s">
         <v>90</v>
       </c>
@@ -1733,8 +1743,8 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="26"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="4">
         <v>563</v>
       </c>
@@ -1750,8 +1760,8 @@
       <c r="M13" s="16">
         <v>543</v>
       </c>
-      <c r="N13" s="31"/>
-      <c r="O13" s="26"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="27"/>
       <c r="P13" s="3">
         <v>132</v>
       </c>
@@ -1779,8 +1789,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="27"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="17">
         <v>654</v>
       </c>
@@ -1792,8 +1802,8 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="27"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="26"/>
       <c r="P14" s="10">
         <v>10</v>
       </c>
@@ -1817,7 +1827,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="31"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="25" t="s">
         <v>24</v>
       </c>
@@ -1836,7 +1846,7 @@
       <c r="M15" s="15">
         <v>662</v>
       </c>
-      <c r="N15" s="31"/>
+      <c r="N15" s="30"/>
       <c r="O15" s="5" t="s">
         <v>91</v>
       </c>
@@ -1873,8 +1883,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="26"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="4">
         <v>671</v>
       </c>
@@ -1890,7 +1900,7 @@
       <c r="M16" s="16">
         <v>103</v>
       </c>
-      <c r="N16" s="31"/>
+      <c r="N16" s="30"/>
       <c r="O16" s="5" t="s">
         <v>92</v>
       </c>
@@ -1929,8 +1939,8 @@
       <c r="F17" s="15">
         <v>49</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="26"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="4">
         <v>107</v>
       </c>
@@ -1946,7 +1956,7 @@
       <c r="M17" s="16">
         <v>104</v>
       </c>
-      <c r="N17" s="31"/>
+      <c r="N17" s="30"/>
       <c r="O17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1961,7 +1971,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3">
         <v>451</v>
       </c>
@@ -1977,8 +1987,8 @@
       <c r="F18" s="12">
         <v>696</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="26"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="4">
         <v>111</v>
       </c>
@@ -1994,7 +2004,7 @@
       <c r="M18" s="16">
         <v>404</v>
       </c>
-      <c r="N18" s="31"/>
+      <c r="N18" s="30"/>
       <c r="O18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2009,7 +2019,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="10">
         <v>467</v>
       </c>
@@ -2019,8 +2029,8 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="26"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="4">
         <v>199</v>
       </c>
@@ -2034,15 +2044,15 @@
         <v>117</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="29" t="s">
+      <c r="N19" s="30"/>
+      <c r="O19" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="37"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="43"/>
     </row>
     <row r="20" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
@@ -2063,7 +2073,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2076,7 +2086,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="31"/>
+      <c r="N20" s="30"/>
       <c r="O20" s="25" t="s">
         <v>96</v>
       </c>
@@ -2097,7 +2107,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="3">
         <v>537</v>
       </c>
@@ -2113,7 +2123,7 @@
       <c r="F21" s="12">
         <v>443</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2132,8 +2142,8 @@
       <c r="M21" s="7">
         <v>449</v>
       </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="27"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="26"/>
       <c r="P21" s="10">
         <v>155</v>
       </c>
@@ -2143,7 +2153,7 @@
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -2159,7 +2169,7 @@
       <c r="F22" s="12">
         <v>165</v>
       </c>
-      <c r="G22" s="31"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2172,7 +2182,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="31"/>
+      <c r="N22" s="30"/>
       <c r="O22" s="5" t="s">
         <v>97</v>
       </c>
@@ -2191,7 +2201,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="10">
         <v>481</v>
       </c>
@@ -2199,7 +2209,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="31"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="25" t="s">
         <v>28</v>
       </c>
@@ -2218,7 +2228,7 @@
       <c r="M23" s="15">
         <v>230</v>
       </c>
-      <c r="N23" s="31"/>
+      <c r="N23" s="30"/>
       <c r="O23" s="5" t="s">
         <v>98</v>
       </c>
@@ -2251,8 +2261,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="26"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="4">
         <v>98</v>
       </c>
@@ -2268,7 +2278,7 @@
       <c r="M24" s="16">
         <v>110</v>
       </c>
-      <c r="N24" s="31"/>
+      <c r="N24" s="30"/>
       <c r="O24" s="25" t="s">
         <v>99</v>
       </c>
@@ -2307,8 +2317,8 @@
       <c r="F25" s="7">
         <v>306</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="27"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="10">
         <v>95</v>
       </c>
@@ -2320,8 +2330,8 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="27"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="26"/>
       <c r="P25" s="10">
         <v>472</v>
       </c>
@@ -2353,7 +2363,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="31"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
@@ -2366,7 +2376,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="31"/>
+      <c r="N26" s="30"/>
       <c r="O26" s="25" t="s">
         <v>100</v>
       </c>
@@ -2403,7 +2413,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="31"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2414,8 +2424,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="26"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="27"/>
       <c r="P27" s="3">
         <v>692</v>
       </c>
@@ -2445,7 +2455,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="31"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
@@ -2458,8 +2468,8 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="27"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="26"/>
       <c r="P28" s="10">
         <v>480</v>
       </c>
@@ -2469,15 +2479,15 @@
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="31"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2490,7 +2500,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="31"/>
+      <c r="N29" s="30"/>
       <c r="O29" s="5" t="s">
         <v>101</v>
       </c>
@@ -2529,7 +2539,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="31"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="5" t="s">
         <v>33</v>
       </c>
@@ -2542,7 +2552,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="31"/>
+      <c r="N30" s="30"/>
       <c r="O30" s="5" t="s">
         <v>102</v>
       </c>
@@ -2555,7 +2565,7 @@
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="3">
         <v>342</v>
       </c>
@@ -2571,16 +2581,16 @@
       <c r="F31" s="12">
         <v>190</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="29" t="s">
+      <c r="G31" s="30"/>
+      <c r="H31" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="31"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="30"/>
       <c r="O31" s="5" t="s">
         <v>103</v>
       </c>
@@ -2597,7 +2607,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="3">
         <v>191</v>
       </c>
@@ -2613,7 +2623,7 @@
       <c r="F32" s="12">
         <v>693</v>
       </c>
-      <c r="G32" s="31"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="5" t="s">
         <v>66</v>
       </c>
@@ -2624,18 +2634,18 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="29" t="s">
+      <c r="N32" s="30"/>
+      <c r="O32" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="37"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="43"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="3">
         <v>393</v>
       </c>
@@ -2651,7 +2661,7 @@
       <c r="F33" s="12">
         <v>319</v>
       </c>
-      <c r="G33" s="31"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="5" t="s">
         <v>67</v>
       </c>
@@ -2664,7 +2674,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="31"/>
+      <c r="N33" s="30"/>
       <c r="O33" s="5" t="s">
         <v>105</v>
       </c>
@@ -2679,7 +2689,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="3">
         <v>405</v>
       </c>
@@ -2695,7 +2705,7 @@
       <c r="F34" s="12">
         <v>233</v>
       </c>
-      <c r="G34" s="31"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="25" t="s">
         <v>68</v>
       </c>
@@ -2714,7 +2724,7 @@
       <c r="M34" s="15">
         <v>51</v>
       </c>
-      <c r="N34" s="31"/>
+      <c r="N34" s="30"/>
       <c r="O34" s="5" t="s">
         <v>106</v>
       </c>
@@ -2729,7 +2739,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="10">
         <v>357</v>
       </c>
@@ -2739,8 +2749,8 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="26"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="4">
         <v>52</v>
       </c>
@@ -2756,7 +2766,7 @@
       <c r="M35" s="16">
         <v>40</v>
       </c>
-      <c r="N35" s="31"/>
+      <c r="N35" s="30"/>
       <c r="O35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2787,8 +2797,8 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="26"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="4">
         <v>46</v>
       </c>
@@ -2804,15 +2814,15 @@
       <c r="M36" s="16">
         <v>60</v>
       </c>
-      <c r="N36" s="31"/>
-      <c r="O36" s="38" t="s">
+      <c r="N36" s="30"/>
+      <c r="O36" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="39"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="44"/>
     </row>
     <row r="37" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
@@ -2827,8 +2837,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="26"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="4">
         <v>491</v>
       </c>
@@ -2844,7 +2854,7 @@
       <c r="M37" s="12">
         <v>93</v>
       </c>
-      <c r="N37" s="31"/>
+      <c r="N37" s="30"/>
       <c r="O37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2863,16 +2873,16 @@
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="27"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="26"/>
       <c r="I38" s="17">
         <v>332</v>
       </c>
@@ -2880,7 +2890,7 @@
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="24"/>
-      <c r="N38" s="31"/>
+      <c r="N38" s="30"/>
       <c r="O38" s="5" t="s">
         <v>110</v>
       </c>
@@ -2907,7 +2917,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="31"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2922,7 +2932,7 @@
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="31"/>
+      <c r="N39" s="30"/>
       <c r="O39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2949,7 +2959,7 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="31"/>
+      <c r="G40" s="30"/>
       <c r="H40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2962,7 +2972,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="31"/>
+      <c r="N40" s="30"/>
       <c r="O40" s="5" t="s">
         <v>112</v>
       </c>
@@ -2991,7 +3001,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="31"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="5" t="s">
         <v>71</v>
       </c>
@@ -3002,15 +3012,15 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="29" t="s">
+      <c r="N41" s="30"/>
+      <c r="O41" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="37"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="43"/>
     </row>
     <row r="42" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -3027,7 +3037,7 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="31"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="25" t="s">
         <v>72</v>
       </c>
@@ -3046,7 +3056,7 @@
       <c r="M42" s="15">
         <v>542</v>
       </c>
-      <c r="N42" s="31"/>
+      <c r="N42" s="30"/>
       <c r="O42" s="5" t="s">
         <v>114</v>
       </c>
@@ -3059,16 +3069,16 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="26"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="4">
         <v>130</v>
       </c>
@@ -3084,7 +3094,7 @@
       <c r="M43" s="12">
         <v>126</v>
       </c>
-      <c r="N43" s="31"/>
+      <c r="N43" s="30"/>
       <c r="O43" s="5" t="s">
         <v>115</v>
       </c>
@@ -3113,8 +3123,8 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="27"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="26"/>
       <c r="I44" s="10">
         <v>433</v>
       </c>
@@ -3124,7 +3134,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="31"/>
+      <c r="N44" s="30"/>
       <c r="O44" s="5" t="s">
         <v>116</v>
       </c>
@@ -3147,7 +3157,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="31"/>
+      <c r="G45" s="30"/>
       <c r="H45" s="5" t="s">
         <v>73</v>
       </c>
@@ -3162,7 +3172,7 @@
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="31"/>
+      <c r="N45" s="30"/>
       <c r="O45" s="5" t="s">
         <v>117</v>
       </c>
@@ -3193,7 +3203,7 @@
       <c r="F46" s="7">
         <v>25</v>
       </c>
-      <c r="G46" s="31"/>
+      <c r="G46" s="30"/>
       <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
@@ -3208,7 +3218,7 @@
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="31"/>
+      <c r="N46" s="30"/>
       <c r="O46" s="5" t="s">
         <v>118</v>
       </c>
@@ -3233,7 +3243,7 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="31"/>
+      <c r="G47" s="30"/>
       <c r="H47" s="5" t="s">
         <v>75</v>
       </c>
@@ -3246,7 +3256,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="31"/>
+      <c r="N47" s="30"/>
       <c r="O47" s="5" t="s">
         <v>119</v>
       </c>
@@ -3273,16 +3283,16 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="29" t="s">
+      <c r="G48" s="30"/>
+      <c r="H48" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="31"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="30"/>
       <c r="O48" s="5" t="s">
         <v>120</v>
       </c>
@@ -3297,15 +3307,15 @@
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="31"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="30"/>
       <c r="H49" s="25" t="s">
         <v>77</v>
       </c>
@@ -3324,7 +3334,7 @@
       <c r="M49" s="15">
         <v>69</v>
       </c>
-      <c r="N49" s="31"/>
+      <c r="N49" s="30"/>
       <c r="O49" s="5" t="s">
         <v>121</v>
       </c>
@@ -3357,8 +3367,8 @@
       <c r="F50" s="15">
         <v>202</v>
       </c>
-      <c r="G50" s="31"/>
-      <c r="H50" s="27"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="26"/>
       <c r="I50" s="17">
         <v>441</v>
       </c>
@@ -3366,7 +3376,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="31"/>
+      <c r="N50" s="30"/>
       <c r="O50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3379,7 +3389,7 @@
       <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="3">
         <v>500</v>
       </c>
@@ -3395,7 +3405,7 @@
       <c r="F51" s="12">
         <v>166</v>
       </c>
-      <c r="G51" s="31"/>
+      <c r="G51" s="30"/>
       <c r="H51" s="25" t="s">
         <v>78</v>
       </c>
@@ -3411,10 +3421,10 @@
       <c r="L51" s="14">
         <v>436</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M51" s="45">
         <v>300</v>
       </c>
-      <c r="N51" s="31"/>
+      <c r="N51" s="30"/>
       <c r="O51" s="5" t="s">
         <v>123</v>
       </c>
@@ -3427,7 +3437,7 @@
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="10">
         <v>466</v>
       </c>
@@ -3437,28 +3447,28 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="27"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="10">
         <v>354</v>
       </c>
       <c r="J52" s="17">
         <v>658</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K52" s="17">
         <v>162</v>
       </c>
-      <c r="L52" s="10">
+      <c r="L52" s="17">
         <v>4</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="34"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="41"/>
     </row>
     <row r="53" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -3479,7 +3489,7 @@
       <c r="F53" s="7">
         <v>220</v>
       </c>
-      <c r="G53" s="31"/>
+      <c r="G53" s="30"/>
       <c r="H53" s="5" t="s">
         <v>79</v>
       </c>
@@ -3496,13 +3506,13 @@
         <v>81</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="34"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="41"/>
     </row>
     <row r="54" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
@@ -3523,7 +3533,7 @@
       <c r="F54" s="15">
         <v>454</v>
       </c>
-      <c r="G54" s="31"/>
+      <c r="G54" s="30"/>
       <c r="H54" s="5" t="s">
         <v>80</v>
       </c>
@@ -3536,16 +3546,16 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="34"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="41"/>
     </row>
     <row r="55" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="17">
         <v>18</v>
       </c>
@@ -3553,7 +3563,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="31"/>
+      <c r="G55" s="30"/>
       <c r="H55" s="5" t="s">
         <v>81</v>
       </c>
@@ -3570,13 +3580,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="7"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="34"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="41"/>
     </row>
     <row r="56" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
@@ -3593,33 +3603,33 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="40" t="s">
+      <c r="G56" s="30"/>
+      <c r="H56" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="34"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="41"/>
     </row>
     <row r="57" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="31"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="30"/>
       <c r="H57" s="5" t="s">
         <v>83</v>
       </c>
@@ -3638,13 +3648,13 @@
       <c r="M57" s="7">
         <v>268</v>
       </c>
-      <c r="N57" s="31"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="34"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="41"/>
     </row>
     <row r="58" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
@@ -3665,7 +3675,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="31"/>
+      <c r="G58" s="30"/>
       <c r="H58" s="5" t="s">
         <v>84</v>
       </c>
@@ -3680,16 +3690,16 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="34"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="41"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
+      <c r="A59" s="27"/>
       <c r="B59" s="3">
         <v>575</v>
       </c>
@@ -3705,23 +3715,23 @@
       <c r="F59" s="12">
         <v>179</v>
       </c>
-      <c r="G59" s="31"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="34"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="41"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="3">
         <v>56</v>
       </c>
@@ -3737,23 +3747,23 @@
       <c r="F60" s="12">
         <v>435</v>
       </c>
-      <c r="G60" s="31"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="34"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="41"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="3">
         <v>646</v>
       </c>
@@ -3769,23 +3779,23 @@
       <c r="F61" s="12">
         <v>215</v>
       </c>
-      <c r="G61" s="31"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="34"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="41"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="3">
         <v>75</v>
       </c>
@@ -3801,23 +3811,23 @@
       <c r="F62" s="12">
         <v>678</v>
       </c>
-      <c r="G62" s="31"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="34"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="41"/>
     </row>
     <row r="63" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="10">
         <v>420</v>
       </c>
@@ -3825,20 +3835,20 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="34"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="41"/>
     </row>
     <row r="64" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
@@ -3857,20 +3867,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="33"/>
-      <c r="S64" s="33"/>
-      <c r="T64" s="34"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="41"/>
     </row>
     <row r="65" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
@@ -3887,20 +3897,20 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="33"/>
-      <c r="T65" s="34"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="41"/>
     </row>
     <row r="66" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
@@ -3913,20 +3923,20 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33"/>
-      <c r="S66" s="33"/>
-      <c r="T66" s="34"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="41"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
@@ -3947,23 +3957,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="31"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="33"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="33"/>
-      <c r="R67" s="33"/>
-      <c r="S67" s="33"/>
-      <c r="T67" s="34"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="41"/>
     </row>
     <row r="68" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="10">
         <v>321</v>
       </c>
@@ -3975,23 +3985,53 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="32"/>
+      <c r="G68" s="31"/>
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="35"/>
       <c r="M68" s="35"/>
-      <c r="N68" s="32"/>
+      <c r="N68" s="31"/>
       <c r="O68" s="35"/>
       <c r="P68" s="35"/>
       <c r="Q68" s="35"/>
       <c r="R68" s="35"/>
       <c r="S68" s="35"/>
-      <c r="T68" s="36"/>
+      <c r="T68" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="N1:N68"/>
+    <mergeCell ref="O52:T68"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O20:O21"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="O2:O5"/>
     <mergeCell ref="H1:M1"/>
@@ -4008,36 +4048,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="N1:N68"/>
-    <mergeCell ref="O52:T68"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -580,7 +580,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -685,19 +685,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -792,11 +780,11 @@
   </sheetPr>
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K53" activeCellId="0" sqref="K53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J54" activeCellId="0" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="2" width="8.88"/>
@@ -1650,7 +1638,7 @@
       <c r="I19" s="22" t="n">
         <v>199</v>
       </c>
-      <c r="J19" s="26" t="n">
+      <c r="J19" s="16" t="n">
         <v>655</v>
       </c>
       <c r="K19" s="22" t="n">
@@ -1661,14 +1649,14 @@
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="27" t="s">
+      <c r="O19" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
@@ -1699,7 +1687,7 @@
       <c r="J20" s="8" t="n">
         <v>589</v>
       </c>
-      <c r="K20" s="28"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="9"/>
       <c r="N20" s="4"/>
@@ -2251,14 +2239,14 @@
       <c r="L32" s="18"/>
       <c r="M32" s="9"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="27" t="s">
+      <c r="O32" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7"/>
@@ -2510,13 +2498,13 @@
       <c r="O38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P38" s="28" t="n">
+      <c r="P38" s="18" t="n">
         <v>335</v>
       </c>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="29"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
@@ -2552,13 +2540,13 @@
       <c r="O39" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P39" s="28" t="n">
+      <c r="P39" s="18" t="n">
         <v>587</v>
       </c>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="29"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
@@ -2629,14 +2617,14 @@
       <c r="L41" s="18"/>
       <c r="M41" s="9"/>
       <c r="N41" s="4"/>
-      <c r="O41" s="27" t="s">
+      <c r="O41" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
@@ -2847,7 +2835,7 @@
       <c r="T46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="27" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="24" t="n">
@@ -3037,7 +3025,7 @@
       <c r="L51" s="11" t="n">
         <v>436</v>
       </c>
-      <c r="M51" s="31" t="n">
+      <c r="M51" s="28" t="n">
         <v>300</v>
       </c>
       <c r="N51" s="4"/>
@@ -3118,7 +3106,7 @@
       <c r="K53" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="L53" s="18" t="n">
+      <c r="L53" s="8" t="n">
         <v>81</v>
       </c>
       <c r="M53" s="9"/>
@@ -3153,10 +3141,10 @@
       <c r="H54" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I54" s="18" t="n">
+      <c r="I54" s="8" t="n">
         <v>74</v>
       </c>
-      <c r="J54" s="18" t="n">
+      <c r="J54" s="8" t="n">
         <v>240</v>
       </c>
       <c r="K54" s="18"/>
@@ -3220,14 +3208,14 @@
       <c r="E56" s="18"/>
       <c r="F56" s="9"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="32" t="s">
+      <c r="H56" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
       <c r="N56" s="4"/>
       <c r="O56" s="15"/>
       <c r="P56" s="15"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -780,11 +780,11 @@
   </sheetPr>
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J54" activeCellId="0" sqref="J54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="2" width="8.88"/>
@@ -2881,7 +2881,7 @@
       <c r="B48" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="C48" s="18" t="n">
+      <c r="C48" s="8" t="n">
         <v>23</v>
       </c>
       <c r="D48" s="18"/>
@@ -3171,7 +3171,7 @@
       <c r="H55" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="I55" s="18" t="n">
+      <c r="I55" s="8" t="n">
         <v>378</v>
       </c>
       <c r="J55" s="18" t="n">

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -780,8 +780,8 @@
   </sheetPr>
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2510,7 +2510,7 @@
       <c r="A39" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="18" t="n">
+      <c r="B39" s="8" t="n">
         <v>682</v>
       </c>
       <c r="C39" s="18" t="n">

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -781,7 +781,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2513,7 +2513,7 @@
       <c r="B39" s="8" t="n">
         <v>682</v>
       </c>
-      <c r="C39" s="18" t="n">
+      <c r="C39" s="8" t="n">
         <v>71</v>
       </c>
       <c r="D39" s="18" t="n">

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -780,8 +780,8 @@
   </sheetPr>
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2513,7 +2513,7 @@
       <c r="B39" s="8" t="n">
         <v>682</v>
       </c>
-      <c r="C39" s="8" t="n">
+      <c r="C39" s="18" t="n">
         <v>71</v>
       </c>
       <c r="D39" s="18" t="n">
@@ -2552,10 +2552,10 @@
       <c r="A40" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="18" t="n">
+      <c r="B40" s="8" t="n">
         <v>150</v>
       </c>
-      <c r="C40" s="18" t="n">
+      <c r="C40" s="8" t="n">
         <v>227</v>
       </c>
       <c r="D40" s="18" t="n">
@@ -2592,7 +2592,7 @@
       <c r="A41" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="18" t="n">
+      <c r="B41" s="8" t="n">
         <v>20</v>
       </c>
       <c r="C41" s="18" t="n">

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -621,11 +621,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -662,10 +666,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -780,8 +780,8 @@
   </sheetPr>
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -850,125 +850,125 @@
       <c r="K2" s="10" t="n">
         <v>167</v>
       </c>
-      <c r="L2" s="11" t="n">
+      <c r="L2" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="M2" s="12" t="n">
+      <c r="M2" s="11" t="n">
         <v>16</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="10" t="n">
+      <c r="P2" s="12" t="n">
         <v>509</v>
       </c>
-      <c r="Q2" s="10" t="n">
+      <c r="Q2" s="12" t="n">
         <v>70</v>
       </c>
-      <c r="R2" s="10" t="n">
+      <c r="R2" s="12" t="n">
         <v>338</v>
       </c>
-      <c r="S2" s="10" t="n">
+      <c r="S2" s="12" t="n">
         <v>45</v>
       </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="13" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="10" t="n">
         <v>645</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="10" t="n">
         <v>697</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="10" t="n">
         <v>448</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="10" t="n">
         <v>442</v>
       </c>
-      <c r="F3" s="12" t="n">
+      <c r="F3" s="13" t="n">
         <v>41</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="14" t="n">
+      <c r="I3" s="15" t="n">
         <v>18</v>
       </c>
-      <c r="J3" s="14" t="n">
+      <c r="J3" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="K3" s="14" t="n">
+      <c r="K3" s="15" t="n">
         <v>42</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
       <c r="N3" s="4"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="16" t="n">
+      <c r="P3" s="17" t="n">
         <v>198</v>
       </c>
-      <c r="Q3" s="16" t="n">
+      <c r="Q3" s="17" t="n">
         <v>213</v>
       </c>
-      <c r="R3" s="16" t="n">
+      <c r="R3" s="17" t="n">
         <v>650</v>
       </c>
-      <c r="S3" s="16" t="n">
+      <c r="S3" s="17" t="n">
         <v>91</v>
       </c>
-      <c r="T3" s="17" t="n">
+      <c r="T3" s="18" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="n">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="n">
         <v>274</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="4"/>
       <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="10" t="n">
+      <c r="I4" s="12" t="n">
         <v>27</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J4" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="K4" s="10" t="n">
+      <c r="K4" s="12" t="n">
         <v>80</v>
       </c>
-      <c r="L4" s="10" t="n">
+      <c r="L4" s="12" t="n">
         <v>83</v>
       </c>
-      <c r="M4" s="12" t="n">
+      <c r="M4" s="13" t="n">
         <v>82</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="16" t="n">
+      <c r="P4" s="17" t="n">
         <v>552</v>
       </c>
-      <c r="Q4" s="16" t="n">
+      <c r="Q4" s="17" t="n">
         <v>123</v>
       </c>
-      <c r="R4" s="16" t="n">
+      <c r="R4" s="17" t="n">
         <v>188</v>
       </c>
-      <c r="S4" s="16" t="n">
+      <c r="S4" s="17" t="n">
         <v>309</v>
       </c>
-      <c r="T4" s="17" t="n">
+      <c r="T4" s="18" t="n">
         <v>32</v>
       </c>
     </row>
@@ -979,44 +979,44 @@
       <c r="B5" s="8" t="n">
         <v>453</v>
       </c>
-      <c r="C5" s="18" t="n">
+      <c r="C5" s="19" t="n">
         <v>665</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="19" t="n">
         <v>283</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="9"/>
       <c r="G5" s="4"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="16" t="n">
+      <c r="I5" s="17" t="n">
         <v>611</v>
       </c>
-      <c r="J5" s="16" t="n">
+      <c r="J5" s="17" t="n">
         <v>187</v>
       </c>
-      <c r="K5" s="16" t="n">
+      <c r="K5" s="17" t="n">
         <v>643</v>
       </c>
-      <c r="L5" s="16" t="n">
+      <c r="L5" s="17" t="n">
         <v>674</v>
       </c>
-      <c r="M5" s="17" t="n">
+      <c r="M5" s="18" t="n">
         <v>209</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="14" t="n">
+      <c r="P5" s="15" t="n">
         <v>264</v>
       </c>
-      <c r="Q5" s="14" t="n">
+      <c r="Q5" s="15" t="n">
         <v>313</v>
       </c>
-      <c r="R5" s="14" t="n">
+      <c r="R5" s="15" t="n">
         <v>403</v>
       </c>
-      <c r="S5" s="14"/>
-      <c r="T5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
@@ -1028,10 +1028,10 @@
       <c r="C6" s="8" t="n">
         <v>119</v>
       </c>
-      <c r="D6" s="18" t="n">
+      <c r="D6" s="19" t="n">
         <v>661</v>
       </c>
-      <c r="E6" s="18" t="n">
+      <c r="E6" s="19" t="n">
         <v>598</v>
       </c>
       <c r="F6" s="9" t="n">
@@ -1039,38 +1039,38 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="16" t="n">
+      <c r="I6" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="16" t="n">
+      <c r="J6" s="17" t="n">
         <v>438</v>
       </c>
-      <c r="K6" s="16" t="n">
+      <c r="K6" s="17" t="n">
         <v>567</v>
       </c>
-      <c r="L6" s="16" t="n">
+      <c r="L6" s="17" t="n">
         <v>424</v>
       </c>
-      <c r="M6" s="17" t="n">
+      <c r="M6" s="18" t="n">
         <v>76</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="10" t="n">
+      <c r="P6" s="12" t="n">
         <v>689</v>
       </c>
-      <c r="Q6" s="10" t="n">
+      <c r="Q6" s="12" t="n">
         <v>413</v>
       </c>
-      <c r="R6" s="10" t="n">
+      <c r="R6" s="12" t="n">
         <v>446</v>
       </c>
-      <c r="S6" s="10" t="n">
+      <c r="S6" s="12" t="n">
         <v>368</v>
       </c>
-      <c r="T6" s="12" t="n">
+      <c r="T6" s="13" t="n">
         <v>416</v>
       </c>
     </row>
@@ -1081,60 +1081,60 @@
       <c r="B7" s="8" t="n">
         <v>189</v>
       </c>
-      <c r="C7" s="18" t="n">
+      <c r="C7" s="19" t="n">
         <v>396</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="9"/>
       <c r="G7" s="4"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="14" t="n">
+      <c r="I7" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
       <c r="N7" s="4"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="14" t="n">
+      <c r="P7" s="15" t="n">
         <v>279</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="18" t="n">
+      <c r="B8" s="19" t="n">
         <v>54</v>
       </c>
-      <c r="C8" s="18" t="n">
+      <c r="C8" s="19" t="n">
         <v>59</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="19" t="n">
         <v>498</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="9"/>
       <c r="G8" s="4"/>
       <c r="H8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="18" t="n">
+      <c r="I8" s="19" t="n">
         <v>86</v>
       </c>
-      <c r="J8" s="18" t="n">
+      <c r="J8" s="19" t="n">
         <v>328</v>
       </c>
-      <c r="K8" s="18" t="n">
+      <c r="K8" s="19" t="n">
         <v>160</v>
       </c>
-      <c r="L8" s="18" t="n">
+      <c r="L8" s="19" t="n">
         <v>88</v>
       </c>
       <c r="M8" s="9" t="n">
@@ -1144,16 +1144,16 @@
       <c r="O8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="18" t="n">
+      <c r="P8" s="19" t="n">
         <v>322</v>
       </c>
-      <c r="Q8" s="18" t="n">
+      <c r="Q8" s="19" t="n">
         <v>518</v>
       </c>
-      <c r="R8" s="18" t="n">
+      <c r="R8" s="19" t="n">
         <v>474</v>
       </c>
-      <c r="S8" s="18" t="n">
+      <c r="S8" s="19" t="n">
         <v>494</v>
       </c>
       <c r="T8" s="9" t="n">
@@ -1164,16 +1164,16 @@
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="18" t="n">
+      <c r="B9" s="19" t="n">
         <v>566</v>
       </c>
       <c r="C9" s="8" t="n">
         <v>48</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="19" t="n">
         <v>73</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="19" t="n">
         <v>289</v>
       </c>
       <c r="F9" s="9"/>
@@ -1181,38 +1181,38 @@
       <c r="H9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="10" t="n">
+      <c r="I9" s="12" t="n">
         <v>141</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="12" t="n">
         <v>142</v>
       </c>
-      <c r="K9" s="10" t="n">
+      <c r="K9" s="12" t="n">
         <v>143</v>
       </c>
-      <c r="L9" s="10" t="n">
+      <c r="L9" s="12" t="n">
         <v>234</v>
       </c>
-      <c r="M9" s="12" t="n">
+      <c r="M9" s="13" t="n">
         <v>457</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="10" t="n">
+      <c r="P9" s="12" t="n">
         <v>62</v>
       </c>
-      <c r="Q9" s="10" t="n">
+      <c r="Q9" s="12" t="n">
         <v>63</v>
       </c>
-      <c r="R9" s="10" t="n">
+      <c r="R9" s="12" t="n">
         <v>64</v>
       </c>
-      <c r="S9" s="10" t="n">
+      <c r="S9" s="12" t="n">
         <v>120</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="13" t="n">
         <v>576</v>
       </c>
     </row>
@@ -1229,62 +1229,62 @@
       <c r="D10" s="8" t="n">
         <v>238</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="9"/>
       <c r="G10" s="4"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="14" t="n">
+      <c r="I10" s="15" t="n">
         <v>287</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="4"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="16" t="n">
+      <c r="P10" s="17" t="n">
         <v>688</v>
       </c>
-      <c r="Q10" s="16" t="n">
+      <c r="Q10" s="17" t="n">
         <v>221</v>
       </c>
-      <c r="R10" s="16" t="n">
+      <c r="R10" s="17" t="n">
         <v>629</v>
       </c>
-      <c r="S10" s="16" t="n">
+      <c r="S10" s="17" t="n">
         <v>174</v>
       </c>
-      <c r="T10" s="17" t="n">
+      <c r="T10" s="18" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
       <c r="N11" s="4"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="14" t="n">
+      <c r="P11" s="15" t="n">
         <v>329</v>
       </c>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
@@ -1293,46 +1293,46 @@
       <c r="B12" s="8" t="n">
         <v>520</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="9"/>
       <c r="G12" s="4"/>
       <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="11" t="n">
+      <c r="I12" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="J12" s="11" t="n">
+      <c r="J12" s="10" t="n">
         <v>222</v>
       </c>
-      <c r="K12" s="11" t="n">
+      <c r="K12" s="10" t="n">
         <v>101</v>
       </c>
-      <c r="L12" s="11" t="n">
+      <c r="L12" s="10" t="n">
         <v>226</v>
       </c>
-      <c r="M12" s="21" t="n">
+      <c r="M12" s="11" t="n">
         <v>437</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P12" s="10" t="n">
+      <c r="P12" s="12" t="n">
         <v>583</v>
       </c>
-      <c r="Q12" s="10" t="n">
+      <c r="Q12" s="12" t="n">
         <v>72</v>
       </c>
-      <c r="R12" s="10" t="n">
+      <c r="R12" s="12" t="n">
         <v>97</v>
       </c>
-      <c r="S12" s="10" t="n">
+      <c r="S12" s="12" t="n">
         <v>115</v>
       </c>
-      <c r="T12" s="12" t="n">
+      <c r="T12" s="13" t="n">
         <v>516</v>
       </c>
     </row>
@@ -1343,9 +1343,9 @@
       <c r="B13" s="8" t="n">
         <v>125</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="9"/>
       <c r="G13" s="4"/>
       <c r="H13" s="7"/>
@@ -1366,19 +1366,19 @@
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="16" t="n">
+      <c r="P13" s="17" t="n">
         <v>132</v>
       </c>
-      <c r="Q13" s="16" t="n">
+      <c r="Q13" s="17" t="n">
         <v>131</v>
       </c>
-      <c r="R13" s="16" t="n">
+      <c r="R13" s="17" t="n">
         <v>139</v>
       </c>
-      <c r="S13" s="16" t="n">
+      <c r="S13" s="17" t="n">
         <v>140</v>
       </c>
-      <c r="T13" s="17" t="n">
+      <c r="T13" s="18" t="n">
         <v>514</v>
       </c>
     </row>
@@ -1389,9 +1389,9 @@
       <c r="B14" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="9"/>
       <c r="G14" s="4"/>
       <c r="H14" s="7"/>
@@ -1404,19 +1404,19 @@
       <c r="K14" s="24" t="n">
         <v>87</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
       <c r="N14" s="4"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="14" t="n">
+      <c r="P14" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="Q14" s="14" t="n">
+      <c r="Q14" s="15" t="n">
         <v>44</v>
       </c>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
@@ -1428,42 +1428,42 @@
       <c r="C15" s="8" t="n">
         <v>58</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="9"/>
       <c r="G15" s="4"/>
       <c r="H15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="I15" s="10" t="n">
         <v>102</v>
       </c>
-      <c r="J15" s="11" t="n">
+      <c r="J15" s="10" t="n">
         <v>429</v>
       </c>
-      <c r="K15" s="11" t="n">
+      <c r="K15" s="10" t="n">
         <v>690</v>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L15" s="10" t="n">
         <v>559</v>
       </c>
-      <c r="M15" s="21" t="n">
+      <c r="M15" s="11" t="n">
         <v>662</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P15" s="18" t="n">
+      <c r="P15" s="19" t="n">
         <v>464</v>
       </c>
-      <c r="Q15" s="18" t="n">
+      <c r="Q15" s="19" t="n">
         <v>691</v>
       </c>
-      <c r="R15" s="18" t="n">
+      <c r="R15" s="19" t="n">
         <v>698</v>
       </c>
-      <c r="S15" s="18" t="n">
+      <c r="S15" s="19" t="n">
         <v>638</v>
       </c>
       <c r="T15" s="9" t="n">
@@ -1508,16 +1508,16 @@
       <c r="O16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="18" t="n">
+      <c r="P16" s="19" t="n">
         <v>486</v>
       </c>
-      <c r="Q16" s="18" t="n">
+      <c r="Q16" s="19" t="n">
         <v>664</v>
       </c>
-      <c r="R16" s="18" t="n">
+      <c r="R16" s="19" t="n">
         <v>375</v>
       </c>
-      <c r="S16" s="18" t="n">
+      <c r="S16" s="19" t="n">
         <v>312</v>
       </c>
       <c r="T16" s="9" t="n">
@@ -1528,19 +1528,19 @@
       <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="10" t="n">
         <v>387</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="10" t="n">
         <v>389</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="12" t="n">
         <v>383</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="10" t="n">
         <v>242</v>
       </c>
-      <c r="F17" s="21" t="n">
+      <c r="F17" s="11" t="n">
         <v>49</v>
       </c>
       <c r="G17" s="4"/>
@@ -1564,31 +1564,31 @@
       <c r="O17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="18" t="n">
+      <c r="P17" s="19" t="n">
         <v>337</v>
       </c>
-      <c r="Q17" s="18" t="n">
+      <c r="Q17" s="19" t="n">
         <v>124</v>
       </c>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
       <c r="T17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
-      <c r="B18" s="16" t="n">
+      <c r="B18" s="17" t="n">
         <v>451</v>
       </c>
-      <c r="C18" s="16" t="n">
+      <c r="C18" s="17" t="n">
         <v>423</v>
       </c>
-      <c r="D18" s="16" t="n">
+      <c r="D18" s="17" t="n">
         <v>657</v>
       </c>
-      <c r="E18" s="16" t="n">
+      <c r="E18" s="17" t="n">
         <v>551</v>
       </c>
-      <c r="F18" s="17" t="n">
+      <c r="F18" s="18" t="n">
         <v>696</v>
       </c>
       <c r="G18" s="4"/>
@@ -1612,33 +1612,33 @@
       <c r="O18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="18" t="n">
+      <c r="P18" s="19" t="n">
         <v>233</v>
       </c>
-      <c r="Q18" s="18" t="n">
+      <c r="Q18" s="19" t="n">
         <v>600</v>
       </c>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
       <c r="T18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
-      <c r="B19" s="14" t="n">
+      <c r="B19" s="15" t="n">
         <v>467</v>
       </c>
-      <c r="C19" s="14" t="n">
+      <c r="C19" s="15" t="n">
         <v>535</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="4"/>
       <c r="H19" s="25"/>
       <c r="I19" s="22" t="n">
         <v>199</v>
       </c>
-      <c r="J19" s="16" t="n">
+      <c r="J19" s="17" t="n">
         <v>655</v>
       </c>
       <c r="K19" s="22" t="n">
@@ -1647,7 +1647,7 @@
       <c r="L19" s="22" t="n">
         <v>117</v>
       </c>
-      <c r="M19" s="17"/>
+      <c r="M19" s="18"/>
       <c r="N19" s="4"/>
       <c r="O19" s="26" t="s">
         <v>34</v>
@@ -1662,19 +1662,19 @@
       <c r="A20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="10" t="n">
+      <c r="B20" s="12" t="n">
         <v>299</v>
       </c>
-      <c r="C20" s="10" t="n">
+      <c r="C20" s="12" t="n">
         <v>412</v>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D20" s="12" t="n">
         <v>506</v>
       </c>
-      <c r="E20" s="10" t="n">
+      <c r="E20" s="12" t="n">
         <v>539</v>
       </c>
-      <c r="F20" s="12" t="n">
+      <c r="F20" s="13" t="n">
         <v>553</v>
       </c>
       <c r="G20" s="4"/>
@@ -1687,44 +1687,44 @@
       <c r="J20" s="8" t="n">
         <v>589</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="9"/>
       <c r="N20" s="4"/>
       <c r="O20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P20" s="10" t="n">
+      <c r="P20" s="12" t="n">
         <v>225</v>
       </c>
-      <c r="Q20" s="10" t="n">
+      <c r="Q20" s="12" t="n">
         <v>232</v>
       </c>
-      <c r="R20" s="10" t="n">
+      <c r="R20" s="12" t="n">
         <v>284</v>
       </c>
-      <c r="S20" s="10" t="n">
+      <c r="S20" s="12" t="n">
         <v>622</v>
       </c>
-      <c r="T20" s="12" t="n">
+      <c r="T20" s="13" t="n">
         <v>641</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="17" t="n">
         <v>537</v>
       </c>
-      <c r="C21" s="16" t="n">
+      <c r="C21" s="17" t="n">
         <v>592</v>
       </c>
-      <c r="D21" s="16" t="n">
+      <c r="D21" s="17" t="n">
         <v>640</v>
       </c>
-      <c r="E21" s="16" t="n">
+      <c r="E21" s="17" t="n">
         <v>38</v>
       </c>
-      <c r="F21" s="17" t="n">
+      <c r="F21" s="18" t="n">
         <v>443</v>
       </c>
       <c r="G21" s="4"/>
@@ -1734,13 +1734,13 @@
       <c r="I21" s="8" t="n">
         <v>606</v>
       </c>
-      <c r="J21" s="18" t="n">
+      <c r="J21" s="19" t="n">
         <v>331</v>
       </c>
-      <c r="K21" s="18" t="n">
+      <c r="K21" s="19" t="n">
         <v>652</v>
       </c>
-      <c r="L21" s="18" t="n">
+      <c r="L21" s="19" t="n">
         <v>297</v>
       </c>
       <c r="M21" s="9" t="n">
@@ -1748,29 +1748,29 @@
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="14" t="n">
+      <c r="P21" s="15" t="n">
         <v>155</v>
       </c>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
       <c r="B22" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="C22" s="16" t="n">
+      <c r="C22" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="D22" s="16" t="n">
+      <c r="D22" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="E22" s="16" t="n">
+      <c r="E22" s="17" t="n">
         <v>273</v>
       </c>
-      <c r="F22" s="17" t="n">
+      <c r="F22" s="18" t="n">
         <v>165</v>
       </c>
       <c r="G22" s="4"/>
@@ -1783,85 +1783,85 @@
       <c r="J22" s="8" t="n">
         <v>590</v>
       </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="9"/>
       <c r="N22" s="4"/>
       <c r="O22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P22" s="18" t="n">
+      <c r="P22" s="19" t="n">
         <v>676</v>
       </c>
-      <c r="Q22" s="18" t="n">
+      <c r="Q22" s="19" t="n">
         <v>355</v>
       </c>
-      <c r="R22" s="18" t="n">
+      <c r="R22" s="19" t="n">
         <v>380</v>
       </c>
-      <c r="S22" s="18" t="n">
+      <c r="S22" s="19" t="n">
         <v>381</v>
       </c>
       <c r="T22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
-      <c r="B23" s="14" t="n">
+      <c r="B23" s="15" t="n">
         <v>481</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="4"/>
       <c r="H23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="11" t="n">
+      <c r="I23" s="10" t="n">
         <v>94</v>
       </c>
-      <c r="J23" s="11" t="n">
+      <c r="J23" s="10" t="n">
         <v>700</v>
       </c>
-      <c r="K23" s="11" t="n">
+      <c r="K23" s="10" t="n">
         <v>530</v>
       </c>
-      <c r="L23" s="11" t="n">
+      <c r="L23" s="10" t="n">
         <v>538</v>
       </c>
-      <c r="M23" s="21" t="n">
+      <c r="M23" s="11" t="n">
         <v>230</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P23" s="18" t="n">
+      <c r="P23" s="19" t="n">
         <v>432</v>
       </c>
-      <c r="Q23" s="18" t="n">
+      <c r="Q23" s="19" t="n">
         <v>146</v>
       </c>
-      <c r="R23" s="18" t="n">
+      <c r="R23" s="19" t="n">
         <v>460</v>
       </c>
-      <c r="S23" s="18"/>
+      <c r="S23" s="19"/>
       <c r="T23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="18" t="n">
+      <c r="B24" s="19" t="n">
         <v>392</v>
       </c>
-      <c r="C24" s="18" t="n">
+      <c r="C24" s="19" t="n">
         <v>524</v>
       </c>
-      <c r="D24" s="18" t="n">
+      <c r="D24" s="19" t="n">
         <v>521</v>
       </c>
-      <c r="E24" s="18" t="n">
+      <c r="E24" s="19" t="n">
         <v>522</v>
       </c>
       <c r="F24" s="9"/>
@@ -1886,19 +1886,19 @@
       <c r="O24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P24" s="10" t="n">
+      <c r="P24" s="12" t="n">
         <v>208</v>
       </c>
-      <c r="Q24" s="10" t="n">
+      <c r="Q24" s="12" t="n">
         <v>211</v>
       </c>
-      <c r="R24" s="10" t="n">
+      <c r="R24" s="12" t="n">
         <v>648</v>
       </c>
-      <c r="S24" s="10" t="n">
+      <c r="S24" s="12" t="n">
         <v>386</v>
       </c>
-      <c r="T24" s="12" t="n">
+      <c r="T24" s="13" t="n">
         <v>677</v>
       </c>
     </row>
@@ -1906,16 +1906,16 @@
       <c r="A25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="18" t="n">
+      <c r="B25" s="19" t="n">
         <v>66</v>
       </c>
-      <c r="C25" s="18" t="n">
+      <c r="C25" s="19" t="n">
         <v>67</v>
       </c>
-      <c r="D25" s="18" t="n">
+      <c r="D25" s="19" t="n">
         <v>415</v>
       </c>
-      <c r="E25" s="18" t="n">
+      <c r="E25" s="19" t="n">
         <v>43</v>
       </c>
       <c r="F25" s="9" t="n">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="14" t="n">
+      <c r="I25" s="15" t="n">
         <v>95</v>
       </c>
       <c r="J25" s="24" t="n">
@@ -1932,23 +1932,23 @@
       <c r="K25" s="24" t="n">
         <v>109</v>
       </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="16"/>
       <c r="N25" s="4"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="14" t="n">
+      <c r="P25" s="15" t="n">
         <v>472</v>
       </c>
-      <c r="Q25" s="14" t="n">
+      <c r="Q25" s="15" t="n">
         <v>421</v>
       </c>
-      <c r="R25" s="14" t="n">
+      <c r="R25" s="15" t="n">
         <v>212</v>
       </c>
-      <c r="S25" s="14" t="n">
+      <c r="S25" s="15" t="n">
         <v>336</v>
       </c>
-      <c r="T25" s="15" t="n">
+      <c r="T25" s="16" t="n">
         <v>440</v>
       </c>
     </row>
@@ -1956,16 +1956,16 @@
       <c r="A26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="18" t="n">
+      <c r="B26" s="19" t="n">
         <v>482</v>
       </c>
-      <c r="C26" s="18" t="n">
+      <c r="C26" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="D26" s="18" t="n">
+      <c r="D26" s="19" t="n">
         <v>68</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="19"/>
       <c r="F26" s="9"/>
       <c r="G26" s="4"/>
       <c r="H26" s="7" t="s">
@@ -1977,26 +1977,26 @@
       <c r="J26" s="8" t="n">
         <v>106</v>
       </c>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="9"/>
       <c r="N26" s="4"/>
       <c r="O26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P26" s="10" t="n">
+      <c r="P26" s="12" t="n">
         <v>23</v>
       </c>
-      <c r="Q26" s="10" t="n">
+      <c r="Q26" s="12" t="n">
         <v>373</v>
       </c>
-      <c r="R26" s="10" t="n">
+      <c r="R26" s="12" t="n">
         <v>378</v>
       </c>
-      <c r="S26" s="10" t="n">
+      <c r="S26" s="12" t="n">
         <v>632</v>
       </c>
-      <c r="T26" s="12" t="n">
+      <c r="T26" s="13" t="n">
         <v>347</v>
       </c>
     </row>
@@ -2004,16 +2004,16 @@
       <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="18" t="n">
+      <c r="B27" s="19" t="n">
         <v>28</v>
       </c>
-      <c r="C27" s="18" t="n">
+      <c r="C27" s="19" t="n">
         <v>686</v>
       </c>
-      <c r="D27" s="18" t="n">
+      <c r="D27" s="19" t="n">
         <v>459</v>
       </c>
-      <c r="E27" s="18" t="n">
+      <c r="E27" s="19" t="n">
         <v>214</v>
       </c>
       <c r="F27" s="9"/>
@@ -2024,25 +2024,25 @@
       <c r="I27" s="8" t="n">
         <v>114</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="9"/>
       <c r="N27" s="4"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="16" t="n">
+      <c r="P27" s="17" t="n">
         <v>692</v>
       </c>
-      <c r="Q27" s="16" t="n">
+      <c r="Q27" s="17" t="n">
         <v>502</v>
       </c>
-      <c r="R27" s="16" t="n">
+      <c r="R27" s="17" t="n">
         <v>630</v>
       </c>
-      <c r="S27" s="16" t="n">
+      <c r="S27" s="17" t="n">
         <v>407</v>
       </c>
-      <c r="T27" s="17" t="n">
+      <c r="T27" s="18" t="n">
         <v>295</v>
       </c>
     </row>
@@ -2050,14 +2050,14 @@
       <c r="A28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="18" t="n">
+      <c r="B28" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="C28" s="18" t="n">
+      <c r="C28" s="19" t="n">
         <v>647</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="9"/>
       <c r="G28" s="4"/>
       <c r="H28" s="7" t="s">
@@ -2069,28 +2069,28 @@
       <c r="J28" s="8" t="n">
         <v>236</v>
       </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="9"/>
       <c r="N28" s="4"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="14" t="n">
+      <c r="P28" s="15" t="n">
         <v>480</v>
       </c>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="4"/>
       <c r="H29" s="7" t="s">
         <v>54</v>
@@ -2098,26 +2098,26 @@
       <c r="I29" s="8" t="n">
         <v>501</v>
       </c>
-      <c r="J29" s="18" t="n">
+      <c r="J29" s="19" t="n">
         <v>99</v>
       </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
       <c r="M29" s="9"/>
       <c r="N29" s="4"/>
       <c r="O29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P29" s="18" t="n">
+      <c r="P29" s="19" t="n">
         <v>307</v>
       </c>
-      <c r="Q29" s="18" t="n">
+      <c r="Q29" s="19" t="n">
         <v>315</v>
       </c>
-      <c r="R29" s="18" t="n">
+      <c r="R29" s="19" t="n">
         <v>493</v>
       </c>
-      <c r="S29" s="18" t="n">
+      <c r="S29" s="19" t="n">
         <v>327</v>
       </c>
       <c r="T29" s="9" t="n">
@@ -2128,103 +2128,103 @@
       <c r="A30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="10" t="n">
+      <c r="B30" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="C30" s="10" t="n">
+      <c r="C30" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="D30" s="10" t="n">
+      <c r="D30" s="12" t="n">
         <v>479</v>
       </c>
-      <c r="E30" s="10" t="n">
+      <c r="E30" s="12" t="n">
         <v>564</v>
       </c>
-      <c r="F30" s="12" t="n">
+      <c r="F30" s="13" t="n">
         <v>231</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="18" t="n">
+      <c r="I30" s="19" t="n">
         <v>558</v>
       </c>
-      <c r="J30" s="18" t="n">
+      <c r="J30" s="19" t="n">
         <v>427</v>
       </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
       <c r="M30" s="9"/>
       <c r="N30" s="4"/>
       <c r="O30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="18" t="n">
+      <c r="P30" s="19" t="n">
         <v>699</v>
       </c>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
       <c r="T30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
-      <c r="B31" s="16" t="n">
+      <c r="B31" s="17" t="n">
         <v>342</v>
       </c>
-      <c r="C31" s="16" t="n">
+      <c r="C31" s="17" t="n">
         <v>326</v>
       </c>
-      <c r="D31" s="16" t="n">
+      <c r="D31" s="17" t="n">
         <v>504</v>
       </c>
-      <c r="E31" s="16" t="n">
+      <c r="E31" s="17" t="n">
         <v>263</v>
       </c>
-      <c r="F31" s="17" t="n">
+      <c r="F31" s="18" t="n">
         <v>190</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
       <c r="N31" s="4"/>
       <c r="O31" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P31" s="18" t="n">
+      <c r="P31" s="19" t="n">
         <v>352</v>
       </c>
-      <c r="Q31" s="18" t="n">
+      <c r="Q31" s="19" t="n">
         <v>218</v>
       </c>
-      <c r="R31" s="18" t="n">
+      <c r="R31" s="19" t="n">
         <v>363</v>
       </c>
-      <c r="S31" s="18"/>
+      <c r="S31" s="19"/>
       <c r="T31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
-      <c r="B32" s="16" t="n">
+      <c r="B32" s="17" t="n">
         <v>191</v>
       </c>
-      <c r="C32" s="16" t="n">
+      <c r="C32" s="17" t="n">
         <v>476</v>
       </c>
-      <c r="D32" s="16" t="n">
+      <c r="D32" s="17" t="n">
         <v>461</v>
       </c>
-      <c r="E32" s="16" t="n">
+      <c r="E32" s="17" t="n">
         <v>477</v>
       </c>
-      <c r="F32" s="17" t="n">
+      <c r="F32" s="18" t="n">
         <v>693</v>
       </c>
       <c r="G32" s="4"/>
@@ -2234,9 +2234,9 @@
       <c r="I32" s="8" t="n">
         <v>565</v>
       </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
       <c r="M32" s="9"/>
       <c r="N32" s="4"/>
       <c r="O32" s="26" t="s">
@@ -2250,19 +2250,19 @@
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7"/>
-      <c r="B33" s="16" t="n">
+      <c r="B33" s="17" t="n">
         <v>393</v>
       </c>
-      <c r="C33" s="16" t="n">
+      <c r="C33" s="17" t="n">
         <v>172</v>
       </c>
-      <c r="D33" s="16" t="n">
+      <c r="D33" s="17" t="n">
         <v>458</v>
       </c>
-      <c r="E33" s="16" t="n">
+      <c r="E33" s="17" t="n">
         <v>258</v>
       </c>
-      <c r="F33" s="17" t="n">
+      <c r="F33" s="18" t="n">
         <v>319</v>
       </c>
       <c r="G33" s="4"/>
@@ -2275,84 +2275,84 @@
       <c r="J33" s="8" t="n">
         <v>397</v>
       </c>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
       <c r="M33" s="9"/>
       <c r="N33" s="4"/>
       <c r="O33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P33" s="18" t="n">
+      <c r="P33" s="19" t="n">
         <v>528</v>
       </c>
-      <c r="Q33" s="18" t="n">
+      <c r="Q33" s="19" t="n">
         <v>497</v>
       </c>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
       <c r="T33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7"/>
-      <c r="B34" s="16" t="n">
+      <c r="B34" s="17" t="n">
         <v>405</v>
       </c>
-      <c r="C34" s="16" t="n">
+      <c r="C34" s="17" t="n">
         <v>171</v>
       </c>
-      <c r="D34" s="16" t="n">
+      <c r="D34" s="17" t="n">
         <v>168</v>
       </c>
-      <c r="E34" s="16" t="n">
+      <c r="E34" s="17" t="n">
         <v>670</v>
       </c>
-      <c r="F34" s="17" t="n">
+      <c r="F34" s="18" t="n">
         <v>233</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="11" t="n">
+      <c r="I34" s="10" t="n">
         <v>526</v>
       </c>
-      <c r="J34" s="10" t="n">
+      <c r="J34" s="12" t="n">
         <v>401</v>
       </c>
-      <c r="K34" s="10" t="n">
+      <c r="K34" s="12" t="n">
         <v>36</v>
       </c>
-      <c r="L34" s="10" t="n">
+      <c r="L34" s="12" t="n">
         <v>37</v>
       </c>
-      <c r="M34" s="21" t="n">
+      <c r="M34" s="11" t="n">
         <v>51</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P34" s="18" t="n">
+      <c r="P34" s="19" t="n">
         <v>382</v>
       </c>
-      <c r="Q34" s="18" t="n">
+      <c r="Q34" s="19" t="n">
         <v>398</v>
       </c>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
       <c r="T34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7"/>
-      <c r="B35" s="14" t="n">
+      <c r="B35" s="15" t="n">
         <v>357</v>
       </c>
-      <c r="C35" s="14" t="n">
+      <c r="C35" s="15" t="n">
         <v>400</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="4"/>
       <c r="H35" s="7"/>
       <c r="I35" s="22" t="n">
@@ -2374,32 +2374,32 @@
       <c r="O35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P35" s="18" t="n">
+      <c r="P35" s="19" t="n">
         <v>470</v>
       </c>
-      <c r="Q35" s="18" t="n">
+      <c r="Q35" s="19" t="n">
         <v>478</v>
       </c>
-      <c r="R35" s="18" t="n">
+      <c r="R35" s="19" t="n">
         <v>519</v>
       </c>
-      <c r="S35" s="18"/>
+      <c r="S35" s="19"/>
       <c r="T35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="18" t="n">
+      <c r="B36" s="19" t="n">
         <v>492</v>
       </c>
-      <c r="C36" s="18" t="n">
+      <c r="C36" s="19" t="n">
         <v>29</v>
       </c>
-      <c r="D36" s="18" t="n">
+      <c r="D36" s="19" t="n">
         <v>507</v>
       </c>
-      <c r="E36" s="18"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
       <c r="H36" s="7"/>
@@ -2409,10 +2409,10 @@
       <c r="J36" s="22" t="n">
         <v>47</v>
       </c>
-      <c r="K36" s="16" t="n">
+      <c r="K36" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="L36" s="16" t="n">
+      <c r="L36" s="17" t="n">
         <v>556</v>
       </c>
       <c r="M36" s="23" t="n">
@@ -2432,14 +2432,14 @@
       <c r="A37" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="18" t="n">
+      <c r="B37" s="19" t="n">
         <v>50</v>
       </c>
-      <c r="C37" s="18" t="n">
+      <c r="C37" s="19" t="n">
         <v>372</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
       <c r="H37" s="7"/>
@@ -2455,55 +2455,55 @@
       <c r="L37" s="22" t="n">
         <v>79</v>
       </c>
-      <c r="M37" s="17" t="n">
+      <c r="M37" s="18" t="n">
         <v>93</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P37" s="18" t="n">
+      <c r="P37" s="19" t="n">
         <v>593</v>
       </c>
-      <c r="Q37" s="18" t="n">
+      <c r="Q37" s="19" t="n">
         <v>447</v>
       </c>
-      <c r="R37" s="18" t="n">
+      <c r="R37" s="19" t="n">
         <v>223</v>
       </c>
-      <c r="S37" s="18" t="n">
+      <c r="S37" s="19" t="n">
         <v>149</v>
       </c>
       <c r="T37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="4"/>
       <c r="H38" s="7"/>
       <c r="I38" s="24" t="n">
         <v>332</v>
       </c>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="16"/>
       <c r="N38" s="4"/>
       <c r="O38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P38" s="18" t="n">
+      <c r="P38" s="19" t="n">
         <v>335</v>
       </c>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
       <c r="T38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,39 +2513,39 @@
       <c r="B39" s="8" t="n">
         <v>682</v>
       </c>
-      <c r="C39" s="18" t="n">
+      <c r="C39" s="19" t="n">
         <v>71</v>
       </c>
-      <c r="D39" s="18" t="n">
+      <c r="D39" s="19" t="n">
         <v>388</v>
       </c>
-      <c r="E39" s="18"/>
+      <c r="E39" s="19"/>
       <c r="F39" s="9"/>
       <c r="G39" s="4"/>
       <c r="H39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I39" s="18" t="n">
+      <c r="I39" s="19" t="n">
         <v>241</v>
       </c>
-      <c r="J39" s="18" t="n">
+      <c r="J39" s="19" t="n">
         <v>282</v>
       </c>
-      <c r="K39" s="18" t="n">
+      <c r="K39" s="19" t="n">
         <v>679</v>
       </c>
-      <c r="L39" s="18"/>
+      <c r="L39" s="19"/>
       <c r="M39" s="9"/>
       <c r="N39" s="4"/>
       <c r="O39" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P39" s="18" t="n">
+      <c r="P39" s="19" t="n">
         <v>587</v>
       </c>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
       <c r="T39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2558,34 +2558,34 @@
       <c r="C40" s="8" t="n">
         <v>227</v>
       </c>
-      <c r="D40" s="18" t="n">
+      <c r="D40" s="19" t="n">
         <v>224</v>
       </c>
-      <c r="E40" s="18"/>
+      <c r="E40" s="19"/>
       <c r="F40" s="9"/>
       <c r="G40" s="4"/>
       <c r="H40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="18" t="n">
+      <c r="I40" s="19" t="n">
         <v>22</v>
       </c>
-      <c r="J40" s="18" t="n">
+      <c r="J40" s="19" t="n">
         <v>301</v>
       </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
       <c r="M40" s="9"/>
       <c r="N40" s="4"/>
       <c r="O40" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P40" s="18" t="n">
+      <c r="P40" s="19" t="n">
         <v>391</v>
       </c>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
       <c r="T40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2595,13 +2595,13 @@
       <c r="B41" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="C41" s="18" t="n">
+      <c r="C41" s="19" t="n">
         <v>636</v>
       </c>
-      <c r="D41" s="18" t="n">
+      <c r="D41" s="19" t="n">
         <v>591</v>
       </c>
-      <c r="E41" s="18" t="n">
+      <c r="E41" s="19" t="n">
         <v>32</v>
       </c>
       <c r="F41" s="9"/>
@@ -2609,12 +2609,12 @@
       <c r="H41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I41" s="18" t="n">
+      <c r="I41" s="19" t="n">
         <v>488</v>
       </c>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
       <c r="M41" s="9"/>
       <c r="N41" s="4"/>
       <c r="O41" s="26" t="s">
@@ -2630,57 +2630,57 @@
       <c r="A42" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="18" t="n">
+      <c r="B42" s="19" t="n">
         <v>385</v>
       </c>
-      <c r="C42" s="18" t="n">
+      <c r="C42" s="19" t="n">
         <v>341</v>
       </c>
-      <c r="D42" s="18" t="n">
+      <c r="D42" s="19" t="n">
         <v>394</v>
       </c>
-      <c r="E42" s="18"/>
+      <c r="E42" s="19"/>
       <c r="F42" s="9"/>
       <c r="G42" s="4"/>
       <c r="H42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="11" t="n">
+      <c r="I42" s="10" t="n">
         <v>133</v>
       </c>
-      <c r="J42" s="11" t="n">
+      <c r="J42" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="K42" s="11" t="n">
+      <c r="K42" s="10" t="n">
         <v>695</v>
       </c>
-      <c r="L42" s="11" t="n">
+      <c r="L42" s="10" t="n">
         <v>463</v>
       </c>
-      <c r="M42" s="21" t="n">
+      <c r="M42" s="11" t="n">
         <v>542</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P42" s="18" t="n">
+      <c r="P42" s="19" t="n">
         <v>292</v>
       </c>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
       <c r="T42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
       <c r="G43" s="4"/>
       <c r="H43" s="7"/>
       <c r="I43" s="22" t="n">
@@ -2692,24 +2692,24 @@
       <c r="K43" s="22" t="n">
         <v>529</v>
       </c>
-      <c r="L43" s="16" t="n">
+      <c r="L43" s="17" t="n">
         <v>127</v>
       </c>
-      <c r="M43" s="17" t="n">
+      <c r="M43" s="18" t="n">
         <v>126</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P43" s="18" t="n">
+      <c r="P43" s="19" t="n">
         <v>239</v>
       </c>
-      <c r="Q43" s="18" t="n">
+      <c r="Q43" s="19" t="n">
         <v>164</v>
       </c>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
       <c r="T43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,41 +2725,41 @@
       <c r="D44" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="E44" s="18"/>
+      <c r="E44" s="19"/>
       <c r="F44" s="9"/>
       <c r="G44" s="4"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="14" t="n">
+      <c r="I44" s="15" t="n">
         <v>433</v>
       </c>
-      <c r="J44" s="14" t="n">
+      <c r="J44" s="15" t="n">
         <v>675</v>
       </c>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="16"/>
       <c r="N44" s="4"/>
       <c r="O44" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P44" s="18" t="n">
+      <c r="P44" s="19" t="n">
         <v>330</v>
       </c>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
       <c r="T44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="18" t="n">
+      <c r="B45" s="19" t="n">
         <v>430</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
       <c r="F45" s="9"/>
       <c r="G45" s="4"/>
       <c r="H45" s="7" t="s">
@@ -2771,21 +2771,21 @@
       <c r="J45" s="8" t="n">
         <v>684</v>
       </c>
-      <c r="K45" s="18" t="n">
+      <c r="K45" s="19" t="n">
         <v>685</v>
       </c>
-      <c r="L45" s="18"/>
+      <c r="L45" s="19"/>
       <c r="M45" s="9"/>
       <c r="N45" s="4"/>
       <c r="O45" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P45" s="18" t="n">
+      <c r="P45" s="19" t="n">
         <v>365</v>
       </c>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
       <c r="T45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2811,27 +2811,27 @@
       <c r="H46" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I46" s="18" t="n">
+      <c r="I46" s="19" t="n">
         <v>399</v>
       </c>
-      <c r="J46" s="18" t="n">
+      <c r="J46" s="19" t="n">
         <v>207</v>
       </c>
-      <c r="K46" s="18" t="n">
+      <c r="K46" s="19" t="n">
         <v>210</v>
       </c>
-      <c r="L46" s="18"/>
+      <c r="L46" s="19"/>
       <c r="M46" s="9"/>
       <c r="N46" s="4"/>
       <c r="O46" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P46" s="18" t="n">
+      <c r="P46" s="19" t="n">
         <v>384</v>
       </c>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
       <c r="T46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2844,34 +2844,34 @@
       <c r="C47" s="24" t="n">
         <v>445</v>
       </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="4"/>
       <c r="H47" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I47" s="18" t="n">
+      <c r="I47" s="19" t="n">
         <v>65</v>
       </c>
-      <c r="J47" s="18" t="n">
+      <c r="J47" s="19" t="n">
         <v>468</v>
       </c>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
       <c r="M47" s="9"/>
       <c r="N47" s="4"/>
       <c r="O47" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P47" s="18" t="n">
+      <c r="P47" s="19" t="n">
         <v>390</v>
       </c>
-      <c r="Q47" s="18" t="n">
+      <c r="Q47" s="19" t="n">
         <v>672</v>
       </c>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
       <c r="T47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,91 +2884,91 @@
       <c r="C48" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
       <c r="F48" s="9"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="20" t="s">
+      <c r="H48" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
       <c r="N48" s="4"/>
       <c r="O48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P48" s="18" t="n">
+      <c r="P48" s="19" t="n">
         <v>395</v>
       </c>
-      <c r="Q48" s="18" t="n">
+      <c r="Q48" s="19" t="n">
         <v>667</v>
       </c>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
       <c r="T48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
       <c r="G49" s="4"/>
       <c r="H49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I49" s="11" t="n">
+      <c r="I49" s="10" t="n">
         <v>374</v>
       </c>
-      <c r="J49" s="11" t="n">
+      <c r="J49" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="K49" s="11" t="n">
+      <c r="K49" s="10" t="n">
         <v>278</v>
       </c>
-      <c r="L49" s="11" t="n">
+      <c r="L49" s="10" t="n">
         <v>367</v>
       </c>
-      <c r="M49" s="21" t="n">
+      <c r="M49" s="11" t="n">
         <v>69</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P49" s="18" t="n">
+      <c r="P49" s="19" t="n">
         <v>147</v>
       </c>
-      <c r="Q49" s="18" t="n">
+      <c r="Q49" s="19" t="n">
         <v>148</v>
       </c>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
       <c r="T49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="11" t="n">
+      <c r="B50" s="10" t="n">
         <v>217</v>
       </c>
-      <c r="C50" s="11" t="n">
+      <c r="C50" s="10" t="n">
         <v>633</v>
       </c>
-      <c r="D50" s="11" t="n">
+      <c r="D50" s="10" t="n">
         <v>349</v>
       </c>
-      <c r="E50" s="11" t="n">
+      <c r="E50" s="10" t="n">
         <v>128</v>
       </c>
-      <c r="F50" s="21" t="n">
+      <c r="F50" s="11" t="n">
         <v>202</v>
       </c>
       <c r="G50" s="4"/>
@@ -2976,25 +2976,25 @@
       <c r="I50" s="24" t="n">
         <v>441</v>
       </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="16"/>
       <c r="N50" s="4"/>
       <c r="O50" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P50" s="18" t="n">
+      <c r="P50" s="19" t="n">
         <v>204</v>
       </c>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
       <c r="T50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7"/>
-      <c r="B51" s="16" t="n">
+      <c r="B51" s="17" t="n">
         <v>500</v>
       </c>
       <c r="C51" s="22" t="n">
@@ -3006,23 +3006,23 @@
       <c r="E51" s="22" t="n">
         <v>205</v>
       </c>
-      <c r="F51" s="17" t="n">
+      <c r="F51" s="18" t="n">
         <v>166</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I51" s="11" t="n">
+      <c r="I51" s="10" t="n">
         <v>34</v>
       </c>
-      <c r="J51" s="11" t="n">
+      <c r="J51" s="10" t="n">
         <v>540</v>
       </c>
-      <c r="K51" s="10" t="n">
+      <c r="K51" s="12" t="n">
         <v>275</v>
       </c>
-      <c r="L51" s="11" t="n">
+      <c r="L51" s="10" t="n">
         <v>436</v>
       </c>
       <c r="M51" s="28" t="n">
@@ -3032,28 +3032,28 @@
       <c r="O51" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P51" s="18" t="n">
+      <c r="P51" s="19" t="n">
         <v>229</v>
       </c>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
       <c r="T51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7"/>
-      <c r="B52" s="14" t="n">
+      <c r="B52" s="15" t="n">
         <v>466</v>
       </c>
-      <c r="C52" s="14" t="n">
+      <c r="C52" s="15" t="n">
         <v>138</v>
       </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="16"/>
       <c r="G52" s="4"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="14" t="n">
+      <c r="I52" s="15" t="n">
         <v>354</v>
       </c>
       <c r="J52" s="24" t="n">
@@ -3065,14 +3065,14 @@
       <c r="L52" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="M52" s="15"/>
+      <c r="M52" s="16"/>
       <c r="N52" s="4"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
@@ -3084,7 +3084,7 @@
       <c r="C53" s="8" t="n">
         <v>167</v>
       </c>
-      <c r="D53" s="18" t="n">
+      <c r="D53" s="19" t="n">
         <v>599</v>
       </c>
       <c r="E53" s="8" t="n">
@@ -3111,30 +3111,30 @@
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="4"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="15"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="11" t="n">
+      <c r="B54" s="10" t="n">
         <v>594</v>
       </c>
-      <c r="C54" s="11" t="n">
+      <c r="C54" s="10" t="n">
         <v>350</v>
       </c>
-      <c r="D54" s="10" t="n">
+      <c r="D54" s="12" t="n">
         <v>554</v>
       </c>
-      <c r="E54" s="10" t="n">
+      <c r="E54" s="12" t="n">
         <v>609</v>
       </c>
-      <c r="F54" s="21" t="n">
+      <c r="F54" s="11" t="n">
         <v>454</v>
       </c>
       <c r="G54" s="4"/>
@@ -3147,26 +3147,26 @@
       <c r="J54" s="8" t="n">
         <v>240</v>
       </c>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
       <c r="M54" s="9"/>
       <c r="N54" s="4"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7"/>
       <c r="B55" s="24" t="n">
         <v>18</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="16"/>
       <c r="G55" s="4"/>
       <c r="H55" s="7" t="s">
         <v>113</v>
@@ -3174,23 +3174,23 @@
       <c r="I55" s="8" t="n">
         <v>378</v>
       </c>
-      <c r="J55" s="18" t="n">
+      <c r="J55" s="19" t="n">
         <v>668</v>
       </c>
-      <c r="K55" s="18" t="n">
+      <c r="K55" s="19" t="n">
         <v>410</v>
       </c>
-      <c r="L55" s="18" t="n">
+      <c r="L55" s="19" t="n">
         <v>483</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
@@ -3205,7 +3205,7 @@
       <c r="D56" s="8" t="n">
         <v>525</v>
       </c>
-      <c r="E56" s="18"/>
+      <c r="E56" s="19"/>
       <c r="F56" s="9"/>
       <c r="G56" s="4"/>
       <c r="H56" s="29" t="s">
@@ -3217,392 +3217,392 @@
       <c r="L56" s="29"/>
       <c r="M56" s="29"/>
       <c r="N56" s="4"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="15"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
       <c r="G57" s="4"/>
       <c r="H57" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I57" s="18" t="n">
+      <c r="I57" s="19" t="n">
         <v>89</v>
       </c>
-      <c r="J57" s="18" t="n">
+      <c r="J57" s="19" t="n">
         <v>136</v>
       </c>
-      <c r="K57" s="18" t="n">
+      <c r="K57" s="19" t="n">
         <v>137</v>
       </c>
-      <c r="L57" s="18" t="n">
+      <c r="L57" s="19" t="n">
         <v>260</v>
       </c>
       <c r="M57" s="9" t="n">
         <v>268</v>
       </c>
       <c r="N57" s="4"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="10" t="n">
+      <c r="B58" s="12" t="n">
         <v>605</v>
       </c>
-      <c r="C58" s="10" t="n">
+      <c r="C58" s="12" t="n">
         <v>121</v>
       </c>
-      <c r="D58" s="10" t="n">
+      <c r="D58" s="12" t="n">
         <v>122</v>
       </c>
-      <c r="E58" s="10" t="n">
+      <c r="E58" s="12" t="n">
         <v>561</v>
       </c>
-      <c r="F58" s="12" t="n">
+      <c r="F58" s="13" t="n">
         <v>455</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I58" s="18" t="n">
+      <c r="I58" s="19" t="n">
         <v>371</v>
       </c>
-      <c r="J58" s="18" t="n">
+      <c r="J58" s="19" t="n">
         <v>318</v>
       </c>
-      <c r="K58" s="18" t="n">
+      <c r="K58" s="19" t="n">
         <v>201</v>
       </c>
-      <c r="L58" s="18"/>
+      <c r="L58" s="19"/>
       <c r="M58" s="9"/>
       <c r="N58" s="4"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="15"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7"/>
-      <c r="B59" s="16" t="n">
+      <c r="B59" s="17" t="n">
         <v>575</v>
       </c>
-      <c r="C59" s="16" t="n">
+      <c r="C59" s="17" t="n">
         <v>135</v>
       </c>
-      <c r="D59" s="16" t="n">
+      <c r="D59" s="17" t="n">
         <v>409</v>
       </c>
-      <c r="E59" s="16" t="n">
+      <c r="E59" s="17" t="n">
         <v>621</v>
       </c>
-      <c r="F59" s="17" t="n">
+      <c r="F59" s="18" t="n">
         <v>179</v>
       </c>
       <c r="G59" s="4"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
       <c r="N59" s="4"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7"/>
-      <c r="B60" s="16" t="n">
+      <c r="B60" s="17" t="n">
         <v>56</v>
       </c>
-      <c r="C60" s="16" t="n">
+      <c r="C60" s="17" t="n">
         <v>57</v>
       </c>
-      <c r="D60" s="16" t="n">
+      <c r="D60" s="17" t="n">
         <v>228</v>
       </c>
-      <c r="E60" s="16" t="n">
+      <c r="E60" s="17" t="n">
         <v>452</v>
       </c>
-      <c r="F60" s="17" t="n">
+      <c r="F60" s="18" t="n">
         <v>435</v>
       </c>
       <c r="G60" s="4"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
       <c r="N60" s="4"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7"/>
-      <c r="B61" s="16" t="n">
+      <c r="B61" s="17" t="n">
         <v>646</v>
       </c>
-      <c r="C61" s="16" t="n">
+      <c r="C61" s="17" t="n">
         <v>406</v>
       </c>
-      <c r="D61" s="16" t="n">
+      <c r="D61" s="17" t="n">
         <v>48</v>
       </c>
-      <c r="E61" s="16" t="n">
+      <c r="E61" s="17" t="n">
         <v>169</v>
       </c>
-      <c r="F61" s="17" t="n">
+      <c r="F61" s="18" t="n">
         <v>215</v>
       </c>
       <c r="G61" s="4"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
       <c r="N61" s="4"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="16"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7"/>
-      <c r="B62" s="16" t="n">
+      <c r="B62" s="17" t="n">
         <v>75</v>
       </c>
-      <c r="C62" s="16" t="n">
+      <c r="C62" s="17" t="n">
         <v>324</v>
       </c>
-      <c r="D62" s="16" t="n">
+      <c r="D62" s="17" t="n">
         <v>517</v>
       </c>
-      <c r="E62" s="16" t="n">
+      <c r="E62" s="17" t="n">
         <v>649</v>
       </c>
-      <c r="F62" s="17" t="n">
+      <c r="F62" s="18" t="n">
         <v>678</v>
       </c>
       <c r="G62" s="4"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
       <c r="N62" s="4"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="16"/>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7"/>
-      <c r="B63" s="14" t="n">
+      <c r="B63" s="15" t="n">
         <v>420</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
       <c r="N63" s="4"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="18" t="n">
+      <c r="B64" s="19" t="n">
         <v>53</v>
       </c>
-      <c r="C64" s="18" t="n">
+      <c r="C64" s="19" t="n">
         <v>134</v>
       </c>
-      <c r="D64" s="18" t="n">
+      <c r="D64" s="19" t="n">
         <v>581</v>
       </c>
-      <c r="E64" s="18" t="n">
+      <c r="E64" s="19" t="n">
         <v>152</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
       <c r="N64" s="4"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="18" t="n">
+      <c r="B65" s="19" t="n">
         <v>334</v>
       </c>
-      <c r="C65" s="18" t="n">
+      <c r="C65" s="19" t="n">
         <v>376</v>
       </c>
-      <c r="D65" s="18" t="n">
+      <c r="D65" s="19" t="n">
         <v>659</v>
       </c>
-      <c r="E65" s="18"/>
+      <c r="E65" s="19"/>
       <c r="F65" s="9"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
       <c r="N65" s="4"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="15"/>
-      <c r="T65" s="15"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="16"/>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B66" s="18" t="n">
+      <c r="B66" s="19" t="n">
         <v>343</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
       <c r="F66" s="9"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
       <c r="N66" s="4"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="15"/>
-      <c r="T66" s="15"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B67" s="10" t="n">
+      <c r="B67" s="12" t="n">
         <v>496</v>
       </c>
-      <c r="C67" s="10" t="n">
+      <c r="C67" s="12" t="n">
         <v>503</v>
       </c>
-      <c r="D67" s="10" t="n">
+      <c r="D67" s="12" t="n">
         <v>456</v>
       </c>
-      <c r="E67" s="10" t="n">
+      <c r="E67" s="12" t="n">
         <v>316</v>
       </c>
-      <c r="F67" s="12" t="n">
+      <c r="F67" s="13" t="n">
         <v>402</v>
       </c>
       <c r="G67" s="4"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
       <c r="N67" s="4"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="15"/>
-      <c r="T67" s="15"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7"/>
-      <c r="B68" s="14" t="n">
+      <c r="B68" s="15" t="n">
         <v>321</v>
       </c>
-      <c r="C68" s="14" t="n">
+      <c r="C68" s="15" t="n">
         <v>84</v>
       </c>
-      <c r="D68" s="14" t="n">
+      <c r="D68" s="15" t="n">
         <v>85</v>
       </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="16"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
       <c r="N68" s="4"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="15"/>
-      <c r="T68" s="15"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="46">

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -641,6 +641,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -674,10 +678,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -781,7 +781,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -903,38 +903,38 @@
       <c r="J3" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="K3" s="15" t="n">
+      <c r="K3" s="16" t="n">
         <v>42</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
       <c r="N3" s="4"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="17" t="n">
+      <c r="P3" s="18" t="n">
         <v>198</v>
       </c>
-      <c r="Q3" s="17" t="n">
+      <c r="Q3" s="18" t="n">
         <v>213</v>
       </c>
-      <c r="R3" s="17" t="n">
+      <c r="R3" s="18" t="n">
         <v>650</v>
       </c>
-      <c r="S3" s="17" t="n">
+      <c r="S3" s="18" t="n">
         <v>91</v>
       </c>
-      <c r="T3" s="18" t="n">
+      <c r="T3" s="19" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14"/>
-      <c r="B4" s="15" t="n">
+      <c r="B4" s="16" t="n">
         <v>274</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="4"/>
       <c r="H4" s="7" t="s">
         <v>7</v>
@@ -956,19 +956,19 @@
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="17" t="n">
+      <c r="P4" s="18" t="n">
         <v>552</v>
       </c>
-      <c r="Q4" s="17" t="n">
+      <c r="Q4" s="18" t="n">
         <v>123</v>
       </c>
-      <c r="R4" s="17" t="n">
+      <c r="R4" s="18" t="n">
         <v>188</v>
       </c>
-      <c r="S4" s="17" t="n">
+      <c r="S4" s="18" t="n">
         <v>309</v>
       </c>
-      <c r="T4" s="18" t="n">
+      <c r="T4" s="19" t="n">
         <v>32</v>
       </c>
     </row>
@@ -979,44 +979,44 @@
       <c r="B5" s="8" t="n">
         <v>453</v>
       </c>
-      <c r="C5" s="19" t="n">
+      <c r="C5" s="20" t="n">
         <v>665</v>
       </c>
-      <c r="D5" s="19" t="n">
+      <c r="D5" s="20" t="n">
         <v>283</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="9"/>
       <c r="G5" s="4"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="17" t="n">
+      <c r="I5" s="18" t="n">
         <v>611</v>
       </c>
-      <c r="J5" s="17" t="n">
+      <c r="J5" s="18" t="n">
         <v>187</v>
       </c>
-      <c r="K5" s="17" t="n">
+      <c r="K5" s="18" t="n">
         <v>643</v>
       </c>
-      <c r="L5" s="17" t="n">
+      <c r="L5" s="18" t="n">
         <v>674</v>
       </c>
-      <c r="M5" s="18" t="n">
+      <c r="M5" s="19" t="n">
         <v>209</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="15" t="n">
+      <c r="P5" s="16" t="n">
         <v>264</v>
       </c>
-      <c r="Q5" s="15" t="n">
+      <c r="Q5" s="16" t="n">
         <v>313</v>
       </c>
-      <c r="R5" s="15" t="n">
+      <c r="R5" s="16" t="n">
         <v>403</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
@@ -1028,10 +1028,10 @@
       <c r="C6" s="8" t="n">
         <v>119</v>
       </c>
-      <c r="D6" s="19" t="n">
+      <c r="D6" s="20" t="n">
         <v>661</v>
       </c>
-      <c r="E6" s="19" t="n">
+      <c r="E6" s="20" t="n">
         <v>598</v>
       </c>
       <c r="F6" s="9" t="n">
@@ -1039,19 +1039,19 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="17" t="n">
+      <c r="I6" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="17" t="n">
+      <c r="J6" s="18" t="n">
         <v>438</v>
       </c>
-      <c r="K6" s="17" t="n">
+      <c r="K6" s="18" t="n">
         <v>567</v>
       </c>
-      <c r="L6" s="17" t="n">
+      <c r="L6" s="18" t="n">
         <v>424</v>
       </c>
-      <c r="M6" s="18" t="n">
+      <c r="M6" s="19" t="n">
         <v>76</v>
       </c>
       <c r="N6" s="4"/>
@@ -1081,60 +1081,60 @@
       <c r="B7" s="8" t="n">
         <v>189</v>
       </c>
-      <c r="C7" s="19" t="n">
+      <c r="C7" s="20" t="n">
         <v>396</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="9"/>
       <c r="G7" s="4"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="15" t="n">
+      <c r="I7" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="4"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="15" t="n">
+      <c r="P7" s="16" t="n">
         <v>279</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="19" t="n">
+      <c r="B8" s="20" t="n">
         <v>54</v>
       </c>
-      <c r="C8" s="19" t="n">
+      <c r="C8" s="20" t="n">
         <v>59</v>
       </c>
-      <c r="D8" s="19" t="n">
+      <c r="D8" s="20" t="n">
         <v>498</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="9"/>
       <c r="G8" s="4"/>
       <c r="H8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="19" t="n">
+      <c r="I8" s="20" t="n">
         <v>86</v>
       </c>
-      <c r="J8" s="19" t="n">
+      <c r="J8" s="20" t="n">
         <v>328</v>
       </c>
-      <c r="K8" s="19" t="n">
+      <c r="K8" s="20" t="n">
         <v>160</v>
       </c>
-      <c r="L8" s="19" t="n">
+      <c r="L8" s="20" t="n">
         <v>88</v>
       </c>
       <c r="M8" s="9" t="n">
@@ -1144,16 +1144,16 @@
       <c r="O8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="19" t="n">
+      <c r="P8" s="20" t="n">
         <v>322</v>
       </c>
-      <c r="Q8" s="19" t="n">
+      <c r="Q8" s="20" t="n">
         <v>518</v>
       </c>
-      <c r="R8" s="19" t="n">
+      <c r="R8" s="20" t="n">
         <v>474</v>
       </c>
-      <c r="S8" s="19" t="n">
+      <c r="S8" s="20" t="n">
         <v>494</v>
       </c>
       <c r="T8" s="9" t="n">
@@ -1164,16 +1164,16 @@
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="19" t="n">
+      <c r="B9" s="20" t="n">
         <v>566</v>
       </c>
       <c r="C9" s="8" t="n">
         <v>48</v>
       </c>
-      <c r="D9" s="19" t="n">
+      <c r="D9" s="20" t="n">
         <v>73</v>
       </c>
-      <c r="E9" s="19" t="n">
+      <c r="E9" s="20" t="n">
         <v>289</v>
       </c>
       <c r="F9" s="9"/>
@@ -1229,62 +1229,62 @@
       <c r="D10" s="8" t="n">
         <v>238</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="9"/>
       <c r="G10" s="4"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="15" t="n">
+      <c r="I10" s="16" t="n">
         <v>287</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="4"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="17" t="n">
+      <c r="P10" s="18" t="n">
         <v>688</v>
       </c>
-      <c r="Q10" s="17" t="n">
+      <c r="Q10" s="18" t="n">
         <v>221</v>
       </c>
-      <c r="R10" s="17" t="n">
+      <c r="R10" s="18" t="n">
         <v>629</v>
       </c>
-      <c r="S10" s="17" t="n">
+      <c r="S10" s="18" t="n">
         <v>174</v>
       </c>
-      <c r="T10" s="18" t="n">
+      <c r="T10" s="19" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
       <c r="N11" s="4"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="15" t="n">
+      <c r="P11" s="16" t="n">
         <v>329</v>
       </c>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
@@ -1293,9 +1293,9 @@
       <c r="B12" s="8" t="n">
         <v>520</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="9"/>
       <c r="G12" s="4"/>
       <c r="H12" s="7" t="s">
@@ -1343,42 +1343,42 @@
       <c r="B13" s="8" t="n">
         <v>125</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="9"/>
       <c r="G13" s="4"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="22" t="n">
+      <c r="I13" s="23" t="n">
         <v>563</v>
       </c>
-      <c r="J13" s="22" t="n">
+      <c r="J13" s="23" t="n">
         <v>617</v>
       </c>
-      <c r="K13" s="22" t="n">
+      <c r="K13" s="23" t="n">
         <v>508</v>
       </c>
-      <c r="L13" s="22" t="n">
+      <c r="L13" s="23" t="n">
         <v>572</v>
       </c>
-      <c r="M13" s="23" t="n">
+      <c r="M13" s="24" t="n">
         <v>543</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="17" t="n">
+      <c r="P13" s="18" t="n">
         <v>132</v>
       </c>
-      <c r="Q13" s="17" t="n">
+      <c r="Q13" s="18" t="n">
         <v>131</v>
       </c>
-      <c r="R13" s="17" t="n">
+      <c r="R13" s="18" t="n">
         <v>139</v>
       </c>
-      <c r="S13" s="17" t="n">
+      <c r="S13" s="18" t="n">
         <v>140</v>
       </c>
-      <c r="T13" s="18" t="n">
+      <c r="T13" s="19" t="n">
         <v>514</v>
       </c>
     </row>
@@ -1389,34 +1389,34 @@
       <c r="B14" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="9"/>
       <c r="G14" s="4"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="24" t="n">
+      <c r="I14" s="15" t="n">
         <v>654</v>
       </c>
-      <c r="J14" s="24" t="n">
+      <c r="J14" s="15" t="n">
         <v>687</v>
       </c>
-      <c r="K14" s="24" t="n">
+      <c r="K14" s="15" t="n">
         <v>87</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
       <c r="N14" s="4"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="15" t="n">
+      <c r="P14" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="Q14" s="15" t="n">
+      <c r="Q14" s="16" t="n">
         <v>44</v>
       </c>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
@@ -1428,8 +1428,8 @@
       <c r="C15" s="8" t="n">
         <v>58</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="9"/>
       <c r="G15" s="4"/>
       <c r="H15" s="25" t="s">
@@ -1454,16 +1454,16 @@
       <c r="O15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P15" s="19" t="n">
+      <c r="P15" s="20" t="n">
         <v>464</v>
       </c>
-      <c r="Q15" s="19" t="n">
+      <c r="Q15" s="20" t="n">
         <v>691</v>
       </c>
-      <c r="R15" s="19" t="n">
+      <c r="R15" s="20" t="n">
         <v>698</v>
       </c>
-      <c r="S15" s="19" t="n">
+      <c r="S15" s="20" t="n">
         <v>638</v>
       </c>
       <c r="T15" s="9" t="n">
@@ -1489,35 +1489,35 @@
       <c r="F16" s="9"/>
       <c r="G16" s="4"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="22" t="n">
+      <c r="I16" s="23" t="n">
         <v>671</v>
       </c>
-      <c r="J16" s="22" t="n">
+      <c r="J16" s="23" t="n">
         <v>513</v>
       </c>
-      <c r="K16" s="22" t="n">
+      <c r="K16" s="23" t="n">
         <v>515</v>
       </c>
-      <c r="L16" s="22" t="n">
+      <c r="L16" s="23" t="n">
         <v>637</v>
       </c>
-      <c r="M16" s="23" t="n">
+      <c r="M16" s="24" t="n">
         <v>103</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="19" t="n">
+      <c r="P16" s="20" t="n">
         <v>486</v>
       </c>
-      <c r="Q16" s="19" t="n">
+      <c r="Q16" s="20" t="n">
         <v>664</v>
       </c>
-      <c r="R16" s="19" t="n">
+      <c r="R16" s="20" t="n">
         <v>375</v>
       </c>
-      <c r="S16" s="19" t="n">
+      <c r="S16" s="20" t="n">
         <v>312</v>
       </c>
       <c r="T16" s="9" t="n">
@@ -1545,109 +1545,109 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="22" t="n">
+      <c r="I17" s="23" t="n">
         <v>107</v>
       </c>
-      <c r="J17" s="22" t="n">
+      <c r="J17" s="23" t="n">
         <v>257</v>
       </c>
-      <c r="K17" s="22" t="n">
+      <c r="K17" s="23" t="n">
         <v>623</v>
       </c>
-      <c r="L17" s="22" t="n">
+      <c r="L17" s="23" t="n">
         <v>653</v>
       </c>
-      <c r="M17" s="23" t="n">
+      <c r="M17" s="24" t="n">
         <v>104</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="19" t="n">
+      <c r="P17" s="20" t="n">
         <v>337</v>
       </c>
-      <c r="Q17" s="19" t="n">
+      <c r="Q17" s="20" t="n">
         <v>124</v>
       </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
       <c r="T17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
-      <c r="B18" s="17" t="n">
+      <c r="B18" s="18" t="n">
         <v>451</v>
       </c>
-      <c r="C18" s="17" t="n">
+      <c r="C18" s="18" t="n">
         <v>423</v>
       </c>
-      <c r="D18" s="17" t="n">
+      <c r="D18" s="18" t="n">
         <v>657</v>
       </c>
-      <c r="E18" s="17" t="n">
+      <c r="E18" s="18" t="n">
         <v>551</v>
       </c>
-      <c r="F18" s="18" t="n">
+      <c r="F18" s="19" t="n">
         <v>696</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="22" t="n">
+      <c r="I18" s="23" t="n">
         <v>111</v>
       </c>
-      <c r="J18" s="22" t="n">
+      <c r="J18" s="23" t="n">
         <v>112</v>
       </c>
-      <c r="K18" s="22" t="n">
+      <c r="K18" s="23" t="n">
         <v>113</v>
       </c>
-      <c r="L18" s="22" t="n">
+      <c r="L18" s="23" t="n">
         <v>129</v>
       </c>
-      <c r="M18" s="23" t="n">
+      <c r="M18" s="24" t="n">
         <v>404</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="19" t="n">
+      <c r="P18" s="20" t="n">
         <v>233</v>
       </c>
-      <c r="Q18" s="19" t="n">
+      <c r="Q18" s="20" t="n">
         <v>600</v>
       </c>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
       <c r="T18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
-      <c r="B19" s="15" t="n">
+      <c r="B19" s="16" t="n">
         <v>467</v>
       </c>
-      <c r="C19" s="15" t="n">
+      <c r="C19" s="16" t="n">
         <v>535</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="4"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="22" t="n">
+      <c r="I19" s="23" t="n">
         <v>199</v>
       </c>
-      <c r="J19" s="17" t="n">
+      <c r="J19" s="18" t="n">
         <v>655</v>
       </c>
-      <c r="K19" s="22" t="n">
+      <c r="K19" s="23" t="n">
         <v>116</v>
       </c>
-      <c r="L19" s="22" t="n">
+      <c r="L19" s="23" t="n">
         <v>117</v>
       </c>
-      <c r="M19" s="18"/>
+      <c r="M19" s="19"/>
       <c r="N19" s="4"/>
       <c r="O19" s="26" t="s">
         <v>34</v>
@@ -1687,8 +1687,8 @@
       <c r="J20" s="8" t="n">
         <v>589</v>
       </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="9"/>
       <c r="N20" s="4"/>
       <c r="O20" s="7" t="s">
@@ -1712,19 +1712,19 @@
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
-      <c r="B21" s="17" t="n">
+      <c r="B21" s="18" t="n">
         <v>537</v>
       </c>
-      <c r="C21" s="17" t="n">
+      <c r="C21" s="18" t="n">
         <v>592</v>
       </c>
-      <c r="D21" s="17" t="n">
+      <c r="D21" s="18" t="n">
         <v>640</v>
       </c>
-      <c r="E21" s="17" t="n">
+      <c r="E21" s="18" t="n">
         <v>38</v>
       </c>
-      <c r="F21" s="18" t="n">
+      <c r="F21" s="19" t="n">
         <v>443</v>
       </c>
       <c r="G21" s="4"/>
@@ -1734,13 +1734,13 @@
       <c r="I21" s="8" t="n">
         <v>606</v>
       </c>
-      <c r="J21" s="19" t="n">
+      <c r="J21" s="20" t="n">
         <v>331</v>
       </c>
-      <c r="K21" s="19" t="n">
+      <c r="K21" s="20" t="n">
         <v>652</v>
       </c>
-      <c r="L21" s="19" t="n">
+      <c r="L21" s="20" t="n">
         <v>297</v>
       </c>
       <c r="M21" s="9" t="n">
@@ -1748,29 +1748,29 @@
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="15" t="n">
+      <c r="P21" s="16" t="n">
         <v>155</v>
       </c>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
-      <c r="B22" s="22" t="n">
+      <c r="B22" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="C22" s="17" t="n">
+      <c r="C22" s="18" t="n">
         <v>13</v>
       </c>
-      <c r="D22" s="17" t="n">
+      <c r="D22" s="18" t="n">
         <v>12</v>
       </c>
-      <c r="E22" s="17" t="n">
+      <c r="E22" s="18" t="n">
         <v>273</v>
       </c>
-      <c r="F22" s="18" t="n">
+      <c r="F22" s="19" t="n">
         <v>165</v>
       </c>
       <c r="G22" s="4"/>
@@ -1783,36 +1783,36 @@
       <c r="J22" s="8" t="n">
         <v>590</v>
       </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
       <c r="M22" s="9"/>
       <c r="N22" s="4"/>
       <c r="O22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P22" s="19" t="n">
+      <c r="P22" s="20" t="n">
         <v>676</v>
       </c>
-      <c r="Q22" s="19" t="n">
+      <c r="Q22" s="20" t="n">
         <v>355</v>
       </c>
-      <c r="R22" s="19" t="n">
+      <c r="R22" s="20" t="n">
         <v>380</v>
       </c>
-      <c r="S22" s="19" t="n">
+      <c r="S22" s="20" t="n">
         <v>381</v>
       </c>
       <c r="T22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
-      <c r="B23" s="15" t="n">
+      <c r="B23" s="16" t="n">
         <v>481</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="4"/>
       <c r="H23" s="7" t="s">
         <v>41</v>
@@ -1836,50 +1836,50 @@
       <c r="O23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P23" s="19" t="n">
+      <c r="P23" s="20" t="n">
         <v>432</v>
       </c>
-      <c r="Q23" s="19" t="n">
+      <c r="Q23" s="20" t="n">
         <v>146</v>
       </c>
-      <c r="R23" s="19" t="n">
+      <c r="R23" s="20" t="n">
         <v>460</v>
       </c>
-      <c r="S23" s="19"/>
+      <c r="S23" s="20"/>
       <c r="T23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="19" t="n">
+      <c r="B24" s="20" t="n">
         <v>392</v>
       </c>
-      <c r="C24" s="19" t="n">
+      <c r="C24" s="20" t="n">
         <v>524</v>
       </c>
-      <c r="D24" s="19" t="n">
+      <c r="D24" s="20" t="n">
         <v>521</v>
       </c>
-      <c r="E24" s="19" t="n">
+      <c r="E24" s="20" t="n">
         <v>522</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="4"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="22" t="n">
+      <c r="I24" s="23" t="n">
         <v>98</v>
       </c>
-      <c r="J24" s="22" t="n">
+      <c r="J24" s="23" t="n">
         <v>173</v>
       </c>
-      <c r="K24" s="22" t="n">
+      <c r="K24" s="23" t="n">
         <v>669</v>
       </c>
-      <c r="L24" s="22" t="n">
+      <c r="L24" s="23" t="n">
         <v>450</v>
       </c>
-      <c r="M24" s="23" t="n">
+      <c r="M24" s="24" t="n">
         <v>110</v>
       </c>
       <c r="N24" s="4"/>
@@ -1906,16 +1906,16 @@
       <c r="A25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="19" t="n">
+      <c r="B25" s="20" t="n">
         <v>66</v>
       </c>
-      <c r="C25" s="19" t="n">
+      <c r="C25" s="20" t="n">
         <v>67</v>
       </c>
-      <c r="D25" s="19" t="n">
+      <c r="D25" s="20" t="n">
         <v>415</v>
       </c>
-      <c r="E25" s="19" t="n">
+      <c r="E25" s="20" t="n">
         <v>43</v>
       </c>
       <c r="F25" s="9" t="n">
@@ -1923,32 +1923,32 @@
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="15" t="n">
+      <c r="I25" s="16" t="n">
         <v>95</v>
       </c>
-      <c r="J25" s="24" t="n">
+      <c r="J25" s="15" t="n">
         <v>108</v>
       </c>
-      <c r="K25" s="24" t="n">
+      <c r="K25" s="15" t="n">
         <v>109</v>
       </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="17"/>
       <c r="N25" s="4"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="15" t="n">
+      <c r="P25" s="16" t="n">
         <v>472</v>
       </c>
-      <c r="Q25" s="15" t="n">
+      <c r="Q25" s="16" t="n">
         <v>421</v>
       </c>
-      <c r="R25" s="15" t="n">
+      <c r="R25" s="16" t="n">
         <v>212</v>
       </c>
-      <c r="S25" s="15" t="n">
+      <c r="S25" s="16" t="n">
         <v>336</v>
       </c>
-      <c r="T25" s="16" t="n">
+      <c r="T25" s="17" t="n">
         <v>440</v>
       </c>
     </row>
@@ -1956,16 +1956,16 @@
       <c r="A26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="19" t="n">
+      <c r="B26" s="20" t="n">
         <v>482</v>
       </c>
-      <c r="C26" s="19" t="n">
+      <c r="C26" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="D26" s="19" t="n">
+      <c r="D26" s="20" t="n">
         <v>68</v>
       </c>
-      <c r="E26" s="19"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="9"/>
       <c r="G26" s="4"/>
       <c r="H26" s="7" t="s">
@@ -1977,8 +1977,8 @@
       <c r="J26" s="8" t="n">
         <v>106</v>
       </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
       <c r="M26" s="9"/>
       <c r="N26" s="4"/>
       <c r="O26" s="7" t="s">
@@ -2004,16 +2004,16 @@
       <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="19" t="n">
+      <c r="B27" s="20" t="n">
         <v>28</v>
       </c>
-      <c r="C27" s="19" t="n">
+      <c r="C27" s="20" t="n">
         <v>686</v>
       </c>
-      <c r="D27" s="19" t="n">
+      <c r="D27" s="20" t="n">
         <v>459</v>
       </c>
-      <c r="E27" s="19" t="n">
+      <c r="E27" s="20" t="n">
         <v>214</v>
       </c>
       <c r="F27" s="9"/>
@@ -2024,25 +2024,25 @@
       <c r="I27" s="8" t="n">
         <v>114</v>
       </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
       <c r="M27" s="9"/>
       <c r="N27" s="4"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="17" t="n">
+      <c r="P27" s="18" t="n">
         <v>692</v>
       </c>
-      <c r="Q27" s="17" t="n">
+      <c r="Q27" s="18" t="n">
         <v>502</v>
       </c>
-      <c r="R27" s="17" t="n">
+      <c r="R27" s="18" t="n">
         <v>630</v>
       </c>
-      <c r="S27" s="17" t="n">
+      <c r="S27" s="18" t="n">
         <v>407</v>
       </c>
-      <c r="T27" s="18" t="n">
+      <c r="T27" s="19" t="n">
         <v>295</v>
       </c>
     </row>
@@ -2050,14 +2050,14 @@
       <c r="A28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="19" t="n">
+      <c r="B28" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="C28" s="19" t="n">
+      <c r="C28" s="20" t="n">
         <v>647</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="9"/>
       <c r="G28" s="4"/>
       <c r="H28" s="7" t="s">
@@ -2069,28 +2069,28 @@
       <c r="J28" s="8" t="n">
         <v>236</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
       <c r="M28" s="9"/>
       <c r="N28" s="4"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="15" t="n">
+      <c r="P28" s="16" t="n">
         <v>480</v>
       </c>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="4"/>
       <c r="H29" s="7" t="s">
         <v>54</v>
@@ -2098,26 +2098,26 @@
       <c r="I29" s="8" t="n">
         <v>501</v>
       </c>
-      <c r="J29" s="19" t="n">
+      <c r="J29" s="20" t="n">
         <v>99</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
       <c r="M29" s="9"/>
       <c r="N29" s="4"/>
       <c r="O29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P29" s="19" t="n">
+      <c r="P29" s="20" t="n">
         <v>307</v>
       </c>
-      <c r="Q29" s="19" t="n">
+      <c r="Q29" s="20" t="n">
         <v>315</v>
       </c>
-      <c r="R29" s="19" t="n">
+      <c r="R29" s="20" t="n">
         <v>493</v>
       </c>
-      <c r="S29" s="19" t="n">
+      <c r="S29" s="20" t="n">
         <v>327</v>
       </c>
       <c r="T29" s="9" t="n">
@@ -2147,84 +2147,84 @@
       <c r="H30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="19" t="n">
+      <c r="I30" s="20" t="n">
         <v>558</v>
       </c>
-      <c r="J30" s="19" t="n">
+      <c r="J30" s="20" t="n">
         <v>427</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
       <c r="M30" s="9"/>
       <c r="N30" s="4"/>
       <c r="O30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="19" t="n">
+      <c r="P30" s="20" t="n">
         <v>699</v>
       </c>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
       <c r="T30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
-      <c r="B31" s="17" t="n">
+      <c r="B31" s="18" t="n">
         <v>342</v>
       </c>
-      <c r="C31" s="17" t="n">
+      <c r="C31" s="18" t="n">
         <v>326</v>
       </c>
-      <c r="D31" s="17" t="n">
+      <c r="D31" s="18" t="n">
         <v>504</v>
       </c>
-      <c r="E31" s="17" t="n">
+      <c r="E31" s="18" t="n">
         <v>263</v>
       </c>
-      <c r="F31" s="18" t="n">
+      <c r="F31" s="19" t="n">
         <v>190</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
       <c r="N31" s="4"/>
       <c r="O31" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P31" s="19" t="n">
+      <c r="P31" s="20" t="n">
         <v>352</v>
       </c>
-      <c r="Q31" s="19" t="n">
+      <c r="Q31" s="20" t="n">
         <v>218</v>
       </c>
-      <c r="R31" s="19" t="n">
+      <c r="R31" s="20" t="n">
         <v>363</v>
       </c>
-      <c r="S31" s="19"/>
+      <c r="S31" s="20"/>
       <c r="T31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
-      <c r="B32" s="17" t="n">
+      <c r="B32" s="18" t="n">
         <v>191</v>
       </c>
-      <c r="C32" s="17" t="n">
+      <c r="C32" s="18" t="n">
         <v>476</v>
       </c>
-      <c r="D32" s="17" t="n">
+      <c r="D32" s="18" t="n">
         <v>461</v>
       </c>
-      <c r="E32" s="17" t="n">
+      <c r="E32" s="18" t="n">
         <v>477</v>
       </c>
-      <c r="F32" s="18" t="n">
+      <c r="F32" s="19" t="n">
         <v>693</v>
       </c>
       <c r="G32" s="4"/>
@@ -2234,9 +2234,9 @@
       <c r="I32" s="8" t="n">
         <v>565</v>
       </c>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
       <c r="M32" s="9"/>
       <c r="N32" s="4"/>
       <c r="O32" s="26" t="s">
@@ -2250,19 +2250,19 @@
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7"/>
-      <c r="B33" s="17" t="n">
+      <c r="B33" s="18" t="n">
         <v>393</v>
       </c>
-      <c r="C33" s="17" t="n">
+      <c r="C33" s="18" t="n">
         <v>172</v>
       </c>
-      <c r="D33" s="17" t="n">
+      <c r="D33" s="18" t="n">
         <v>458</v>
       </c>
-      <c r="E33" s="17" t="n">
+      <c r="E33" s="18" t="n">
         <v>258</v>
       </c>
-      <c r="F33" s="18" t="n">
+      <c r="F33" s="19" t="n">
         <v>319</v>
       </c>
       <c r="G33" s="4"/>
@@ -2275,38 +2275,38 @@
       <c r="J33" s="8" t="n">
         <v>397</v>
       </c>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
       <c r="M33" s="9"/>
       <c r="N33" s="4"/>
       <c r="O33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P33" s="19" t="n">
+      <c r="P33" s="20" t="n">
         <v>528</v>
       </c>
-      <c r="Q33" s="19" t="n">
+      <c r="Q33" s="20" t="n">
         <v>497</v>
       </c>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
       <c r="T33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7"/>
-      <c r="B34" s="17" t="n">
+      <c r="B34" s="18" t="n">
         <v>405</v>
       </c>
-      <c r="C34" s="17" t="n">
+      <c r="C34" s="18" t="n">
         <v>171</v>
       </c>
-      <c r="D34" s="17" t="n">
+      <c r="D34" s="18" t="n">
         <v>168</v>
       </c>
-      <c r="E34" s="17" t="n">
+      <c r="E34" s="18" t="n">
         <v>670</v>
       </c>
-      <c r="F34" s="18" t="n">
+      <c r="F34" s="19" t="n">
         <v>233</v>
       </c>
       <c r="G34" s="4"/>
@@ -2332,90 +2332,90 @@
       <c r="O34" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P34" s="19" t="n">
+      <c r="P34" s="20" t="n">
         <v>382</v>
       </c>
-      <c r="Q34" s="19" t="n">
+      <c r="Q34" s="20" t="n">
         <v>398</v>
       </c>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
       <c r="T34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7"/>
-      <c r="B35" s="15" t="n">
+      <c r="B35" s="16" t="n">
         <v>357</v>
       </c>
-      <c r="C35" s="15" t="n">
+      <c r="C35" s="16" t="n">
         <v>400</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="4"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="22" t="n">
+      <c r="I35" s="23" t="n">
         <v>52</v>
       </c>
-      <c r="J35" s="22" t="n">
+      <c r="J35" s="23" t="n">
         <v>77</v>
       </c>
-      <c r="K35" s="22" t="n">
+      <c r="K35" s="23" t="n">
         <v>39</v>
       </c>
-      <c r="L35" s="22" t="n">
+      <c r="L35" s="23" t="n">
         <v>216</v>
       </c>
-      <c r="M35" s="23" t="n">
+      <c r="M35" s="24" t="n">
         <v>40</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P35" s="19" t="n">
+      <c r="P35" s="20" t="n">
         <v>470</v>
       </c>
-      <c r="Q35" s="19" t="n">
+      <c r="Q35" s="20" t="n">
         <v>478</v>
       </c>
-      <c r="R35" s="19" t="n">
+      <c r="R35" s="20" t="n">
         <v>519</v>
       </c>
-      <c r="S35" s="19"/>
+      <c r="S35" s="20"/>
       <c r="T35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="19" t="n">
+      <c r="B36" s="20" t="n">
         <v>492</v>
       </c>
-      <c r="C36" s="19" t="n">
+      <c r="C36" s="20" t="n">
         <v>29</v>
       </c>
-      <c r="D36" s="19" t="n">
+      <c r="D36" s="20" t="n">
         <v>507</v>
       </c>
-      <c r="E36" s="19"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="22" t="n">
+      <c r="I36" s="23" t="n">
         <v>46</v>
       </c>
-      <c r="J36" s="22" t="n">
+      <c r="J36" s="23" t="n">
         <v>47</v>
       </c>
-      <c r="K36" s="17" t="n">
+      <c r="K36" s="18" t="n">
         <v>31</v>
       </c>
-      <c r="L36" s="17" t="n">
+      <c r="L36" s="18" t="n">
         <v>556</v>
       </c>
-      <c r="M36" s="23" t="n">
+      <c r="M36" s="24" t="n">
         <v>60</v>
       </c>
       <c r="N36" s="4"/>
@@ -2432,78 +2432,78 @@
       <c r="A37" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="19" t="n">
+      <c r="B37" s="20" t="n">
         <v>50</v>
       </c>
-      <c r="C37" s="19" t="n">
+      <c r="C37" s="20" t="n">
         <v>372</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="22" t="n">
+      <c r="I37" s="23" t="n">
         <v>491</v>
       </c>
-      <c r="J37" s="22" t="n">
+      <c r="J37" s="23" t="n">
         <v>78</v>
       </c>
-      <c r="K37" s="22" t="n">
+      <c r="K37" s="23" t="n">
         <v>90</v>
       </c>
-      <c r="L37" s="22" t="n">
+      <c r="L37" s="23" t="n">
         <v>79</v>
       </c>
-      <c r="M37" s="18" t="n">
+      <c r="M37" s="19" t="n">
         <v>93</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P37" s="19" t="n">
+      <c r="P37" s="20" t="n">
         <v>593</v>
       </c>
-      <c r="Q37" s="19" t="n">
+      <c r="Q37" s="20" t="n">
         <v>447</v>
       </c>
-      <c r="R37" s="19" t="n">
+      <c r="R37" s="20" t="n">
         <v>223</v>
       </c>
-      <c r="S37" s="19" t="n">
+      <c r="S37" s="20" t="n">
         <v>149</v>
       </c>
       <c r="T37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="4"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="24" t="n">
+      <c r="I38" s="15" t="n">
         <v>332</v>
       </c>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="17"/>
       <c r="N38" s="4"/>
       <c r="O38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P38" s="19" t="n">
+      <c r="P38" s="20" t="n">
         <v>335</v>
       </c>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
       <c r="T38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,39 +2513,39 @@
       <c r="B39" s="8" t="n">
         <v>682</v>
       </c>
-      <c r="C39" s="19" t="n">
+      <c r="C39" s="20" t="n">
         <v>71</v>
       </c>
-      <c r="D39" s="19" t="n">
+      <c r="D39" s="20" t="n">
         <v>388</v>
       </c>
-      <c r="E39" s="19"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="9"/>
       <c r="G39" s="4"/>
       <c r="H39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I39" s="19" t="n">
+      <c r="I39" s="20" t="n">
         <v>241</v>
       </c>
-      <c r="J39" s="19" t="n">
+      <c r="J39" s="20" t="n">
         <v>282</v>
       </c>
-      <c r="K39" s="19" t="n">
+      <c r="K39" s="20" t="n">
         <v>679</v>
       </c>
-      <c r="L39" s="19"/>
+      <c r="L39" s="20"/>
       <c r="M39" s="9"/>
       <c r="N39" s="4"/>
       <c r="O39" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P39" s="19" t="n">
+      <c r="P39" s="20" t="n">
         <v>587</v>
       </c>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
       <c r="T39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2558,34 +2558,34 @@
       <c r="C40" s="8" t="n">
         <v>227</v>
       </c>
-      <c r="D40" s="19" t="n">
+      <c r="D40" s="20" t="n">
         <v>224</v>
       </c>
-      <c r="E40" s="19"/>
+      <c r="E40" s="20"/>
       <c r="F40" s="9"/>
       <c r="G40" s="4"/>
       <c r="H40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="19" t="n">
+      <c r="I40" s="20" t="n">
         <v>22</v>
       </c>
-      <c r="J40" s="19" t="n">
+      <c r="J40" s="20" t="n">
         <v>301</v>
       </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
       <c r="M40" s="9"/>
       <c r="N40" s="4"/>
       <c r="O40" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P40" s="19" t="n">
+      <c r="P40" s="20" t="n">
         <v>391</v>
       </c>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
       <c r="T40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2595,13 +2595,13 @@
       <c r="B41" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="C41" s="19" t="n">
+      <c r="C41" s="20" t="n">
         <v>636</v>
       </c>
-      <c r="D41" s="19" t="n">
+      <c r="D41" s="20" t="n">
         <v>591</v>
       </c>
-      <c r="E41" s="19" t="n">
+      <c r="E41" s="20" t="n">
         <v>32</v>
       </c>
       <c r="F41" s="9"/>
@@ -2609,12 +2609,12 @@
       <c r="H41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I41" s="19" t="n">
+      <c r="I41" s="20" t="n">
         <v>488</v>
       </c>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
       <c r="M41" s="9"/>
       <c r="N41" s="4"/>
       <c r="O41" s="26" t="s">
@@ -2630,16 +2630,16 @@
       <c r="A42" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="19" t="n">
+      <c r="B42" s="20" t="n">
         <v>385</v>
       </c>
-      <c r="C42" s="19" t="n">
+      <c r="C42" s="20" t="n">
         <v>341</v>
       </c>
-      <c r="D42" s="19" t="n">
+      <c r="D42" s="20" t="n">
         <v>394</v>
       </c>
-      <c r="E42" s="19"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="9"/>
       <c r="G42" s="4"/>
       <c r="H42" s="7" t="s">
@@ -2664,52 +2664,52 @@
       <c r="O42" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P42" s="19" t="n">
+      <c r="P42" s="20" t="n">
         <v>292</v>
       </c>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
       <c r="T42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
       <c r="G43" s="4"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="22" t="n">
+      <c r="I43" s="23" t="n">
         <v>130</v>
       </c>
-      <c r="J43" s="22" t="n">
+      <c r="J43" s="23" t="n">
         <v>417</v>
       </c>
-      <c r="K43" s="22" t="n">
+      <c r="K43" s="23" t="n">
         <v>529</v>
       </c>
-      <c r="L43" s="17" t="n">
+      <c r="L43" s="18" t="n">
         <v>127</v>
       </c>
-      <c r="M43" s="18" t="n">
+      <c r="M43" s="19" t="n">
         <v>126</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P43" s="19" t="n">
+      <c r="P43" s="20" t="n">
         <v>239</v>
       </c>
-      <c r="Q43" s="19" t="n">
+      <c r="Q43" s="20" t="n">
         <v>164</v>
       </c>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
       <c r="T43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,41 +2725,41 @@
       <c r="D44" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="E44" s="19"/>
+      <c r="E44" s="20"/>
       <c r="F44" s="9"/>
       <c r="G44" s="4"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="15" t="n">
+      <c r="I44" s="16" t="n">
         <v>433</v>
       </c>
-      <c r="J44" s="15" t="n">
+      <c r="J44" s="16" t="n">
         <v>675</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="17"/>
       <c r="N44" s="4"/>
       <c r="O44" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P44" s="19" t="n">
+      <c r="P44" s="20" t="n">
         <v>330</v>
       </c>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
       <c r="T44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="19" t="n">
+      <c r="B45" s="20" t="n">
         <v>430</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
       <c r="F45" s="9"/>
       <c r="G45" s="4"/>
       <c r="H45" s="7" t="s">
@@ -2771,21 +2771,21 @@
       <c r="J45" s="8" t="n">
         <v>684</v>
       </c>
-      <c r="K45" s="19" t="n">
+      <c r="K45" s="20" t="n">
         <v>685</v>
       </c>
-      <c r="L45" s="19"/>
+      <c r="L45" s="20"/>
       <c r="M45" s="9"/>
       <c r="N45" s="4"/>
       <c r="O45" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P45" s="19" t="n">
+      <c r="P45" s="20" t="n">
         <v>365</v>
       </c>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
       <c r="T45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2811,67 +2811,67 @@
       <c r="H46" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I46" s="19" t="n">
+      <c r="I46" s="20" t="n">
         <v>399</v>
       </c>
-      <c r="J46" s="19" t="n">
+      <c r="J46" s="20" t="n">
         <v>207</v>
       </c>
-      <c r="K46" s="19" t="n">
+      <c r="K46" s="20" t="n">
         <v>210</v>
       </c>
-      <c r="L46" s="19"/>
+      <c r="L46" s="20"/>
       <c r="M46" s="9"/>
       <c r="N46" s="4"/>
       <c r="O46" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P46" s="19" t="n">
+      <c r="P46" s="20" t="n">
         <v>384</v>
       </c>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
       <c r="T46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="24" t="n">
+      <c r="B47" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C47" s="24" t="n">
+      <c r="C47" s="15" t="n">
         <v>445</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
       <c r="G47" s="4"/>
       <c r="H47" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I47" s="19" t="n">
+      <c r="I47" s="20" t="n">
         <v>65</v>
       </c>
-      <c r="J47" s="19" t="n">
+      <c r="J47" s="20" t="n">
         <v>468</v>
       </c>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
       <c r="M47" s="9"/>
       <c r="N47" s="4"/>
       <c r="O47" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P47" s="19" t="n">
+      <c r="P47" s="20" t="n">
         <v>390</v>
       </c>
-      <c r="Q47" s="19" t="n">
+      <c r="Q47" s="20" t="n">
         <v>672</v>
       </c>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
       <c r="T47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,41 +2884,41 @@
       <c r="C48" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
       <c r="F48" s="9"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="21" t="s">
+      <c r="H48" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
       <c r="N48" s="4"/>
       <c r="O48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P48" s="19" t="n">
+      <c r="P48" s="20" t="n">
         <v>395</v>
       </c>
-      <c r="Q48" s="19" t="n">
+      <c r="Q48" s="20" t="n">
         <v>667</v>
       </c>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
       <c r="T48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
       <c r="G49" s="4"/>
       <c r="H49" s="7" t="s">
         <v>103</v>
@@ -2942,14 +2942,14 @@
       <c r="O49" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P49" s="19" t="n">
+      <c r="P49" s="20" t="n">
         <v>147</v>
       </c>
-      <c r="Q49" s="19" t="n">
+      <c r="Q49" s="20" t="n">
         <v>148</v>
       </c>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
       <c r="T49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2973,40 +2973,40 @@
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="24" t="n">
+      <c r="I50" s="15" t="n">
         <v>441</v>
       </c>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="17"/>
       <c r="N50" s="4"/>
       <c r="O50" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P50" s="19" t="n">
+      <c r="P50" s="20" t="n">
         <v>204</v>
       </c>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
       <c r="T50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7"/>
-      <c r="B51" s="17" t="n">
+      <c r="B51" s="18" t="n">
         <v>500</v>
       </c>
-      <c r="C51" s="22" t="n">
+      <c r="C51" s="23" t="n">
         <v>290</v>
       </c>
-      <c r="D51" s="22" t="n">
+      <c r="D51" s="23" t="n">
         <v>532</v>
       </c>
-      <c r="E51" s="22" t="n">
+      <c r="E51" s="23" t="n">
         <v>205</v>
       </c>
-      <c r="F51" s="18" t="n">
+      <c r="F51" s="19" t="n">
         <v>166</v>
       </c>
       <c r="G51" s="4"/>
@@ -3032,47 +3032,47 @@
       <c r="O51" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P51" s="19" t="n">
+      <c r="P51" s="20" t="n">
         <v>229</v>
       </c>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
       <c r="T51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7"/>
-      <c r="B52" s="15" t="n">
+      <c r="B52" s="16" t="n">
         <v>466</v>
       </c>
-      <c r="C52" s="15" t="n">
+      <c r="C52" s="16" t="n">
         <v>138</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
       <c r="G52" s="4"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="15" t="n">
+      <c r="I52" s="16" t="n">
         <v>354</v>
       </c>
-      <c r="J52" s="24" t="n">
+      <c r="J52" s="15" t="n">
         <v>658</v>
       </c>
-      <c r="K52" s="24" t="n">
+      <c r="K52" s="15" t="n">
         <v>162</v>
       </c>
-      <c r="L52" s="24" t="n">
+      <c r="L52" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="M52" s="16"/>
+      <c r="M52" s="17"/>
       <c r="N52" s="4"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
@@ -3084,7 +3084,7 @@
       <c r="C53" s="8" t="n">
         <v>167</v>
       </c>
-      <c r="D53" s="19" t="n">
+      <c r="D53" s="20" t="n">
         <v>599</v>
       </c>
       <c r="E53" s="8" t="n">
@@ -3111,12 +3111,12 @@
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="4"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
@@ -3147,26 +3147,26 @@
       <c r="J54" s="8" t="n">
         <v>240</v>
       </c>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
       <c r="M54" s="9"/>
       <c r="N54" s="4"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7"/>
-      <c r="B55" s="24" t="n">
+      <c r="B55" s="15" t="n">
         <v>18</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
       <c r="G55" s="4"/>
       <c r="H55" s="7" t="s">
         <v>113</v>
@@ -3174,23 +3174,23 @@
       <c r="I55" s="8" t="n">
         <v>378</v>
       </c>
-      <c r="J55" s="19" t="n">
+      <c r="J55" s="20" t="n">
         <v>668</v>
       </c>
-      <c r="K55" s="19" t="n">
+      <c r="K55" s="20" t="n">
         <v>410</v>
       </c>
-      <c r="L55" s="19" t="n">
+      <c r="L55" s="20" t="n">
         <v>483</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
@@ -3205,7 +3205,7 @@
       <c r="D56" s="8" t="n">
         <v>525</v>
       </c>
-      <c r="E56" s="19"/>
+      <c r="E56" s="20"/>
       <c r="F56" s="9"/>
       <c r="G56" s="4"/>
       <c r="H56" s="29" t="s">
@@ -3217,48 +3217,48 @@
       <c r="L56" s="29"/>
       <c r="M56" s="29"/>
       <c r="N56" s="4"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
       <c r="G57" s="4"/>
       <c r="H57" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I57" s="19" t="n">
+      <c r="I57" s="20" t="n">
         <v>89</v>
       </c>
-      <c r="J57" s="19" t="n">
+      <c r="J57" s="20" t="n">
         <v>136</v>
       </c>
-      <c r="K57" s="19" t="n">
+      <c r="K57" s="20" t="n">
         <v>137</v>
       </c>
-      <c r="L57" s="19" t="n">
+      <c r="L57" s="20" t="n">
         <v>260</v>
       </c>
       <c r="M57" s="9" t="n">
         <v>268</v>
       </c>
       <c r="N57" s="4"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
-      <c r="T57" s="16"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
@@ -3283,264 +3283,264 @@
       <c r="H58" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I58" s="19" t="n">
+      <c r="I58" s="20" t="n">
         <v>371</v>
       </c>
-      <c r="J58" s="19" t="n">
+      <c r="J58" s="20" t="n">
         <v>318</v>
       </c>
-      <c r="K58" s="19" t="n">
+      <c r="K58" s="20" t="n">
         <v>201</v>
       </c>
-      <c r="L58" s="19"/>
+      <c r="L58" s="20"/>
       <c r="M58" s="9"/>
       <c r="N58" s="4"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-      <c r="T58" s="16"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7"/>
-      <c r="B59" s="17" t="n">
+      <c r="B59" s="18" t="n">
         <v>575</v>
       </c>
-      <c r="C59" s="17" t="n">
+      <c r="C59" s="18" t="n">
         <v>135</v>
       </c>
-      <c r="D59" s="17" t="n">
+      <c r="D59" s="18" t="n">
         <v>409</v>
       </c>
-      <c r="E59" s="17" t="n">
+      <c r="E59" s="18" t="n">
         <v>621</v>
       </c>
-      <c r="F59" s="18" t="n">
+      <c r="F59" s="19" t="n">
         <v>179</v>
       </c>
       <c r="G59" s="4"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
       <c r="N59" s="4"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
-      <c r="T59" s="16"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7"/>
-      <c r="B60" s="17" t="n">
+      <c r="B60" s="18" t="n">
         <v>56</v>
       </c>
-      <c r="C60" s="17" t="n">
+      <c r="C60" s="18" t="n">
         <v>57</v>
       </c>
-      <c r="D60" s="17" t="n">
+      <c r="D60" s="18" t="n">
         <v>228</v>
       </c>
-      <c r="E60" s="17" t="n">
+      <c r="E60" s="18" t="n">
         <v>452</v>
       </c>
-      <c r="F60" s="18" t="n">
+      <c r="F60" s="19" t="n">
         <v>435</v>
       </c>
       <c r="G60" s="4"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
       <c r="N60" s="4"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7"/>
-      <c r="B61" s="17" t="n">
+      <c r="B61" s="18" t="n">
         <v>646</v>
       </c>
-      <c r="C61" s="17" t="n">
+      <c r="C61" s="18" t="n">
         <v>406</v>
       </c>
-      <c r="D61" s="17" t="n">
+      <c r="D61" s="18" t="n">
         <v>48</v>
       </c>
-      <c r="E61" s="17" t="n">
+      <c r="E61" s="18" t="n">
         <v>169</v>
       </c>
-      <c r="F61" s="18" t="n">
+      <c r="F61" s="19" t="n">
         <v>215</v>
       </c>
       <c r="G61" s="4"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
       <c r="N61" s="4"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="16"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7"/>
-      <c r="B62" s="17" t="n">
+      <c r="B62" s="18" t="n">
         <v>75</v>
       </c>
-      <c r="C62" s="17" t="n">
+      <c r="C62" s="18" t="n">
         <v>324</v>
       </c>
-      <c r="D62" s="17" t="n">
+      <c r="D62" s="18" t="n">
         <v>517</v>
       </c>
-      <c r="E62" s="17" t="n">
+      <c r="E62" s="18" t="n">
         <v>649</v>
       </c>
-      <c r="F62" s="18" t="n">
+      <c r="F62" s="19" t="n">
         <v>678</v>
       </c>
       <c r="G62" s="4"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
       <c r="N62" s="4"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-      <c r="T62" s="16"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7"/>
-      <c r="B63" s="15" t="n">
+      <c r="B63" s="16" t="n">
         <v>420</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="17"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
       <c r="N63" s="4"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="19" t="n">
+      <c r="B64" s="20" t="n">
         <v>53</v>
       </c>
-      <c r="C64" s="19" t="n">
+      <c r="C64" s="20" t="n">
         <v>134</v>
       </c>
-      <c r="D64" s="19" t="n">
+      <c r="D64" s="20" t="n">
         <v>581</v>
       </c>
-      <c r="E64" s="19" t="n">
+      <c r="E64" s="20" t="n">
         <v>152</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
       <c r="N64" s="4"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="19" t="n">
+      <c r="B65" s="20" t="n">
         <v>334</v>
       </c>
-      <c r="C65" s="19" t="n">
+      <c r="C65" s="20" t="n">
         <v>376</v>
       </c>
-      <c r="D65" s="19" t="n">
+      <c r="D65" s="20" t="n">
         <v>659</v>
       </c>
-      <c r="E65" s="19"/>
+      <c r="E65" s="20"/>
       <c r="F65" s="9"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
       <c r="N65" s="4"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B66" s="19" t="n">
+      <c r="B66" s="20" t="n">
         <v>343</v>
       </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
       <c r="F66" s="9"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
       <c r="N66" s="4"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
@@ -3562,47 +3562,47 @@
         <v>402</v>
       </c>
       <c r="G67" s="4"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
       <c r="N67" s="4"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="16"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7"/>
-      <c r="B68" s="15" t="n">
+      <c r="B68" s="16" t="n">
         <v>321</v>
       </c>
-      <c r="C68" s="15" t="n">
+      <c r="C68" s="16" t="n">
         <v>84</v>
       </c>
-      <c r="D68" s="15" t="n">
+      <c r="D68" s="16" t="n">
         <v>85</v>
       </c>
-      <c r="E68" s="15"/>
-      <c r="F68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="17"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
       <c r="N68" s="4"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="46">

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -781,7 +781,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -939,19 +939,19 @@
       <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="12" t="n">
+      <c r="I4" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="J4" s="12" t="n">
+      <c r="J4" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="K4" s="12" t="n">
+      <c r="K4" s="10" t="n">
         <v>80</v>
       </c>
-      <c r="L4" s="12" t="n">
+      <c r="L4" s="10" t="n">
         <v>83</v>
       </c>
-      <c r="M4" s="13" t="n">
+      <c r="M4" s="11" t="n">
         <v>82</v>
       </c>
       <c r="N4" s="4"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -665,15 +665,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -781,7 +781,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -989,7 +989,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="4"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="18" t="n">
+      <c r="I5" s="21" t="n">
         <v>611</v>
       </c>
       <c r="J5" s="18" t="n">
@@ -1259,23 +1259,23 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
       <c r="N11" s="4"/>
       <c r="O11" s="7"/>
       <c r="P11" s="16" t="n">
@@ -1349,16 +1349,16 @@
       <c r="F13" s="9"/>
       <c r="G13" s="4"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="23" t="n">
+      <c r="I13" s="21" t="n">
         <v>563</v>
       </c>
-      <c r="J13" s="23" t="n">
+      <c r="J13" s="21" t="n">
         <v>617</v>
       </c>
-      <c r="K13" s="23" t="n">
+      <c r="K13" s="21" t="n">
         <v>508</v>
       </c>
-      <c r="L13" s="23" t="n">
+      <c r="L13" s="21" t="n">
         <v>572</v>
       </c>
       <c r="M13" s="24" t="n">
@@ -1489,16 +1489,16 @@
       <c r="F16" s="9"/>
       <c r="G16" s="4"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="23" t="n">
+      <c r="I16" s="21" t="n">
         <v>671</v>
       </c>
-      <c r="J16" s="23" t="n">
+      <c r="J16" s="21" t="n">
         <v>513</v>
       </c>
-      <c r="K16" s="23" t="n">
+      <c r="K16" s="21" t="n">
         <v>515</v>
       </c>
-      <c r="L16" s="23" t="n">
+      <c r="L16" s="21" t="n">
         <v>637</v>
       </c>
       <c r="M16" s="24" t="n">
@@ -1545,16 +1545,16 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="23" t="n">
+      <c r="I17" s="21" t="n">
         <v>107</v>
       </c>
-      <c r="J17" s="23" t="n">
+      <c r="J17" s="21" t="n">
         <v>257</v>
       </c>
-      <c r="K17" s="23" t="n">
+      <c r="K17" s="21" t="n">
         <v>623</v>
       </c>
-      <c r="L17" s="23" t="n">
+      <c r="L17" s="21" t="n">
         <v>653</v>
       </c>
       <c r="M17" s="24" t="n">
@@ -1593,16 +1593,16 @@
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="23" t="n">
+      <c r="I18" s="21" t="n">
         <v>111</v>
       </c>
-      <c r="J18" s="23" t="n">
+      <c r="J18" s="21" t="n">
         <v>112</v>
       </c>
-      <c r="K18" s="23" t="n">
+      <c r="K18" s="21" t="n">
         <v>113</v>
       </c>
-      <c r="L18" s="23" t="n">
+      <c r="L18" s="21" t="n">
         <v>129</v>
       </c>
       <c r="M18" s="24" t="n">
@@ -1635,16 +1635,16 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="23" t="n">
+      <c r="I19" s="21" t="n">
         <v>199</v>
       </c>
       <c r="J19" s="18" t="n">
         <v>655</v>
       </c>
-      <c r="K19" s="23" t="n">
+      <c r="K19" s="21" t="n">
         <v>116</v>
       </c>
-      <c r="L19" s="23" t="n">
+      <c r="L19" s="21" t="n">
         <v>117</v>
       </c>
       <c r="M19" s="19"/>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
-      <c r="B22" s="23" t="n">
+      <c r="B22" s="21" t="n">
         <v>8</v>
       </c>
       <c r="C22" s="18" t="n">
@@ -1867,16 +1867,16 @@
       <c r="F24" s="9"/>
       <c r="G24" s="4"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="23" t="n">
+      <c r="I24" s="21" t="n">
         <v>98</v>
       </c>
-      <c r="J24" s="23" t="n">
+      <c r="J24" s="21" t="n">
         <v>173</v>
       </c>
-      <c r="K24" s="23" t="n">
+      <c r="K24" s="21" t="n">
         <v>669</v>
       </c>
-      <c r="L24" s="23" t="n">
+      <c r="L24" s="21" t="n">
         <v>450</v>
       </c>
       <c r="M24" s="24" t="n">
@@ -2083,14 +2083,14 @@
       <c r="T28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="4"/>
       <c r="H29" s="7" t="s">
         <v>54</v>
@@ -2186,14 +2186,14 @@
         <v>190</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
       <c r="N31" s="4"/>
       <c r="O31" s="7" t="s">
         <v>60</v>
@@ -2355,16 +2355,16 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="23" t="n">
+      <c r="I35" s="21" t="n">
         <v>52</v>
       </c>
-      <c r="J35" s="23" t="n">
+      <c r="J35" s="21" t="n">
         <v>77</v>
       </c>
-      <c r="K35" s="23" t="n">
+      <c r="K35" s="21" t="n">
         <v>39</v>
       </c>
-      <c r="L35" s="23" t="n">
+      <c r="L35" s="21" t="n">
         <v>216</v>
       </c>
       <c r="M35" s="24" t="n">
@@ -2403,10 +2403,10 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="23" t="n">
+      <c r="I36" s="21" t="n">
         <v>46</v>
       </c>
-      <c r="J36" s="23" t="n">
+      <c r="J36" s="21" t="n">
         <v>47</v>
       </c>
       <c r="K36" s="18" t="n">
@@ -2443,16 +2443,16 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="23" t="n">
+      <c r="I37" s="21" t="n">
         <v>491</v>
       </c>
-      <c r="J37" s="23" t="n">
+      <c r="J37" s="21" t="n">
         <v>78</v>
       </c>
-      <c r="K37" s="23" t="n">
+      <c r="K37" s="21" t="n">
         <v>90</v>
       </c>
-      <c r="L37" s="23" t="n">
+      <c r="L37" s="21" t="n">
         <v>79</v>
       </c>
       <c r="M37" s="19" t="n">
@@ -2477,14 +2477,14 @@
       <c r="T37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="4"/>
       <c r="H38" s="7"/>
       <c r="I38" s="15" t="n">
@@ -2673,23 +2673,23 @@
       <c r="T42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
       <c r="G43" s="4"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="23" t="n">
+      <c r="I43" s="21" t="n">
         <v>130</v>
       </c>
-      <c r="J43" s="23" t="n">
+      <c r="J43" s="21" t="n">
         <v>417</v>
       </c>
-      <c r="K43" s="23" t="n">
+      <c r="K43" s="21" t="n">
         <v>529</v>
       </c>
       <c r="L43" s="18" t="n">
@@ -2888,14 +2888,14 @@
       <c r="E48" s="20"/>
       <c r="F48" s="9"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="22" t="s">
+      <c r="H48" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
       <c r="N48" s="4"/>
       <c r="O48" s="7" t="s">
         <v>101</v>
@@ -2911,14 +2911,14 @@
       <c r="T48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
       <c r="G49" s="4"/>
       <c r="H49" s="7" t="s">
         <v>103</v>
@@ -2997,13 +2997,13 @@
       <c r="B51" s="18" t="n">
         <v>500</v>
       </c>
-      <c r="C51" s="23" t="n">
+      <c r="C51" s="21" t="n">
         <v>290</v>
       </c>
-      <c r="D51" s="23" t="n">
+      <c r="D51" s="21" t="n">
         <v>532</v>
       </c>
-      <c r="E51" s="23" t="n">
+      <c r="E51" s="21" t="n">
         <v>205</v>
       </c>
       <c r="F51" s="19" t="n">
@@ -3225,14 +3225,14 @@
       <c r="T56" s="17"/>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
       <c r="G57" s="4"/>
       <c r="H57" s="7" t="s">
         <v>117</v>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC626C8E-B7AC-455E-B081-2308814D5613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF58DDFB-9A60-4B91-889A-B5B92B8E156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2448" yWindow="1788" windowWidth="17280" windowHeight="11172" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -603,45 +603,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -707,6 +668,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,2861 +1093,2831 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="14" customWidth="1"/>
-    <col min="2" max="6" width="8.88671875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
+    <col min="2" max="6" width="8.88671875" style="2" customWidth="1"/>
     <col min="8" max="8" width="26.77734375" customWidth="1"/>
     <col min="15" max="15" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="11" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="10" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="4">
         <v>485</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="4">
         <v>495</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="4">
         <v>414</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="4">
         <v>628</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="9" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="6">
         <v>345</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="6">
         <v>680</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="6">
         <v>167</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="6">
         <v>15</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="7">
         <v>16</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="9" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="8">
         <v>509</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="Q2" s="8">
         <v>70</v>
       </c>
-      <c r="R2" s="21">
+      <c r="R2" s="8">
         <v>338</v>
       </c>
-      <c r="S2" s="21">
+      <c r="S2" s="8">
         <v>45</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2" s="9">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="6">
         <v>645</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="6">
         <v>697</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="6">
         <v>448</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="6">
         <v>442</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="23">
+      <c r="G3" s="33"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="10">
         <v>18</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="10">
         <v>11</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="11">
         <v>42</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="26">
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="13">
         <v>198</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="13">
         <v>213</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="13">
         <v>650</v>
       </c>
-      <c r="S3" s="26">
+      <c r="S3" s="13">
         <v>91</v>
       </c>
-      <c r="T3" s="27">
+      <c r="T3" s="14">
         <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="24">
+      <c r="A4" s="35"/>
+      <c r="B4" s="11">
         <v>274</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="6">
         <v>27</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="6">
         <v>26</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="6">
         <v>80</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="6">
         <v>83</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="7">
         <v>82</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="26">
+      <c r="N4" s="33"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="13">
         <v>552</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="13">
         <v>123</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="13">
         <v>188</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="13">
         <v>309</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="14">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="4">
         <v>453</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="15">
         <v>665</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="15">
         <v>283</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="29">
+      <c r="E5" s="15"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="16">
         <v>611</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="20">
         <v>187</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="13">
         <v>643</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="13">
         <v>674</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="22">
         <v>209</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="24">
+      <c r="N5" s="33"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="11">
         <v>264</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="11">
         <v>313</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="11">
         <v>403</v>
       </c>
-      <c r="S5" s="24"/>
-      <c r="T5" s="25"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="4">
         <v>118</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="4">
         <v>119</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="15">
         <v>661</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="15">
         <v>598</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="5">
         <v>419</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="33">
+      <c r="G6" s="33"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="20">
         <v>3</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="13">
         <v>438</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="13">
         <v>567</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="13">
         <v>424</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="22">
         <v>76</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="9" t="s">
+      <c r="N6" s="33"/>
+      <c r="O6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="8">
         <v>689</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="8">
         <v>413</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="8">
         <v>446</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="8">
         <v>368</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="9">
         <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="4">
         <v>189</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="15">
         <v>396</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="34">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="21">
         <v>30</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="24">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="11">
         <v>279</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="25"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="15">
         <v>54</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="15">
         <v>59</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="15">
         <v>498</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="16" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="15">
         <v>86</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="15">
         <v>328</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="15">
         <v>160</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="15">
         <v>88</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="5">
         <v>475</v>
       </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="16" t="s">
+      <c r="N8" s="33"/>
+      <c r="O8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="15">
         <v>322</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="15">
         <v>518</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="15">
         <v>474</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="15">
         <v>494</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="5">
         <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="15">
         <v>566</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="4">
         <v>48</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="15">
         <v>73</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="15">
         <v>289</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="9" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="8">
         <v>141</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="8">
         <v>142</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="8">
         <v>143</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="8">
         <v>234</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="9" t="s">
+      <c r="N9" s="33"/>
+      <c r="O9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="8">
         <v>62</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="8">
         <v>63</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="8">
         <v>64</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="8">
         <v>120</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="9">
         <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="4">
         <v>303</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="4">
         <v>304</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="4">
         <v>238</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="24">
+      <c r="E10" s="15"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="11">
         <v>287</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="26">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="13">
         <v>688</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="13">
         <v>221</v>
       </c>
-      <c r="R10" s="26">
+      <c r="R10" s="13">
         <v>629</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="13">
         <v>174</v>
       </c>
-      <c r="T10" s="27">
+      <c r="T10" s="14">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="6" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="24">
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="11">
         <v>329</v>
       </c>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="12"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="4">
         <v>520</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="9" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="6">
         <v>100</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="6">
         <v>222</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="6">
         <v>101</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="6">
         <v>226</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="7">
         <v>437</v>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="9" t="s">
+      <c r="N12" s="33"/>
+      <c r="O12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="8">
         <v>583</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="8">
         <v>72</v>
       </c>
-      <c r="R12" s="21">
+      <c r="R12" s="8">
         <v>97</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="8">
         <v>115</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="9">
         <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="4">
         <v>125</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="29">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="16">
         <v>563</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="16">
         <v>617</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="16">
         <v>508</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="16">
         <v>572</v>
       </c>
-      <c r="M13" s="30">
+      <c r="M13" s="17">
         <v>543</v>
       </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="26">
+      <c r="N13" s="33"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="13">
         <v>132</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="Q13" s="13">
         <v>131</v>
       </c>
-      <c r="R13" s="26">
+      <c r="R13" s="13">
         <v>139</v>
       </c>
-      <c r="S13" s="26">
+      <c r="S13" s="13">
         <v>140</v>
       </c>
-      <c r="T13" s="27">
+      <c r="T13" s="14">
         <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="4">
         <v>14</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="23">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="10">
         <v>654</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="10">
         <v>687</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="10">
         <v>87</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="24">
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="11">
         <v>10</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="11">
         <v>44</v>
       </c>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="25"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="12"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="4">
         <v>434</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="4">
         <v>58</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="5" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="6">
         <v>102</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="6">
         <v>429</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="6">
         <v>690</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="6">
         <v>559</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="7">
         <v>662</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="16" t="s">
+      <c r="N15" s="33"/>
+      <c r="O15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="15">
         <v>464</v>
       </c>
-      <c r="Q15" s="28">
+      <c r="Q15" s="15">
         <v>691</v>
       </c>
-      <c r="R15" s="28">
+      <c r="R15" s="15">
         <v>698</v>
       </c>
-      <c r="S15" s="28">
+      <c r="S15" s="15">
         <v>638</v>
       </c>
-      <c r="T15" s="18">
+      <c r="T15" s="5">
         <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="4">
         <v>344</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="4">
         <v>541</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="4">
         <v>557</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="4">
         <v>151</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="29">
+      <c r="F16" s="5"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="16">
         <v>671</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="16">
         <v>513</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="16">
         <v>515</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="16">
         <v>637</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="17">
         <v>103</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="16" t="s">
+      <c r="N16" s="33"/>
+      <c r="O16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="28">
+      <c r="P16" s="15">
         <v>486</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="Q16" s="15">
         <v>664</v>
       </c>
-      <c r="R16" s="28">
+      <c r="R16" s="15">
         <v>375</v>
       </c>
-      <c r="S16" s="28">
+      <c r="S16" s="15">
         <v>312</v>
       </c>
-      <c r="T16" s="18">
+      <c r="T16" s="5">
         <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="6">
         <v>387</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="6">
         <v>389</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="8">
         <v>383</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="6">
         <v>242</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="7">
         <v>49</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="29">
+      <c r="G17" s="33"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="16">
         <v>107</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="16">
         <v>257</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="16">
         <v>623</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="16">
         <v>653</v>
       </c>
-      <c r="M17" s="30">
+      <c r="M17" s="17">
         <v>104</v>
       </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="16" t="s">
+      <c r="N17" s="33"/>
+      <c r="O17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="28">
+      <c r="P17" s="15">
         <v>337</v>
       </c>
-      <c r="Q17" s="28">
+      <c r="Q17" s="15">
         <v>124</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="18"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="26">
+      <c r="A18" s="24"/>
+      <c r="B18" s="13">
         <v>451</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="13">
         <v>423</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="13">
         <v>657</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="13">
         <v>551</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="14">
         <v>696</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="29">
+      <c r="G18" s="33"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="16">
         <v>111</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="16">
         <v>112</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="16">
         <v>113</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="16">
         <v>129</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18" s="17">
         <v>404</v>
       </c>
-      <c r="N18" s="12"/>
-      <c r="O18" s="16" t="s">
+      <c r="N18" s="33"/>
+      <c r="O18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="28">
+      <c r="P18" s="15">
         <v>233</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="Q18" s="15">
         <v>600</v>
       </c>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="18"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="24">
+      <c r="A19" s="24"/>
+      <c r="B19" s="11">
         <v>467</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="11">
         <v>535</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="29">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="16">
         <v>199</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="13">
         <v>655</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="16">
         <v>116</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="16">
         <v>117</v>
       </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="4" t="s">
+      <c r="M19" s="14"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="8">
         <v>299</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="8">
         <v>412</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="8">
         <v>506</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="8">
         <v>539</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="16" t="s">
+      <c r="G20" s="33"/>
+      <c r="H20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="4">
         <v>144</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="4">
         <v>589</v>
       </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="9" t="s">
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="P20" s="21">
+      <c r="P20" s="8">
         <v>225</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Q20" s="8">
         <v>232</v>
       </c>
-      <c r="R20" s="21">
+      <c r="R20" s="8">
         <v>284</v>
       </c>
-      <c r="S20" s="21">
+      <c r="S20" s="8">
         <v>622</v>
       </c>
-      <c r="T20" s="22">
+      <c r="T20" s="9">
         <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="26">
+      <c r="A21" s="24"/>
+      <c r="B21" s="13">
         <v>537</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="13">
         <v>592</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="13">
         <v>640</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="13">
         <v>38</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="14">
         <v>443</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="16" t="s">
+      <c r="G21" s="33"/>
+      <c r="H21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="4">
         <v>606</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="15">
         <v>331</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="15">
         <v>652</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L21" s="15">
         <v>297</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="5">
         <v>449</v>
       </c>
-      <c r="N21" s="12"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="24">
+      <c r="N21" s="33"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="11">
         <v>155</v>
       </c>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="25"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="12"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="29">
+      <c r="A22" s="24"/>
+      <c r="B22" s="16">
         <v>8</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="13">
         <v>13</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="13">
         <v>12</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="13">
         <v>273</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="14">
         <v>165</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="16" t="s">
+      <c r="G22" s="33"/>
+      <c r="H22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="4">
         <v>145</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="4">
         <v>590</v>
       </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="16" t="s">
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P22" s="28">
+      <c r="P22" s="15">
         <v>676</v>
       </c>
-      <c r="Q22" s="28">
+      <c r="Q22" s="15">
         <v>355</v>
       </c>
-      <c r="R22" s="28">
+      <c r="R22" s="15">
         <v>380</v>
       </c>
-      <c r="S22" s="28">
+      <c r="S22" s="15">
         <v>381</v>
       </c>
-      <c r="T22" s="18"/>
+      <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="24">
+      <c r="A23" s="24"/>
+      <c r="B23" s="11">
         <v>481</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="9" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="6">
         <v>94</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="6">
         <v>700</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="6">
         <v>530</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="6">
         <v>538</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="7">
         <v>230</v>
       </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="16" t="s">
+      <c r="N23" s="33"/>
+      <c r="O23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P23" s="28">
+      <c r="P23" s="15">
         <v>432</v>
       </c>
-      <c r="Q23" s="28">
+      <c r="Q23" s="15">
         <v>146</v>
       </c>
-      <c r="R23" s="28">
+      <c r="R23" s="15">
         <v>460</v>
       </c>
-      <c r="S23" s="28"/>
-      <c r="T23" s="18"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="15">
         <v>392</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="15">
         <v>524</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="15">
         <v>521</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="15">
         <v>522</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="29">
+      <c r="F24" s="5"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="16">
         <v>98</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="16">
         <v>173</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="16">
         <v>669</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L24" s="16">
         <v>450</v>
       </c>
-      <c r="M24" s="30">
+      <c r="M24" s="17">
         <v>110</v>
       </c>
-      <c r="N24" s="12"/>
-      <c r="O24" s="9" t="s">
+      <c r="N24" s="33"/>
+      <c r="O24" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P24" s="8">
         <v>208</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="Q24" s="8">
         <v>211</v>
       </c>
-      <c r="R24" s="21">
+      <c r="R24" s="8">
         <v>648</v>
       </c>
-      <c r="S24" s="21">
+      <c r="S24" s="8">
         <v>386</v>
       </c>
-      <c r="T24" s="22">
+      <c r="T24" s="9">
         <v>677</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="15">
         <v>66</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="15">
         <v>67</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="15">
         <v>415</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="15">
         <v>43</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="5">
         <v>306</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="24">
+      <c r="G25" s="33"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="11">
         <v>95</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="10">
         <v>108</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="10">
         <v>109</v>
       </c>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="24">
+      <c r="L25" s="11"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="11">
         <v>472</v>
       </c>
-      <c r="Q25" s="24">
+      <c r="Q25" s="11">
         <v>421</v>
       </c>
-      <c r="R25" s="24">
+      <c r="R25" s="11">
         <v>212</v>
       </c>
-      <c r="S25" s="24">
+      <c r="S25" s="11">
         <v>336</v>
       </c>
-      <c r="T25" s="25">
+      <c r="T25" s="12">
         <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="15">
         <v>482</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="15">
         <v>6</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="15">
         <v>68</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="16" t="s">
+      <c r="E26" s="15"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="4">
         <v>105</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="4">
         <v>106</v>
       </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="9" t="s">
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="P26" s="21">
+      <c r="P26" s="8">
         <v>23</v>
       </c>
-      <c r="Q26" s="21">
+      <c r="Q26" s="8">
         <v>373</v>
       </c>
-      <c r="R26" s="21">
+      <c r="R26" s="8">
         <v>378</v>
       </c>
-      <c r="S26" s="21">
+      <c r="S26" s="8">
         <v>632</v>
       </c>
-      <c r="T26" s="22">
+      <c r="T26" s="9">
         <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="15">
         <v>28</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="15">
         <v>686</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="15">
         <v>459</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="15">
         <v>214</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="16" t="s">
+      <c r="F27" s="5"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="4">
         <v>114</v>
       </c>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="26">
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="13">
         <v>692</v>
       </c>
-      <c r="Q27" s="26">
+      <c r="Q27" s="13">
         <v>502</v>
       </c>
-      <c r="R27" s="26">
+      <c r="R27" s="13">
         <v>630</v>
       </c>
-      <c r="S27" s="26">
+      <c r="S27" s="13">
         <v>407</v>
       </c>
-      <c r="T27" s="27">
+      <c r="T27" s="14">
         <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="15">
         <v>5</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="15">
         <v>647</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="16" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="4">
         <v>235</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="4">
         <v>236</v>
       </c>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="24">
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="11">
         <v>480</v>
       </c>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="25"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="12"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="16" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="4">
         <v>501</v>
       </c>
-      <c r="J29" s="28">
+      <c r="J29" s="15">
         <v>99</v>
       </c>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="16" t="s">
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P29" s="28">
+      <c r="P29" s="15">
         <v>307</v>
       </c>
-      <c r="Q29" s="28">
+      <c r="Q29" s="15">
         <v>315</v>
       </c>
-      <c r="R29" s="28">
+      <c r="R29" s="15">
         <v>493</v>
       </c>
-      <c r="S29" s="28">
+      <c r="S29" s="15">
         <v>327</v>
       </c>
-      <c r="T29" s="18">
+      <c r="T29" s="5">
         <v>673</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="8">
         <v>7</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="8">
         <v>9</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="8">
         <v>479</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="8">
         <v>564</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="16" t="s">
+      <c r="G30" s="33"/>
+      <c r="H30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="15">
         <v>558</v>
       </c>
-      <c r="J30" s="28">
+      <c r="J30" s="15">
         <v>427</v>
       </c>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="16" t="s">
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="28">
+      <c r="P30" s="15">
         <v>699</v>
       </c>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="18"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="5"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="26">
+      <c r="A31" s="24"/>
+      <c r="B31" s="13">
         <v>342</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="13">
         <v>326</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="13">
         <v>504</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="13">
         <v>263</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="14">
         <v>190</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="6" t="s">
+      <c r="G31" s="33"/>
+      <c r="H31" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="16" t="s">
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P31" s="28">
+      <c r="P31" s="15">
         <v>352</v>
       </c>
-      <c r="Q31" s="28">
+      <c r="Q31" s="15">
         <v>218</v>
       </c>
-      <c r="R31" s="28">
+      <c r="R31" s="15">
         <v>363</v>
       </c>
-      <c r="S31" s="28"/>
-      <c r="T31" s="18"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="5"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="26">
+      <c r="A32" s="24"/>
+      <c r="B32" s="13">
         <v>191</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="13">
         <v>476</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="13">
         <v>461</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="13">
         <v>477</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="14">
         <v>693</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="16" t="s">
+      <c r="G32" s="33"/>
+      <c r="H32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="4">
         <v>565</v>
       </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="4" t="s">
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="26">
+      <c r="A33" s="24"/>
+      <c r="B33" s="13">
         <v>393</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="13">
         <v>172</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="13">
         <v>458</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="13">
         <v>258</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="14">
         <v>319</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="16" t="s">
+      <c r="G33" s="33"/>
+      <c r="H33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="4">
         <v>17</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="4">
         <v>397</v>
       </c>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="16" t="s">
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P33" s="28">
+      <c r="P33" s="15">
         <v>528</v>
       </c>
-      <c r="Q33" s="28">
+      <c r="Q33" s="15">
         <v>497</v>
       </c>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="18"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="5"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="26">
+      <c r="A34" s="24"/>
+      <c r="B34" s="13">
         <v>405</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="13">
         <v>171</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="13">
         <v>168</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="13">
         <v>670</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="14">
         <v>233</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="9" t="s">
+      <c r="G34" s="33"/>
+      <c r="H34" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="6">
         <v>526</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="8">
         <v>401</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="8">
         <v>36</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="8">
         <v>37</v>
       </c>
-      <c r="M34" s="20">
+      <c r="M34" s="7">
         <v>51</v>
       </c>
-      <c r="N34" s="12"/>
-      <c r="O34" s="16" t="s">
+      <c r="N34" s="33"/>
+      <c r="O34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P34" s="28">
+      <c r="P34" s="15">
         <v>382</v>
       </c>
-      <c r="Q34" s="28">
+      <c r="Q34" s="15">
         <v>398</v>
       </c>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="18"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="5"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="24">
+      <c r="A35" s="24"/>
+      <c r="B35" s="11">
         <v>357</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="11">
         <v>400</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="29">
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="16">
         <v>52</v>
       </c>
-      <c r="J35" s="29">
+      <c r="J35" s="16">
         <v>77</v>
       </c>
-      <c r="K35" s="29">
+      <c r="K35" s="16">
         <v>39</v>
       </c>
-      <c r="L35" s="29">
+      <c r="L35" s="16">
         <v>216</v>
       </c>
-      <c r="M35" s="30">
+      <c r="M35" s="17">
         <v>40</v>
       </c>
-      <c r="N35" s="12"/>
-      <c r="O35" s="16" t="s">
+      <c r="N35" s="33"/>
+      <c r="O35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="P35" s="28">
+      <c r="P35" s="15">
         <v>470</v>
       </c>
-      <c r="Q35" s="28">
+      <c r="Q35" s="15">
         <v>478</v>
       </c>
-      <c r="R35" s="28">
+      <c r="R35" s="15">
         <v>519</v>
       </c>
-      <c r="S35" s="28"/>
-      <c r="T35" s="18"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="5"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="15">
         <v>492</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="15">
         <v>29</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="15">
         <v>507</v>
       </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="29">
+      <c r="E36" s="15"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="16">
         <v>46</v>
       </c>
-      <c r="J36" s="29">
+      <c r="J36" s="16">
         <v>47</v>
       </c>
-      <c r="K36" s="26">
+      <c r="K36" s="13">
         <v>31</v>
       </c>
-      <c r="L36" s="26">
+      <c r="L36" s="13">
         <v>556</v>
       </c>
-      <c r="M36" s="30">
+      <c r="M36" s="17">
         <v>60</v>
       </c>
-      <c r="N36" s="12"/>
-      <c r="O36" s="10" t="s">
+      <c r="N36" s="33"/>
+      <c r="O36" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="15">
         <v>50</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="15">
         <v>372</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="29">
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="16">
         <v>491</v>
       </c>
-      <c r="J37" s="29">
+      <c r="J37" s="16">
         <v>78</v>
       </c>
-      <c r="K37" s="29">
+      <c r="K37" s="16">
         <v>90</v>
       </c>
-      <c r="L37" s="29">
+      <c r="L37" s="16">
         <v>79</v>
       </c>
-      <c r="M37" s="27">
+      <c r="M37" s="14">
         <v>93</v>
       </c>
-      <c r="N37" s="12"/>
-      <c r="O37" s="16" t="s">
+      <c r="N37" s="33"/>
+      <c r="O37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="P37" s="28">
+      <c r="P37" s="15">
         <v>593</v>
       </c>
-      <c r="Q37" s="28">
+      <c r="Q37" s="15">
         <v>447</v>
       </c>
-      <c r="R37" s="28">
+      <c r="R37" s="15">
         <v>223</v>
       </c>
-      <c r="S37" s="28">
+      <c r="S37" s="15">
         <v>149</v>
       </c>
-      <c r="T37" s="18"/>
+      <c r="T37" s="5"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="23">
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="10">
         <v>332</v>
       </c>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="16" t="s">
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P38" s="28">
+      <c r="P38" s="15">
         <v>335</v>
       </c>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="18"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="5"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="4">
         <v>682</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="15">
         <v>71</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="15">
         <v>388</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="16" t="s">
+      <c r="E39" s="15"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="15">
         <v>241</v>
       </c>
-      <c r="J39" s="28">
+      <c r="J39" s="15">
         <v>282</v>
       </c>
-      <c r="K39" s="28">
+      <c r="K39" s="15">
         <v>679</v>
       </c>
-      <c r="L39" s="28"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="16" t="s">
+      <c r="L39" s="15"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="P39" s="28">
+      <c r="P39" s="15">
         <v>587</v>
       </c>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="18"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="5"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="4">
         <v>150</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="4">
         <v>227</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D40" s="15">
         <v>224</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="16" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="15">
         <v>22</v>
       </c>
-      <c r="J40" s="28">
+      <c r="J40" s="15">
         <v>301</v>
       </c>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="16" t="s">
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P40" s="28">
+      <c r="P40" s="15">
         <v>391</v>
       </c>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="18"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="5"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="4">
         <v>20</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="15">
         <v>636</v>
       </c>
-      <c r="D41" s="28">
+      <c r="D41" s="15">
         <v>591</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="15">
         <v>32</v>
       </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="16" t="s">
+      <c r="F41" s="5"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="15">
         <v>488</v>
       </c>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="4" t="s">
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42" s="15">
         <v>385</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="15">
         <v>341</v>
       </c>
-      <c r="D42" s="28">
+      <c r="D42" s="15">
         <v>394</v>
       </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="9" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I42" s="6">
         <v>133</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J42" s="6">
         <v>200</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K42" s="6">
         <v>695</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L42" s="6">
         <v>463</v>
       </c>
-      <c r="M42" s="20">
+      <c r="M42" s="7">
         <v>542</v>
       </c>
-      <c r="N42" s="12"/>
-      <c r="O42" s="16" t="s">
+      <c r="N42" s="33"/>
+      <c r="O42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="P42" s="28">
+      <c r="P42" s="15">
         <v>292</v>
       </c>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="18"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="5"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="29">
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="16">
         <v>130</v>
       </c>
-      <c r="J43" s="29">
+      <c r="J43" s="16">
         <v>417</v>
       </c>
-      <c r="K43" s="29">
+      <c r="K43" s="16">
         <v>529</v>
       </c>
-      <c r="L43" s="26">
+      <c r="L43" s="13">
         <v>127</v>
       </c>
-      <c r="M43" s="27">
+      <c r="M43" s="14">
         <v>126</v>
       </c>
-      <c r="N43" s="12"/>
-      <c r="O43" s="16" t="s">
+      <c r="N43" s="33"/>
+      <c r="O43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="P43" s="28">
+      <c r="P43" s="15">
         <v>239</v>
       </c>
-      <c r="Q43" s="28">
+      <c r="Q43" s="15">
         <v>164</v>
       </c>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="18"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="5"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="4">
         <v>203</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="4">
         <v>237</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="4">
         <v>19</v>
       </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="24">
+      <c r="E44" s="15"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="11">
         <v>433</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J44" s="11">
         <v>675</v>
       </c>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="16" t="s">
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P44" s="28">
+      <c r="P44" s="15">
         <v>330</v>
       </c>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="18"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="5"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="15">
         <v>430</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="16" t="s">
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="4">
         <v>547</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="4">
         <v>684</v>
       </c>
-      <c r="K45" s="28">
+      <c r="K45" s="15">
         <v>685</v>
       </c>
-      <c r="L45" s="28"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="16" t="s">
+      <c r="L45" s="15"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="P45" s="28">
+      <c r="P45" s="15">
         <v>365</v>
       </c>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="18"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="5"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="4">
         <v>61</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="4">
         <v>24</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="4">
         <v>206</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="4">
         <v>92</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="5">
         <v>25</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="16" t="s">
+      <c r="G46" s="33"/>
+      <c r="H46" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I46" s="28">
+      <c r="I46" s="15">
         <v>399</v>
       </c>
-      <c r="J46" s="28">
+      <c r="J46" s="15">
         <v>207</v>
       </c>
-      <c r="K46" s="28">
+      <c r="K46" s="15">
         <v>210</v>
       </c>
-      <c r="L46" s="28"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="16" t="s">
+      <c r="L46" s="15"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P46" s="28">
+      <c r="P46" s="15">
         <v>384</v>
       </c>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="18"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="5"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="10">
         <v>2</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="10">
         <v>445</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="16" t="s">
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I47" s="28">
+      <c r="I47" s="15">
         <v>65</v>
       </c>
-      <c r="J47" s="28">
+      <c r="J47" s="15">
         <v>468</v>
       </c>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="16" t="s">
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="P47" s="28">
+      <c r="P47" s="15">
         <v>390</v>
       </c>
-      <c r="Q47" s="28">
+      <c r="Q47" s="15">
         <v>672</v>
       </c>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="18"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="5"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="4">
         <v>21</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="4">
         <v>23</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="6" t="s">
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="16" t="s">
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P48" s="28">
+      <c r="P48" s="15">
         <v>395</v>
       </c>
-      <c r="Q48" s="28">
+      <c r="Q48" s="15">
         <v>667</v>
       </c>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="18"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="5"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="9" t="s">
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="6">
         <v>374</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J49" s="6">
         <v>35</v>
       </c>
-      <c r="K49" s="19">
+      <c r="K49" s="6">
         <v>278</v>
       </c>
-      <c r="L49" s="19">
+      <c r="L49" s="6">
         <v>367</v>
       </c>
-      <c r="M49" s="20">
+      <c r="M49" s="7">
         <v>69</v>
       </c>
-      <c r="N49" s="12"/>
-      <c r="O49" s="16" t="s">
+      <c r="N49" s="33"/>
+      <c r="O49" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="P49" s="28">
+      <c r="P49" s="15">
         <v>147</v>
       </c>
-      <c r="Q49" s="28">
+      <c r="Q49" s="15">
         <v>148</v>
       </c>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="18"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="5"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="6">
         <v>217</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="6">
         <v>633</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="6">
         <v>349</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="6">
         <v>128</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="7">
         <v>202</v>
       </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="23">
+      <c r="G50" s="33"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="10">
         <v>441</v>
       </c>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="16" t="s">
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="P50" s="28">
+      <c r="P50" s="15">
         <v>204</v>
       </c>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="18"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="5"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="26">
+      <c r="A51" s="24"/>
+      <c r="B51" s="13">
         <v>500</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="16">
         <v>290</v>
       </c>
-      <c r="D51" s="29">
+      <c r="D51" s="16">
         <v>532</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="16">
         <v>205</v>
       </c>
-      <c r="F51" s="27">
+      <c r="F51" s="14">
         <v>166</v>
       </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="9" t="s">
+      <c r="G51" s="33"/>
+      <c r="H51" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I51" s="6">
         <v>34</v>
       </c>
-      <c r="J51" s="19">
+      <c r="J51" s="6">
         <v>540</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51" s="8">
         <v>275</v>
       </c>
-      <c r="L51" s="19">
+      <c r="L51" s="6">
         <v>436</v>
       </c>
-      <c r="M51" s="32">
+      <c r="M51" s="19">
         <v>300</v>
       </c>
-      <c r="N51" s="12"/>
-      <c r="O51" s="16" t="s">
+      <c r="N51" s="33"/>
+      <c r="O51" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="P51" s="28">
+      <c r="P51" s="15">
         <v>229</v>
       </c>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="18"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="5"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="24">
+      <c r="A52" s="24"/>
+      <c r="B52" s="11">
         <v>466</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="11">
         <v>138</v>
       </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="24">
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="11">
         <v>354</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="10">
         <v>658</v>
       </c>
-      <c r="K52" s="23">
+      <c r="K52" s="10">
         <v>162</v>
       </c>
-      <c r="L52" s="23">
+      <c r="L52" s="10">
         <v>4</v>
       </c>
-      <c r="M52" s="25"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="27"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="4">
         <v>1</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="4">
         <v>167</v>
       </c>
-      <c r="D53" s="28">
+      <c r="D53" s="15">
         <v>599</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="4">
         <v>219</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="5">
         <v>220</v>
       </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="16" t="s">
+      <c r="G53" s="33"/>
+      <c r="H53" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="4">
         <v>153</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="4">
         <v>154</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="4">
         <v>33</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L53" s="4">
         <v>81</v>
       </c>
-      <c r="M53" s="18"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="6">
         <v>594</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="6">
         <v>350</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="8">
         <v>554</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="8">
         <v>609</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="7">
         <v>454</v>
       </c>
-      <c r="G54" s="12"/>
-      <c r="H54" s="16" t="s">
+      <c r="G54" s="33"/>
+      <c r="H54" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="4">
         <v>74</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J54" s="4">
         <v>240</v>
       </c>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="23">
+      <c r="A55" s="24"/>
+      <c r="B55" s="10">
         <v>18</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="16" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="4">
         <v>378</v>
       </c>
-      <c r="J55" s="28">
+      <c r="J55" s="15">
         <v>668</v>
       </c>
-      <c r="K55" s="28">
+      <c r="K55" s="15">
         <v>410</v>
       </c>
-      <c r="L55" s="28">
+      <c r="L55" s="15">
         <v>483</v>
       </c>
-      <c r="M55" s="18"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="4">
         <v>560</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="4">
         <v>523</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="4">
         <v>525</v>
       </c>
-      <c r="E56" s="28"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="2" t="s">
+      <c r="E56" s="15"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="27"/>
+      <c r="T56" s="27"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="16" t="s">
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I57" s="28">
+      <c r="I57" s="15">
         <v>89</v>
       </c>
-      <c r="J57" s="28">
+      <c r="J57" s="15">
         <v>136</v>
       </c>
-      <c r="K57" s="28">
+      <c r="K57" s="15">
         <v>137</v>
       </c>
-      <c r="L57" s="28">
+      <c r="L57" s="15">
         <v>260</v>
       </c>
-      <c r="M57" s="18">
+      <c r="M57" s="5">
         <v>268</v>
       </c>
-      <c r="N57" s="12"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="21">
+      <c r="B58" s="8">
         <v>605</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="8">
         <v>121</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="8">
         <v>122</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="8">
         <v>561</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="16" t="s">
+      <c r="G58" s="33"/>
+      <c r="H58" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I58" s="28">
+      <c r="I58" s="15">
         <v>371</v>
       </c>
-      <c r="J58" s="28">
+      <c r="J58" s="15">
         <v>318</v>
       </c>
-      <c r="K58" s="28">
+      <c r="K58" s="15">
         <v>201</v>
       </c>
-      <c r="L58" s="28"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="27"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="26">
+      <c r="A59" s="24"/>
+      <c r="B59" s="13">
         <v>575</v>
       </c>
-      <c r="C59" s="26">
+      <c r="C59" s="13">
         <v>135</v>
       </c>
-      <c r="D59" s="26">
+      <c r="D59" s="13">
         <v>409</v>
       </c>
-      <c r="E59" s="26">
+      <c r="E59" s="13">
         <v>621</v>
       </c>
-      <c r="F59" s="27">
+      <c r="F59" s="14">
         <v>179</v>
       </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="27"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="26">
+      <c r="A60" s="24"/>
+      <c r="B60" s="13">
         <v>56</v>
       </c>
-      <c r="C60" s="26">
+      <c r="C60" s="13">
         <v>57</v>
       </c>
-      <c r="D60" s="26">
+      <c r="D60" s="13">
         <v>228</v>
       </c>
-      <c r="E60" s="26">
+      <c r="E60" s="13">
         <v>452</v>
       </c>
-      <c r="F60" s="27">
+      <c r="F60" s="14">
         <v>435</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="27"/>
+      <c r="T60" s="27"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="26">
+      <c r="A61" s="24"/>
+      <c r="B61" s="13">
         <v>646</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C61" s="13">
         <v>406</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D61" s="13">
         <v>48</v>
       </c>
-      <c r="E61" s="26">
+      <c r="E61" s="13">
         <v>169</v>
       </c>
-      <c r="F61" s="27">
+      <c r="F61" s="14">
         <v>215</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="27"/>
+      <c r="T61" s="27"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="26">
+      <c r="A62" s="24"/>
+      <c r="B62" s="13">
         <v>75</v>
       </c>
-      <c r="C62" s="26">
+      <c r="C62" s="13">
         <v>324</v>
       </c>
-      <c r="D62" s="26">
+      <c r="D62" s="13">
         <v>517</v>
       </c>
-      <c r="E62" s="26">
+      <c r="E62" s="13">
         <v>649</v>
       </c>
-      <c r="F62" s="27">
+      <c r="F62" s="14">
         <v>678</v>
       </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="27"/>
+      <c r="T62" s="27"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="24">
+      <c r="A63" s="24"/>
+      <c r="B63" s="11">
         <v>420</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="27"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="28">
+      <c r="B64" s="15">
         <v>53</v>
       </c>
-      <c r="C64" s="28">
+      <c r="C64" s="15">
         <v>134</v>
       </c>
-      <c r="D64" s="28">
+      <c r="D64" s="15">
         <v>581</v>
       </c>
-      <c r="E64" s="28">
+      <c r="E64" s="15">
         <v>152</v>
       </c>
-      <c r="F64" s="18"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="27"/>
+      <c r="T64" s="27"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="28">
+      <c r="B65" s="15">
         <v>334</v>
       </c>
-      <c r="C65" s="28">
+      <c r="C65" s="15">
         <v>376</v>
       </c>
-      <c r="D65" s="28">
+      <c r="D65" s="15">
         <v>659</v>
       </c>
-      <c r="E65" s="28"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="27"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B66" s="28">
+      <c r="B66" s="15">
         <v>343</v>
       </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="27"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B67" s="21">
+      <c r="B67" s="8">
         <v>496</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="8">
         <v>503</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="8">
         <v>456</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E67" s="8">
         <v>316</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="12"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="27"/>
+      <c r="S67" s="27"/>
+      <c r="T67" s="27"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="24">
+      <c r="A68" s="24"/>
+      <c r="B68" s="11">
         <v>321</v>
       </c>
-      <c r="C68" s="24">
+      <c r="C68" s="11">
         <v>84</v>
       </c>
-      <c r="D68" s="24">
+      <c r="D68" s="11">
         <v>85</v>
       </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="27"/>
+      <c r="S68" s="27"/>
+      <c r="T68" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="O52:T68"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="H59:M68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="O24:O25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:G68"/>
     <mergeCell ref="H1:M1"/>
@@ -3964,6 +3934,36 @@
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="O12:O14"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="O52:T68"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="H59:M68"/>
+    <mergeCell ref="A67:A68"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF58DDFB-9A60-4B91-889A-B5B92B8E156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A30157-CD78-4EE7-9ABD-099219C70E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2448" yWindow="1788" windowWidth="17280" windowHeight="11172" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,7 +599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,6 +707,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,7 +1096,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1307,10 +1310,10 @@
       <c r="J5" s="20">
         <v>187</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="20">
         <v>643</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="20">
         <v>674</v>
       </c>
       <c r="M5" s="22">
@@ -1354,10 +1357,10 @@
       <c r="I6" s="20">
         <v>3</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="20">
         <v>438</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="20">
         <v>567</v>
       </c>
       <c r="L6" s="13">
@@ -1437,7 +1440,7 @@
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="36">
         <v>86</v>
       </c>
       <c r="J8" s="15">

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A30157-CD78-4EE7-9ABD-099219C70E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AFB3A3-199B-448C-85E8-EB977C96A10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2448" yWindow="1788" windowWidth="17280" windowHeight="11172" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,16 +669,37 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -690,25 +711,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1096,7 +1102,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1108,32 +1114,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="30" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1152,8 +1158,8 @@
         <v>628</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="28" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="6">
@@ -1171,8 +1177,8 @@
       <c r="M2" s="7">
         <v>16</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="24" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="28" t="s">
         <v>5</v>
       </c>
       <c r="P2" s="8">
@@ -1192,7 +1198,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6">
@@ -1210,8 +1216,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1223,8 +1229,8 @@
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="28"/>
       <c r="P3" s="13">
         <v>198</v>
       </c>
@@ -1242,7 +1248,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="11">
         <v>274</v>
       </c>
@@ -1250,8 +1256,8 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="24" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="28" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="6">
@@ -1269,8 +1275,8 @@
       <c r="M4" s="7">
         <v>82</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="24"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="28"/>
       <c r="P4" s="13">
         <v>552</v>
       </c>
@@ -1302,8 +1308,8 @@
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="16">
         <v>611</v>
       </c>
@@ -1319,8 +1325,8 @@
       <c r="M5" s="22">
         <v>209</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="24"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="28"/>
       <c r="P5" s="11">
         <v>264</v>
       </c>
@@ -1352,8 +1358,8 @@
       <c r="F6" s="5">
         <v>419</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="20">
         <v>3</v>
       </c>
@@ -1369,8 +1375,8 @@
       <c r="M6" s="22">
         <v>76</v>
       </c>
-      <c r="N6" s="33"/>
-      <c r="O6" s="24" t="s">
+      <c r="N6" s="25"/>
+      <c r="O6" s="28" t="s">
         <v>10</v>
       </c>
       <c r="P6" s="8">
@@ -1402,8 +1408,8 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="21">
         <v>30</v>
       </c>
@@ -1411,8 +1417,8 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="24"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="28"/>
       <c r="P7" s="11">
         <v>279</v>
       </c>
@@ -1436,26 +1442,26 @@
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="33"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="23">
         <v>86</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="23">
         <v>328</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="23">
         <v>160</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="23">
         <v>88</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="37">
         <v>475</v>
       </c>
-      <c r="N8" s="33"/>
+      <c r="N8" s="25"/>
       <c r="O8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1492,11 +1498,11 @@
         <v>289</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="24" t="s">
+      <c r="G9" s="25"/>
+      <c r="H9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="38">
         <v>141</v>
       </c>
       <c r="J9" s="8">
@@ -1511,8 +1517,8 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="24" t="s">
+      <c r="N9" s="25"/>
+      <c r="O9" s="28" t="s">
         <v>17</v>
       </c>
       <c r="P9" s="8">
@@ -1546,8 +1552,8 @@
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="11">
         <v>287</v>
       </c>
@@ -1555,8 +1561,8 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="24"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="28"/>
       <c r="P10" s="13">
         <v>688</v>
       </c>
@@ -1574,25 +1580,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="26" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="24"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="28"/>
       <c r="P11" s="11">
         <v>329</v>
       </c>
@@ -1612,8 +1618,8 @@
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="24" t="s">
+      <c r="G12" s="25"/>
+      <c r="H12" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="6">
@@ -1631,8 +1637,8 @@
       <c r="M12" s="7">
         <v>437</v>
       </c>
-      <c r="N12" s="33"/>
-      <c r="O12" s="24" t="s">
+      <c r="N12" s="25"/>
+      <c r="O12" s="28" t="s">
         <v>23</v>
       </c>
       <c r="P12" s="8">
@@ -1662,8 +1668,8 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="16">
         <v>563</v>
       </c>
@@ -1679,8 +1685,8 @@
       <c r="M13" s="17">
         <v>543</v>
       </c>
-      <c r="N13" s="33"/>
-      <c r="O13" s="24"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="28"/>
       <c r="P13" s="13">
         <v>132</v>
       </c>
@@ -1708,8 +1714,8 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="10">
         <v>654</v>
       </c>
@@ -1721,8 +1727,8 @@
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="24"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="28"/>
       <c r="P14" s="11">
         <v>10</v>
       </c>
@@ -1746,8 +1752,8 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="31" t="s">
+      <c r="G15" s="25"/>
+      <c r="H15" s="32" t="s">
         <v>27</v>
       </c>
       <c r="I15" s="6">
@@ -1765,7 +1771,7 @@
       <c r="M15" s="7">
         <v>662</v>
       </c>
-      <c r="N15" s="33"/>
+      <c r="N15" s="25"/>
       <c r="O15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1802,8 +1808,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="31"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="16">
         <v>671</v>
       </c>
@@ -1819,7 +1825,7 @@
       <c r="M16" s="17">
         <v>103</v>
       </c>
-      <c r="N16" s="33"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1840,7 +1846,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="6">
@@ -1858,8 +1864,8 @@
       <c r="F17" s="7">
         <v>49</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="31"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="16">
         <v>107</v>
       </c>
@@ -1875,7 +1881,7 @@
       <c r="M17" s="17">
         <v>104</v>
       </c>
-      <c r="N17" s="33"/>
+      <c r="N17" s="25"/>
       <c r="O17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1890,7 +1896,7 @@
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="13">
         <v>451</v>
       </c>
@@ -1906,8 +1912,8 @@
       <c r="F18" s="14">
         <v>696</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="31"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="16">
         <v>111</v>
       </c>
@@ -1923,7 +1929,7 @@
       <c r="M18" s="17">
         <v>404</v>
       </c>
-      <c r="N18" s="33"/>
+      <c r="N18" s="25"/>
       <c r="O18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1938,7 +1944,7 @@
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="11">
         <v>467</v>
       </c>
@@ -1948,8 +1954,8 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="31"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="32"/>
       <c r="I19" s="16">
         <v>199</v>
       </c>
@@ -1963,18 +1969,18 @@
         <v>117</v>
       </c>
       <c r="M19" s="14"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="23" t="s">
+      <c r="N19" s="25"/>
+      <c r="O19" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="8">
@@ -1992,7 +1998,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="33"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="3" t="s">
         <v>36</v>
       </c>
@@ -2005,8 +2011,8 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="24" t="s">
+      <c r="N20" s="25"/>
+      <c r="O20" s="28" t="s">
         <v>37</v>
       </c>
       <c r="P20" s="8">
@@ -2026,7 +2032,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="13">
         <v>537</v>
       </c>
@@ -2042,7 +2048,7 @@
       <c r="F21" s="14">
         <v>443</v>
       </c>
-      <c r="G21" s="33"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="3" t="s">
         <v>38</v>
       </c>
@@ -2061,8 +2067,8 @@
       <c r="M21" s="5">
         <v>449</v>
       </c>
-      <c r="N21" s="33"/>
-      <c r="O21" s="24"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="28"/>
       <c r="P21" s="11">
         <v>155</v>
       </c>
@@ -2072,7 +2078,7 @@
       <c r="T21" s="12"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="16">
         <v>8</v>
       </c>
@@ -2088,7 +2094,7 @@
       <c r="F22" s="14">
         <v>165</v>
       </c>
-      <c r="G22" s="33"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="3" t="s">
         <v>39</v>
       </c>
@@ -2101,7 +2107,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="33"/>
+      <c r="N22" s="25"/>
       <c r="O22" s="3" t="s">
         <v>40</v>
       </c>
@@ -2120,7 +2126,7 @@
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="11">
         <v>481</v>
       </c>
@@ -2128,8 +2134,8 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="24" t="s">
+      <c r="G23" s="25"/>
+      <c r="H23" s="28" t="s">
         <v>41</v>
       </c>
       <c r="I23" s="6">
@@ -2147,7 +2153,7 @@
       <c r="M23" s="7">
         <v>230</v>
       </c>
-      <c r="N23" s="33"/>
+      <c r="N23" s="25"/>
       <c r="O23" s="3" t="s">
         <v>42</v>
       </c>
@@ -2180,8 +2186,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="16">
         <v>98</v>
       </c>
@@ -2197,8 +2203,8 @@
       <c r="M24" s="17">
         <v>110</v>
       </c>
-      <c r="N24" s="33"/>
-      <c r="O24" s="24" t="s">
+      <c r="N24" s="25"/>
+      <c r="O24" s="28" t="s">
         <v>44</v>
       </c>
       <c r="P24" s="8">
@@ -2236,8 +2242,8 @@
       <c r="F25" s="5">
         <v>306</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="11">
         <v>95</v>
       </c>
@@ -2249,8 +2255,8 @@
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="24"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="28"/>
       <c r="P25" s="11">
         <v>472</v>
       </c>
@@ -2282,7 +2288,7 @@
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="3" t="s">
         <v>47</v>
       </c>
@@ -2295,8 +2301,8 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="24" t="s">
+      <c r="N26" s="25"/>
+      <c r="O26" s="28" t="s">
         <v>48</v>
       </c>
       <c r="P26" s="8">
@@ -2332,7 +2338,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="33"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -2343,8 +2349,8 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="24"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="28"/>
       <c r="P27" s="13">
         <v>692</v>
       </c>
@@ -2374,7 +2380,7 @@
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="33"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="3" t="s">
         <v>52</v>
       </c>
@@ -2387,8 +2393,8 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="24"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="28"/>
       <c r="P28" s="11">
         <v>480</v>
       </c>
@@ -2398,15 +2404,15 @@
       <c r="T28" s="12"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="33"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="3" t="s">
         <v>54</v>
       </c>
@@ -2419,7 +2425,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="33"/>
+      <c r="N29" s="25"/>
       <c r="O29" s="3" t="s">
         <v>55</v>
       </c>
@@ -2440,7 +2446,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="8">
@@ -2458,7 +2464,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="33"/>
+      <c r="G30" s="25"/>
       <c r="H30" s="3" t="s">
         <v>57</v>
       </c>
@@ -2471,7 +2477,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="33"/>
+      <c r="N30" s="25"/>
       <c r="O30" s="3" t="s">
         <v>58</v>
       </c>
@@ -2484,7 +2490,7 @@
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="13">
         <v>342</v>
       </c>
@@ -2500,16 +2506,16 @@
       <c r="F31" s="14">
         <v>190</v>
       </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="26" t="s">
+      <c r="G31" s="25"/>
+      <c r="H31" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="33"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="25"/>
       <c r="O31" s="3" t="s">
         <v>60</v>
       </c>
@@ -2526,7 +2532,7 @@
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="13">
         <v>191</v>
       </c>
@@ -2542,7 +2548,7 @@
       <c r="F32" s="14">
         <v>693</v>
       </c>
-      <c r="G32" s="33"/>
+      <c r="G32" s="25"/>
       <c r="H32" s="3" t="s">
         <v>61</v>
       </c>
@@ -2553,18 +2559,18 @@
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="23" t="s">
+      <c r="N32" s="25"/>
+      <c r="O32" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="13">
         <v>393</v>
       </c>
@@ -2580,7 +2586,7 @@
       <c r="F33" s="14">
         <v>319</v>
       </c>
-      <c r="G33" s="33"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="3" t="s">
         <v>63</v>
       </c>
@@ -2593,7 +2599,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="33"/>
+      <c r="N33" s="25"/>
       <c r="O33" s="3" t="s">
         <v>64</v>
       </c>
@@ -2608,7 +2614,7 @@
       <c r="T33" s="5"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="13">
         <v>405</v>
       </c>
@@ -2624,8 +2630,8 @@
       <c r="F34" s="14">
         <v>233</v>
       </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="24" t="s">
+      <c r="G34" s="25"/>
+      <c r="H34" s="28" t="s">
         <v>65</v>
       </c>
       <c r="I34" s="6">
@@ -2643,7 +2649,7 @@
       <c r="M34" s="7">
         <v>51</v>
       </c>
-      <c r="N34" s="33"/>
+      <c r="N34" s="25"/>
       <c r="O34" s="3" t="s">
         <v>66</v>
       </c>
@@ -2658,7 +2664,7 @@
       <c r="T34" s="5"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="11">
         <v>357</v>
       </c>
@@ -2668,8 +2674,8 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="16">
         <v>52</v>
       </c>
@@ -2685,7 +2691,7 @@
       <c r="M35" s="17">
         <v>40</v>
       </c>
-      <c r="N35" s="33"/>
+      <c r="N35" s="25"/>
       <c r="O35" s="3" t="s">
         <v>67</v>
       </c>
@@ -2716,8 +2722,8 @@
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="16">
         <v>46</v>
       </c>
@@ -2733,15 +2739,15 @@
       <c r="M36" s="17">
         <v>60</v>
       </c>
-      <c r="N36" s="33"/>
-      <c r="O36" s="30" t="s">
+      <c r="N36" s="25"/>
+      <c r="O36" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -2756,8 +2762,8 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="16">
         <v>491</v>
       </c>
@@ -2773,7 +2779,7 @@
       <c r="M37" s="14">
         <v>93</v>
       </c>
-      <c r="N37" s="33"/>
+      <c r="N37" s="25"/>
       <c r="O37" s="3" t="s">
         <v>71</v>
       </c>
@@ -2792,16 +2798,16 @@
       <c r="T37" s="5"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="24"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="10">
         <v>332</v>
       </c>
@@ -2809,7 +2815,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="12"/>
-      <c r="N38" s="33"/>
+      <c r="N38" s="25"/>
       <c r="O38" s="3" t="s">
         <v>73</v>
       </c>
@@ -2836,7 +2842,7 @@
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="33"/>
+      <c r="G39" s="25"/>
       <c r="H39" s="3" t="s">
         <v>75</v>
       </c>
@@ -2851,7 +2857,7 @@
       </c>
       <c r="L39" s="15"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="33"/>
+      <c r="N39" s="25"/>
       <c r="O39" s="3" t="s">
         <v>76</v>
       </c>
@@ -2878,7 +2884,7 @@
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="33"/>
+      <c r="G40" s="25"/>
       <c r="H40" s="3" t="s">
         <v>78</v>
       </c>
@@ -2891,7 +2897,7 @@
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="33"/>
+      <c r="N40" s="25"/>
       <c r="O40" s="3" t="s">
         <v>79</v>
       </c>
@@ -2920,7 +2926,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="5"/>
-      <c r="G41" s="33"/>
+      <c r="G41" s="25"/>
       <c r="H41" s="3" t="s">
         <v>81</v>
       </c>
@@ -2931,15 +2937,15 @@
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="23" t="s">
+      <c r="N41" s="25"/>
+      <c r="O41" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -2956,8 +2962,8 @@
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="24" t="s">
+      <c r="G42" s="25"/>
+      <c r="H42" s="28" t="s">
         <v>84</v>
       </c>
       <c r="I42" s="6">
@@ -2975,7 +2981,7 @@
       <c r="M42" s="7">
         <v>542</v>
       </c>
-      <c r="N42" s="33"/>
+      <c r="N42" s="25"/>
       <c r="O42" s="3" t="s">
         <v>85</v>
       </c>
@@ -2988,16 +2994,16 @@
       <c r="T42" s="5"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="24"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="28"/>
       <c r="I43" s="16">
         <v>130</v>
       </c>
@@ -3013,7 +3019,7 @@
       <c r="M43" s="14">
         <v>126</v>
       </c>
-      <c r="N43" s="33"/>
+      <c r="N43" s="25"/>
       <c r="O43" s="3" t="s">
         <v>87</v>
       </c>
@@ -3042,8 +3048,8 @@
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="28"/>
       <c r="I44" s="11">
         <v>433</v>
       </c>
@@ -3053,7 +3059,7 @@
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="12"/>
-      <c r="N44" s="33"/>
+      <c r="N44" s="25"/>
       <c r="O44" s="3" t="s">
         <v>89</v>
       </c>
@@ -3076,7 +3082,7 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="33"/>
+      <c r="G45" s="25"/>
       <c r="H45" s="3" t="s">
         <v>91</v>
       </c>
@@ -3091,7 +3097,7 @@
       </c>
       <c r="L45" s="15"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="33"/>
+      <c r="N45" s="25"/>
       <c r="O45" s="3" t="s">
         <v>92</v>
       </c>
@@ -3122,7 +3128,7 @@
       <c r="F46" s="5">
         <v>25</v>
       </c>
-      <c r="G46" s="33"/>
+      <c r="G46" s="25"/>
       <c r="H46" s="3" t="s">
         <v>94</v>
       </c>
@@ -3137,7 +3143,7 @@
       </c>
       <c r="L46" s="15"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="33"/>
+      <c r="N46" s="25"/>
       <c r="O46" s="3" t="s">
         <v>95</v>
       </c>
@@ -3162,7 +3168,7 @@
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="33"/>
+      <c r="G47" s="25"/>
       <c r="H47" s="3" t="s">
         <v>97</v>
       </c>
@@ -3175,7 +3181,7 @@
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="33"/>
+      <c r="N47" s="25"/>
       <c r="O47" s="3" t="s">
         <v>98</v>
       </c>
@@ -3202,16 +3208,16 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="26" t="s">
+      <c r="G48" s="25"/>
+      <c r="H48" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="33"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="25"/>
       <c r="O48" s="3" t="s">
         <v>101</v>
       </c>
@@ -3226,16 +3232,16 @@
       <c r="T48" s="5"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="24" t="s">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="28" t="s">
         <v>103</v>
       </c>
       <c r="I49" s="6">
@@ -3253,7 +3259,7 @@
       <c r="M49" s="7">
         <v>69</v>
       </c>
-      <c r="N49" s="33"/>
+      <c r="N49" s="25"/>
       <c r="O49" s="3" t="s">
         <v>104</v>
       </c>
@@ -3268,7 +3274,7 @@
       <c r="T49" s="5"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="28" t="s">
         <v>105</v>
       </c>
       <c r="B50" s="6">
@@ -3286,8 +3292,8 @@
       <c r="F50" s="7">
         <v>202</v>
       </c>
-      <c r="G50" s="33"/>
-      <c r="H50" s="24"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="28"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3295,7 +3301,7 @@
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="12"/>
-      <c r="N50" s="33"/>
+      <c r="N50" s="25"/>
       <c r="O50" s="3" t="s">
         <v>106</v>
       </c>
@@ -3308,7 +3314,7 @@
       <c r="T50" s="5"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="13">
         <v>500</v>
       </c>
@@ -3324,8 +3330,8 @@
       <c r="F51" s="14">
         <v>166</v>
       </c>
-      <c r="G51" s="33"/>
-      <c r="H51" s="24" t="s">
+      <c r="G51" s="25"/>
+      <c r="H51" s="28" t="s">
         <v>107</v>
       </c>
       <c r="I51" s="6">
@@ -3343,7 +3349,7 @@
       <c r="M51" s="19">
         <v>300</v>
       </c>
-      <c r="N51" s="33"/>
+      <c r="N51" s="25"/>
       <c r="O51" s="3" t="s">
         <v>108</v>
       </c>
@@ -3356,7 +3362,7 @@
       <c r="T51" s="5"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="11">
         <v>466</v>
       </c>
@@ -3366,8 +3372,8 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="24"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="28"/>
       <c r="I52" s="11">
         <v>354</v>
       </c>
@@ -3381,13 +3387,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="12"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
@@ -3408,7 +3414,7 @@
       <c r="F53" s="5">
         <v>220</v>
       </c>
-      <c r="G53" s="33"/>
+      <c r="G53" s="25"/>
       <c r="H53" s="3" t="s">
         <v>110</v>
       </c>
@@ -3425,16 +3431,16 @@
         <v>81</v>
       </c>
       <c r="M53" s="5"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="28" t="s">
         <v>111</v>
       </c>
       <c r="B54" s="6">
@@ -3452,7 +3458,7 @@
       <c r="F54" s="7">
         <v>454</v>
       </c>
-      <c r="G54" s="33"/>
+      <c r="G54" s="25"/>
       <c r="H54" s="3" t="s">
         <v>112</v>
       </c>
@@ -3465,16 +3471,16 @@
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="10">
         <v>18</v>
       </c>
@@ -3482,7 +3488,7 @@
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="33"/>
+      <c r="G55" s="25"/>
       <c r="H55" s="3" t="s">
         <v>113</v>
       </c>
@@ -3499,13 +3505,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="5"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
@@ -3522,33 +3528,33 @@
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="28" t="s">
+      <c r="G56" s="25"/>
+      <c r="H56" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="34"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="33"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="25"/>
       <c r="H57" s="3" t="s">
         <v>117</v>
       </c>
@@ -3567,16 +3573,16 @@
       <c r="M57" s="5">
         <v>268</v>
       </c>
-      <c r="N57" s="33"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="28" t="s">
         <v>118</v>
       </c>
       <c r="B58" s="8">
@@ -3594,7 +3600,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="33"/>
+      <c r="G58" s="25"/>
       <c r="H58" s="3" t="s">
         <v>119</v>
       </c>
@@ -3609,16 +3615,16 @@
       </c>
       <c r="L58" s="15"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="27"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="13">
         <v>575</v>
       </c>
@@ -3634,23 +3640,23 @@
       <c r="F59" s="14">
         <v>179</v>
       </c>
-      <c r="G59" s="33"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="27"/>
-      <c r="T59" s="27"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="34"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="13">
         <v>56</v>
       </c>
@@ -3666,23 +3672,23 @@
       <c r="F60" s="14">
         <v>435</v>
       </c>
-      <c r="G60" s="33"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="27"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="34"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="13">
         <v>646</v>
       </c>
@@ -3698,23 +3704,23 @@
       <c r="F61" s="14">
         <v>215</v>
       </c>
-      <c r="G61" s="33"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="27"/>
-      <c r="S61" s="27"/>
-      <c r="T61" s="27"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="34"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="13">
         <v>75</v>
       </c>
@@ -3730,23 +3736,23 @@
       <c r="F62" s="14">
         <v>678</v>
       </c>
-      <c r="G62" s="33"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="34"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="11">
         <v>420</v>
       </c>
@@ -3754,20 +3760,20 @@
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="12"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="27"/>
-      <c r="R63" s="27"/>
-      <c r="S63" s="27"/>
-      <c r="T63" s="27"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="34"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -3786,20 +3792,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="5"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="27"/>
-      <c r="R64" s="27"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="27"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="34"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
@@ -3816,20 +3822,20 @@
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="33"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="27"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="34"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
@@ -3842,23 +3848,23 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="33"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="27"/>
-      <c r="R66" s="27"/>
-      <c r="S66" s="27"/>
-      <c r="T66" s="27"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="28" t="s">
         <v>123</v>
       </c>
       <c r="B67" s="8">
@@ -3876,23 +3882,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="33"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="33"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="27"/>
-      <c r="Q67" s="27"/>
-      <c r="R67" s="27"/>
-      <c r="S67" s="27"/>
-      <c r="T67" s="27"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="34"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="11">
         <v>321</v>
       </c>
@@ -3904,23 +3910,53 @@
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="12"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="33"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="27"/>
-      <c r="R68" s="27"/>
-      <c r="S68" s="27"/>
-      <c r="T68" s="27"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="34"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="O52:T68"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="H59:M68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="O24:O25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:G68"/>
     <mergeCell ref="H1:M1"/>
@@ -3937,36 +3973,6 @@
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="O12:O14"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="O52:T68"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="H59:M68"/>
-    <mergeCell ref="A67:A68"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AFB3A3-199B-448C-85E8-EB977C96A10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D324FAA3-BED7-4680-BDD3-CFEE3F699F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -672,34 +672,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -711,11 +699,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1114,32 +1114,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="27" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1158,8 +1158,8 @@
         <v>628</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="28" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="6">
@@ -1177,8 +1177,8 @@
       <c r="M2" s="7">
         <v>16</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="36"/>
+      <c r="O2" s="27" t="s">
         <v>5</v>
       </c>
       <c r="P2" s="8">
@@ -1198,7 +1198,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6">
@@ -1216,8 +1216,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="28"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1229,8 +1229,8 @@
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="28"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="27"/>
       <c r="P3" s="13">
         <v>198</v>
       </c>
@@ -1248,7 +1248,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="11">
         <v>274</v>
       </c>
@@ -1256,8 +1256,8 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="28" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="27" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="6">
@@ -1275,8 +1275,8 @@
       <c r="M4" s="7">
         <v>82</v>
       </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="28"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="27"/>
       <c r="P4" s="13">
         <v>552</v>
       </c>
@@ -1308,8 +1308,8 @@
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="28"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="16">
         <v>611</v>
       </c>
@@ -1325,8 +1325,8 @@
       <c r="M5" s="22">
         <v>209</v>
       </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="28"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="27"/>
       <c r="P5" s="11">
         <v>264</v>
       </c>
@@ -1358,8 +1358,8 @@
       <c r="F6" s="5">
         <v>419</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="28"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="20">
         <v>3</v>
       </c>
@@ -1375,8 +1375,8 @@
       <c r="M6" s="22">
         <v>76</v>
       </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="28" t="s">
+      <c r="N6" s="36"/>
+      <c r="O6" s="27" t="s">
         <v>10</v>
       </c>
       <c r="P6" s="8">
@@ -1408,8 +1408,8 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="28"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="21">
         <v>30</v>
       </c>
@@ -1417,8 +1417,8 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="28"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="27"/>
       <c r="P7" s="11">
         <v>279</v>
       </c>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="25"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1458,10 +1458,10 @@
       <c r="L8" s="23">
         <v>88</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="24">
         <v>475</v>
       </c>
-      <c r="N8" s="25"/>
+      <c r="N8" s="36"/>
       <c r="O8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1498,27 +1498,27 @@
         <v>289</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="28" t="s">
+      <c r="G9" s="36"/>
+      <c r="H9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="25">
         <v>141</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="25">
         <v>142</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="25">
         <v>143</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="25">
         <v>234</v>
       </c>
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="28" t="s">
+      <c r="N9" s="36"/>
+      <c r="O9" s="27" t="s">
         <v>17</v>
       </c>
       <c r="P9" s="8">
@@ -1552,17 +1552,17 @@
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="11">
+      <c r="G10" s="36"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="21">
         <v>287</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="28"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="27"/>
       <c r="P10" s="13">
         <v>688</v>
       </c>
@@ -1580,25 +1580,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="31" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="27"/>
       <c r="P11" s="11">
         <v>329</v>
       </c>
@@ -1618,8 +1618,8 @@
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="28" t="s">
+      <c r="G12" s="36"/>
+      <c r="H12" s="27" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="6">
@@ -1637,8 +1637,8 @@
       <c r="M12" s="7">
         <v>437</v>
       </c>
-      <c r="N12" s="25"/>
-      <c r="O12" s="28" t="s">
+      <c r="N12" s="36"/>
+      <c r="O12" s="27" t="s">
         <v>23</v>
       </c>
       <c r="P12" s="8">
@@ -1668,8 +1668,8 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="28"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="16">
         <v>563</v>
       </c>
@@ -1685,8 +1685,8 @@
       <c r="M13" s="17">
         <v>543</v>
       </c>
-      <c r="N13" s="25"/>
-      <c r="O13" s="28"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="27"/>
       <c r="P13" s="13">
         <v>132</v>
       </c>
@@ -1714,8 +1714,8 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="28"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="10">
         <v>654</v>
       </c>
@@ -1727,8 +1727,8 @@
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="28"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="27"/>
       <c r="P14" s="11">
         <v>10</v>
       </c>
@@ -1752,8 +1752,8 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="32" t="s">
+      <c r="G15" s="36"/>
+      <c r="H15" s="34" t="s">
         <v>27</v>
       </c>
       <c r="I15" s="6">
@@ -1771,7 +1771,7 @@
       <c r="M15" s="7">
         <v>662</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="36"/>
       <c r="O15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1808,8 +1808,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="32"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="16">
         <v>671</v>
       </c>
@@ -1825,7 +1825,7 @@
       <c r="M16" s="17">
         <v>103</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="36"/>
       <c r="O16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1846,7 +1846,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="27" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="6">
@@ -1864,8 +1864,8 @@
       <c r="F17" s="7">
         <v>49</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="32"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="16">
         <v>107</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="M17" s="17">
         <v>104</v>
       </c>
-      <c r="N17" s="25"/>
+      <c r="N17" s="36"/>
       <c r="O17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="13">
         <v>451</v>
       </c>
@@ -1912,8 +1912,8 @@
       <c r="F18" s="14">
         <v>696</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="32"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="16">
         <v>111</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="M18" s="17">
         <v>404</v>
       </c>
-      <c r="N18" s="25"/>
+      <c r="N18" s="36"/>
       <c r="O18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1944,7 +1944,7 @@
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="11">
         <v>467</v>
       </c>
@@ -1954,8 +1954,8 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="32"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="34"/>
       <c r="I19" s="16">
         <v>199</v>
       </c>
@@ -1969,18 +1969,18 @@
         <v>117</v>
       </c>
       <c r="M19" s="14"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="33" t="s">
+      <c r="N19" s="36"/>
+      <c r="O19" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="8">
@@ -1998,7 +1998,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="25"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="3" t="s">
         <v>36</v>
       </c>
@@ -2011,8 +2011,8 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="28" t="s">
+      <c r="N20" s="36"/>
+      <c r="O20" s="27" t="s">
         <v>37</v>
       </c>
       <c r="P20" s="8">
@@ -2032,7 +2032,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="13">
         <v>537</v>
       </c>
@@ -2048,7 +2048,7 @@
       <c r="F21" s="14">
         <v>443</v>
       </c>
-      <c r="G21" s="25"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="3" t="s">
         <v>38</v>
       </c>
@@ -2067,8 +2067,8 @@
       <c r="M21" s="5">
         <v>449</v>
       </c>
-      <c r="N21" s="25"/>
-      <c r="O21" s="28"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="27"/>
       <c r="P21" s="11">
         <v>155</v>
       </c>
@@ -2078,7 +2078,7 @@
       <c r="T21" s="12"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="16">
         <v>8</v>
       </c>
@@ -2094,7 +2094,7 @@
       <c r="F22" s="14">
         <v>165</v>
       </c>
-      <c r="G22" s="25"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="3" t="s">
         <v>39</v>
       </c>
@@ -2107,7 +2107,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="25"/>
+      <c r="N22" s="36"/>
       <c r="O22" s="3" t="s">
         <v>40</v>
       </c>
@@ -2126,7 +2126,7 @@
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="11">
         <v>481</v>
       </c>
@@ -2134,8 +2134,8 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="28" t="s">
+      <c r="G23" s="36"/>
+      <c r="H23" s="27" t="s">
         <v>41</v>
       </c>
       <c r="I23" s="6">
@@ -2153,7 +2153,7 @@
       <c r="M23" s="7">
         <v>230</v>
       </c>
-      <c r="N23" s="25"/>
+      <c r="N23" s="36"/>
       <c r="O23" s="3" t="s">
         <v>42</v>
       </c>
@@ -2186,8 +2186,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="28"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="16">
         <v>98</v>
       </c>
@@ -2203,8 +2203,8 @@
       <c r="M24" s="17">
         <v>110</v>
       </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="28" t="s">
+      <c r="N24" s="36"/>
+      <c r="O24" s="27" t="s">
         <v>44</v>
       </c>
       <c r="P24" s="8">
@@ -2242,8 +2242,8 @@
       <c r="F25" s="5">
         <v>306</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="28"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="11">
         <v>95</v>
       </c>
@@ -2255,8 +2255,8 @@
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="28"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="27"/>
       <c r="P25" s="11">
         <v>472</v>
       </c>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="25"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="3" t="s">
         <v>47</v>
       </c>
@@ -2301,8 +2301,8 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="28" t="s">
+      <c r="N26" s="36"/>
+      <c r="O26" s="27" t="s">
         <v>48</v>
       </c>
       <c r="P26" s="8">
@@ -2338,7 +2338,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="25"/>
+      <c r="G27" s="36"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -2349,8 +2349,8 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="28"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="27"/>
       <c r="P27" s="13">
         <v>692</v>
       </c>
@@ -2380,7 +2380,7 @@
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="25"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="3" t="s">
         <v>52</v>
       </c>
@@ -2393,8 +2393,8 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="28"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="27"/>
       <c r="P28" s="11">
         <v>480</v>
       </c>
@@ -2404,15 +2404,15 @@
       <c r="T28" s="12"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="25"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="3" t="s">
         <v>54</v>
       </c>
@@ -2425,7 +2425,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="25"/>
+      <c r="N29" s="36"/>
       <c r="O29" s="3" t="s">
         <v>55</v>
       </c>
@@ -2446,7 +2446,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="27" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="8">
@@ -2464,7 +2464,7 @@
       <c r="F30" s="9">
         <v>231</v>
       </c>
-      <c r="G30" s="25"/>
+      <c r="G30" s="36"/>
       <c r="H30" s="3" t="s">
         <v>57</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="25"/>
+      <c r="N30" s="36"/>
       <c r="O30" s="3" t="s">
         <v>58</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="13">
         <v>342</v>
       </c>
@@ -2506,16 +2506,16 @@
       <c r="F31" s="14">
         <v>190</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="31" t="s">
+      <c r="G31" s="36"/>
+      <c r="H31" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="25"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="36"/>
       <c r="O31" s="3" t="s">
         <v>60</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="13">
         <v>191</v>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="F32" s="14">
         <v>693</v>
       </c>
-      <c r="G32" s="25"/>
+      <c r="G32" s="36"/>
       <c r="H32" s="3" t="s">
         <v>61</v>
       </c>
@@ -2559,18 +2559,18 @@
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="33" t="s">
+      <c r="N32" s="36"/>
+      <c r="O32" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="13">
         <v>393</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="F33" s="14">
         <v>319</v>
       </c>
-      <c r="G33" s="25"/>
+      <c r="G33" s="36"/>
       <c r="H33" s="3" t="s">
         <v>63</v>
       </c>
@@ -2599,7 +2599,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="25"/>
+      <c r="N33" s="36"/>
       <c r="O33" s="3" t="s">
         <v>64</v>
       </c>
@@ -2614,7 +2614,7 @@
       <c r="T33" s="5"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="13">
         <v>405</v>
       </c>
@@ -2630,8 +2630,8 @@
       <c r="F34" s="14">
         <v>233</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="28" t="s">
+      <c r="G34" s="36"/>
+      <c r="H34" s="27" t="s">
         <v>65</v>
       </c>
       <c r="I34" s="6">
@@ -2649,7 +2649,7 @@
       <c r="M34" s="7">
         <v>51</v>
       </c>
-      <c r="N34" s="25"/>
+      <c r="N34" s="36"/>
       <c r="O34" s="3" t="s">
         <v>66</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="T34" s="5"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="11">
         <v>357</v>
       </c>
@@ -2674,8 +2674,8 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="28"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="16">
         <v>52</v>
       </c>
@@ -2691,7 +2691,7 @@
       <c r="M35" s="17">
         <v>40</v>
       </c>
-      <c r="N35" s="25"/>
+      <c r="N35" s="36"/>
       <c r="O35" s="3" t="s">
         <v>67</v>
       </c>
@@ -2722,8 +2722,8 @@
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="28"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="16">
         <v>46</v>
       </c>
@@ -2739,15 +2739,15 @@
       <c r="M36" s="17">
         <v>60</v>
       </c>
-      <c r="N36" s="25"/>
-      <c r="O36" s="27" t="s">
+      <c r="N36" s="36"/>
+      <c r="O36" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -2762,8 +2762,8 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="28"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="16">
         <v>491</v>
       </c>
@@ -2779,7 +2779,7 @@
       <c r="M37" s="14">
         <v>93</v>
       </c>
-      <c r="N37" s="25"/>
+      <c r="N37" s="36"/>
       <c r="O37" s="3" t="s">
         <v>71</v>
       </c>
@@ -2798,16 +2798,16 @@
       <c r="T37" s="5"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="10">
         <v>332</v>
       </c>
@@ -2815,7 +2815,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="12"/>
-      <c r="N38" s="25"/>
+      <c r="N38" s="36"/>
       <c r="O38" s="3" t="s">
         <v>73</v>
       </c>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="25"/>
+      <c r="G39" s="36"/>
       <c r="H39" s="3" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="L39" s="15"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="25"/>
+      <c r="N39" s="36"/>
       <c r="O39" s="3" t="s">
         <v>76</v>
       </c>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="25"/>
+      <c r="G40" s="36"/>
       <c r="H40" s="3" t="s">
         <v>78</v>
       </c>
@@ -2897,7 +2897,7 @@
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="25"/>
+      <c r="N40" s="36"/>
       <c r="O40" s="3" t="s">
         <v>79</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="5"/>
-      <c r="G41" s="25"/>
+      <c r="G41" s="36"/>
       <c r="H41" s="3" t="s">
         <v>81</v>
       </c>
@@ -2937,15 +2937,15 @@
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="33" t="s">
+      <c r="N41" s="36"/>
+      <c r="O41" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -2962,8 +2962,8 @@
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="28" t="s">
+      <c r="G42" s="36"/>
+      <c r="H42" s="27" t="s">
         <v>84</v>
       </c>
       <c r="I42" s="6">
@@ -2981,7 +2981,7 @@
       <c r="M42" s="7">
         <v>542</v>
       </c>
-      <c r="N42" s="25"/>
+      <c r="N42" s="36"/>
       <c r="O42" s="3" t="s">
         <v>85</v>
       </c>
@@ -2994,16 +2994,16 @@
       <c r="T42" s="5"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="16">
         <v>130</v>
       </c>
@@ -3019,7 +3019,7 @@
       <c r="M43" s="14">
         <v>126</v>
       </c>
-      <c r="N43" s="25"/>
+      <c r="N43" s="36"/>
       <c r="O43" s="3" t="s">
         <v>87</v>
       </c>
@@ -3048,8 +3048,8 @@
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="28"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="11">
         <v>433</v>
       </c>
@@ -3059,7 +3059,7 @@
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="12"/>
-      <c r="N44" s="25"/>
+      <c r="N44" s="36"/>
       <c r="O44" s="3" t="s">
         <v>89</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="25"/>
+      <c r="G45" s="36"/>
       <c r="H45" s="3" t="s">
         <v>91</v>
       </c>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L45" s="15"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="25"/>
+      <c r="N45" s="36"/>
       <c r="O45" s="3" t="s">
         <v>92</v>
       </c>
@@ -3128,7 +3128,7 @@
       <c r="F46" s="5">
         <v>25</v>
       </c>
-      <c r="G46" s="25"/>
+      <c r="G46" s="36"/>
       <c r="H46" s="3" t="s">
         <v>94</v>
       </c>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="L46" s="15"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="25"/>
+      <c r="N46" s="36"/>
       <c r="O46" s="3" t="s">
         <v>95</v>
       </c>
@@ -3168,7 +3168,7 @@
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="25"/>
+      <c r="G47" s="36"/>
       <c r="H47" s="3" t="s">
         <v>97</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="25"/>
+      <c r="N47" s="36"/>
       <c r="O47" s="3" t="s">
         <v>98</v>
       </c>
@@ -3208,16 +3208,16 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="31" t="s">
+      <c r="G48" s="36"/>
+      <c r="H48" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="25"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="36"/>
       <c r="O48" s="3" t="s">
         <v>101</v>
       </c>
@@ -3232,16 +3232,16 @@
       <c r="T48" s="5"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="28" t="s">
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="27" t="s">
         <v>103</v>
       </c>
       <c r="I49" s="6">
@@ -3259,7 +3259,7 @@
       <c r="M49" s="7">
         <v>69</v>
       </c>
-      <c r="N49" s="25"/>
+      <c r="N49" s="36"/>
       <c r="O49" s="3" t="s">
         <v>104</v>
       </c>
@@ -3274,7 +3274,7 @@
       <c r="T49" s="5"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="27" t="s">
         <v>105</v>
       </c>
       <c r="B50" s="6">
@@ -3292,8 +3292,8 @@
       <c r="F50" s="7">
         <v>202</v>
       </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="28"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="27"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3301,7 +3301,7 @@
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="12"/>
-      <c r="N50" s="25"/>
+      <c r="N50" s="36"/>
       <c r="O50" s="3" t="s">
         <v>106</v>
       </c>
@@ -3314,7 +3314,7 @@
       <c r="T50" s="5"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="13">
         <v>500</v>
       </c>
@@ -3330,8 +3330,8 @@
       <c r="F51" s="14">
         <v>166</v>
       </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="28" t="s">
+      <c r="G51" s="36"/>
+      <c r="H51" s="27" t="s">
         <v>107</v>
       </c>
       <c r="I51" s="6">
@@ -3349,7 +3349,7 @@
       <c r="M51" s="19">
         <v>300</v>
       </c>
-      <c r="N51" s="25"/>
+      <c r="N51" s="36"/>
       <c r="O51" s="3" t="s">
         <v>108</v>
       </c>
@@ -3362,7 +3362,7 @@
       <c r="T51" s="5"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="11">
         <v>466</v>
       </c>
@@ -3372,8 +3372,8 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="28"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="27"/>
       <c r="I52" s="11">
         <v>354</v>
       </c>
@@ -3387,13 +3387,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="12"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
@@ -3414,7 +3414,7 @@
       <c r="F53" s="5">
         <v>220</v>
       </c>
-      <c r="G53" s="25"/>
+      <c r="G53" s="36"/>
       <c r="H53" s="3" t="s">
         <v>110</v>
       </c>
@@ -3431,16 +3431,16 @@
         <v>81</v>
       </c>
       <c r="M53" s="5"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="27" t="s">
         <v>111</v>
       </c>
       <c r="B54" s="6">
@@ -3458,7 +3458,7 @@
       <c r="F54" s="7">
         <v>454</v>
       </c>
-      <c r="G54" s="25"/>
+      <c r="G54" s="36"/>
       <c r="H54" s="3" t="s">
         <v>112</v>
       </c>
@@ -3471,16 +3471,16 @@
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="10">
         <v>18</v>
       </c>
@@ -3488,7 +3488,7 @@
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="25"/>
+      <c r="G55" s="36"/>
       <c r="H55" s="3" t="s">
         <v>113</v>
       </c>
@@ -3505,13 +3505,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="5"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
@@ -3528,33 +3528,33 @@
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="35" t="s">
+      <c r="G56" s="36"/>
+      <c r="H56" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="34"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="25"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="36"/>
       <c r="H57" s="3" t="s">
         <v>117</v>
       </c>
@@ -3573,16 +3573,16 @@
       <c r="M57" s="5">
         <v>268</v>
       </c>
-      <c r="N57" s="25"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="34"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B58" s="8">
@@ -3600,7 +3600,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="25"/>
+      <c r="G58" s="36"/>
       <c r="H58" s="3" t="s">
         <v>119</v>
       </c>
@@ -3615,16 +3615,16 @@
       </c>
       <c r="L58" s="15"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="34"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="30"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
+      <c r="A59" s="27"/>
       <c r="B59" s="13">
         <v>575</v>
       </c>
@@ -3640,23 +3640,23 @@
       <c r="F59" s="14">
         <v>179</v>
       </c>
-      <c r="G59" s="25"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="34"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="30"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="13">
         <v>56</v>
       </c>
@@ -3672,23 +3672,23 @@
       <c r="F60" s="14">
         <v>435</v>
       </c>
-      <c r="G60" s="25"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="34"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="30"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="13">
         <v>646</v>
       </c>
@@ -3704,23 +3704,23 @@
       <c r="F61" s="14">
         <v>215</v>
       </c>
-      <c r="G61" s="25"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="34"/>
-      <c r="P61" s="34"/>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="34"/>
-      <c r="S61" s="34"/>
-      <c r="T61" s="34"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="30"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="13">
         <v>75</v>
       </c>
@@ -3736,23 +3736,23 @@
       <c r="F62" s="14">
         <v>678</v>
       </c>
-      <c r="G62" s="25"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="30"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
+      <c r="A63" s="27"/>
       <c r="B63" s="11">
         <v>420</v>
       </c>
@@ -3760,20 +3760,20 @@
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="12"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -3792,20 +3792,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="5"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="34"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
@@ -3822,20 +3822,20 @@
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="34"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="30"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
@@ -3848,23 +3848,23 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="30"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="27" t="s">
         <v>123</v>
       </c>
       <c r="B67" s="8">
@@ -3882,23 +3882,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="25"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
-      <c r="S67" s="34"/>
-      <c r="T67" s="34"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
+      <c r="A68" s="27"/>
       <c r="B68" s="11">
         <v>321</v>
       </c>
@@ -3910,53 +3910,23 @@
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="12"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="34"/>
-      <c r="R68" s="34"/>
-      <c r="S68" s="34"/>
-      <c r="T68" s="34"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="30"/>
+      <c r="R68" s="30"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="O52:T68"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="H59:M68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="O24:O25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:G68"/>
     <mergeCell ref="H1:M1"/>
@@ -3973,6 +3943,36 @@
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="O12:O14"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="O52:T68"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="H59:M68"/>
+    <mergeCell ref="A67:A68"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D324FAA3-BED7-4680-BDD3-CFEE3F699F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F820E4E-9850-4576-923A-EF60788B5114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,7 +599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,18 +678,36 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,23 +717,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1114,32 +1117,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="33" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1158,8 +1161,8 @@
         <v>628</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="27" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="6">
@@ -1177,8 +1180,8 @@
       <c r="M2" s="7">
         <v>16</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="27" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="30" t="s">
         <v>5</v>
       </c>
       <c r="P2" s="8">
@@ -1198,7 +1201,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6">
@@ -1216,8 +1219,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="30"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1229,8 +1232,8 @@
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="30"/>
       <c r="P3" s="13">
         <v>198</v>
       </c>
@@ -1248,7 +1251,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="11">
         <v>274</v>
       </c>
@@ -1256,8 +1259,8 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="27" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="30" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="6">
@@ -1275,8 +1278,8 @@
       <c r="M4" s="7">
         <v>82</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="30"/>
       <c r="P4" s="13">
         <v>552</v>
       </c>
@@ -1308,8 +1311,8 @@
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="16">
         <v>611</v>
       </c>
@@ -1325,8 +1328,8 @@
       <c r="M5" s="22">
         <v>209</v>
       </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="30"/>
       <c r="P5" s="11">
         <v>264</v>
       </c>
@@ -1358,8 +1361,8 @@
       <c r="F6" s="5">
         <v>419</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="20">
         <v>3</v>
       </c>
@@ -1375,8 +1378,8 @@
       <c r="M6" s="22">
         <v>76</v>
       </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="27" t="s">
+      <c r="N6" s="27"/>
+      <c r="O6" s="30" t="s">
         <v>10</v>
       </c>
       <c r="P6" s="8">
@@ -1408,8 +1411,8 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="21">
         <v>30</v>
       </c>
@@ -1417,8 +1420,8 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="30"/>
       <c r="P7" s="11">
         <v>279</v>
       </c>
@@ -1442,7 +1445,7 @@
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="36"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1461,7 +1464,7 @@
       <c r="M8" s="24">
         <v>475</v>
       </c>
-      <c r="N8" s="36"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1498,8 +1501,8 @@
         <v>289</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="27" t="s">
+      <c r="G9" s="27"/>
+      <c r="H9" s="30" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="25">
@@ -1517,8 +1520,8 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="27" t="s">
+      <c r="N9" s="27"/>
+      <c r="O9" s="30" t="s">
         <v>17</v>
       </c>
       <c r="P9" s="8">
@@ -1552,8 +1555,8 @@
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="21">
         <v>287</v>
       </c>
@@ -1561,8 +1564,8 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="13">
         <v>688</v>
       </c>
@@ -1580,25 +1583,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="29" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="27"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="11">
         <v>329</v>
       </c>
@@ -1618,8 +1621,8 @@
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="27" t="s">
+      <c r="G12" s="27"/>
+      <c r="H12" s="30" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="6">
@@ -1637,8 +1640,8 @@
       <c r="M12" s="7">
         <v>437</v>
       </c>
-      <c r="N12" s="36"/>
-      <c r="O12" s="27" t="s">
+      <c r="N12" s="27"/>
+      <c r="O12" s="30" t="s">
         <v>23</v>
       </c>
       <c r="P12" s="8">
@@ -1668,8 +1671,8 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="16">
         <v>563</v>
       </c>
@@ -1685,8 +1688,8 @@
       <c r="M13" s="17">
         <v>543</v>
       </c>
-      <c r="N13" s="36"/>
-      <c r="O13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="13">
         <v>132</v>
       </c>
@@ -1714,8 +1717,8 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="10">
         <v>654</v>
       </c>
@@ -1727,8 +1730,8 @@
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="11">
         <v>10</v>
       </c>
@@ -1752,7 +1755,7 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="36"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="34" t="s">
         <v>27</v>
       </c>
@@ -1771,7 +1774,7 @@
       <c r="M15" s="7">
         <v>662</v>
       </c>
-      <c r="N15" s="36"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1808,7 +1811,7 @@
         <v>151</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="36"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="34"/>
       <c r="I16" s="16">
         <v>671</v>
@@ -1825,7 +1828,7 @@
       <c r="M16" s="17">
         <v>103</v>
       </c>
-      <c r="N16" s="36"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1846,7 +1849,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="30" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="6">
@@ -1864,7 +1867,7 @@
       <c r="F17" s="7">
         <v>49</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="34"/>
       <c r="I17" s="16">
         <v>107</v>
@@ -1881,7 +1884,7 @@
       <c r="M17" s="17">
         <v>104</v>
       </c>
-      <c r="N17" s="36"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1896,7 +1899,7 @@
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="13">
         <v>451</v>
       </c>
@@ -1912,7 +1915,7 @@
       <c r="F18" s="14">
         <v>696</v>
       </c>
-      <c r="G18" s="36"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="34"/>
       <c r="I18" s="16">
         <v>111</v>
@@ -1929,7 +1932,7 @@
       <c r="M18" s="17">
         <v>404</v>
       </c>
-      <c r="N18" s="36"/>
+      <c r="N18" s="27"/>
       <c r="O18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1944,7 +1947,7 @@
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="11">
         <v>467</v>
       </c>
@@ -1954,7 +1957,7 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="36"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="34"/>
       <c r="I19" s="16">
         <v>199</v>
@@ -1969,18 +1972,18 @@
         <v>117</v>
       </c>
       <c r="M19" s="14"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="26" t="s">
+      <c r="N19" s="27"/>
+      <c r="O19" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="8">
@@ -1998,7 +2001,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="36"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="3" t="s">
         <v>36</v>
       </c>
@@ -2011,8 +2014,8 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="27" t="s">
+      <c r="N20" s="27"/>
+      <c r="O20" s="30" t="s">
         <v>37</v>
       </c>
       <c r="P20" s="8">
@@ -2032,7 +2035,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="13">
         <v>537</v>
       </c>
@@ -2048,7 +2051,7 @@
       <c r="F21" s="14">
         <v>443</v>
       </c>
-      <c r="G21" s="36"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="3" t="s">
         <v>38</v>
       </c>
@@ -2067,8 +2070,8 @@
       <c r="M21" s="5">
         <v>449</v>
       </c>
-      <c r="N21" s="36"/>
-      <c r="O21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="30"/>
       <c r="P21" s="11">
         <v>155</v>
       </c>
@@ -2078,7 +2081,7 @@
       <c r="T21" s="12"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="16">
         <v>8</v>
       </c>
@@ -2094,7 +2097,7 @@
       <c r="F22" s="14">
         <v>165</v>
       </c>
-      <c r="G22" s="36"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="3" t="s">
         <v>39</v>
       </c>
@@ -2107,7 +2110,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="36"/>
+      <c r="N22" s="27"/>
       <c r="O22" s="3" t="s">
         <v>40</v>
       </c>
@@ -2126,7 +2129,7 @@
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="11">
         <v>481</v>
       </c>
@@ -2134,8 +2137,8 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="27" t="s">
+      <c r="G23" s="27"/>
+      <c r="H23" s="30" t="s">
         <v>41</v>
       </c>
       <c r="I23" s="6">
@@ -2153,7 +2156,7 @@
       <c r="M23" s="7">
         <v>230</v>
       </c>
-      <c r="N23" s="36"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="3" t="s">
         <v>42</v>
       </c>
@@ -2186,8 +2189,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="16">
         <v>98</v>
       </c>
@@ -2203,8 +2206,8 @@
       <c r="M24" s="17">
         <v>110</v>
       </c>
-      <c r="N24" s="36"/>
-      <c r="O24" s="27" t="s">
+      <c r="N24" s="27"/>
+      <c r="O24" s="30" t="s">
         <v>44</v>
       </c>
       <c r="P24" s="8">
@@ -2242,8 +2245,8 @@
       <c r="F25" s="5">
         <v>306</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="11">
         <v>95</v>
       </c>
@@ -2255,8 +2258,8 @@
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="30"/>
       <c r="P25" s="11">
         <v>472</v>
       </c>
@@ -2288,7 +2291,7 @@
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="36"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="3" t="s">
         <v>47</v>
       </c>
@@ -2301,8 +2304,8 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="27" t="s">
+      <c r="N26" s="27"/>
+      <c r="O26" s="30" t="s">
         <v>48</v>
       </c>
       <c r="P26" s="8">
@@ -2338,7 +2341,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="36"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -2349,8 +2352,8 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="30"/>
       <c r="P27" s="13">
         <v>692</v>
       </c>
@@ -2380,7 +2383,7 @@
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="36"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="3" t="s">
         <v>52</v>
       </c>
@@ -2393,8 +2396,8 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="30"/>
       <c r="P28" s="11">
         <v>480</v>
       </c>
@@ -2404,15 +2407,15 @@
       <c r="T28" s="12"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="36"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="3" t="s">
         <v>54</v>
       </c>
@@ -2425,7 +2428,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="36"/>
+      <c r="N29" s="27"/>
       <c r="O29" s="3" t="s">
         <v>55</v>
       </c>
@@ -2446,13 +2449,13 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="30" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="8">
         <v>7</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="25">
         <v>9</v>
       </c>
       <c r="D30" s="8">
@@ -2461,10 +2464,10 @@
       <c r="E30" s="8">
         <v>564</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="39">
         <v>231</v>
       </c>
-      <c r="G30" s="36"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="3" t="s">
         <v>57</v>
       </c>
@@ -2477,7 +2480,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="36"/>
+      <c r="N30" s="27"/>
       <c r="O30" s="3" t="s">
         <v>58</v>
       </c>
@@ -2490,11 +2493,11 @@
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="13">
+      <c r="A31" s="30"/>
+      <c r="B31" s="20">
         <v>342</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="20">
         <v>326</v>
       </c>
       <c r="D31" s="13">
@@ -2506,16 +2509,16 @@
       <c r="F31" s="14">
         <v>190</v>
       </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="29" t="s">
+      <c r="G31" s="27"/>
+      <c r="H31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="36"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="27"/>
       <c r="O31" s="3" t="s">
         <v>60</v>
       </c>
@@ -2532,8 +2535,8 @@
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="13">
+      <c r="A32" s="30"/>
+      <c r="B32" s="20">
         <v>191</v>
       </c>
       <c r="C32" s="13">
@@ -2548,7 +2551,7 @@
       <c r="F32" s="14">
         <v>693</v>
       </c>
-      <c r="G32" s="36"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="3" t="s">
         <v>61</v>
       </c>
@@ -2559,18 +2562,18 @@
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="26" t="s">
+      <c r="N32" s="27"/>
+      <c r="O32" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="13">
         <v>393</v>
       </c>
@@ -2586,7 +2589,7 @@
       <c r="F33" s="14">
         <v>319</v>
       </c>
-      <c r="G33" s="36"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="3" t="s">
         <v>63</v>
       </c>
@@ -2599,7 +2602,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="36"/>
+      <c r="N33" s="27"/>
       <c r="O33" s="3" t="s">
         <v>64</v>
       </c>
@@ -2614,7 +2617,7 @@
       <c r="T33" s="5"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="13">
         <v>405</v>
       </c>
@@ -2630,8 +2633,8 @@
       <c r="F34" s="14">
         <v>233</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="27" t="s">
+      <c r="G34" s="27"/>
+      <c r="H34" s="30" t="s">
         <v>65</v>
       </c>
       <c r="I34" s="6">
@@ -2649,7 +2652,7 @@
       <c r="M34" s="7">
         <v>51</v>
       </c>
-      <c r="N34" s="36"/>
+      <c r="N34" s="27"/>
       <c r="O34" s="3" t="s">
         <v>66</v>
       </c>
@@ -2664,7 +2667,7 @@
       <c r="T34" s="5"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="11">
         <v>357</v>
       </c>
@@ -2674,8 +2677,8 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="16">
         <v>52</v>
       </c>
@@ -2691,7 +2694,7 @@
       <c r="M35" s="17">
         <v>40</v>
       </c>
-      <c r="N35" s="36"/>
+      <c r="N35" s="27"/>
       <c r="O35" s="3" t="s">
         <v>67</v>
       </c>
@@ -2722,8 +2725,8 @@
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="16">
         <v>46</v>
       </c>
@@ -2739,15 +2742,15 @@
       <c r="M36" s="17">
         <v>60</v>
       </c>
-      <c r="N36" s="36"/>
-      <c r="O36" s="33" t="s">
+      <c r="N36" s="27"/>
+      <c r="O36" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -2762,8 +2765,8 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="16">
         <v>491</v>
       </c>
@@ -2779,7 +2782,7 @@
       <c r="M37" s="14">
         <v>93</v>
       </c>
-      <c r="N37" s="36"/>
+      <c r="N37" s="27"/>
       <c r="O37" s="3" t="s">
         <v>71</v>
       </c>
@@ -2798,16 +2801,16 @@
       <c r="T37" s="5"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="27"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="10">
         <v>332</v>
       </c>
@@ -2815,7 +2818,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="12"/>
-      <c r="N38" s="36"/>
+      <c r="N38" s="27"/>
       <c r="O38" s="3" t="s">
         <v>73</v>
       </c>
@@ -2842,7 +2845,7 @@
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="36"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="3" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2860,7 @@
       </c>
       <c r="L39" s="15"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="36"/>
+      <c r="N39" s="27"/>
       <c r="O39" s="3" t="s">
         <v>76</v>
       </c>
@@ -2884,7 +2887,7 @@
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="36"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="3" t="s">
         <v>78</v>
       </c>
@@ -2897,7 +2900,7 @@
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="36"/>
+      <c r="N40" s="27"/>
       <c r="O40" s="3" t="s">
         <v>79</v>
       </c>
@@ -2926,7 +2929,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="5"/>
-      <c r="G41" s="36"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="3" t="s">
         <v>81</v>
       </c>
@@ -2937,15 +2940,15 @@
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="26" t="s">
+      <c r="N41" s="27"/>
+      <c r="O41" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -2962,8 +2965,8 @@
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="27" t="s">
+      <c r="G42" s="27"/>
+      <c r="H42" s="30" t="s">
         <v>84</v>
       </c>
       <c r="I42" s="6">
@@ -2981,7 +2984,7 @@
       <c r="M42" s="7">
         <v>542</v>
       </c>
-      <c r="N42" s="36"/>
+      <c r="N42" s="27"/>
       <c r="O42" s="3" t="s">
         <v>85</v>
       </c>
@@ -2994,16 +2997,16 @@
       <c r="T42" s="5"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="27"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="30"/>
       <c r="I43" s="16">
         <v>130</v>
       </c>
@@ -3019,7 +3022,7 @@
       <c r="M43" s="14">
         <v>126</v>
       </c>
-      <c r="N43" s="36"/>
+      <c r="N43" s="27"/>
       <c r="O43" s="3" t="s">
         <v>87</v>
       </c>
@@ -3048,8 +3051,8 @@
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="11">
         <v>433</v>
       </c>
@@ -3059,7 +3062,7 @@
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="12"/>
-      <c r="N44" s="36"/>
+      <c r="N44" s="27"/>
       <c r="O44" s="3" t="s">
         <v>89</v>
       </c>
@@ -3082,7 +3085,7 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="36"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="3" t="s">
         <v>91</v>
       </c>
@@ -3097,7 +3100,7 @@
       </c>
       <c r="L45" s="15"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="36"/>
+      <c r="N45" s="27"/>
       <c r="O45" s="3" t="s">
         <v>92</v>
       </c>
@@ -3128,7 +3131,7 @@
       <c r="F46" s="5">
         <v>25</v>
       </c>
-      <c r="G46" s="36"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="3" t="s">
         <v>94</v>
       </c>
@@ -3143,7 +3146,7 @@
       </c>
       <c r="L46" s="15"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="36"/>
+      <c r="N46" s="27"/>
       <c r="O46" s="3" t="s">
         <v>95</v>
       </c>
@@ -3168,7 +3171,7 @@
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="36"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="3" t="s">
         <v>97</v>
       </c>
@@ -3181,7 +3184,7 @@
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="36"/>
+      <c r="N47" s="27"/>
       <c r="O47" s="3" t="s">
         <v>98</v>
       </c>
@@ -3208,16 +3211,16 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="29" t="s">
+      <c r="G48" s="27"/>
+      <c r="H48" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="36"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="27"/>
       <c r="O48" s="3" t="s">
         <v>101</v>
       </c>
@@ -3232,16 +3235,16 @@
       <c r="T48" s="5"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="27" t="s">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="30" t="s">
         <v>103</v>
       </c>
       <c r="I49" s="6">
@@ -3259,7 +3262,7 @@
       <c r="M49" s="7">
         <v>69</v>
       </c>
-      <c r="N49" s="36"/>
+      <c r="N49" s="27"/>
       <c r="O49" s="3" t="s">
         <v>104</v>
       </c>
@@ -3274,7 +3277,7 @@
       <c r="T49" s="5"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="30" t="s">
         <v>105</v>
       </c>
       <c r="B50" s="6">
@@ -3292,8 +3295,8 @@
       <c r="F50" s="7">
         <v>202</v>
       </c>
-      <c r="G50" s="36"/>
-      <c r="H50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="30"/>
       <c r="I50" s="10">
         <v>441</v>
       </c>
@@ -3301,7 +3304,7 @@
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="12"/>
-      <c r="N50" s="36"/>
+      <c r="N50" s="27"/>
       <c r="O50" s="3" t="s">
         <v>106</v>
       </c>
@@ -3314,7 +3317,7 @@
       <c r="T50" s="5"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
+      <c r="A51" s="30"/>
       <c r="B51" s="13">
         <v>500</v>
       </c>
@@ -3330,8 +3333,8 @@
       <c r="F51" s="14">
         <v>166</v>
       </c>
-      <c r="G51" s="36"/>
-      <c r="H51" s="27" t="s">
+      <c r="G51" s="27"/>
+      <c r="H51" s="30" t="s">
         <v>107</v>
       </c>
       <c r="I51" s="6">
@@ -3349,7 +3352,7 @@
       <c r="M51" s="19">
         <v>300</v>
       </c>
-      <c r="N51" s="36"/>
+      <c r="N51" s="27"/>
       <c r="O51" s="3" t="s">
         <v>108</v>
       </c>
@@ -3362,7 +3365,7 @@
       <c r="T51" s="5"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
+      <c r="A52" s="30"/>
       <c r="B52" s="11">
         <v>466</v>
       </c>
@@ -3372,8 +3375,8 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="30"/>
       <c r="I52" s="11">
         <v>354</v>
       </c>
@@ -3387,13 +3390,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="12"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="36"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
@@ -3414,7 +3417,7 @@
       <c r="F53" s="5">
         <v>220</v>
       </c>
-      <c r="G53" s="36"/>
+      <c r="G53" s="27"/>
       <c r="H53" s="3" t="s">
         <v>110</v>
       </c>
@@ -3431,16 +3434,16 @@
         <v>81</v>
       </c>
       <c r="M53" s="5"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="36"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B54" s="6">
@@ -3458,7 +3461,7 @@
       <c r="F54" s="7">
         <v>454</v>
       </c>
-      <c r="G54" s="36"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="3" t="s">
         <v>112</v>
       </c>
@@ -3471,16 +3474,16 @@
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="36"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="10">
         <v>18</v>
       </c>
@@ -3488,7 +3491,7 @@
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="36"/>
+      <c r="G55" s="27"/>
       <c r="H55" s="3" t="s">
         <v>113</v>
       </c>
@@ -3505,13 +3508,13 @@
         <v>483</v>
       </c>
       <c r="M55" s="5"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
@@ -3528,33 +3531,33 @@
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="31" t="s">
+      <c r="G56" s="27"/>
+      <c r="H56" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="36"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="27"/>
       <c r="H57" s="3" t="s">
         <v>117</v>
       </c>
@@ -3573,16 +3576,16 @@
       <c r="M57" s="5">
         <v>268</v>
       </c>
-      <c r="N57" s="36"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="30" t="s">
         <v>118</v>
       </c>
       <c r="B58" s="8">
@@ -3600,7 +3603,7 @@
       <c r="F58" s="9">
         <v>455</v>
       </c>
-      <c r="G58" s="36"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="3" t="s">
         <v>119</v>
       </c>
@@ -3615,16 +3618,16 @@
       </c>
       <c r="L58" s="15"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="30"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="36"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="13">
         <v>575</v>
       </c>
@@ -3640,23 +3643,23 @@
       <c r="F59" s="14">
         <v>179</v>
       </c>
-      <c r="G59" s="36"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="30"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="36"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="13">
         <v>56</v>
       </c>
@@ -3672,23 +3675,23 @@
       <c r="F60" s="14">
         <v>435</v>
       </c>
-      <c r="G60" s="36"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="13">
         <v>646</v>
       </c>
@@ -3704,23 +3707,23 @@
       <c r="F61" s="14">
         <v>215</v>
       </c>
-      <c r="G61" s="36"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="13">
         <v>75</v>
       </c>
@@ -3736,23 +3739,23 @@
       <c r="F62" s="14">
         <v>678</v>
       </c>
-      <c r="G62" s="36"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="30"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="11">
         <v>420</v>
       </c>
@@ -3760,20 +3763,20 @@
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="12"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="36"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -3792,20 +3795,20 @@
         <v>152</v>
       </c>
       <c r="F64" s="5"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
@@ -3822,20 +3825,20 @@
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="30"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
+      <c r="T65" s="36"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
@@ -3848,23 +3851,23 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="30"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="36"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="30" t="s">
         <v>123</v>
       </c>
       <c r="B67" s="8">
@@ -3882,23 +3885,23 @@
       <c r="F67" s="9">
         <v>402</v>
       </c>
-      <c r="G67" s="36"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="36"/>
+      <c r="T67" s="36"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
+      <c r="A68" s="30"/>
       <c r="B68" s="11">
         <v>321</v>
       </c>
@@ -3910,23 +3913,53 @@
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="12"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="30"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="O52:T68"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="H59:M68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="O24:O25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:G68"/>
     <mergeCell ref="H1:M1"/>
@@ -3943,36 +3976,6 @@
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="O12:O14"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="O36:T36"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="O52:T68"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="H59:M68"/>
-    <mergeCell ref="A67:A68"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPP\VSCode\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F820E4E-9850-4576-923A-EF60788B5114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D227D1-29E2-48CC-9DCB-A06638BB98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="1296" windowWidth="17280" windowHeight="11172" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -678,6 +678,36 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -687,38 +717,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1117,32 +1117,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="29" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1161,8 +1161,8 @@
         <v>628</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="30" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="28" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="6">
@@ -1180,8 +1180,8 @@
       <c r="M2" s="7">
         <v>16</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="30" t="s">
+      <c r="N2" s="37"/>
+      <c r="O2" s="28" t="s">
         <v>5</v>
       </c>
       <c r="P2" s="8">
@@ -1201,7 +1201,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6">
@@ -1219,8 +1219,8 @@
       <c r="F3" s="9">
         <v>41</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="30"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="10">
         <v>18</v>
       </c>
@@ -1232,8 +1232,8 @@
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="30"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="28"/>
       <c r="P3" s="13">
         <v>198</v>
       </c>
@@ -1251,7 +1251,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="11">
         <v>274</v>
       </c>
@@ -1259,8 +1259,8 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="28" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="6">
@@ -1278,8 +1278,8 @@
       <c r="M4" s="7">
         <v>82</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="30"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="28"/>
       <c r="P4" s="13">
         <v>552</v>
       </c>
@@ -1311,8 +1311,8 @@
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="30"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="16">
         <v>611</v>
       </c>
@@ -1328,8 +1328,8 @@
       <c r="M5" s="22">
         <v>209</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="30"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="28"/>
       <c r="P5" s="11">
         <v>264</v>
       </c>
@@ -1361,8 +1361,8 @@
       <c r="F6" s="5">
         <v>419</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="30"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="20">
         <v>3</v>
       </c>
@@ -1378,8 +1378,8 @@
       <c r="M6" s="22">
         <v>76</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="30" t="s">
+      <c r="N6" s="37"/>
+      <c r="O6" s="28" t="s">
         <v>10</v>
       </c>
       <c r="P6" s="8">
@@ -1411,8 +1411,8 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="30"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="21">
         <v>30</v>
       </c>
@@ -1420,8 +1420,8 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="30"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="28"/>
       <c r="P7" s="11">
         <v>279</v>
       </c>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="27"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="M8" s="24">
         <v>475</v>
       </c>
-      <c r="N8" s="27"/>
+      <c r="N8" s="37"/>
       <c r="O8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1501,8 +1501,8 @@
         <v>289</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="30" t="s">
+      <c r="G9" s="37"/>
+      <c r="H9" s="28" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="25">
@@ -1520,8 +1520,8 @@
       <c r="M9" s="9">
         <v>457</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="30" t="s">
+      <c r="N9" s="37"/>
+      <c r="O9" s="28" t="s">
         <v>17</v>
       </c>
       <c r="P9" s="8">
@@ -1555,8 +1555,8 @@
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="30"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="21">
         <v>287</v>
       </c>
@@ -1564,8 +1564,8 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="30"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="28"/>
       <c r="P10" s="13">
         <v>688</v>
       </c>
@@ -1583,25 +1583,25 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="33" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="28"/>
       <c r="P11" s="11">
         <v>329</v>
       </c>
@@ -1621,8 +1621,8 @@
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="37"/>
+      <c r="H12" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="6">
@@ -1640,8 +1640,8 @@
       <c r="M12" s="7">
         <v>437</v>
       </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="30" t="s">
+      <c r="N12" s="37"/>
+      <c r="O12" s="28" t="s">
         <v>23</v>
       </c>
       <c r="P12" s="8">
@@ -1671,8 +1671,8 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="30"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="16">
         <v>563</v>
       </c>
@@ -1688,8 +1688,8 @@
       <c r="M13" s="17">
         <v>543</v>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="30"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="28"/>
       <c r="P13" s="13">
         <v>132</v>
       </c>
@@ -1717,8 +1717,8 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="30"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="10">
         <v>654</v>
       </c>
@@ -1730,8 +1730,8 @@
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="30"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="28"/>
       <c r="P14" s="11">
         <v>10</v>
       </c>
@@ -1755,8 +1755,8 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="34" t="s">
+      <c r="G15" s="37"/>
+      <c r="H15" s="35" t="s">
         <v>27</v>
       </c>
       <c r="I15" s="6">
@@ -1774,7 +1774,7 @@
       <c r="M15" s="7">
         <v>662</v>
       </c>
-      <c r="N15" s="27"/>
+      <c r="N15" s="37"/>
       <c r="O15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1811,8 +1811,8 @@
         <v>151</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="34"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="16">
         <v>671</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="M16" s="17">
         <v>103</v>
       </c>
-      <c r="N16" s="27"/>
+      <c r="N16" s="37"/>
       <c r="O16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1849,7 +1849,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="6">
@@ -1867,8 +1867,8 @@
       <c r="F17" s="7">
         <v>49</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="34"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="35"/>
       <c r="I17" s="16">
         <v>107</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="M17" s="17">
         <v>104</v>
       </c>
-      <c r="N17" s="27"/>
+      <c r="N17" s="37"/>
       <c r="O17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="13">
         <v>451</v>
       </c>
@@ -1915,8 +1915,8 @@
       <c r="F18" s="14">
         <v>696</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="34"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="16">
         <v>111</v>
       </c>
@@ -1932,7 +1932,7 @@
       <c r="M18" s="17">
         <v>404</v>
       </c>
-      <c r="N18" s="27"/>
+      <c r="N18" s="37"/>
       <c r="O18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1947,7 +1947,7 @@
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="11">
         <v>467</v>
       </c>
@@ -1957,8 +1957,8 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="34"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="16">
         <v>199</v>
       </c>
@@ -1972,18 +1972,18 @@
         <v>117</v>
       </c>
       <c r="M19" s="14"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="35" t="s">
+      <c r="N19" s="37"/>
+      <c r="O19" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="8">
@@ -2001,7 +2001,7 @@
       <c r="F20" s="9">
         <v>553</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="3" t="s">
         <v>36</v>
       </c>
@@ -2014,8 +2014,8 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="30" t="s">
+      <c r="N20" s="37"/>
+      <c r="O20" s="28" t="s">
         <v>37</v>
       </c>
       <c r="P20" s="8">
@@ -2035,7 +2035,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="13">
         <v>537</v>
       </c>
@@ -2051,7 +2051,7 @@
       <c r="F21" s="14">
         <v>443</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="3" t="s">
         <v>38</v>
       </c>
@@ -2070,8 +2070,8 @@
       <c r="M21" s="5">
         <v>449</v>
       </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="30"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="28"/>
       <c r="P21" s="11">
         <v>155</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="T21" s="12"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="16">
         <v>8</v>
       </c>
@@ -2097,7 +2097,7 @@
       <c r="F22" s="14">
         <v>165</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="3" t="s">
         <v>39</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="27"/>
+      <c r="N22" s="37"/>
       <c r="O22" s="3" t="s">
         <v>40</v>
       </c>
@@ -2129,7 +2129,7 @@
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="11">
         <v>481</v>
       </c>
@@ -2137,8 +2137,8 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="30" t="s">
+      <c r="G23" s="37"/>
+      <c r="H23" s="28" t="s">
         <v>41</v>
       </c>
       <c r="I23" s="6">
@@ -2156,7 +2156,7 @@
       <c r="M23" s="7">
         <v>230</v>
       </c>
-      <c r="N23" s="27"/>
+      <c r="N23" s="37"/>
       <c r="O23" s="3" t="s">
         <v>42</v>
       </c>
@@ -2189,8 +2189,8 @@
         <v>522</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="30"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="16">
         <v>98</v>
       </c>
@@ -2206,8 +2206,8 @@
       <c r="M24" s="17">
         <v>110</v>
       </c>
-      <c r="N24" s="27"/>
-      <c r="O24" s="30" t="s">
+      <c r="N24" s="37"/>
+      <c r="O24" s="28" t="s">
         <v>44</v>
       </c>
       <c r="P24" s="8">
@@ -2245,8 +2245,8 @@
       <c r="F25" s="5">
         <v>306</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="30"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="11">
         <v>95</v>
       </c>
@@ -2258,8 +2258,8 @@
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="30"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="28"/>
       <c r="P25" s="11">
         <v>472</v>
       </c>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="27"/>
+      <c r="G26" s="37"/>
       <c r="H26" s="3" t="s">
         <v>47</v>
       </c>
@@ -2304,8 +2304,8 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="30" t="s">
+      <c r="N26" s="37"/>
+      <c r="O26" s="28" t="s">
         <v>48</v>
       </c>
       <c r="P26" s="8">
@@ -2341,7 +2341,7 @@
         <v>214</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="27"/>
+      <c r="G27" s="37"/>
       <c r="H27" s="3" t="s">
         <v>50</v>
       </c>
@@ -2352,8 +2352,8 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="30"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="28"/>
       <c r="P27" s="13">
         <v>692</v>
       </c>
@@ -2383,7 +2383,7 @@
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="27"/>
+      <c r="G28" s="37"/>
       <c r="H28" s="3" t="s">
         <v>52</v>
       </c>
@@ -2396,8 +2396,8 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="30"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="28"/>
       <c r="P28" s="11">
         <v>480</v>
       </c>
@@ -2407,15 +2407,15 @@
       <c r="T28" s="12"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="27"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="37"/>
       <c r="H29" s="3" t="s">
         <v>54</v>
       </c>
@@ -2428,7 +2428,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="27"/>
+      <c r="N29" s="37"/>
       <c r="O29" s="3" t="s">
         <v>55</v>
       </c>
@@ -2449,7 +2449,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="8">
@@ -2464,10 +2464,10 @@
       <c r="E30" s="8">
         <v>564</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="26">
         <v>231</v>
       </c>
-      <c r="G30" s="27"/>
+      <c r="G30" s="37"/>
       <c r="H30" s="3" t="s">
         <v>57</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="27"/>
+      <c r="N30" s="37"/>
       <c r="O30" s="3" t="s">
         <v>58</v>
       </c>
@@ -2493,7 +2493,7 @@
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="20">
         <v>342</v>
       </c>
@@ -2509,16 +2509,16 @@
       <c r="F31" s="14">
         <v>190</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="33" t="s">
+      <c r="G31" s="37"/>
+      <c r="H31" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="27"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="37"/>
       <c r="O31" s="3" t="s">
         <v>60</v>
       </c>
@@ -2535,23 +2535,23 @@
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="20">
         <v>191</v>
       </c>
       <c r="C32" s="13">
         <v>476</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="20">
         <v>461</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="20">
         <v>477</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="22">
         <v>693</v>
       </c>
-      <c r="G32" s="27"/>
+      <c r="G32" s="37"/>
       <c r="H32" s="3" t="s">
         <v>61</v>
       </c>
@@ -2562,18 +2562,18 @@
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="35" t="s">
+      <c r="N32" s="37"/>
+      <c r="O32" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="13">
         <v>393</v>
       </c>
@@ -2583,13 +2583,13 @@
       <c r="D33" s="13">
         <v>458</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="20">
         <v>258</v>
       </c>
       <c r="F33" s="14">
         <v>319</v>
       </c>
-      <c r="G33" s="27"/>
+      <c r="G33" s="37"/>
       <c r="H33" s="3" t="s">
         <v>63</v>
       </c>
@@ -2602,7 +2602,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="27"/>
+      <c r="N33" s="37"/>
       <c r="O33" s="3" t="s">
         <v>64</v>
       </c>
@@ -2617,14 +2617,14 @@
       <c r="T33" s="5"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="13">
         <v>405</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="20">
         <v>171</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="20">
         <v>168</v>
       </c>
       <c r="E34" s="13">
@@ -2633,8 +2633,8 @@
       <c r="F34" s="14">
         <v>233</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="30" t="s">
+      <c r="G34" s="37"/>
+      <c r="H34" s="28" t="s">
         <v>65</v>
       </c>
       <c r="I34" s="6">
@@ -2652,7 +2652,7 @@
       <c r="M34" s="7">
         <v>51</v>
       </c>
-      <c r="N34" s="27"/>
+      <c r="N34" s="37"/>
       <c r="O34" s="3" t="s">
         <v>66</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="T34" s="5"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="11">
         <v>357</v>
       </c>
@@ -2677,8 +2677,8 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="30"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="16">
         <v>52</v>
       </c>
@@ -2694,7 +2694,7 @@
       <c r="M35" s="17">
         <v>40</v>
       </c>
-      <c r="N35" s="27"/>
+      <c r="N35" s="37"/>
       <c r="O35" s="3" t="s">
         <v>67</v>
       </c>
@@ -2725,8 +2725,8 @@
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="30"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="16">
         <v>46</v>
       </c>
@@ -2742,15 +2742,15 @@
       <c r="M36" s="17">
         <v>60</v>
       </c>
-      <c r="N36" s="27"/>
-      <c r="O36" s="29" t="s">
+      <c r="N36" s="37"/>
+      <c r="O36" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -2765,8 +2765,8 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="30"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="16">
         <v>491</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="M37" s="14">
         <v>93</v>
       </c>
-      <c r="N37" s="27"/>
+      <c r="N37" s="37"/>
       <c r="O37" s="3" t="s">
         <v>71</v>
       </c>
@@ -2801,16 +2801,16 @@
       <c r="T37" s="5"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="30"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="10">
         <v>332</v>
       </c>
@@ -2818,7 +2818,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="12"/>
-      <c r="N38" s="27"/>
+      <c r="N38" s="37"/>
       <c r="O38" s="3" t="s">
         <v>73</v>
       </c>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="27"/>
+      <c r="G39" s="37"/>
       <c r="H39" s="3" t="s">
         <v>75</v>
       </c>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="L39" s="15"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="27"/>
+      <c r="N39" s="37"/>
       <c r="O39" s="3" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="27"/>
+      <c r="G40" s="37"/>
       <c r="H40" s="3" t="s">
         <v>78</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="27"/>
+      <c r="N40" s="37"/>
       <c r="O40" s="3" t="s">
         <v>79</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="5"/>
-      <c r="G41" s="27"/>
+      <c r="G41" s="37"/>
       <c r="H41" s="3" t="s">
         <v>81</v>
       </c>
@@ -2940,15 +2940,15 @@
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="35" t="s">
+      <c r="N41" s="37"/>
+      <c r="O41" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -2965,8 +2965,8 @@
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="5"/>
-      <c r="G